--- a/data/processed/cml_usage.xlsx
+++ b/data/processed/cml_usage.xlsx
@@ -19,7 +19,7 @@
     <t>store_name</t>
   </si>
   <si>
-    <t>store_id</t>
+    <t>pc_number</t>
   </si>
   <si>
     <t>date</t>

--- a/data/processed/cml_usage.xlsx
+++ b/data/processed/cml_usage.xlsx
@@ -496,25 +496,25 @@
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>510</v>
+        <v>414</v>
       </c>
       <c r="F2">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.368627450980392</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>67.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>322</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -554,25 +554,25 @@
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F4">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.163541666666667</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>12.874</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>803</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,25 +583,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0614035087719298</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.01</v>
       </c>
       <c r="I5">
-        <v>474</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -621,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,25 +641,25 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.046875</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="I7">
-        <v>840</v>
+        <v>915</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,25 +670,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>756</v>
+        <v>456</v>
       </c>
       <c r="F8">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="G8">
-        <v>0.19973544973545</v>
+        <v>0.223684210526316</v>
       </c>
       <c r="H8">
-        <v>54.1625</v>
+        <v>36.945</v>
       </c>
       <c r="I8">
-        <v>605</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -699,25 +699,25 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>0.166666666666667</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H9">
-        <v>1.98</v>
+        <v>4.95</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -728,25 +728,25 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="F10">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0601851851851852</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>5.33</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1015</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,25 +757,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>696</v>
+        <v>516</v>
       </c>
       <c r="F11">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.109195402298851</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>28.13</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>620</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -786,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -795,16 +795,16 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -815,25 +815,25 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1440</v>
+        <v>1080</v>
       </c>
       <c r="F13">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.170138888888889</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>20.09</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1195</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,25 +844,25 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="F14">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G14">
-        <v>0.106796116504854</v>
+        <v>0.144557823129252</v>
       </c>
       <c r="H14">
-        <v>23.895</v>
+        <v>30.6875</v>
       </c>
       <c r="I14">
-        <v>552</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -873,25 +873,25 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>0.111111111111111</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H15">
-        <v>1.98</v>
+        <v>4.95</v>
       </c>
       <c r="I15">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -902,25 +902,25 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0458333333333333</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="I16">
-        <v>840</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -931,25 +931,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>414</v>
+        <v>720</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.1375</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>35.5125</v>
       </c>
       <c r="I17">
-        <v>414</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -960,25 +960,25 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -989,25 +989,25 @@
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.108333333333333</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.792</v>
       </c>
       <c r="I19">
-        <v>840</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1018,25 +1018,25 @@
         <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="F20">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="G20">
-        <v>0.292982456140351</v>
+        <v>0.357954545454545</v>
       </c>
       <c r="H20">
-        <v>60.3625</v>
+        <v>67.6875</v>
       </c>
       <c r="I20">
-        <v>403</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1047,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -1056,16 +1056,16 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>0.166666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H21">
-        <v>1.98</v>
+        <v>6.93</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1076,25 +1076,25 @@
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F22">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>22.14</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>810</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1105,25 +1105,25 @@
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="F23">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G23">
-        <v>0.264814814814815</v>
+        <v>0.42831541218638</v>
       </c>
       <c r="H23">
-        <v>51.4825</v>
+        <v>86.10250000000001</v>
       </c>
       <c r="I23">
-        <v>397</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1134,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1143,16 +1143,16 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>0.666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H24">
-        <v>7.92</v>
+        <v>2.97</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="G25">
-        <v>0.277777777777778</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H25">
-        <v>24.6</v>
+        <v>14.35</v>
       </c>
       <c r="I25">
-        <v>780</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1192,25 +1192,25 @@
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
       </c>
       <c r="E26">
-        <v>720</v>
+        <v>594</v>
       </c>
       <c r="F26">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="G26">
-        <v>0.152777777777778</v>
+        <v>0.126262626262626</v>
       </c>
       <c r="H26">
-        <v>39.625</v>
+        <v>27.2325</v>
       </c>
       <c r="I26">
-        <v>610</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1221,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1230,16 +1230,16 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>0.0833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H27">
-        <v>0.99</v>
+        <v>6.93</v>
       </c>
       <c r="I27">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1250,25 +1250,25 @@
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28">
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="F28">
-        <v>450</v>
+        <v>92</v>
       </c>
       <c r="G28">
-        <v>0.3125</v>
+        <v>0.0958333333333333</v>
       </c>
       <c r="H28">
-        <v>36.9</v>
+        <v>7.544</v>
       </c>
       <c r="I28">
-        <v>990</v>
+        <v>868</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1279,25 +1279,25 @@
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>714</v>
+        <v>504</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.0456349206349206</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>8.702500000000001</v>
       </c>
       <c r="I29">
-        <v>714</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1308,13 +1308,13 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1337,25 +1337,25 @@
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1320</v>
+        <v>1080</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.324074074074074</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>28.7</v>
       </c>
       <c r="I31">
-        <v>1320</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1366,25 +1366,25 @@
         <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
       </c>
       <c r="E32">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="F32">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G32">
-        <v>0.149717514124294</v>
+        <v>0.11624649859944</v>
       </c>
       <c r="H32">
-        <v>37.895</v>
+        <v>29.6725</v>
       </c>
       <c r="I32">
-        <v>602</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1395,25 +1395,25 @@
         <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
       <c r="E33">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1424,7 +1424,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
@@ -1433,16 +1433,16 @@
         <v>1200</v>
       </c>
       <c r="F34">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.116666666666667</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>11.48</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1060</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1453,25 +1453,25 @@
         <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
       </c>
       <c r="E35">
-        <v>528</v>
+        <v>708</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.08757062146892659</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>22.165</v>
       </c>
       <c r="I35">
-        <v>528</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1482,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -1491,16 +1491,16 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I36">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1511,13 +1511,13 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>840</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1540,25 +1540,25 @@
         <v>18</v>
       </c>
       <c r="C38" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38">
-        <v>553</v>
+        <v>474</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G38">
-        <v>0.0235081374321881</v>
+        <v>0.0337552742616034</v>
       </c>
       <c r="H38">
-        <v>4.7075</v>
+        <v>5.72</v>
       </c>
       <c r="I38">
-        <v>540</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1569,7 +1569,7 @@
         <v>18</v>
       </c>
       <c r="C39" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -1578,16 +1578,16 @@
         <v>12</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I39">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1598,7 +1598,7 @@
         <v>18</v>
       </c>
       <c r="C40" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -1627,25 +1627,25 @@
         <v>18</v>
       </c>
       <c r="C41" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
       </c>
       <c r="E41">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>0.0896057347670251</v>
+        <v>0.0193798449612403</v>
       </c>
       <c r="H41">
-        <v>17.875</v>
+        <v>3.575</v>
       </c>
       <c r="I41">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1656,25 +1656,25 @@
         <v>18</v>
       </c>
       <c r="C42" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H42">
-        <v>2.97</v>
+        <v>0.99</v>
       </c>
       <c r="I42">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1685,13 +1685,13 @@
         <v>18</v>
       </c>
       <c r="C43" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
       </c>
       <c r="E43">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1200</v>
+        <v>840</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1714,25 +1714,25 @@
         <v>18</v>
       </c>
       <c r="C44" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44">
-        <v>750</v>
+        <v>552</v>
       </c>
       <c r="F44">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="G44">
-        <v>0.181333333333333</v>
+        <v>0.0978260869565217</v>
       </c>
       <c r="H44">
-        <v>48.62</v>
+        <v>19.545</v>
       </c>
       <c r="I44">
-        <v>614</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1743,25 +1743,25 @@
         <v>18</v>
       </c>
       <c r="C45" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
       <c r="E45">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0.111111111111111</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H45">
-        <v>1.98</v>
+        <v>0.99</v>
       </c>
       <c r="I45">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1772,25 +1772,25 @@
         <v>18</v>
       </c>
       <c r="C46" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46">
-        <v>1320</v>
+        <v>840</v>
       </c>
       <c r="F46">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G46">
-        <v>0.150757575757576</v>
+        <v>0.197619047619048</v>
       </c>
       <c r="H46">
-        <v>16.318</v>
+        <v>13.612</v>
       </c>
       <c r="I46">
-        <v>1121</v>
+        <v>674</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1801,25 +1801,25 @@
         <v>18</v>
       </c>
       <c r="C47" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="E47">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="F47">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G47">
-        <v>0.0275080906148867</v>
+        <v>0.0652920962199313</v>
       </c>
       <c r="H47">
-        <v>6.0775</v>
+        <v>13.705</v>
       </c>
       <c r="I47">
-        <v>601</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1830,7 +1830,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -1839,16 +1839,16 @@
         <v>18</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>0.111111111111111</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H48">
-        <v>1.98</v>
+        <v>3.96</v>
       </c>
       <c r="I48">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1859,25 +1859,25 @@
         <v>18</v>
       </c>
       <c r="C49" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
       </c>
       <c r="E49">
-        <v>1560</v>
+        <v>840</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.0440476190476191</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3.034</v>
       </c>
       <c r="I49">
-        <v>1560</v>
+        <v>803</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1888,25 +1888,25 @@
         <v>18</v>
       </c>
       <c r="C50" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50">
-        <v>966</v>
+        <v>762</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G50">
-        <v>0.0010351966873706</v>
+        <v>0.0275590551181102</v>
       </c>
       <c r="H50">
-        <v>0.3575</v>
+        <v>7.6275</v>
       </c>
       <c r="I50">
-        <v>965</v>
+        <v>741</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1917,13 +1917,13 @@
         <v>18</v>
       </c>
       <c r="C51" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1946,25 +1946,25 @@
         <v>18</v>
       </c>
       <c r="C52" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
       </c>
       <c r="E52">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.0266666666666667</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2.624</v>
       </c>
       <c r="I52">
-        <v>960</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1975,25 +1975,25 @@
         <v>18</v>
       </c>
       <c r="C53" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
       </c>
       <c r="E53">
-        <v>474</v>
+        <v>756</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G53">
-        <v>0.0337552742616034</v>
+        <v>0.06613756613756611</v>
       </c>
       <c r="H53">
-        <v>5.72</v>
+        <v>18.295</v>
       </c>
       <c r="I53">
-        <v>458</v>
+        <v>706</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2004,25 +2004,25 @@
         <v>18</v>
       </c>
       <c r="C54" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
       </c>
       <c r="E54">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0.416666666666667</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H54">
-        <v>4.95</v>
+        <v>0.99</v>
       </c>
       <c r="I54">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2033,25 +2033,25 @@
         <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D55" t="s">
         <v>25</v>
       </c>
       <c r="E55">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="I55">
-        <v>840</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2062,25 +2062,25 @@
         <v>19</v>
       </c>
       <c r="C56" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
       </c>
       <c r="E56">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F56">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G56">
-        <v>0.154761904761905</v>
+        <v>0.053921568627451</v>
       </c>
       <c r="H56">
-        <v>23.4775</v>
+        <v>7.865</v>
       </c>
       <c r="I56">
-        <v>355</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2091,25 +2091,25 @@
         <v>19</v>
       </c>
       <c r="C57" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
       </c>
       <c r="E57">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>0.333333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H57">
-        <v>5.94</v>
+        <v>4.95</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2120,7 +2120,7 @@
         <v>19</v>
       </c>
       <c r="C58" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
@@ -2129,16 +2129,16 @@
         <v>840</v>
       </c>
       <c r="F58">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="G58">
-        <v>0.154761904761905</v>
+        <v>0.0452380952380952</v>
       </c>
       <c r="H58">
-        <v>10.66</v>
+        <v>3.116</v>
       </c>
       <c r="I58">
-        <v>710</v>
+        <v>802</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2149,25 +2149,25 @@
         <v>19</v>
       </c>
       <c r="C59" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
       </c>
       <c r="E59">
-        <v>498</v>
+        <v>372</v>
       </c>
       <c r="F59">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.182730923694779</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>33.1325</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>407</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2178,25 +2178,25 @@
         <v>19</v>
       </c>
       <c r="C60" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.277777777777778</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2207,25 +2207,25 @@
         <v>19</v>
       </c>
       <c r="C61" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
       </c>
       <c r="E61">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F61">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="G61">
-        <v>0.0821428571428571</v>
+        <v>0.29375</v>
       </c>
       <c r="H61">
-        <v>5.658</v>
+        <v>23.124</v>
       </c>
       <c r="I61">
-        <v>771</v>
+        <v>678</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2236,13 +2236,13 @@
         <v>19</v>
       </c>
       <c r="C62" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
       </c>
       <c r="E62">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>522</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2265,7 +2265,7 @@
         <v>19</v>
       </c>
       <c r="C63" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -2274,16 +2274,16 @@
         <v>18</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G63">
-        <v>0.5</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H63">
-        <v>8.91</v>
+        <v>6.93</v>
       </c>
       <c r="I63">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2294,25 +2294,25 @@
         <v>19</v>
       </c>
       <c r="C64" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
       </c>
       <c r="E64">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F64">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="G64">
-        <v>0.152083333333333</v>
+        <v>0.080952380952381</v>
       </c>
       <c r="H64">
-        <v>11.972</v>
+        <v>5.576</v>
       </c>
       <c r="I64">
-        <v>814</v>
+        <v>772</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2323,25 +2323,25 @@
         <v>19</v>
       </c>
       <c r="C65" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
       </c>
       <c r="E65">
-        <v>570</v>
+        <v>486</v>
       </c>
       <c r="F65">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G65">
-        <v>0.043859649122807</v>
+        <v>0.1440329218107</v>
       </c>
       <c r="H65">
-        <v>8.9975</v>
+        <v>25.205</v>
       </c>
       <c r="I65">
-        <v>545</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2352,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="C66" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -2361,16 +2361,16 @@
         <v>18</v>
       </c>
       <c r="F66">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>0.611111111111111</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H66">
-        <v>10.89</v>
+        <v>1.98</v>
       </c>
       <c r="I66">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2381,25 +2381,25 @@
         <v>19</v>
       </c>
       <c r="C67" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
       </c>
       <c r="E67">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F67">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="G67">
-        <v>0.08125</v>
+        <v>0.263095238095238</v>
       </c>
       <c r="H67">
-        <v>6.396</v>
+        <v>18.122</v>
       </c>
       <c r="I67">
-        <v>882</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2410,25 +2410,25 @@
         <v>19</v>
       </c>
       <c r="C68" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
       </c>
       <c r="E68">
-        <v>618</v>
+        <v>534</v>
       </c>
       <c r="F68">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="G68">
-        <v>0.153721682847896</v>
+        <v>0.0636704119850187</v>
       </c>
       <c r="H68">
-        <v>34.0225</v>
+        <v>12.635</v>
       </c>
       <c r="I68">
-        <v>523</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="C69" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -2448,16 +2448,16 @@
         <v>18</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.444444444444444</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2468,7 +2468,7 @@
         <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
@@ -2497,25 +2497,25 @@
         <v>19</v>
       </c>
       <c r="C71" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
       <c r="E71">
-        <v>408</v>
+        <v>534</v>
       </c>
       <c r="F71">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="G71">
-        <v>0.053921568627451</v>
+        <v>0.202247191011236</v>
       </c>
       <c r="H71">
-        <v>7.865</v>
+        <v>39.51</v>
       </c>
       <c r="I71">
-        <v>386</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2526,25 +2526,25 @@
         <v>19</v>
       </c>
       <c r="C72" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2555,25 +2555,25 @@
         <v>19</v>
       </c>
       <c r="C73" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D73" t="s">
         <v>25</v>
       </c>
       <c r="E73">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F73">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G73">
-        <v>0.0452380952380952</v>
+        <v>0.0302083333333333</v>
       </c>
       <c r="H73">
-        <v>3.116</v>
+        <v>2.378</v>
       </c>
       <c r="I73">
-        <v>802</v>
+        <v>931</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2584,25 +2584,25 @@
         <v>20</v>
       </c>
       <c r="C74" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
       </c>
       <c r="E74">
-        <v>498</v>
+        <v>402</v>
       </c>
       <c r="F74">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G74">
-        <v>0.136546184738956</v>
+        <v>0.17910447761194</v>
       </c>
       <c r="H74">
-        <v>24.31</v>
+        <v>25.74</v>
       </c>
       <c r="I74">
-        <v>430</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2613,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="C75" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -2622,16 +2622,16 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I75">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2642,25 +2642,25 @@
         <v>20</v>
       </c>
       <c r="C76" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D76" t="s">
         <v>25</v>
       </c>
       <c r="E76">
-        <v>840</v>
+        <v>480</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I76">
-        <v>840</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2671,25 +2671,25 @@
         <v>20</v>
       </c>
       <c r="C77" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
       </c>
       <c r="E77">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="F77">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G77">
-        <v>0.208333333333333</v>
+        <v>0.206572769953052</v>
       </c>
       <c r="H77">
-        <v>35.75</v>
+        <v>31.46</v>
       </c>
       <c r="I77">
-        <v>380</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2700,7 +2700,7 @@
         <v>20</v>
       </c>
       <c r="C78" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -2709,16 +2709,16 @@
         <v>12</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G78">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="H78">
-        <v>7.92</v>
+        <v>8.91</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2729,25 +2729,25 @@
         <v>20</v>
       </c>
       <c r="C79" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
       </c>
       <c r="E79">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="F79">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="G79">
-        <v>0.327380952380952</v>
+        <v>0.125</v>
       </c>
       <c r="H79">
-        <v>22.55</v>
+        <v>6.15</v>
       </c>
       <c r="I79">
-        <v>565</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2758,25 +2758,25 @@
         <v>20</v>
       </c>
       <c r="C80" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
       </c>
       <c r="E80">
-        <v>582</v>
+        <v>438</v>
       </c>
       <c r="F80">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="G80">
-        <v>0.276632302405498</v>
+        <v>0.267123287671233</v>
       </c>
       <c r="H80">
-        <v>57.5575</v>
+        <v>41.8275</v>
       </c>
       <c r="I80">
-        <v>421</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2787,25 +2787,25 @@
         <v>20</v>
       </c>
       <c r="C81" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
       </c>
       <c r="E81">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81">
         <v>0.166666666666667</v>
       </c>
       <c r="H81">
-        <v>2.97</v>
+        <v>1.98</v>
       </c>
       <c r="I81">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2816,25 +2816,25 @@
         <v>20</v>
       </c>
       <c r="C82" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D82" t="s">
         <v>25</v>
       </c>
       <c r="E82">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F82">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="G82">
-        <v>0.170833333333333</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="H82">
-        <v>13.448</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I82">
-        <v>796</v>
+        <v>740</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2845,25 +2845,25 @@
         <v>20</v>
       </c>
       <c r="C83" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
       </c>
       <c r="E83">
-        <v>600</v>
+        <v>492</v>
       </c>
       <c r="F83">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G83">
-        <v>0.09666666666666671</v>
+        <v>0.103658536585366</v>
       </c>
       <c r="H83">
-        <v>20.735</v>
+        <v>18.2325</v>
       </c>
       <c r="I83">
-        <v>542</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2874,25 +2874,25 @@
         <v>20</v>
       </c>
       <c r="C84" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
       </c>
       <c r="E84">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F84">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>0.777777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H84">
-        <v>13.86</v>
+        <v>1.98</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2903,25 +2903,25 @@
         <v>20</v>
       </c>
       <c r="C85" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D85" t="s">
         <v>25</v>
       </c>
       <c r="E85">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.252380952380952</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>17.384</v>
       </c>
       <c r="I85">
-        <v>720</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2932,25 +2932,25 @@
         <v>20</v>
       </c>
       <c r="C86" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
       </c>
       <c r="E86">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="F86">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="G86">
-        <v>0.0746527777777778</v>
+        <v>0.162962962962963</v>
       </c>
       <c r="H86">
-        <v>15.4325</v>
+        <v>31.82</v>
       </c>
       <c r="I86">
-        <v>533</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2961,25 +2961,25 @@
         <v>20</v>
       </c>
       <c r="C87" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
       <c r="E87">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G87">
-        <v>0.375</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H87">
-        <v>8.91</v>
+        <v>9.9</v>
       </c>
       <c r="I87">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2990,7 +2990,7 @@
         <v>20</v>
       </c>
       <c r="C88" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
@@ -2999,16 +2999,16 @@
         <v>960</v>
       </c>
       <c r="F88">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="G88">
-        <v>0.229166666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H88">
-        <v>18.04</v>
+        <v>1.64</v>
       </c>
       <c r="I88">
-        <v>740</v>
+        <v>940</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3019,25 +3019,25 @@
         <v>20</v>
       </c>
       <c r="C89" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
       </c>
       <c r="E89">
-        <v>402</v>
+        <v>594</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.0488215488215488</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>10.3675</v>
       </c>
       <c r="I89">
-        <v>402</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3048,25 +3048,25 @@
         <v>20</v>
       </c>
       <c r="C90" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
       </c>
       <c r="E90">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3077,25 +3077,25 @@
         <v>20</v>
       </c>
       <c r="C91" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D91" t="s">
         <v>25</v>
       </c>
       <c r="E91">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>0.0231481481481481</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I91">
-        <v>480</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3106,25 +3106,25 @@
         <v>21</v>
       </c>
       <c r="C92" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
       </c>
       <c r="E92">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.243421052631579</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>39.6825</v>
       </c>
       <c r="I92">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3135,7 +3135,7 @@
         <v>21</v>
       </c>
       <c r="C93" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -3144,16 +3144,16 @@
         <v>12</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>8.91</v>
       </c>
       <c r="I93">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3164,25 +3164,25 @@
         <v>21</v>
       </c>
       <c r="C94" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
       </c>
       <c r="E94">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F94">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G94">
-        <v>0.0316666666666667</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="H94">
-        <v>1.558</v>
+        <v>3.69</v>
       </c>
       <c r="I94">
-        <v>581</v>
+        <v>795</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3193,25 +3193,25 @@
         <v>21</v>
       </c>
       <c r="C95" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
       </c>
       <c r="E95">
-        <v>426</v>
+        <v>336</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G95">
-        <v>0.009389671361502349</v>
+        <v>0.133928571428571</v>
       </c>
       <c r="H95">
-        <v>1.43</v>
+        <v>16.0875</v>
       </c>
       <c r="I95">
-        <v>422</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3222,7 +3222,7 @@
         <v>21</v>
       </c>
       <c r="C96" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -3231,16 +3231,16 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3251,7 +3251,7 @@
         <v>21</v>
       </c>
       <c r="C97" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D97" t="s">
         <v>25</v>
@@ -3260,16 +3260,16 @@
         <v>840</v>
       </c>
       <c r="F97">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G97">
-        <v>0.0845238095238095</v>
+        <v>0.101190476190476</v>
       </c>
       <c r="H97">
-        <v>5.822</v>
+        <v>6.97</v>
       </c>
       <c r="I97">
-        <v>769</v>
+        <v>755</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3280,25 +3280,25 @@
         <v>21</v>
       </c>
       <c r="C98" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
       </c>
       <c r="E98">
-        <v>510</v>
+        <v>408</v>
       </c>
       <c r="F98">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="G98">
-        <v>0.407843137254902</v>
+        <v>0.301470588235294</v>
       </c>
       <c r="H98">
-        <v>74.36</v>
+        <v>43.9725</v>
       </c>
       <c r="I98">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3309,7 +3309,7 @@
         <v>21</v>
       </c>
       <c r="C99" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -3318,16 +3318,16 @@
         <v>12</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>0.583333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H99">
-        <v>6.93</v>
+        <v>2.97</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3338,25 +3338,25 @@
         <v>21</v>
       </c>
       <c r="C100" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D100" t="s">
         <v>25</v>
       </c>
       <c r="E100">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="F100">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="G100">
-        <v>0.08749999999999999</v>
+        <v>0.0375</v>
       </c>
       <c r="H100">
-        <v>6.888</v>
+        <v>2.214</v>
       </c>
       <c r="I100">
-        <v>876</v>
+        <v>693</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3367,25 +3367,25 @@
         <v>21</v>
       </c>
       <c r="C101" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
       </c>
       <c r="E101">
-        <v>528</v>
+        <v>408</v>
       </c>
       <c r="F101">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="G101">
-        <v>0.104166666666667</v>
+        <v>0.343137254901961</v>
       </c>
       <c r="H101">
-        <v>19.6625</v>
+        <v>50.05</v>
       </c>
       <c r="I101">
-        <v>473</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3396,25 +3396,25 @@
         <v>21</v>
       </c>
       <c r="C102" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
       </c>
       <c r="E102">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I102">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3425,25 +3425,25 @@
         <v>21</v>
       </c>
       <c r="C103" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D103" t="s">
         <v>25</v>
       </c>
       <c r="E103">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F103">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G103">
-        <v>0.105208333333333</v>
+        <v>0.0321428571428571</v>
       </c>
       <c r="H103">
-        <v>8.282</v>
+        <v>2.214</v>
       </c>
       <c r="I103">
-        <v>859</v>
+        <v>813</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3454,25 +3454,25 @@
         <v>21</v>
       </c>
       <c r="C104" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
       </c>
       <c r="E104">
-        <v>576</v>
+        <v>414</v>
       </c>
       <c r="F104">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="G104">
-        <v>0.274305555555556</v>
+        <v>0.306763285024155</v>
       </c>
       <c r="H104">
-        <v>56.485</v>
+        <v>45.4025</v>
       </c>
       <c r="I104">
-        <v>418</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3483,7 +3483,7 @@
         <v>21</v>
       </c>
       <c r="C105" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
@@ -3492,16 +3492,16 @@
         <v>12</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105">
-        <v>0.0833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H105">
-        <v>0.99</v>
+        <v>2.97</v>
       </c>
       <c r="I105">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3512,25 +3512,25 @@
         <v>21</v>
       </c>
       <c r="C106" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D106" t="s">
         <v>25</v>
       </c>
       <c r="E106">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F106">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G106">
-        <v>0.185185185185185</v>
+        <v>0.217857142857143</v>
       </c>
       <c r="H106">
-        <v>16.4</v>
+        <v>15.006</v>
       </c>
       <c r="I106">
-        <v>880</v>
+        <v>657</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3541,25 +3541,25 @@
         <v>21</v>
       </c>
       <c r="C107" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
       </c>
       <c r="E107">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="F107">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="G107">
-        <v>0.243421052631579</v>
+        <v>0.355392156862745</v>
       </c>
       <c r="H107">
-        <v>39.6825</v>
+        <v>51.8375</v>
       </c>
       <c r="I107">
-        <v>345</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3570,7 +3570,7 @@
         <v>21</v>
       </c>
       <c r="C108" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -3579,16 +3579,16 @@
         <v>12</v>
       </c>
       <c r="F108">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G108">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H108">
-        <v>8.91</v>
+        <v>7.92</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3599,7 +3599,7 @@
         <v>21</v>
       </c>
       <c r="C109" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D109" t="s">
         <v>25</v>
@@ -3608,16 +3608,16 @@
         <v>840</v>
       </c>
       <c r="F109">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="G109">
-        <v>0.0535714285714286</v>
+        <v>0.176190476190476</v>
       </c>
       <c r="H109">
-        <v>3.69</v>
+        <v>12.136</v>
       </c>
       <c r="I109">
-        <v>795</v>
+        <v>692</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3628,25 +3628,25 @@
         <v>22</v>
       </c>
       <c r="C110" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
       </c>
       <c r="E110">
-        <v>654</v>
+        <v>564</v>
       </c>
       <c r="F110">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="G110">
-        <v>0.0764525993883792</v>
+        <v>0.287234042553192</v>
       </c>
       <c r="H110">
-        <v>17.995</v>
+        <v>58.515</v>
       </c>
       <c r="I110">
-        <v>604</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3657,7 +3657,7 @@
         <v>22</v>
       </c>
       <c r="C111" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -3666,16 +3666,16 @@
         <v>18</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I111">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3686,7 +3686,7 @@
         <v>22</v>
       </c>
       <c r="C112" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D112" t="s">
         <v>25</v>
@@ -3695,16 +3695,16 @@
         <v>360</v>
       </c>
       <c r="F112">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G112">
-        <v>0.116666666666667</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="H112">
-        <v>3.444</v>
+        <v>2.624</v>
       </c>
       <c r="I112">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3715,13 +3715,13 @@
         <v>22</v>
       </c>
       <c r="C113" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
       </c>
       <c r="E113">
-        <v>906</v>
+        <v>606</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>906</v>
+        <v>606</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3744,7 +3744,7 @@
         <v>22</v>
       </c>
       <c r="C114" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -3753,16 +3753,16 @@
         <v>18</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3773,7 +3773,7 @@
         <v>22</v>
       </c>
       <c r="C115" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D115" t="s">
         <v>25</v>
@@ -3782,16 +3782,16 @@
         <v>360</v>
       </c>
       <c r="F115">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>0.122222222222222</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>3.608</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>316</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3802,25 +3802,25 @@
         <v>22</v>
       </c>
       <c r="C116" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
       </c>
       <c r="E116">
-        <v>888</v>
+        <v>684</v>
       </c>
       <c r="F116">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c r="G116">
-        <v>0.315315315315315</v>
+        <v>0.14766081871345</v>
       </c>
       <c r="H116">
-        <v>100.4</v>
+        <v>36.6475</v>
       </c>
       <c r="I116">
-        <v>608</v>
+        <v>583</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3831,7 +3831,7 @@
         <v>22</v>
       </c>
       <c r="C117" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -3860,7 +3860,7 @@
         <v>22</v>
       </c>
       <c r="C118" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D118" t="s">
         <v>25</v>
@@ -3869,16 +3869,16 @@
         <v>360</v>
       </c>
       <c r="F118">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="G118">
-        <v>0.330555555555556</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="H118">
-        <v>9.757999999999999</v>
+        <v>2.87</v>
       </c>
       <c r="I118">
-        <v>241</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3889,25 +3889,25 @@
         <v>22</v>
       </c>
       <c r="C119" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
       </c>
       <c r="E119">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="F119">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="G119">
-        <v>0.16</v>
+        <v>0.08201058201058201</v>
       </c>
       <c r="H119">
-        <v>42.9</v>
+        <v>22.705</v>
       </c>
       <c r="I119">
-        <v>630</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3918,7 +3918,7 @@
         <v>22</v>
       </c>
       <c r="C120" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -3947,7 +3947,7 @@
         <v>22</v>
       </c>
       <c r="C121" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D121" t="s">
         <v>25</v>
@@ -3956,16 +3956,16 @@
         <v>360</v>
       </c>
       <c r="F121">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G121">
-        <v>0.0361111111111111</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="H121">
-        <v>1.066</v>
+        <v>2.87</v>
       </c>
       <c r="I121">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3976,25 +3976,25 @@
         <v>22</v>
       </c>
       <c r="C122" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
       </c>
       <c r="E122">
-        <v>732</v>
+        <v>828</v>
       </c>
       <c r="F122">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G122">
-        <v>0.14344262295082</v>
+        <v>0.132850241545894</v>
       </c>
       <c r="H122">
-        <v>37.5375</v>
+        <v>39.625</v>
       </c>
       <c r="I122">
-        <v>627</v>
+        <v>718</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4005,7 +4005,7 @@
         <v>22</v>
       </c>
       <c r="C123" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -4014,16 +4014,16 @@
         <v>18</v>
       </c>
       <c r="F123">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4034,25 +4034,25 @@
         <v>22</v>
       </c>
       <c r="C124" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D124" t="s">
         <v>25</v>
       </c>
       <c r="E124">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="F124">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="G124">
-        <v>0.308333333333333</v>
+        <v>0.108333333333333</v>
       </c>
       <c r="H124">
-        <v>12.136</v>
+        <v>3.198</v>
       </c>
       <c r="I124">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4063,25 +4063,25 @@
         <v>22</v>
       </c>
       <c r="C125" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
       </c>
       <c r="E125">
-        <v>564</v>
+        <v>732</v>
       </c>
       <c r="F125">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="G125">
-        <v>0.287234042553192</v>
+        <v>0.0204918032786885</v>
       </c>
       <c r="H125">
-        <v>58.515</v>
+        <v>5.3625</v>
       </c>
       <c r="I125">
-        <v>402</v>
+        <v>717</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4092,7 +4092,7 @@
         <v>22</v>
       </c>
       <c r="C126" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
@@ -4101,16 +4101,16 @@
         <v>18</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4121,7 +4121,7 @@
         <v>22</v>
       </c>
       <c r="C127" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D127" t="s">
         <v>25</v>
@@ -4130,16 +4130,16 @@
         <v>360</v>
       </c>
       <c r="F127">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.08888888888888891</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>2.624</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>328</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/cml_usage.xlsx
+++ b/data/processed/cml_usage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="26">
   <si>
     <t>store_name</t>
   </si>
@@ -453,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,25 +496,25 @@
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>45796</v>
+        <v>45802</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>414</v>
+        <v>798</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.191729323308271</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>54.6975</v>
       </c>
       <c r="I2">
-        <v>414</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -525,25 +525,25 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>45796</v>
+        <v>45802</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,13 +554,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>45796</v>
+        <v>45802</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>840</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,25 +583,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45797</v>
+        <v>45803</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>456</v>
+        <v>630</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0614035087719298</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>10.01</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>428</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45797</v>
+        <v>45803</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -621,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,25 +641,25 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>45797</v>
+        <v>45803</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>960</v>
+        <v>1440</v>
       </c>
       <c r="F7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.046875</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>915</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,25 +670,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>45798</v>
+        <v>45804</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="F8">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="G8">
-        <v>0.223684210526316</v>
+        <v>0.284810126582278</v>
       </c>
       <c r="H8">
-        <v>36.945</v>
+        <v>49.1625</v>
       </c>
       <c r="I8">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -699,25 +699,25 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45798</v>
+        <v>45804</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>0.277777777777778</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H9">
-        <v>4.95</v>
+        <v>3.96</v>
       </c>
       <c r="I9">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -728,25 +728,25 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45798</v>
+        <v>45804</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.345238095238095</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>23.78</v>
       </c>
       <c r="I10">
-        <v>720</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,25 +757,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.238683127572016</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>41.95</v>
       </c>
       <c r="I11">
-        <v>516</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -786,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -815,25 +815,25 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.02</v>
       </c>
       <c r="I13">
-        <v>1080</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,25 +844,25 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45800</v>
+        <v>45806</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14">
-        <v>588</v>
+        <v>492</v>
       </c>
       <c r="F14">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>0.144557823129252</v>
+        <v>0.032520325203252</v>
       </c>
       <c r="H14">
-        <v>30.6875</v>
+        <v>5.72</v>
       </c>
       <c r="I14">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -873,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45800</v>
+        <v>45806</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -882,16 +882,16 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -902,25 +902,25 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45800</v>
+        <v>45806</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="F16">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G16">
-        <v>0.0458333333333333</v>
+        <v>0.0583333333333333</v>
       </c>
       <c r="H16">
-        <v>4.51</v>
+        <v>4.018</v>
       </c>
       <c r="I16">
-        <v>1145</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -931,25 +931,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>45801</v>
+        <v>45807</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>720</v>
+        <v>582</v>
       </c>
       <c r="F17">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="G17">
-        <v>0.1375</v>
+        <v>0.123711340206186</v>
       </c>
       <c r="H17">
-        <v>35.5125</v>
+        <v>25.74</v>
       </c>
       <c r="I17">
-        <v>621</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -960,25 +960,25 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>45801</v>
+        <v>45807</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -989,100 +989,100 @@
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45801</v>
+        <v>45807</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1440</v>
+        <v>1080</v>
       </c>
       <c r="F19">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="G19">
-        <v>0.108333333333333</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="H19">
-        <v>12.792</v>
+        <v>17.22</v>
       </c>
       <c r="I19">
-        <v>1284</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>45796</v>
+        <v>45808</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>528</v>
+        <v>714</v>
       </c>
       <c r="F20">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>0.357954545454545</v>
+        <v>0.0224089635854342</v>
       </c>
       <c r="H20">
-        <v>67.6875</v>
+        <v>6.08</v>
       </c>
       <c r="I20">
-        <v>339</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>45796</v>
+        <v>45808</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>0.583333333333333</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H21">
-        <v>6.93</v>
+        <v>3.96</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2">
-        <v>45796</v>
+        <v>45808</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>840</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1105,25 +1105,25 @@
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>45797</v>
+        <v>45802</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>558</v>
+        <v>714</v>
       </c>
       <c r="F23">
-        <v>239</v>
+        <v>55</v>
       </c>
       <c r="G23">
-        <v>0.42831541218638</v>
+        <v>0.07703081232493</v>
       </c>
       <c r="H23">
-        <v>86.10250000000001</v>
+        <v>19.6625</v>
       </c>
       <c r="I23">
-        <v>319</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1134,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>45797</v>
+        <v>45802</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1143,16 +1143,16 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>0.25</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H24">
-        <v>2.97</v>
+        <v>1.98</v>
       </c>
       <c r="I24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>45797</v>
+        <v>45802</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25">
-        <v>840</v>
+        <v>1320</v>
       </c>
       <c r="F25">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.208333333333333</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>14.35</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>665</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1192,25 +1192,25 @@
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>45798</v>
+        <v>45803</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
       </c>
       <c r="E26">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="F26">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="G26">
-        <v>0.126262626262626</v>
+        <v>0.216475095785441</v>
       </c>
       <c r="H26">
-        <v>27.2325</v>
+        <v>41.0575</v>
       </c>
       <c r="I26">
-        <v>519</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1221,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>45798</v>
+        <v>45803</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1230,16 +1230,16 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>0.583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H27">
-        <v>6.93</v>
+        <v>8.91</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>45798</v>
+        <v>45803</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -1259,16 +1259,16 @@
         <v>960</v>
       </c>
       <c r="F28">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="G28">
-        <v>0.0958333333333333</v>
+        <v>0.0364583333333333</v>
       </c>
       <c r="H28">
-        <v>7.544</v>
+        <v>2.87</v>
       </c>
       <c r="I28">
-        <v>868</v>
+        <v>925</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1279,25 +1279,25 @@
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="F29">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G29">
-        <v>0.0456349206349206</v>
+        <v>0.172222222222222</v>
       </c>
       <c r="H29">
-        <v>8.702500000000001</v>
+        <v>33.2475</v>
       </c>
       <c r="I29">
-        <v>481</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1308,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -1317,16 +1317,16 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1337,25 +1337,25 @@
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F31">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.324074074074074</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>28.7</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>730</v>
+        <v>840</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1366,25 +1366,25 @@
         <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>45800</v>
+        <v>45805</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
       </c>
       <c r="E32">
-        <v>714</v>
+        <v>534</v>
       </c>
       <c r="F32">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G32">
-        <v>0.11624649859944</v>
+        <v>0.129213483146067</v>
       </c>
       <c r="H32">
-        <v>29.6725</v>
+        <v>24.8475</v>
       </c>
       <c r="I32">
-        <v>631</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1395,7 +1395,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>45800</v>
+        <v>45805</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -1424,25 +1424,25 @@
         <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>45800</v>
+        <v>45805</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.0773809523809524</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="I34">
-        <v>1200</v>
+        <v>775</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1453,25 +1453,25 @@
         <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>45801</v>
+        <v>45806</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
       </c>
       <c r="E35">
-        <v>708</v>
+        <v>534</v>
       </c>
       <c r="F35">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="G35">
-        <v>0.08757062146892659</v>
+        <v>0.187265917602996</v>
       </c>
       <c r="H35">
-        <v>22.165</v>
+        <v>35.99</v>
       </c>
       <c r="I35">
-        <v>646</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1482,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>45801</v>
+        <v>45806</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -1491,16 +1491,16 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>0.166666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H36">
-        <v>1.98</v>
+        <v>3.96</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1511,65 +1511,65 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <v>45801</v>
+        <v>45806</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I37">
-        <v>1440</v>
+        <v>860</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2">
-        <v>45796</v>
+        <v>45807</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38">
-        <v>474</v>
+        <v>726</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="G38">
-        <v>0.0337552742616034</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="H38">
-        <v>5.72</v>
+        <v>58.9875</v>
       </c>
       <c r="I38">
-        <v>458</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2">
-        <v>45796</v>
+        <v>45807</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -1578,85 +1578,85 @@
         <v>12</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>45796</v>
+        <v>45807</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
       </c>
       <c r="E40">
-        <v>840</v>
+        <v>1320</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>55.76</v>
       </c>
       <c r="I40">
-        <v>840</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2">
-        <v>45797</v>
+        <v>45808</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
       </c>
       <c r="E41">
-        <v>516</v>
+        <v>726</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G41">
-        <v>0.0193798449612403</v>
+        <v>0.21900826446281</v>
       </c>
       <c r="H41">
-        <v>3.575</v>
+        <v>57.0825</v>
       </c>
       <c r="I41">
-        <v>506</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="2">
-        <v>45797</v>
+        <v>45808</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -1665,45 +1665,45 @@
         <v>12</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>0.0833333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H42">
-        <v>0.99</v>
+        <v>1.98</v>
       </c>
       <c r="I42">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>45797</v>
+        <v>45808</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
       </c>
       <c r="E43">
-        <v>840</v>
+        <v>1560</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.224358974358974</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>28.7</v>
       </c>
       <c r="I43">
-        <v>840</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1714,25 +1714,25 @@
         <v>18</v>
       </c>
       <c r="C44" s="2">
-        <v>45798</v>
+        <v>45802</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44">
-        <v>552</v>
+        <v>744</v>
       </c>
       <c r="F44">
         <v>54</v>
       </c>
       <c r="G44">
-        <v>0.0978260869565217</v>
+        <v>0.0725806451612903</v>
       </c>
       <c r="H44">
-        <v>19.545</v>
+        <v>19.665</v>
       </c>
       <c r="I44">
-        <v>498</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1743,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="2">
-        <v>45798</v>
+        <v>45802</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -1752,16 +1752,16 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>0.0833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H45">
-        <v>0.99</v>
+        <v>2.97</v>
       </c>
       <c r="I45">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1772,25 +1772,25 @@
         <v>18</v>
       </c>
       <c r="C46" s="2">
-        <v>45798</v>
+        <v>45802</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F46">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0.197619047619048</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>13.612</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>674</v>
+        <v>960</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1801,25 +1801,25 @@
         <v>18</v>
       </c>
       <c r="C47" s="2">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="E47">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="F47">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G47">
-        <v>0.0652920962199313</v>
+        <v>0.157801418439716</v>
       </c>
       <c r="H47">
-        <v>13.705</v>
+        <v>32.4775</v>
       </c>
       <c r="I47">
-        <v>544</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1830,25 +1830,25 @@
         <v>18</v>
       </c>
       <c r="C48" s="2">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>0.222222222222222</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H48">
-        <v>3.96</v>
+        <v>4.95</v>
       </c>
       <c r="I48">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1859,7 +1859,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="2">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -1868,16 +1868,16 @@
         <v>840</v>
       </c>
       <c r="F49">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.0440476190476191</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>3.034</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>803</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1888,25 +1888,25 @@
         <v>18</v>
       </c>
       <c r="C50" s="2">
-        <v>45800</v>
+        <v>45804</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50">
-        <v>762</v>
+        <v>516</v>
       </c>
       <c r="F50">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="G50">
-        <v>0.0275590551181102</v>
+        <v>0.203488372093023</v>
       </c>
       <c r="H50">
-        <v>7.6275</v>
+        <v>37.5375</v>
       </c>
       <c r="I50">
-        <v>741</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1917,25 +1917,25 @@
         <v>18</v>
       </c>
       <c r="C51" s="2">
-        <v>45800</v>
+        <v>45804</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I51">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1946,25 +1946,25 @@
         <v>18</v>
       </c>
       <c r="C52" s="2">
-        <v>45800</v>
+        <v>45804</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
       </c>
       <c r="E52">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="F52">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="G52">
-        <v>0.0266666666666667</v>
+        <v>0.155952380952381</v>
       </c>
       <c r="H52">
-        <v>2.624</v>
+        <v>10.742</v>
       </c>
       <c r="I52">
-        <v>1168</v>
+        <v>709</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1975,25 +1975,25 @@
         <v>18</v>
       </c>
       <c r="C53" s="2">
-        <v>45801</v>
+        <v>45805</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
       </c>
       <c r="E53">
-        <v>756</v>
+        <v>546</v>
       </c>
       <c r="F53">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G53">
-        <v>0.06613756613756611</v>
+        <v>0.0366300366300366</v>
       </c>
       <c r="H53">
-        <v>18.295</v>
+        <v>7.15</v>
       </c>
       <c r="I53">
-        <v>706</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2004,25 +2004,25 @@
         <v>18</v>
       </c>
       <c r="C54" s="2">
-        <v>45801</v>
+        <v>45805</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
       </c>
       <c r="E54">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G54">
-        <v>0.0555555555555556</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H54">
-        <v>0.99</v>
+        <v>6.93</v>
       </c>
       <c r="I54">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2033,65 +2033,65 @@
         <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>45801</v>
+        <v>45805</v>
       </c>
       <c r="D55" t="s">
         <v>25</v>
       </c>
       <c r="E55">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="F55">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1140</v>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2">
-        <v>45796</v>
+        <v>45806</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
       </c>
       <c r="E56">
-        <v>408</v>
+        <v>594</v>
       </c>
       <c r="F56">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.053921568627451</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>7.865</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>386</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" s="2">
-        <v>45796</v>
+        <v>45806</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -2100,27 +2100,27 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" s="2">
-        <v>45796</v>
+        <v>45806</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
@@ -2129,33 +2129,33 @@
         <v>840</v>
       </c>
       <c r="F58">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.0452380952380952</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>3.116</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>802</v>
+        <v>840</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="2">
-        <v>45797</v>
+        <v>45807</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
       </c>
       <c r="E59">
-        <v>372</v>
+        <v>762</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2167,24 +2167,24 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>372</v>
+        <v>762</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" s="2">
-        <v>45797</v>
+        <v>45807</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="E60">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2196,18 +2196,18 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" s="2">
-        <v>45797</v>
+        <v>45807</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
@@ -2216,33 +2216,33 @@
         <v>960</v>
       </c>
       <c r="F61">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>0.29375</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>23.124</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>678</v>
+        <v>960</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2">
-        <v>45798</v>
+        <v>45808</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
       </c>
       <c r="E62">
-        <v>444</v>
+        <v>810</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2254,18 +2254,18 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>444</v>
+        <v>810</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="2">
-        <v>45798</v>
+        <v>45808</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -2274,45 +2274,45 @@
         <v>18</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.388888888888889</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2">
-        <v>45798</v>
+        <v>45808</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
       </c>
       <c r="E64">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="F64">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.080952380952381</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>5.576</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>772</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2323,25 +2323,25 @@
         <v>19</v>
       </c>
       <c r="C65" s="2">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
       </c>
       <c r="E65">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="F65">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="G65">
-        <v>0.1440329218107</v>
+        <v>0.286516853932584</v>
       </c>
       <c r="H65">
-        <v>25.205</v>
+        <v>55.7175</v>
       </c>
       <c r="I65">
-        <v>416</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2352,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="C66" s="2">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -2361,16 +2361,16 @@
         <v>18</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G66">
-        <v>0.111111111111111</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="H66">
-        <v>1.98</v>
+        <v>10.89</v>
       </c>
       <c r="I66">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2381,25 +2381,25 @@
         <v>19</v>
       </c>
       <c r="C67" s="2">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
       </c>
       <c r="E67">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F67">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="G67">
-        <v>0.263095238095238</v>
+        <v>0.175</v>
       </c>
       <c r="H67">
-        <v>18.122</v>
+        <v>13.776</v>
       </c>
       <c r="I67">
-        <v>619</v>
+        <v>792</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2410,25 +2410,25 @@
         <v>19</v>
       </c>
       <c r="C68" s="2">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
       </c>
       <c r="E68">
-        <v>534</v>
+        <v>408</v>
       </c>
       <c r="F68">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G68">
-        <v>0.0636704119850187</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="H68">
-        <v>12.635</v>
+        <v>21.57</v>
       </c>
       <c r="I68">
-        <v>500</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2439,25 +2439,25 @@
         <v>19</v>
       </c>
       <c r="C69" s="2">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
       </c>
       <c r="E69">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I69">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2468,25 +2468,25 @@
         <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
       </c>
       <c r="E70">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>0.338095238095238</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>23.288</v>
       </c>
       <c r="I70">
-        <v>960</v>
+        <v>556</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2497,25 +2497,25 @@
         <v>19</v>
       </c>
       <c r="C71" s="2">
-        <v>45801</v>
+        <v>45804</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
       <c r="E71">
-        <v>534</v>
+        <v>390</v>
       </c>
       <c r="F71">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="G71">
-        <v>0.202247191011236</v>
+        <v>0.169230769230769</v>
       </c>
       <c r="H71">
-        <v>39.51</v>
+        <v>24.135</v>
       </c>
       <c r="I71">
-        <v>426</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2526,25 +2526,25 @@
         <v>19</v>
       </c>
       <c r="C72" s="2">
-        <v>45801</v>
+        <v>45804</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
       </c>
       <c r="E72">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I72">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2555,373 +2555,373 @@
         <v>19</v>
       </c>
       <c r="C73" s="2">
-        <v>45801</v>
+        <v>45804</v>
       </c>
       <c r="D73" t="s">
         <v>25</v>
       </c>
       <c r="E73">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F73">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="G73">
-        <v>0.0302083333333333</v>
+        <v>0.317857142857143</v>
       </c>
       <c r="H73">
-        <v>2.378</v>
+        <v>21.894</v>
       </c>
       <c r="I73">
-        <v>931</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" s="2">
-        <v>45796</v>
+        <v>45805</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
       </c>
       <c r="E74">
-        <v>402</v>
+        <v>486</v>
       </c>
       <c r="F74">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G74">
-        <v>0.17910447761194</v>
+        <v>0.127572016460905</v>
       </c>
       <c r="H74">
-        <v>25.74</v>
+        <v>22.165</v>
       </c>
       <c r="I74">
-        <v>330</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C75" s="2">
-        <v>45796</v>
+        <v>45805</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F75">
         <v>7</v>
       </c>
       <c r="G75">
-        <v>0.583333333333333</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H75">
         <v>6.93</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76" s="2">
-        <v>45796</v>
+        <v>45805</v>
       </c>
       <c r="D76" t="s">
         <v>25</v>
       </c>
       <c r="E76">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="F76">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="G76">
-        <v>0.15625</v>
+        <v>0.167857142857143</v>
       </c>
       <c r="H76">
-        <v>6.15</v>
+        <v>11.562</v>
       </c>
       <c r="I76">
-        <v>405</v>
+        <v>699</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C77" s="2">
-        <v>45797</v>
+        <v>45806</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
       </c>
       <c r="E77">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="F77">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G77">
-        <v>0.206572769953052</v>
+        <v>0.0905349794238683</v>
       </c>
       <c r="H77">
-        <v>31.46</v>
+        <v>15.97</v>
       </c>
       <c r="I77">
-        <v>338</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C78" s="2">
-        <v>45797</v>
+        <v>45806</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
       </c>
       <c r="E78">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>0.75</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H78">
-        <v>8.91</v>
+        <v>1.98</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C79" s="2">
-        <v>45797</v>
+        <v>45806</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
       </c>
       <c r="E79">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F79">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G79">
-        <v>0.125</v>
+        <v>0.113095238095238</v>
       </c>
       <c r="H79">
-        <v>6.15</v>
+        <v>7.79</v>
       </c>
       <c r="I79">
-        <v>525</v>
+        <v>745</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80" s="2">
-        <v>45798</v>
+        <v>45807</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
       </c>
       <c r="E80">
-        <v>438</v>
+        <v>558</v>
       </c>
       <c r="F80">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="G80">
-        <v>0.267123287671233</v>
+        <v>0.121863799283154</v>
       </c>
       <c r="H80">
-        <v>41.8275</v>
+        <v>24.37</v>
       </c>
       <c r="I80">
-        <v>321</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81" s="2">
-        <v>45798</v>
+        <v>45807</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
       </c>
       <c r="E81">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G81">
-        <v>0.166666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H81">
-        <v>1.98</v>
+        <v>11.88</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C82" s="2">
-        <v>45798</v>
+        <v>45807</v>
       </c>
       <c r="D82" t="s">
         <v>25</v>
       </c>
       <c r="E82">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F82">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G82">
-        <v>0.119047619047619</v>
+        <v>0.105208333333333</v>
       </c>
       <c r="H82">
-        <v>8.199999999999999</v>
+        <v>8.282</v>
       </c>
       <c r="I82">
-        <v>740</v>
+        <v>859</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C83" s="2">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
       </c>
       <c r="E83">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="F83">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G83">
-        <v>0.103658536585366</v>
+        <v>0.0448028673835125</v>
       </c>
       <c r="H83">
-        <v>18.2325</v>
+        <v>9.1775</v>
       </c>
       <c r="I83">
-        <v>441</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84" s="2">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
       </c>
       <c r="E84">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84">
         <v>0.166666666666667</v>
       </c>
       <c r="H84">
-        <v>1.98</v>
+        <v>2.97</v>
       </c>
       <c r="I84">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" s="2">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="D85" t="s">
         <v>25</v>
       </c>
       <c r="E85">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F85">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>0.252380952380952</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>17.384</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>628</v>
+        <v>960</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2932,25 +2932,25 @@
         <v>20</v>
       </c>
       <c r="C86" s="2">
-        <v>45800</v>
+        <v>45802</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
       </c>
       <c r="E86">
-        <v>540</v>
+        <v>624</v>
       </c>
       <c r="F86">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G86">
-        <v>0.162962962962963</v>
+        <v>0.155448717948718</v>
       </c>
       <c r="H86">
-        <v>31.82</v>
+        <v>34.6775</v>
       </c>
       <c r="I86">
-        <v>452</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2961,25 +2961,25 @@
         <v>20</v>
       </c>
       <c r="C87" s="2">
-        <v>45800</v>
+        <v>45802</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
       <c r="E87">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G87">
-        <v>0.555555555555556</v>
+        <v>0.25</v>
       </c>
       <c r="H87">
-        <v>9.9</v>
+        <v>5.94</v>
       </c>
       <c r="I87">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2990,25 +2990,25 @@
         <v>20</v>
       </c>
       <c r="C88" s="2">
-        <v>45800</v>
+        <v>45802</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
       </c>
       <c r="E88">
-        <v>960</v>
+        <v>1080</v>
       </c>
       <c r="F88">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="G88">
-        <v>0.0208333333333333</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="H88">
-        <v>1.64</v>
+        <v>17.22</v>
       </c>
       <c r="I88">
-        <v>940</v>
+        <v>870</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3019,25 +3019,25 @@
         <v>20</v>
       </c>
       <c r="C89" s="2">
-        <v>45801</v>
+        <v>45803</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
       </c>
       <c r="E89">
-        <v>594</v>
+        <v>432</v>
       </c>
       <c r="F89">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G89">
-        <v>0.0488215488215488</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="H89">
-        <v>10.3675</v>
+        <v>15.015</v>
       </c>
       <c r="I89">
-        <v>565</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3048,25 +3048,25 @@
         <v>20</v>
       </c>
       <c r="C90" s="2">
-        <v>45801</v>
+        <v>45803</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
       </c>
       <c r="E90">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H90">
+        <v>6.93</v>
+      </c>
+      <c r="I90">
         <v>5</v>
-      </c>
-      <c r="G90">
-        <v>0.277777777777778</v>
-      </c>
-      <c r="H90">
-        <v>4.95</v>
-      </c>
-      <c r="I90">
-        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3077,152 +3077,152 @@
         <v>20</v>
       </c>
       <c r="C91" s="2">
-        <v>45801</v>
+        <v>45803</v>
       </c>
       <c r="D91" t="s">
         <v>25</v>
       </c>
       <c r="E91">
-        <v>1080</v>
+        <v>480</v>
       </c>
       <c r="F91">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="G91">
-        <v>0.0231481481481481</v>
+        <v>0.25</v>
       </c>
       <c r="H91">
-        <v>2.05</v>
+        <v>9.84</v>
       </c>
       <c r="I91">
-        <v>1055</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C92" s="2">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
       </c>
       <c r="E92">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="F92">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.243421052631579</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>39.6825</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>345</v>
+        <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C93" s="2">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
       </c>
       <c r="E93">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F93">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C94" s="2">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
       </c>
       <c r="E94">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="F94">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>0.0535714285714286</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>795</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C95" s="2">
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
       </c>
       <c r="E95">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="F95">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="G95">
-        <v>0.133928571428571</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="H95">
-        <v>16.0875</v>
+        <v>57.2</v>
       </c>
       <c r="I95">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C96" s="2">
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -3231,27 +3231,27 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I96">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C97" s="2">
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="D97" t="s">
         <v>25</v>
@@ -3260,56 +3260,56 @@
         <v>840</v>
       </c>
       <c r="F97">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="G97">
-        <v>0.101190476190476</v>
+        <v>0.297619047619048</v>
       </c>
       <c r="H97">
-        <v>6.97</v>
+        <v>20.5</v>
       </c>
       <c r="I97">
-        <v>755</v>
+        <v>590</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C98" s="2">
-        <v>45798</v>
+        <v>45806</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
       </c>
       <c r="E98">
-        <v>408</v>
+        <v>534</v>
       </c>
       <c r="F98">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="G98">
-        <v>0.301470588235294</v>
+        <v>0.342696629213483</v>
       </c>
       <c r="H98">
-        <v>43.9725</v>
+        <v>65.9025</v>
       </c>
       <c r="I98">
-        <v>285</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C99" s="2">
-        <v>45798</v>
+        <v>45806</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -3318,85 +3318,85 @@
         <v>12</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H99">
-        <v>2.97</v>
+        <v>0.99</v>
       </c>
       <c r="I99">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" s="2">
-        <v>45798</v>
+        <v>45806</v>
       </c>
       <c r="D100" t="s">
         <v>25</v>
       </c>
       <c r="E100">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="F100">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G100">
-        <v>0.0375</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H100">
-        <v>2.214</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I100">
-        <v>693</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101" s="2">
-        <v>45799</v>
+        <v>45807</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
       </c>
       <c r="E101">
-        <v>408</v>
+        <v>618</v>
       </c>
       <c r="F101">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>0.343137254901961</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>50.05</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>268</v>
+        <v>618</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C102" s="2">
-        <v>45799</v>
+        <v>45807</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -3405,132 +3405,132 @@
         <v>18</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C103" s="2">
-        <v>45799</v>
+        <v>45807</v>
       </c>
       <c r="D103" t="s">
         <v>25</v>
       </c>
       <c r="E103">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F103">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0.0321428571428571</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>2.214</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>813</v>
+        <v>960</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104" s="2">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
       </c>
       <c r="E104">
-        <v>414</v>
+        <v>624</v>
       </c>
       <c r="F104">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="G104">
-        <v>0.306763285024155</v>
+        <v>0.0689102564102564</v>
       </c>
       <c r="H104">
-        <v>45.4025</v>
+        <v>15.3725</v>
       </c>
       <c r="I104">
-        <v>287</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" s="2">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" s="2">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="D106" t="s">
         <v>25</v>
       </c>
       <c r="E106">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="F106">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G106">
-        <v>0.217857142857143</v>
+        <v>0.173148148148148</v>
       </c>
       <c r="H106">
-        <v>15.006</v>
+        <v>15.334</v>
       </c>
       <c r="I106">
-        <v>657</v>
+        <v>893</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3541,25 +3541,25 @@
         <v>21</v>
       </c>
       <c r="C107" s="2">
-        <v>45801</v>
+        <v>45802</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
       </c>
       <c r="E107">
-        <v>408</v>
+        <v>552</v>
       </c>
       <c r="F107">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="G107">
-        <v>0.355392156862745</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="H107">
-        <v>51.8375</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="I107">
-        <v>263</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3570,7 +3570,7 @@
         <v>21</v>
       </c>
       <c r="C108" s="2">
-        <v>45801</v>
+        <v>45802</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -3579,16 +3579,16 @@
         <v>12</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>0.666666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H108">
-        <v>7.92</v>
+        <v>1.98</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3599,7 +3599,7 @@
         <v>21</v>
       </c>
       <c r="C109" s="2">
-        <v>45801</v>
+        <v>45802</v>
       </c>
       <c r="D109" t="s">
         <v>25</v>
@@ -3608,497 +3608,497 @@
         <v>840</v>
       </c>
       <c r="F109">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>0.176190476190476</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>12.136</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>692</v>
+        <v>840</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C110" s="2">
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
       </c>
       <c r="E110">
-        <v>564</v>
+        <v>360</v>
       </c>
       <c r="F110">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="G110">
-        <v>0.287234042553192</v>
+        <v>0.141666666666667</v>
       </c>
       <c r="H110">
-        <v>58.515</v>
+        <v>18.2325</v>
       </c>
       <c r="I110">
-        <v>402</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111" s="2">
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
       </c>
       <c r="E111">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G111">
-        <v>0.0555555555555556</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H111">
-        <v>0.99</v>
+        <v>7.92</v>
       </c>
       <c r="I111">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C112" s="2">
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="D112" t="s">
         <v>25</v>
       </c>
       <c r="E112">
-        <v>360</v>
+        <v>840</v>
       </c>
       <c r="F112">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="G112">
-        <v>0.08888888888888891</v>
+        <v>0.125</v>
       </c>
       <c r="H112">
-        <v>2.624</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I112">
-        <v>328</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" s="2">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
       </c>
       <c r="E113">
-        <v>606</v>
+        <v>360</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>0.358333333333333</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>46.1175</v>
       </c>
       <c r="I113">
-        <v>606</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C114" s="2">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
       </c>
       <c r="E114">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I114">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C115" s="2">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="D115" t="s">
         <v>25</v>
       </c>
       <c r="E115">
-        <v>360</v>
+        <v>840</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>0.155952380952381</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>10.742</v>
       </c>
       <c r="I115">
-        <v>360</v>
+        <v>709</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C116" s="2">
-        <v>45798</v>
+        <v>45805</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
       </c>
       <c r="E116">
-        <v>684</v>
+        <v>396</v>
       </c>
       <c r="F116">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G116">
-        <v>0.14766081871345</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H116">
-        <v>36.6475</v>
+        <v>31.46</v>
       </c>
       <c r="I116">
-        <v>583</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C117" s="2">
-        <v>45798</v>
+        <v>45805</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
       </c>
       <c r="E117">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I117">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C118" s="2">
-        <v>45798</v>
+        <v>45805</v>
       </c>
       <c r="D118" t="s">
         <v>25</v>
       </c>
       <c r="E118">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F118">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="G118">
-        <v>0.0972222222222222</v>
+        <v>0.393055555555556</v>
       </c>
       <c r="H118">
-        <v>2.87</v>
+        <v>23.206</v>
       </c>
       <c r="I118">
-        <v>325</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
       </c>
       <c r="E119">
-        <v>756</v>
+        <v>414</v>
       </c>
       <c r="F119">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G119">
-        <v>0.08201058201058201</v>
+        <v>0.120772946859903</v>
       </c>
       <c r="H119">
-        <v>22.705</v>
+        <v>17.875</v>
       </c>
       <c r="I119">
-        <v>694</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C120" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
       </c>
       <c r="E120">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="I120">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D121" t="s">
         <v>25</v>
       </c>
       <c r="E121">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F121">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>0.0972222222222222</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>325</v>
+        <v>720</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C122" s="2">
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
       </c>
       <c r="E122">
-        <v>828</v>
+        <v>396</v>
       </c>
       <c r="F122">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="G122">
-        <v>0.132850241545894</v>
+        <v>0.184343434343434</v>
       </c>
       <c r="H122">
-        <v>39.625</v>
+        <v>26.0975</v>
       </c>
       <c r="I122">
-        <v>718</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C123" s="2">
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
       </c>
       <c r="E123">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I123">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C124" s="2">
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="D124" t="s">
         <v>25</v>
       </c>
       <c r="E124">
-        <v>360</v>
+        <v>840</v>
       </c>
       <c r="F124">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="G124">
-        <v>0.108333333333333</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H124">
-        <v>3.198</v>
+        <v>9.84</v>
       </c>
       <c r="I124">
-        <v>321</v>
+        <v>720</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C125" s="2">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
       </c>
       <c r="E125">
-        <v>732</v>
+        <v>474</v>
       </c>
       <c r="F125">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G125">
-        <v>0.0204918032786885</v>
+        <v>0.151898734177215</v>
       </c>
       <c r="H125">
-        <v>5.3625</v>
+        <v>25.74</v>
       </c>
       <c r="I125">
-        <v>717</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C126" s="2">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
       </c>
       <c r="E126">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -4110,35 +4110,644 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45808</v>
+      </c>
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127">
+        <v>840</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
         <v>15</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>22</v>
       </c>
-      <c r="C127" s="2">
-        <v>45801</v>
-      </c>
-      <c r="D127" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127">
+      <c r="C128" s="2">
+        <v>45802</v>
+      </c>
+      <c r="D128" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128">
+        <v>780</v>
+      </c>
+      <c r="F128">
+        <v>190</v>
+      </c>
+      <c r="G128">
+        <v>0.243589743589744</v>
+      </c>
+      <c r="H128">
+        <v>68.645</v>
+      </c>
+      <c r="I128">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45802</v>
+      </c>
+      <c r="D129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129">
+        <v>18</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45802</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130">
+        <v>480</v>
+      </c>
+      <c r="F130">
+        <v>92</v>
+      </c>
+      <c r="G130">
+        <v>0.191666666666667</v>
+      </c>
+      <c r="H130">
+        <v>7.544</v>
+      </c>
+      <c r="I130">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45803</v>
+      </c>
+      <c r="D131" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131">
+        <v>570</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131">
+        <v>0.00701754385964912</v>
+      </c>
+      <c r="H131">
+        <v>1.49</v>
+      </c>
+      <c r="I131">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45803</v>
+      </c>
+      <c r="D132" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132">
+        <v>18</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45803</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133">
         <v>360</v>
       </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
+      <c r="F133">
+        <v>110</v>
+      </c>
+      <c r="G133">
+        <v>0.305555555555556</v>
+      </c>
+      <c r="H133">
+        <v>9.02</v>
+      </c>
+      <c r="I133">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45804</v>
+      </c>
+      <c r="D134" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134">
+        <v>606</v>
+      </c>
+      <c r="F134">
+        <v>101</v>
+      </c>
+      <c r="G134">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H134">
+        <v>36.2875</v>
+      </c>
+      <c r="I134">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45804</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135">
+        <v>18</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H135">
+        <v>2.97</v>
+      </c>
+      <c r="I135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45804</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136">
+        <v>360</v>
+      </c>
+      <c r="F136">
+        <v>60</v>
+      </c>
+      <c r="G136">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H136">
+        <v>4.92</v>
+      </c>
+      <c r="I136">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45805</v>
+      </c>
+      <c r="D137" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137">
+        <v>696</v>
+      </c>
+      <c r="F137">
+        <v>149</v>
+      </c>
+      <c r="G137">
+        <v>0.214080459770115</v>
+      </c>
+      <c r="H137">
+        <v>53.9275</v>
+      </c>
+      <c r="I137">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45805</v>
+      </c>
+      <c r="D138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45805</v>
+      </c>
+      <c r="D139" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139">
+        <v>360</v>
+      </c>
+      <c r="F139">
+        <v>35</v>
+      </c>
+      <c r="G139">
+        <v>0.0972222222222222</v>
+      </c>
+      <c r="H139">
+        <v>2.87</v>
+      </c>
+      <c r="I139">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D140" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140">
+        <v>810</v>
+      </c>
+      <c r="F140">
+        <v>144</v>
+      </c>
+      <c r="G140">
+        <v>0.177777777777778</v>
+      </c>
+      <c r="H140">
+        <v>52.44</v>
+      </c>
+      <c r="I140">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141">
+        <v>18</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D142" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142">
+        <v>360</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45807</v>
+      </c>
+      <c r="D143" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143">
+        <v>834</v>
+      </c>
+      <c r="F143">
+        <v>95</v>
+      </c>
+      <c r="G143">
+        <v>0.113908872901679</v>
+      </c>
+      <c r="H143">
+        <v>34.3225</v>
+      </c>
+      <c r="I143">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45807</v>
+      </c>
+      <c r="D144" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144">
+        <v>18</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45807</v>
+      </c>
+      <c r="D145" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145">
+        <v>360</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45808</v>
+      </c>
+      <c r="D146" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146">
+        <v>756</v>
+      </c>
+      <c r="F146">
+        <v>56</v>
+      </c>
+      <c r="G146">
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="H146">
+        <v>20.26</v>
+      </c>
+      <c r="I146">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45808</v>
+      </c>
+      <c r="D147" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147">
+        <v>18</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45808</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148">
+        <v>360</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
         <v>360</v>
       </c>
     </row>

--- a/data/processed/cml_usage.xlsx
+++ b/data/processed/cml_usage.xlsx
@@ -496,25 +496,25 @@
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>798</v>
+        <v>684</v>
       </c>
       <c r="F2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="G2">
-        <v>0.191729323308271</v>
+        <v>0.119883040935673</v>
       </c>
       <c r="H2">
-        <v>54.6975</v>
+        <v>29.315</v>
       </c>
       <c r="I2">
-        <v>645</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -525,25 +525,25 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>0.0555555555555556</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H3">
-        <v>0.99</v>
+        <v>7.92</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,13 +554,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1440</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,25 +583,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>630</v>
+        <v>474</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.137130801687764</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>23.5375</v>
       </c>
       <c r="I5">
-        <v>630</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -621,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,25 +641,25 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1440</v>
+        <v>840</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.217857142857143</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>15.006</v>
       </c>
       <c r="I7">
-        <v>1440</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,25 +670,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="F8">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>0.284810126582278</v>
+        <v>0.0923694779116466</v>
       </c>
       <c r="H8">
-        <v>49.1625</v>
+        <v>16.445</v>
       </c>
       <c r="I8">
-        <v>339</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -708,16 +708,16 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>0.333333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H9">
-        <v>3.96</v>
+        <v>4.95</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -737,16 +737,16 @@
         <v>840</v>
       </c>
       <c r="F10">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.345238095238095</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>23.78</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>550</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,25 +757,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="F11">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>0.238683127572016</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H11">
-        <v>41.95</v>
+        <v>2.86</v>
       </c>
       <c r="I11">
-        <v>370</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -786,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -795,16 +795,16 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -815,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -824,16 +824,16 @@
         <v>840</v>
       </c>
       <c r="F13">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G13">
-        <v>0.130952380952381</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H13">
-        <v>9.02</v>
+        <v>9.84</v>
       </c>
       <c r="I13">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,25 +844,25 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14">
-        <v>492</v>
+        <v>534</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.032520325203252</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>5.72</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>476</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -873,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -902,7 +902,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -911,16 +911,16 @@
         <v>840</v>
       </c>
       <c r="F16">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>4.018</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>791</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -931,25 +931,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>582</v>
+        <v>1698</v>
       </c>
       <c r="F17">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="G17">
-        <v>0.123711340206186</v>
+        <v>0.145465253239105</v>
       </c>
       <c r="H17">
-        <v>25.74</v>
+        <v>89.5025</v>
       </c>
       <c r="I17">
-        <v>510</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -960,22 +960,22 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I18">
         <v>12</v>
@@ -989,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -998,16 +998,16 @@
         <v>1080</v>
       </c>
       <c r="F19">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="G19">
-        <v>0.194444444444444</v>
+        <v>0.0925925925925926</v>
       </c>
       <c r="H19">
-        <v>17.22</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I19">
-        <v>870</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0224089635854342</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1047,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -1056,16 +1056,16 @@
         <v>18</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1076,13 +1076,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22">
-        <v>1440</v>
+        <v>1320</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1440</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1105,25 +1105,25 @@
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>714</v>
+        <v>684</v>
       </c>
       <c r="F23">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="G23">
-        <v>0.07703081232493</v>
+        <v>0.339181286549708</v>
       </c>
       <c r="H23">
-        <v>19.6625</v>
+        <v>82.94</v>
       </c>
       <c r="I23">
-        <v>659</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1134,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>22.14</v>
       </c>
       <c r="I25">
-        <v>1320</v>
+        <v>930</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1192,25 +1192,25 @@
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
       </c>
       <c r="E26">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="F26">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="G26">
-        <v>0.216475095785441</v>
+        <v>0.28673835125448</v>
       </c>
       <c r="H26">
-        <v>41.0575</v>
+        <v>57.74</v>
       </c>
       <c r="I26">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1221,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1230,16 +1230,16 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1250,25 +1250,25 @@
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F28">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G28">
-        <v>0.0364583333333333</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="H28">
-        <v>2.87</v>
+        <v>6.56</v>
       </c>
       <c r="I28">
-        <v>925</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1279,25 +1279,25 @@
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F29">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="G29">
-        <v>0.172222222222222</v>
+        <v>0.0326086956521739</v>
       </c>
       <c r="H29">
-        <v>33.2475</v>
+        <v>6.435</v>
       </c>
       <c r="I29">
-        <v>447</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1308,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -1317,16 +1317,16 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>0.25</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H30">
-        <v>2.97</v>
+        <v>1.98</v>
       </c>
       <c r="I30">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1337,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>840</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.030952380952381</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2.132</v>
       </c>
       <c r="I31">
-        <v>840</v>
+        <v>814</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1366,25 +1366,25 @@
         <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
       </c>
       <c r="E32">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F32">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G32">
-        <v>0.129213483146067</v>
+        <v>0.147509578544061</v>
       </c>
       <c r="H32">
-        <v>24.8475</v>
+        <v>27.5275</v>
       </c>
       <c r="I32">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1395,7 +1395,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -1424,25 +1424,25 @@
         <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F34">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="G34">
-        <v>0.0773809523809524</v>
+        <v>0.3125</v>
       </c>
       <c r="H34">
-        <v>5.33</v>
+        <v>24.6</v>
       </c>
       <c r="I34">
-        <v>775</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1453,25 +1453,25 @@
         <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
       </c>
       <c r="E35">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G35">
-        <v>0.187265917602996</v>
+        <v>0.24113475177305</v>
       </c>
       <c r="H35">
-        <v>35.99</v>
+        <v>48.8</v>
       </c>
       <c r="I35">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1482,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -1491,16 +1491,16 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G36">
-        <v>0.333333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H36">
-        <v>3.96</v>
+        <v>6.93</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1511,7 +1511,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -1520,16 +1520,16 @@
         <v>960</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="G37">
-        <v>0.104166666666667</v>
+        <v>0.317708333333333</v>
       </c>
       <c r="H37">
-        <v>8.199999999999999</v>
+        <v>25.01</v>
       </c>
       <c r="I37">
-        <v>860</v>
+        <v>655</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1540,25 +1540,25 @@
         <v>17</v>
       </c>
       <c r="C38" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38">
-        <v>726</v>
+        <v>1573</v>
       </c>
       <c r="F38">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="G38">
-        <v>0.227272727272727</v>
+        <v>0.0235219326128417</v>
       </c>
       <c r="H38">
-        <v>58.9875</v>
+        <v>13.2275</v>
       </c>
       <c r="I38">
-        <v>561</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1569,25 +1569,25 @@
         <v>17</v>
       </c>
       <c r="C39" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I39">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1598,7 +1598,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -1607,16 +1607,16 @@
         <v>1320</v>
       </c>
       <c r="F40">
-        <v>680</v>
+        <v>330</v>
       </c>
       <c r="G40">
-        <v>0.515151515151515</v>
+        <v>0.25</v>
       </c>
       <c r="H40">
-        <v>55.76</v>
+        <v>27.06</v>
       </c>
       <c r="I40">
-        <v>640</v>
+        <v>990</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1627,25 +1627,25 @@
         <v>17</v>
       </c>
       <c r="C41" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
       </c>
       <c r="E41">
-        <v>726</v>
+        <v>540</v>
       </c>
       <c r="F41">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="G41">
-        <v>0.21900826446281</v>
+        <v>0.12037037037037</v>
       </c>
       <c r="H41">
-        <v>57.0825</v>
+        <v>23.2375</v>
       </c>
       <c r="I41">
-        <v>567</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1656,25 +1656,25 @@
         <v>17</v>
       </c>
       <c r="C42" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1685,25 +1685,25 @@
         <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
       </c>
       <c r="E43">
-        <v>1560</v>
+        <v>1200</v>
       </c>
       <c r="F43">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="G43">
-        <v>0.224358974358974</v>
+        <v>0.025</v>
       </c>
       <c r="H43">
-        <v>28.7</v>
+        <v>2.46</v>
       </c>
       <c r="I43">
-        <v>1210</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1714,25 +1714,25 @@
         <v>18</v>
       </c>
       <c r="C44" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44">
-        <v>744</v>
+        <v>1056</v>
       </c>
       <c r="F44">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.0725806451612903</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>19.665</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>690</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1743,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -1752,16 +1752,16 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1772,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="C46" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -1801,25 +1801,25 @@
         <v>18</v>
       </c>
       <c r="C47" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="E47">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="F47">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.157801418439716</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>32.4775</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>475</v>
+        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1830,7 +1830,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -1839,16 +1839,16 @@
         <v>12</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1859,7 +1859,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -1888,25 +1888,25 @@
         <v>18</v>
       </c>
       <c r="C50" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50">
-        <v>516</v>
+        <v>600</v>
       </c>
       <c r="F50">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0.203488372093023</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>37.5375</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>411</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1917,7 +1917,7 @@
         <v>18</v>
       </c>
       <c r="C51" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -1926,16 +1926,16 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1946,7 +1946,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -1955,16 +1955,16 @@
         <v>840</v>
       </c>
       <c r="F52">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.155952380952381</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>10.742</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>709</v>
+        <v>840</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1975,25 +1975,25 @@
         <v>18</v>
       </c>
       <c r="C53" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
       </c>
       <c r="E53">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="F53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.0366300366300366</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>7.15</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>526</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2004,7 +2004,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -2013,16 +2013,16 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2033,7 +2033,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D55" t="s">
         <v>25</v>
@@ -2062,13 +2062,13 @@
         <v>18</v>
       </c>
       <c r="C56" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
       </c>
       <c r="E56">
-        <v>594</v>
+        <v>642</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>594</v>
+        <v>642</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2091,13 +2091,13 @@
         <v>18</v>
       </c>
       <c r="C57" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
       </c>
       <c r="E57">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2120,7 +2120,7 @@
         <v>18</v>
       </c>
       <c r="C58" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
@@ -2149,13 +2149,13 @@
         <v>18</v>
       </c>
       <c r="C59" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
       </c>
       <c r="E59">
-        <v>762</v>
+        <v>1644</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>762</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2178,13 +2178,13 @@
         <v>18</v>
       </c>
       <c r="C60" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2207,13 +2207,13 @@
         <v>18</v>
       </c>
       <c r="C61" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
       </c>
       <c r="E61">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>960</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2236,13 +2236,13 @@
         <v>18</v>
       </c>
       <c r="C62" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
       </c>
       <c r="E62">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>810</v>
+        <v>798</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2265,7 +2265,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="C64" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
@@ -2323,25 +2323,25 @@
         <v>19</v>
       </c>
       <c r="C65" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
       </c>
       <c r="E65">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="F65">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="G65">
-        <v>0.286516853932584</v>
+        <v>0.130824372759857</v>
       </c>
       <c r="H65">
-        <v>55.7175</v>
+        <v>26.9975</v>
       </c>
       <c r="I65">
-        <v>381</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2352,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="C66" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -2361,16 +2361,16 @@
         <v>18</v>
       </c>
       <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="H66">
+        <v>6.93</v>
+      </c>
+      <c r="I66">
         <v>11</v>
-      </c>
-      <c r="G66">
-        <v>0.611111111111111</v>
-      </c>
-      <c r="H66">
-        <v>10.89</v>
-      </c>
-      <c r="I66">
-        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2381,7 +2381,7 @@
         <v>19</v>
       </c>
       <c r="C67" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
@@ -2390,16 +2390,16 @@
         <v>960</v>
       </c>
       <c r="F67">
-        <v>168</v>
+        <v>404</v>
       </c>
       <c r="G67">
-        <v>0.175</v>
+        <v>0.420833333333333</v>
       </c>
       <c r="H67">
-        <v>13.776</v>
+        <v>33.128</v>
       </c>
       <c r="I67">
-        <v>792</v>
+        <v>556</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2410,7 +2410,7 @@
         <v>19</v>
       </c>
       <c r="C68" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -2419,16 +2419,16 @@
         <v>408</v>
       </c>
       <c r="F68">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="G68">
-        <v>0.147058823529412</v>
+        <v>0.284313725490196</v>
       </c>
       <c r="H68">
-        <v>21.57</v>
+        <v>41.83</v>
       </c>
       <c r="I68">
-        <v>348</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="C69" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -2448,16 +2448,16 @@
         <v>12</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G69">
-        <v>0.0833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H69">
-        <v>0.99</v>
+        <v>6.93</v>
       </c>
       <c r="I69">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2468,7 +2468,7 @@
         <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
@@ -2477,16 +2477,16 @@
         <v>840</v>
       </c>
       <c r="F70">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="G70">
-        <v>0.338095238095238</v>
+        <v>0.164285714285714</v>
       </c>
       <c r="H70">
-        <v>23.288</v>
+        <v>11.316</v>
       </c>
       <c r="I70">
-        <v>556</v>
+        <v>702</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2497,25 +2497,25 @@
         <v>19</v>
       </c>
       <c r="C71" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
       <c r="E71">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="F71">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G71">
-        <v>0.169230769230769</v>
+        <v>0.164383561643836</v>
       </c>
       <c r="H71">
-        <v>24.135</v>
+        <v>26.28</v>
       </c>
       <c r="I71">
-        <v>324</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2526,7 +2526,7 @@
         <v>19</v>
       </c>
       <c r="C72" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -2535,16 +2535,16 @@
         <v>12</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2555,25 +2555,25 @@
         <v>19</v>
       </c>
       <c r="C73" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D73" t="s">
         <v>25</v>
       </c>
       <c r="E73">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F73">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="G73">
-        <v>0.317857142857143</v>
+        <v>0.15</v>
       </c>
       <c r="H73">
-        <v>21.894</v>
+        <v>11.808</v>
       </c>
       <c r="I73">
-        <v>573</v>
+        <v>816</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2584,25 +2584,25 @@
         <v>19</v>
       </c>
       <c r="C74" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
       </c>
       <c r="E74">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="F74">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>0.127572016460905</v>
+        <v>0.023094688221709</v>
       </c>
       <c r="H74">
-        <v>22.165</v>
+        <v>3.755</v>
       </c>
       <c r="I74">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2613,7 +2613,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -2622,16 +2622,16 @@
         <v>18</v>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G75">
-        <v>0.388888888888889</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="H75">
-        <v>6.93</v>
+        <v>12.87</v>
       </c>
       <c r="I75">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2642,7 +2642,7 @@
         <v>19</v>
       </c>
       <c r="C76" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D76" t="s">
         <v>25</v>
@@ -2651,16 +2651,16 @@
         <v>840</v>
       </c>
       <c r="F76">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G76">
-        <v>0.167857142857143</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="H76">
-        <v>11.562</v>
+        <v>18.04</v>
       </c>
       <c r="I76">
-        <v>699</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2671,25 +2671,25 @@
         <v>19</v>
       </c>
       <c r="C77" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
       </c>
       <c r="E77">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="F77">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G77">
-        <v>0.0905349794238683</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="H77">
-        <v>15.97</v>
+        <v>17.5175</v>
       </c>
       <c r="I77">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2700,7 +2700,7 @@
         <v>19</v>
       </c>
       <c r="C78" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -2709,16 +2709,16 @@
         <v>18</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G78">
-        <v>0.111111111111111</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H78">
-        <v>1.98</v>
+        <v>9.9</v>
       </c>
       <c r="I78">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2729,25 +2729,25 @@
         <v>19</v>
       </c>
       <c r="C79" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
       </c>
       <c r="E79">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F79">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G79">
-        <v>0.113095238095238</v>
+        <v>0.07395833333333331</v>
       </c>
       <c r="H79">
-        <v>7.79</v>
+        <v>5.822</v>
       </c>
       <c r="I79">
-        <v>745</v>
+        <v>889</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2758,25 +2758,25 @@
         <v>19</v>
       </c>
       <c r="C80" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
       </c>
       <c r="E80">
-        <v>558</v>
+        <v>1278</v>
       </c>
       <c r="F80">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="G80">
-        <v>0.121863799283154</v>
+        <v>0.120500782472613</v>
       </c>
       <c r="H80">
-        <v>24.37</v>
+        <v>55.055</v>
       </c>
       <c r="I80">
-        <v>490</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2787,7 +2787,7 @@
         <v>19</v>
       </c>
       <c r="C81" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
@@ -2796,16 +2796,16 @@
         <v>18</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>11.88</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2816,25 +2816,25 @@
         <v>19</v>
       </c>
       <c r="C82" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D82" t="s">
         <v>25</v>
       </c>
       <c r="E82">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="F82">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.105208333333333</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>8.282</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>859</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2845,7 +2845,7 @@
         <v>19</v>
       </c>
       <c r="C83" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -2854,16 +2854,16 @@
         <v>558</v>
       </c>
       <c r="F83">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G83">
-        <v>0.0448028673835125</v>
+        <v>0.0734767025089606</v>
       </c>
       <c r="H83">
-        <v>9.1775</v>
+        <v>15.2575</v>
       </c>
       <c r="I83">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2874,7 +2874,7 @@
         <v>19</v>
       </c>
       <c r="C84" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
@@ -2903,7 +2903,7 @@
         <v>19</v>
       </c>
       <c r="C85" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D85" t="s">
         <v>25</v>
@@ -2912,16 +2912,16 @@
         <v>960</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.08958333333333331</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>7.052</v>
       </c>
       <c r="I85">
-        <v>960</v>
+        <v>874</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2932,25 +2932,25 @@
         <v>20</v>
       </c>
       <c r="C86" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
       </c>
       <c r="E86">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="F86">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G86">
-        <v>0.155448717948718</v>
+        <v>0.171296296296296</v>
       </c>
       <c r="H86">
-        <v>34.6775</v>
+        <v>39.6825</v>
       </c>
       <c r="I86">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2961,25 +2961,25 @@
         <v>20</v>
       </c>
       <c r="C87" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
       <c r="E87">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G87">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H87">
-        <v>5.94</v>
+        <v>8.91</v>
       </c>
       <c r="I87">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2990,25 +2990,25 @@
         <v>20</v>
       </c>
       <c r="C88" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
       </c>
       <c r="E88">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="F88">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="G88">
-        <v>0.194444444444444</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H88">
-        <v>17.22</v>
+        <v>13.12</v>
       </c>
       <c r="I88">
-        <v>870</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3019,25 +3019,25 @@
         <v>20</v>
       </c>
       <c r="C89" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
       </c>
       <c r="E89">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="F89">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="G89">
-        <v>0.0972222222222222</v>
+        <v>0.447368421052632</v>
       </c>
       <c r="H89">
-        <v>15.015</v>
+        <v>73.41</v>
       </c>
       <c r="I89">
-        <v>390</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3048,7 +3048,7 @@
         <v>20</v>
       </c>
       <c r="C90" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -3077,7 +3077,7 @@
         <v>20</v>
       </c>
       <c r="C91" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D91" t="s">
         <v>25</v>
@@ -3086,16 +3086,16 @@
         <v>480</v>
       </c>
       <c r="F91">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G91">
-        <v>0.25</v>
+        <v>0.21875</v>
       </c>
       <c r="H91">
-        <v>9.84</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I91">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3106,25 +3106,25 @@
         <v>20</v>
       </c>
       <c r="C92" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
       </c>
       <c r="E92">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.0231481481481481</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3.575</v>
       </c>
       <c r="I92">
-        <v>474</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3135,25 +3135,25 @@
         <v>20</v>
       </c>
       <c r="C93" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
       </c>
       <c r="E93">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I93">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3164,25 +3164,25 @@
         <v>20</v>
       </c>
       <c r="C94" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
       </c>
       <c r="E94">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.18452380952381</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>12.71</v>
       </c>
       <c r="I94">
-        <v>600</v>
+        <v>685</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3193,25 +3193,25 @@
         <v>20</v>
       </c>
       <c r="C95" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
       </c>
       <c r="E95">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F95">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="G95">
-        <v>0.350877192982456</v>
+        <v>0.149350649350649</v>
       </c>
       <c r="H95">
-        <v>57.2</v>
+        <v>24.6675</v>
       </c>
       <c r="I95">
-        <v>296</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3222,7 +3222,7 @@
         <v>20</v>
       </c>
       <c r="C96" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -3231,16 +3231,16 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96">
-        <v>0.166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H96">
-        <v>1.98</v>
+        <v>2.97</v>
       </c>
       <c r="I96">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3251,7 +3251,7 @@
         <v>20</v>
       </c>
       <c r="C97" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D97" t="s">
         <v>25</v>
@@ -3260,16 +3260,16 @@
         <v>840</v>
       </c>
       <c r="F97">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="G97">
-        <v>0.297619047619048</v>
+        <v>0.05</v>
       </c>
       <c r="H97">
-        <v>20.5</v>
+        <v>3.444</v>
       </c>
       <c r="I97">
-        <v>590</v>
+        <v>798</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3280,25 +3280,25 @@
         <v>20</v>
       </c>
       <c r="C98" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
       </c>
       <c r="E98">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="F98">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="G98">
-        <v>0.342696629213483</v>
+        <v>0.0160642570281124</v>
       </c>
       <c r="H98">
-        <v>65.9025</v>
+        <v>2.86</v>
       </c>
       <c r="I98">
-        <v>351</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3309,7 +3309,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -3318,16 +3318,16 @@
         <v>12</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>0.0833333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H99">
-        <v>0.99</v>
+        <v>1.98</v>
       </c>
       <c r="I99">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3338,25 +3338,25 @@
         <v>20</v>
       </c>
       <c r="C100" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D100" t="s">
         <v>25</v>
       </c>
       <c r="E100">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F100">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G100">
-        <v>0.166666666666667</v>
+        <v>0.0892857142857143</v>
       </c>
       <c r="H100">
-        <v>8.199999999999999</v>
+        <v>6.15</v>
       </c>
       <c r="I100">
-        <v>500</v>
+        <v>765</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3367,25 +3367,25 @@
         <v>20</v>
       </c>
       <c r="C101" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
       </c>
       <c r="E101">
-        <v>618</v>
+        <v>1134</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>0.08641975308641971</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>35.035</v>
       </c>
       <c r="I101">
-        <v>618</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3396,7 +3396,7 @@
         <v>20</v>
       </c>
       <c r="C102" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -3405,16 +3405,16 @@
         <v>18</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I102">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3425,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="C103" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D103" t="s">
         <v>25</v>
@@ -3434,16 +3434,16 @@
         <v>960</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>0.213541666666667</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>16.81</v>
       </c>
       <c r="I103">
-        <v>960</v>
+        <v>755</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3454,25 +3454,25 @@
         <v>20</v>
       </c>
       <c r="C104" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
       </c>
       <c r="E104">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="F104">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G104">
-        <v>0.0689102564102564</v>
+        <v>0.08843537414965991</v>
       </c>
       <c r="H104">
-        <v>15.3725</v>
+        <v>18.59</v>
       </c>
       <c r="I104">
-        <v>581</v>
+        <v>536</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3483,13 +3483,13 @@
         <v>20</v>
       </c>
       <c r="C105" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
       </c>
       <c r="E105">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3512,25 +3512,25 @@
         <v>20</v>
       </c>
       <c r="C106" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D106" t="s">
         <v>25</v>
       </c>
       <c r="E106">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F106">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="G106">
-        <v>0.173148148148148</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="H106">
-        <v>15.334</v>
+        <v>4.1</v>
       </c>
       <c r="I106">
-        <v>893</v>
+        <v>790</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3541,25 +3541,25 @@
         <v>21</v>
       </c>
       <c r="C107" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
       </c>
       <c r="E107">
-        <v>552</v>
+        <v>444</v>
       </c>
       <c r="F107">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="G107">
-        <v>0.355072463768116</v>
+        <v>0.0315315315315315</v>
       </c>
       <c r="H107">
-        <v>70.06999999999999</v>
+        <v>5.005</v>
       </c>
       <c r="I107">
-        <v>356</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3570,25 +3570,25 @@
         <v>21</v>
       </c>
       <c r="C108" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
       </c>
       <c r="E108">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G108">
-        <v>0.166666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H108">
-        <v>1.98</v>
+        <v>15.84</v>
       </c>
       <c r="I108">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3599,7 +3599,7 @@
         <v>21</v>
       </c>
       <c r="C109" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D109" t="s">
         <v>25</v>
@@ -3608,16 +3608,16 @@
         <v>840</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>0.00238095238095238</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>0.164</v>
       </c>
       <c r="I109">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3628,25 +3628,25 @@
         <v>21</v>
       </c>
       <c r="C110" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
       </c>
       <c r="E110">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F110">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>0.141666666666667</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>18.2325</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>309</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3657,7 +3657,7 @@
         <v>21</v>
       </c>
       <c r="C111" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -3686,25 +3686,25 @@
         <v>21</v>
       </c>
       <c r="C112" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D112" t="s">
         <v>25</v>
       </c>
       <c r="E112">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="F112">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G112">
-        <v>0.125</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H112">
-        <v>8.609999999999999</v>
+        <v>6.56</v>
       </c>
       <c r="I112">
-        <v>735</v>
+        <v>520</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3715,25 +3715,25 @@
         <v>21</v>
       </c>
       <c r="C113" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
       </c>
       <c r="E113">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F113">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="G113">
-        <v>0.358333333333333</v>
+        <v>0.087431693989071</v>
       </c>
       <c r="H113">
-        <v>46.1175</v>
+        <v>11.44</v>
       </c>
       <c r="I113">
-        <v>231</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3744,7 +3744,7 @@
         <v>21</v>
       </c>
       <c r="C114" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -3753,16 +3753,16 @@
         <v>12</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>0.583333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H114">
-        <v>6.93</v>
+        <v>1.98</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3773,25 +3773,25 @@
         <v>21</v>
       </c>
       <c r="C115" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D115" t="s">
         <v>25</v>
       </c>
       <c r="E115">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="F115">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="G115">
-        <v>0.155952380952381</v>
+        <v>0.09</v>
       </c>
       <c r="H115">
-        <v>10.742</v>
+        <v>4.428</v>
       </c>
       <c r="I115">
-        <v>709</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3802,25 +3802,25 @@
         <v>21</v>
       </c>
       <c r="C116" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
       </c>
       <c r="E116">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="F116">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>0.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>31.46</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3831,7 +3831,7 @@
         <v>21</v>
       </c>
       <c r="C117" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -3840,16 +3840,16 @@
         <v>12</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H117">
-        <v>1.98</v>
+        <v>0.99</v>
       </c>
       <c r="I117">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3860,25 +3860,25 @@
         <v>21</v>
       </c>
       <c r="C118" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D118" t="s">
         <v>25</v>
       </c>
       <c r="E118">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="F118">
-        <v>283</v>
+        <v>8</v>
       </c>
       <c r="G118">
-        <v>0.393055555555556</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="H118">
-        <v>23.206</v>
+        <v>0.656</v>
       </c>
       <c r="I118">
-        <v>437</v>
+        <v>952</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3889,25 +3889,25 @@
         <v>21</v>
       </c>
       <c r="C119" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
       </c>
       <c r="E119">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="F119">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G119">
-        <v>0.120772946859903</v>
+        <v>0.043010752688172</v>
       </c>
       <c r="H119">
-        <v>17.875</v>
+        <v>5.72</v>
       </c>
       <c r="I119">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3918,7 +3918,7 @@
         <v>21</v>
       </c>
       <c r="C120" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -3927,16 +3927,16 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G120">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H120">
-        <v>7.92</v>
+        <v>5.94</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3947,25 +3947,25 @@
         <v>21</v>
       </c>
       <c r="C121" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D121" t="s">
         <v>25</v>
       </c>
       <c r="E121">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="I121">
-        <v>720</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3976,25 +3976,25 @@
         <v>21</v>
       </c>
       <c r="C122" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
       </c>
       <c r="E122">
-        <v>396</v>
+        <v>864</v>
       </c>
       <c r="F122">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="G122">
-        <v>0.184343434343434</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="H122">
-        <v>26.0975</v>
+        <v>3.2175</v>
       </c>
       <c r="I122">
-        <v>323</v>
+        <v>855</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4005,7 +4005,7 @@
         <v>21</v>
       </c>
       <c r="C123" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -4014,16 +4014,16 @@
         <v>12</v>
       </c>
       <c r="F123">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G123">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H123">
-        <v>5.94</v>
+        <v>8.91</v>
       </c>
       <c r="I123">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4034,25 +4034,25 @@
         <v>21</v>
       </c>
       <c r="C124" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D124" t="s">
         <v>25</v>
       </c>
       <c r="E124">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="F124">
-        <v>120</v>
+        <v>530</v>
       </c>
       <c r="G124">
-        <v>0.142857142857143</v>
+        <v>0.368055555555556</v>
       </c>
       <c r="H124">
-        <v>9.84</v>
+        <v>43.46</v>
       </c>
       <c r="I124">
-        <v>720</v>
+        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4063,25 +4063,25 @@
         <v>21</v>
       </c>
       <c r="C125" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
       </c>
       <c r="E125">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F125">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G125">
-        <v>0.151898734177215</v>
+        <v>0.282894736842105</v>
       </c>
       <c r="H125">
-        <v>25.74</v>
+        <v>46.1175</v>
       </c>
       <c r="I125">
-        <v>402</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4092,7 +4092,7 @@
         <v>21</v>
       </c>
       <c r="C126" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
@@ -4101,16 +4101,16 @@
         <v>12</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="I126">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4121,25 +4121,25 @@
         <v>21</v>
       </c>
       <c r="C127" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D127" t="s">
         <v>25</v>
       </c>
       <c r="E127">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>0.130208333333333</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="I127">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4150,25 +4150,25 @@
         <v>22</v>
       </c>
       <c r="C128" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
       </c>
       <c r="E128">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="F128">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="G128">
-        <v>0.243589743589744</v>
+        <v>0.123655913978495</v>
       </c>
       <c r="H128">
-        <v>68.645</v>
+        <v>33.37</v>
       </c>
       <c r="I128">
-        <v>590</v>
+        <v>652</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4179,7 +4179,7 @@
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D129" t="s">
         <v>24</v>
@@ -4188,16 +4188,16 @@
         <v>18</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I129">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4208,25 +4208,25 @@
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D130" t="s">
         <v>25</v>
       </c>
       <c r="E130">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="F130">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.191666666666667</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>7.544</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>388</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4237,25 +4237,25 @@
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
       </c>
       <c r="E131">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="G131">
-        <v>0.00701754385964912</v>
+        <v>0.217687074829932</v>
       </c>
       <c r="H131">
-        <v>1.49</v>
+        <v>46.36</v>
       </c>
       <c r="I131">
-        <v>566</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4266,7 +4266,7 @@
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D132" t="s">
         <v>24</v>
@@ -4295,7 +4295,7 @@
         <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D133" t="s">
         <v>25</v>
@@ -4304,16 +4304,16 @@
         <v>360</v>
       </c>
       <c r="F133">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="G133">
-        <v>0.305555555555556</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H133">
-        <v>9.02</v>
+        <v>6.15</v>
       </c>
       <c r="I133">
-        <v>250</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4324,25 +4324,25 @@
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
       </c>
       <c r="E134">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="F134">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G134">
-        <v>0.166666666666667</v>
+        <v>0.161812297734628</v>
       </c>
       <c r="H134">
-        <v>36.2875</v>
+        <v>35.75</v>
       </c>
       <c r="I134">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4353,7 +4353,7 @@
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
@@ -4362,16 +4362,16 @@
         <v>18</v>
       </c>
       <c r="F135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4382,7 +4382,7 @@
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D136" t="s">
         <v>25</v>
@@ -4391,16 +4391,16 @@
         <v>360</v>
       </c>
       <c r="F136">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4411,25 +4411,25 @@
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
       </c>
       <c r="E137">
-        <v>696</v>
+        <v>648</v>
       </c>
       <c r="F137">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="G137">
-        <v>0.214080459770115</v>
+        <v>0.134259259259259</v>
       </c>
       <c r="H137">
-        <v>53.9275</v>
+        <v>31.2225</v>
       </c>
       <c r="I137">
-        <v>547</v>
+        <v>561</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4440,7 +4440,7 @@
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D138" t="s">
         <v>24</v>
@@ -4469,7 +4469,7 @@
         <v>22</v>
       </c>
       <c r="C139" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D139" t="s">
         <v>25</v>
@@ -4478,16 +4478,16 @@
         <v>360</v>
       </c>
       <c r="F139">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G139">
-        <v>0.0972222222222222</v>
+        <v>0.07777777777777781</v>
       </c>
       <c r="H139">
-        <v>2.87</v>
+        <v>2.296</v>
       </c>
       <c r="I139">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4498,25 +4498,25 @@
         <v>22</v>
       </c>
       <c r="C140" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
       </c>
       <c r="E140">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F140">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="G140">
-        <v>0.177777777777778</v>
+        <v>0.281400966183575</v>
       </c>
       <c r="H140">
-        <v>52.44</v>
+        <v>84.0775</v>
       </c>
       <c r="I140">
-        <v>666</v>
+        <v>595</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4527,7 +4527,7 @@
         <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D141" t="s">
         <v>24</v>
@@ -4556,7 +4556,7 @@
         <v>22</v>
       </c>
       <c r="C142" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D142" t="s">
         <v>25</v>
@@ -4585,25 +4585,25 @@
         <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
       </c>
       <c r="E143">
-        <v>834</v>
+        <v>1614</v>
       </c>
       <c r="F143">
-        <v>95</v>
+        <v>550</v>
       </c>
       <c r="G143">
-        <v>0.113908872901679</v>
+        <v>0.340768277571252</v>
       </c>
       <c r="H143">
-        <v>34.3225</v>
+        <v>196.805</v>
       </c>
       <c r="I143">
-        <v>739</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4614,25 +4614,25 @@
         <v>22</v>
       </c>
       <c r="C144" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D144" t="s">
         <v>24</v>
       </c>
       <c r="E144">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>8.91</v>
       </c>
       <c r="I144">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4643,25 +4643,25 @@
         <v>22</v>
       </c>
       <c r="C145" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D145" t="s">
         <v>25</v>
       </c>
       <c r="E145">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.179166666666667</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>10.578</v>
       </c>
       <c r="I145">
-        <v>360</v>
+        <v>591</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4672,7 +4672,7 @@
         <v>22</v>
       </c>
       <c r="C146" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
@@ -4681,16 +4681,16 @@
         <v>756</v>
       </c>
       <c r="F146">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="G146">
-        <v>0.0740740740740741</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="H146">
-        <v>20.26</v>
+        <v>33.6075</v>
       </c>
       <c r="I146">
-        <v>700</v>
+        <v>663</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4701,7 +4701,7 @@
         <v>22</v>
       </c>
       <c r="C147" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D147" t="s">
         <v>24</v>
@@ -4710,16 +4710,16 @@
         <v>18</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I147">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4730,7 +4730,7 @@
         <v>22</v>
       </c>
       <c r="C148" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D148" t="s">
         <v>25</v>
@@ -4739,16 +4739,16 @@
         <v>360</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>0.105555555555556</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>3.116</v>
       </c>
       <c r="I148">
-        <v>360</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/cml_usage.xlsx
+++ b/data/processed/cml_usage.xlsx
@@ -496,25 +496,25 @@
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>684</v>
+        <v>630</v>
       </c>
       <c r="F2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="G2">
-        <v>0.119883040935673</v>
+        <v>0.249206349206349</v>
       </c>
       <c r="H2">
-        <v>29.315</v>
+        <v>56.6075</v>
       </c>
       <c r="I2">
-        <v>602</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -525,25 +525,25 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0.333333333333333</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H3">
-        <v>7.92</v>
+        <v>4.95</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,25 +554,25 @@
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.132575757575758</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>14.35</v>
       </c>
       <c r="I4">
-        <v>960</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,25 +583,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F5">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>0.137130801687764</v>
+        <v>0.0596707818930041</v>
       </c>
       <c r="H5">
-        <v>23.5375</v>
+        <v>10.4275</v>
       </c>
       <c r="I5">
-        <v>409</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -621,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0.333333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H6">
-        <v>3.96</v>
+        <v>1.98</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -650,16 +650,16 @@
         <v>840</v>
       </c>
       <c r="F7">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>0.217857142857143</v>
+        <v>0.00476190476190476</v>
       </c>
       <c r="H7">
-        <v>15.006</v>
+        <v>0.328</v>
       </c>
       <c r="I7">
-        <v>657</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,25 +670,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F8">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G8">
-        <v>0.0923694779116466</v>
+        <v>0.119918699186992</v>
       </c>
       <c r="H8">
-        <v>16.445</v>
+        <v>21.3325</v>
       </c>
       <c r="I8">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -708,16 +708,16 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -737,16 +737,16 @@
         <v>840</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I10">
-        <v>840</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,25 +757,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="G11">
-        <v>0.0158730158730159</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H11">
-        <v>2.86</v>
+        <v>45.405</v>
       </c>
       <c r="I11">
-        <v>496</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -786,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -795,16 +795,16 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H12">
-        <v>5.94</v>
+        <v>2.97</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -815,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -824,16 +824,16 @@
         <v>840</v>
       </c>
       <c r="F13">
-        <v>120</v>
+        <v>375</v>
       </c>
       <c r="G13">
-        <v>0.142857142857143</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="H13">
-        <v>9.84</v>
+        <v>30.75</v>
       </c>
       <c r="I13">
-        <v>720</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,25 +844,25 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.246527777777778</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>51.545</v>
       </c>
       <c r="I14">
-        <v>534</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -873,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -882,16 +882,16 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I15">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -902,7 +902,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -911,16 +911,16 @@
         <v>840</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.00238095238095238</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.164</v>
       </c>
       <c r="I16">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -931,25 +931,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1698</v>
+        <v>600</v>
       </c>
       <c r="F17">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="G17">
-        <v>0.145465253239105</v>
+        <v>0.118333333333333</v>
       </c>
       <c r="H17">
-        <v>89.5025</v>
+        <v>25.9225</v>
       </c>
       <c r="I17">
-        <v>1451</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -960,25 +960,25 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>0.333333333333333</v>
       </c>
       <c r="H18">
-        <v>5.94</v>
+        <v>3.96</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -989,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.253846153846154</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>71.745</v>
       </c>
       <c r="I20">
-        <v>690</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1047,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -1056,16 +1056,16 @@
         <v>18</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I21">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1076,25 +1076,25 @@
         <v>16</v>
       </c>
       <c r="C22" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22">
-        <v>1320</v>
+        <v>1440</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.315972222222222</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>37.31</v>
       </c>
       <c r="I22">
-        <v>1320</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1105,25 +1105,25 @@
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>684</v>
+        <v>582</v>
       </c>
       <c r="F23">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="G23">
-        <v>0.339181286549708</v>
+        <v>0.297250859106529</v>
       </c>
       <c r="H23">
-        <v>82.94</v>
+        <v>61.8475</v>
       </c>
       <c r="I23">
-        <v>452</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1134,25 +1134,25 @@
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>0.166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H24">
-        <v>1.98</v>
+        <v>2.97</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="F25">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G25">
-        <v>0.225</v>
+        <v>0.101851851851852</v>
       </c>
       <c r="H25">
-        <v>22.14</v>
+        <v>9.02</v>
       </c>
       <c r="I25">
-        <v>930</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1192,25 +1192,25 @@
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
       </c>
       <c r="E26">
-        <v>558</v>
+        <v>450</v>
       </c>
       <c r="F26">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="G26">
-        <v>0.28673835125448</v>
+        <v>0.06666666666666669</v>
       </c>
       <c r="H26">
-        <v>57.74</v>
+        <v>10.725</v>
       </c>
       <c r="I26">
-        <v>398</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1221,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1230,16 +1230,16 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -1259,16 +1259,16 @@
         <v>840</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G28">
-        <v>0.09523809523809521</v>
+        <v>0.06547619047619049</v>
       </c>
       <c r="H28">
-        <v>6.56</v>
+        <v>4.51</v>
       </c>
       <c r="I28">
-        <v>760</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1279,25 +1279,25 @@
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>552</v>
+        <v>444</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G29">
-        <v>0.0326086956521739</v>
+        <v>0.132882882882883</v>
       </c>
       <c r="H29">
-        <v>6.435</v>
+        <v>21.0925</v>
       </c>
       <c r="I29">
-        <v>534</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1308,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -1317,16 +1317,16 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1337,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>840</v>
       </c>
       <c r="F31">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G31">
-        <v>0.030952380952381</v>
+        <v>0.0404761904761905</v>
       </c>
       <c r="H31">
-        <v>2.132</v>
+        <v>2.788</v>
       </c>
       <c r="I31">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1366,25 +1366,25 @@
         <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
       </c>
       <c r="E32">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="F32">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="G32">
-        <v>0.147509578544061</v>
+        <v>0.06707317073170729</v>
       </c>
       <c r="H32">
-        <v>27.5275</v>
+        <v>11.7975</v>
       </c>
       <c r="I32">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1395,13 +1395,13 @@
         <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1424,25 +1424,25 @@
         <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F34">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="G34">
-        <v>0.3125</v>
+        <v>0.06785714285714289</v>
       </c>
       <c r="H34">
-        <v>24.6</v>
+        <v>4.674</v>
       </c>
       <c r="I34">
-        <v>660</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1453,25 +1453,25 @@
         <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
       </c>
       <c r="E35">
-        <v>564</v>
+        <v>438</v>
       </c>
       <c r="F35">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G35">
-        <v>0.24113475177305</v>
+        <v>0.235159817351598</v>
       </c>
       <c r="H35">
-        <v>48.8</v>
+        <v>37.1225</v>
       </c>
       <c r="I35">
-        <v>428</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1482,25 +1482,25 @@
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1511,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F37">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.317708333333333</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>25.01</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>655</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1540,25 +1540,25 @@
         <v>17</v>
       </c>
       <c r="C38" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38">
-        <v>1573</v>
+        <v>582</v>
       </c>
       <c r="F38">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G38">
-        <v>0.0235219326128417</v>
+        <v>0.132302405498282</v>
       </c>
       <c r="H38">
-        <v>13.2275</v>
+        <v>27.5275</v>
       </c>
       <c r="I38">
-        <v>1536</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1569,25 +1569,25 @@
         <v>17</v>
       </c>
       <c r="C39" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>0.291666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H39">
-        <v>6.93</v>
+        <v>1.98</v>
       </c>
       <c r="I39">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1598,25 +1598,25 @@
         <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
       </c>
       <c r="E40">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="F40">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="G40">
-        <v>0.25</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H40">
-        <v>27.06</v>
+        <v>13.12</v>
       </c>
       <c r="I40">
-        <v>990</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1627,25 +1627,25 @@
         <v>17</v>
       </c>
       <c r="C41" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
       </c>
       <c r="E41">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="F41">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>0.12037037037037</v>
+        <v>0.025089605734767</v>
       </c>
       <c r="H41">
-        <v>23.2375</v>
+        <v>5.005</v>
       </c>
       <c r="I41">
-        <v>475</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1656,25 +1656,25 @@
         <v>17</v>
       </c>
       <c r="C42" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -1694,16 +1694,16 @@
         <v>1200</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1170</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1714,25 +1714,25 @@
         <v>18</v>
       </c>
       <c r="C44" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44">
-        <v>1056</v>
+        <v>1032</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>45.76</v>
       </c>
       <c r="I44">
-        <v>1056</v>
+        <v>904</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1743,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -1752,16 +1752,16 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I45">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1772,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="C46" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -1781,16 +1781,16 @@
         <v>960</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.0677083333333333</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="I46">
-        <v>960</v>
+        <v>895</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1801,7 +1801,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -1810,16 +1810,16 @@
         <v>588</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.326530612244898</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="I47">
-        <v>588</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1830,7 +1830,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -1839,16 +1839,16 @@
         <v>12</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1859,7 +1859,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -1868,16 +1868,16 @@
         <v>840</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>18.04</v>
       </c>
       <c r="I49">
-        <v>840</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1888,25 +1888,25 @@
         <v>18</v>
       </c>
       <c r="C50" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>23.12</v>
       </c>
       <c r="I50">
-        <v>600</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1917,7 +1917,7 @@
         <v>18</v>
       </c>
       <c r="C51" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -1926,16 +1926,16 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1946,7 +1946,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -1955,16 +1955,16 @@
         <v>840</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>29.52</v>
       </c>
       <c r="I52">
-        <v>840</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1975,7 +1975,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -1984,16 +1984,16 @@
         <v>618</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.182847896440129</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>40.5175</v>
       </c>
       <c r="I53">
-        <v>618</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2004,7 +2004,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -2013,16 +2013,16 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I54">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2033,7 +2033,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D55" t="s">
         <v>25</v>
@@ -2042,16 +2042,16 @@
         <v>840</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>14.76</v>
       </c>
       <c r="I55">
-        <v>840</v>
+        <v>660</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2062,7 +2062,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -2071,16 +2071,16 @@
         <v>642</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.161993769470405</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>37.18</v>
       </c>
       <c r="I56">
-        <v>642</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2091,7 +2091,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -2100,16 +2100,16 @@
         <v>18</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I57">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2120,7 +2120,7 @@
         <v>18</v>
       </c>
       <c r="C58" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
@@ -2129,16 +2129,16 @@
         <v>840</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>5.74</v>
       </c>
       <c r="I58">
-        <v>840</v>
+        <v>770</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2149,25 +2149,25 @@
         <v>18</v>
       </c>
       <c r="C59" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
       </c>
       <c r="E59">
-        <v>1644</v>
+        <v>786</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.185750636132316</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>52.495</v>
       </c>
       <c r="I59">
-        <v>1644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2178,25 +2178,25 @@
         <v>18</v>
       </c>
       <c r="C60" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="E60">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>10.89</v>
       </c>
       <c r="I60">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2207,25 +2207,25 @@
         <v>18</v>
       </c>
       <c r="C61" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
       </c>
       <c r="E61">
-        <v>1320</v>
+        <v>960</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>0.0260416666666667</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I61">
-        <v>1320</v>
+        <v>935</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2236,7 +2236,7 @@
         <v>18</v>
       </c>
       <c r="C62" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -2245,16 +2245,16 @@
         <v>798</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.0363408521303258</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>10.3675</v>
       </c>
       <c r="I62">
-        <v>798</v>
+        <v>769</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2265,7 +2265,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="C64" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
@@ -2303,16 +2303,16 @@
         <v>1200</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.0275</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2.706</v>
       </c>
       <c r="I64">
-        <v>1200</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2323,7 +2323,7 @@
         <v>19</v>
       </c>
       <c r="C65" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -2332,16 +2332,16 @@
         <v>558</v>
       </c>
       <c r="F65">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G65">
-        <v>0.130824372759857</v>
+        <v>0.152329749103943</v>
       </c>
       <c r="H65">
-        <v>26.9975</v>
+        <v>30.6875</v>
       </c>
       <c r="I65">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2352,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="C66" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -2361,16 +2361,16 @@
         <v>18</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G66">
-        <v>0.388888888888889</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H66">
-        <v>6.93</v>
+        <v>7.92</v>
       </c>
       <c r="I66">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2381,7 +2381,7 @@
         <v>19</v>
       </c>
       <c r="C67" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
@@ -2390,16 +2390,16 @@
         <v>960</v>
       </c>
       <c r="F67">
-        <v>404</v>
+        <v>194</v>
       </c>
       <c r="G67">
-        <v>0.420833333333333</v>
+        <v>0.202083333333333</v>
       </c>
       <c r="H67">
-        <v>33.128</v>
+        <v>15.908</v>
       </c>
       <c r="I67">
-        <v>556</v>
+        <v>766</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2410,25 +2410,25 @@
         <v>19</v>
       </c>
       <c r="C68" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
       </c>
       <c r="E68">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="F68">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G68">
-        <v>0.284313725490196</v>
+        <v>0.317351598173516</v>
       </c>
       <c r="H68">
-        <v>41.83</v>
+        <v>50.2325</v>
       </c>
       <c r="I68">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="C69" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -2448,16 +2448,16 @@
         <v>12</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G69">
-        <v>0.583333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H69">
-        <v>6.93</v>
+        <v>7.92</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2468,25 +2468,25 @@
         <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
       </c>
       <c r="E70">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F70">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="G70">
-        <v>0.164285714285714</v>
+        <v>0.370833333333333</v>
       </c>
       <c r="H70">
-        <v>11.316</v>
+        <v>29.192</v>
       </c>
       <c r="I70">
-        <v>702</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2497,7 +2497,7 @@
         <v>19</v>
       </c>
       <c r="C71" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -2506,16 +2506,16 @@
         <v>438</v>
       </c>
       <c r="F71">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G71">
-        <v>0.164383561643836</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="H71">
-        <v>26.28</v>
+        <v>19.905</v>
       </c>
       <c r="I71">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2526,7 +2526,7 @@
         <v>19</v>
       </c>
       <c r="C72" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -2535,16 +2535,16 @@
         <v>12</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I72">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2555,7 +2555,7 @@
         <v>19</v>
       </c>
       <c r="C73" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D73" t="s">
         <v>25</v>
@@ -2564,16 +2564,16 @@
         <v>960</v>
       </c>
       <c r="F73">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="G73">
-        <v>0.15</v>
+        <v>0.0552083333333333</v>
       </c>
       <c r="H73">
-        <v>11.808</v>
+        <v>4.346</v>
       </c>
       <c r="I73">
-        <v>816</v>
+        <v>907</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2584,25 +2584,25 @@
         <v>19</v>
       </c>
       <c r="C74" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
       </c>
       <c r="E74">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G74">
-        <v>0.023094688221709</v>
+        <v>0.117521367521368</v>
       </c>
       <c r="H74">
-        <v>3.755</v>
+        <v>20.1425</v>
       </c>
       <c r="I74">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2613,7 +2613,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -2642,7 +2642,7 @@
         <v>19</v>
       </c>
       <c r="C76" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D76" t="s">
         <v>25</v>
@@ -2651,16 +2651,16 @@
         <v>840</v>
       </c>
       <c r="F76">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="G76">
-        <v>0.261904761904762</v>
+        <v>0.229761904761905</v>
       </c>
       <c r="H76">
-        <v>18.04</v>
+        <v>15.826</v>
       </c>
       <c r="I76">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2671,25 +2671,25 @@
         <v>19</v>
       </c>
       <c r="C77" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
       </c>
       <c r="E77">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="F77">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="G77">
-        <v>0.0972222222222222</v>
+        <v>0.270325203252033</v>
       </c>
       <c r="H77">
-        <v>17.5175</v>
+        <v>47.5475</v>
       </c>
       <c r="I77">
-        <v>455</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2700,25 +2700,25 @@
         <v>19</v>
       </c>
       <c r="C78" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
       </c>
       <c r="E78">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0.555555555555556</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H78">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="I78">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2729,25 +2729,25 @@
         <v>19</v>
       </c>
       <c r="C79" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
       </c>
       <c r="E79">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="F79">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G79">
-        <v>0.07395833333333331</v>
+        <v>0.0766666666666667</v>
       </c>
       <c r="H79">
-        <v>5.822</v>
+        <v>3.772</v>
       </c>
       <c r="I79">
-        <v>889</v>
+        <v>554</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2758,25 +2758,25 @@
         <v>19</v>
       </c>
       <c r="C80" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
       </c>
       <c r="E80">
-        <v>1278</v>
+        <v>558</v>
       </c>
       <c r="F80">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.120500782472613</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>55.055</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>1124</v>
+        <v>558</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2787,7 +2787,7 @@
         <v>19</v>
       </c>
       <c r="C81" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
@@ -2796,16 +2796,16 @@
         <v>18</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I81">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2816,25 +2816,25 @@
         <v>19</v>
       </c>
       <c r="C82" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D82" t="s">
         <v>25</v>
       </c>
       <c r="E82">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>0.328</v>
       </c>
       <c r="I82">
-        <v>720</v>
+        <v>956</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2845,7 +2845,7 @@
         <v>19</v>
       </c>
       <c r="C83" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -2854,16 +2854,16 @@
         <v>558</v>
       </c>
       <c r="F83">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="G83">
-        <v>0.0734767025089606</v>
+        <v>0.209677419354839</v>
       </c>
       <c r="H83">
-        <v>15.2575</v>
+        <v>42.5475</v>
       </c>
       <c r="I83">
-        <v>517</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2874,7 +2874,7 @@
         <v>19</v>
       </c>
       <c r="C84" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
@@ -2883,16 +2883,16 @@
         <v>18</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.166666666666667</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H84">
-        <v>2.97</v>
+        <v>0.99</v>
       </c>
       <c r="I84">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2903,7 +2903,7 @@
         <v>19</v>
       </c>
       <c r="C85" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D85" t="s">
         <v>25</v>
@@ -2912,16 +2912,16 @@
         <v>960</v>
       </c>
       <c r="F85">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="G85">
-        <v>0.08958333333333331</v>
+        <v>0.139583333333333</v>
       </c>
       <c r="H85">
-        <v>7.052</v>
+        <v>10.988</v>
       </c>
       <c r="I85">
-        <v>874</v>
+        <v>826</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2932,25 +2932,25 @@
         <v>20</v>
       </c>
       <c r="C86" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
       </c>
       <c r="E86">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="F86">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G86">
-        <v>0.171296296296296</v>
+        <v>0.149038461538462</v>
       </c>
       <c r="H86">
-        <v>39.6825</v>
+        <v>33.2475</v>
       </c>
       <c r="I86">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2961,25 +2961,25 @@
         <v>20</v>
       </c>
       <c r="C87" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
       <c r="E87">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2990,25 +2990,25 @@
         <v>20</v>
       </c>
       <c r="C88" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
       </c>
       <c r="E88">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F88">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="G88">
-        <v>0.166666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="H88">
-        <v>13.12</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I88">
-        <v>800</v>
+        <v>735</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3019,25 +3019,25 @@
         <v>20</v>
       </c>
       <c r="C89" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
       </c>
       <c r="E89">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="F89">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="G89">
-        <v>0.447368421052632</v>
+        <v>0.562189054726368</v>
       </c>
       <c r="H89">
-        <v>73.41</v>
+        <v>81.27500000000001</v>
       </c>
       <c r="I89">
-        <v>252</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3048,7 +3048,7 @@
         <v>20</v>
       </c>
       <c r="C90" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -3057,16 +3057,16 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3077,25 +3077,25 @@
         <v>20</v>
       </c>
       <c r="C91" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D91" t="s">
         <v>25</v>
       </c>
       <c r="E91">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="F91">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.21875</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>8.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>375</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3106,25 +3106,25 @@
         <v>20</v>
       </c>
       <c r="C92" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
       </c>
       <c r="E92">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="G92">
-        <v>0.0231481481481481</v>
+        <v>0.195945945945946</v>
       </c>
       <c r="H92">
-        <v>3.575</v>
+        <v>31.1025</v>
       </c>
       <c r="I92">
-        <v>422</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3135,7 +3135,7 @@
         <v>20</v>
       </c>
       <c r="C93" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -3144,16 +3144,16 @@
         <v>12</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0.333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H93">
-        <v>3.96</v>
+        <v>0.99</v>
       </c>
       <c r="I93">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3164,25 +3164,25 @@
         <v>20</v>
       </c>
       <c r="C94" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
       </c>
       <c r="E94">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F94">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="G94">
-        <v>0.18452380952381</v>
+        <v>0.413888888888889</v>
       </c>
       <c r="H94">
-        <v>12.71</v>
+        <v>24.436</v>
       </c>
       <c r="I94">
-        <v>685</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3193,25 +3193,25 @@
         <v>20</v>
       </c>
       <c r="C95" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
       </c>
       <c r="E95">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="F95">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G95">
-        <v>0.149350649350649</v>
+        <v>0.195011337868481</v>
       </c>
       <c r="H95">
-        <v>24.6675</v>
+        <v>30.745</v>
       </c>
       <c r="I95">
-        <v>393</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3222,7 +3222,7 @@
         <v>20</v>
       </c>
       <c r="C96" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -3231,16 +3231,16 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G96">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H96">
-        <v>2.97</v>
+        <v>5.94</v>
       </c>
       <c r="I96">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3251,7 +3251,7 @@
         <v>20</v>
       </c>
       <c r="C97" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D97" t="s">
         <v>25</v>
@@ -3260,16 +3260,16 @@
         <v>840</v>
       </c>
       <c r="F97">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G97">
-        <v>0.05</v>
+        <v>0.0892857142857143</v>
       </c>
       <c r="H97">
-        <v>3.444</v>
+        <v>6.15</v>
       </c>
       <c r="I97">
-        <v>798</v>
+        <v>765</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3280,25 +3280,25 @@
         <v>20</v>
       </c>
       <c r="C98" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
       </c>
       <c r="E98">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="F98">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="G98">
-        <v>0.0160642570281124</v>
+        <v>0.254166666666667</v>
       </c>
       <c r="H98">
-        <v>2.86</v>
+        <v>43.615</v>
       </c>
       <c r="I98">
-        <v>490</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3309,7 +3309,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -3318,16 +3318,16 @@
         <v>12</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G99">
-        <v>0.166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H99">
-        <v>1.98</v>
+        <v>5.94</v>
       </c>
       <c r="I99">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3338,7 +3338,7 @@
         <v>20</v>
       </c>
       <c r="C100" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D100" t="s">
         <v>25</v>
@@ -3347,16 +3347,16 @@
         <v>840</v>
       </c>
       <c r="F100">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G100">
-        <v>0.0892857142857143</v>
+        <v>0.148809523809524</v>
       </c>
       <c r="H100">
-        <v>6.15</v>
+        <v>10.25</v>
       </c>
       <c r="I100">
-        <v>765</v>
+        <v>715</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3367,25 +3367,25 @@
         <v>20</v>
       </c>
       <c r="C101" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
       </c>
       <c r="E101">
-        <v>1134</v>
+        <v>534</v>
       </c>
       <c r="F101">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="G101">
-        <v>0.08641975308641971</v>
+        <v>0.279026217228464</v>
       </c>
       <c r="H101">
-        <v>35.035</v>
+        <v>53.7475</v>
       </c>
       <c r="I101">
-        <v>1036</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3396,25 +3396,25 @@
         <v>20</v>
       </c>
       <c r="C102" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
       </c>
       <c r="E102">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G102">
-        <v>0.111111111111111</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H102">
-        <v>1.98</v>
+        <v>3.96</v>
       </c>
       <c r="I102">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3425,25 +3425,25 @@
         <v>20</v>
       </c>
       <c r="C103" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D103" t="s">
         <v>25</v>
       </c>
       <c r="E103">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F103">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="G103">
-        <v>0.213541666666667</v>
+        <v>0.279761904761905</v>
       </c>
       <c r="H103">
-        <v>16.81</v>
+        <v>19.27</v>
       </c>
       <c r="I103">
-        <v>755</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3454,25 +3454,25 @@
         <v>20</v>
       </c>
       <c r="C104" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
       </c>
       <c r="E104">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F104">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="G104">
-        <v>0.08843537414965991</v>
+        <v>0.247422680412371</v>
       </c>
       <c r="H104">
-        <v>18.59</v>
+        <v>52.32</v>
       </c>
       <c r="I104">
-        <v>536</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3483,25 +3483,25 @@
         <v>20</v>
       </c>
       <c r="C105" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>13.86</v>
       </c>
       <c r="I105">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3512,25 +3512,25 @@
         <v>20</v>
       </c>
       <c r="C106" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D106" t="s">
         <v>25</v>
       </c>
       <c r="E106">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F106">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G106">
-        <v>0.0595238095238095</v>
+        <v>0.152777777777778</v>
       </c>
       <c r="H106">
-        <v>4.1</v>
+        <v>9.02</v>
       </c>
       <c r="I106">
-        <v>790</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3541,25 +3541,25 @@
         <v>21</v>
       </c>
       <c r="C107" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
       </c>
       <c r="E107">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F107">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G107">
-        <v>0.0315315315315315</v>
+        <v>0.368888888888889</v>
       </c>
       <c r="H107">
-        <v>5.005</v>
+        <v>59.345</v>
       </c>
       <c r="I107">
-        <v>430</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3570,25 +3570,25 @@
         <v>21</v>
       </c>
       <c r="C108" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
       </c>
       <c r="E108">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F108">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G108">
-        <v>0.666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H108">
-        <v>15.84</v>
+        <v>2.97</v>
       </c>
       <c r="I108">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3599,7 +3599,7 @@
         <v>21</v>
       </c>
       <c r="C109" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D109" t="s">
         <v>25</v>
@@ -3608,16 +3608,16 @@
         <v>840</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="G109">
-        <v>0.00238095238095238</v>
+        <v>0.0845238095238095</v>
       </c>
       <c r="H109">
-        <v>0.164</v>
+        <v>5.822</v>
       </c>
       <c r="I109">
-        <v>838</v>
+        <v>769</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3628,25 +3628,25 @@
         <v>21</v>
       </c>
       <c r="C110" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
       </c>
       <c r="E110">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>0.28448275862069</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>35.3925</v>
       </c>
       <c r="I110">
-        <v>366</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3657,7 +3657,7 @@
         <v>21</v>
       </c>
       <c r="C111" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -3666,16 +3666,16 @@
         <v>12</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G111">
-        <v>0.666666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H111">
-        <v>7.92</v>
+        <v>4.95</v>
       </c>
       <c r="I111">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3686,7 +3686,7 @@
         <v>21</v>
       </c>
       <c r="C112" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D112" t="s">
         <v>25</v>
@@ -3695,16 +3695,16 @@
         <v>600</v>
       </c>
       <c r="F112">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G112">
-        <v>0.133333333333333</v>
+        <v>0.126666666666667</v>
       </c>
       <c r="H112">
-        <v>6.56</v>
+        <v>6.232</v>
       </c>
       <c r="I112">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3715,25 +3715,25 @@
         <v>21</v>
       </c>
       <c r="C113" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
       </c>
       <c r="E113">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F113">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G113">
-        <v>0.087431693989071</v>
+        <v>0.322916666666667</v>
       </c>
       <c r="H113">
-        <v>11.44</v>
+        <v>44.33</v>
       </c>
       <c r="I113">
-        <v>334</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3744,7 +3744,7 @@
         <v>21</v>
       </c>
       <c r="C114" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -3753,16 +3753,16 @@
         <v>12</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G114">
-        <v>0.166666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H114">
-        <v>1.98</v>
+        <v>6.93</v>
       </c>
       <c r="I114">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3773,25 +3773,25 @@
         <v>21</v>
       </c>
       <c r="C115" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D115" t="s">
         <v>25</v>
       </c>
       <c r="E115">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F115">
-        <v>54</v>
+        <v>489</v>
       </c>
       <c r="G115">
-        <v>0.09</v>
+        <v>0.582142857142857</v>
       </c>
       <c r="H115">
-        <v>4.428</v>
+        <v>40.098</v>
       </c>
       <c r="I115">
-        <v>546</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3802,25 +3802,25 @@
         <v>21</v>
       </c>
       <c r="C116" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
       </c>
       <c r="E116">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>0.188095238095238</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>28.2425</v>
       </c>
       <c r="I116">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3831,7 +3831,7 @@
         <v>21</v>
       </c>
       <c r="C117" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -3840,16 +3840,16 @@
         <v>12</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G117">
-        <v>0.0833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H117">
-        <v>0.99</v>
+        <v>7.92</v>
       </c>
       <c r="I117">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3860,25 +3860,25 @@
         <v>21</v>
       </c>
       <c r="C118" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D118" t="s">
         <v>25</v>
       </c>
       <c r="E118">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F118">
-        <v>8</v>
+        <v>305</v>
       </c>
       <c r="G118">
-        <v>0.00833333333333333</v>
+        <v>0.363095238095238</v>
       </c>
       <c r="H118">
-        <v>0.656</v>
+        <v>25.01</v>
       </c>
       <c r="I118">
-        <v>952</v>
+        <v>535</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3889,25 +3889,25 @@
         <v>21</v>
       </c>
       <c r="C119" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
       </c>
       <c r="E119">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="F119">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="G119">
-        <v>0.043010752688172</v>
+        <v>0.227053140096618</v>
       </c>
       <c r="H119">
-        <v>5.72</v>
+        <v>33.605</v>
       </c>
       <c r="I119">
-        <v>356</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3918,7 +3918,7 @@
         <v>21</v>
       </c>
       <c r="C120" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -3927,16 +3927,16 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G120">
-        <v>0.5</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H120">
-        <v>5.94</v>
+        <v>4.95</v>
       </c>
       <c r="I120">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3947,25 +3947,25 @@
         <v>21</v>
       </c>
       <c r="C121" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D121" t="s">
         <v>25</v>
       </c>
       <c r="E121">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F121">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G121">
-        <v>0.208333333333333</v>
+        <v>0.167857142857143</v>
       </c>
       <c r="H121">
-        <v>10.25</v>
+        <v>11.562</v>
       </c>
       <c r="I121">
-        <v>475</v>
+        <v>699</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3976,25 +3976,25 @@
         <v>21</v>
       </c>
       <c r="C122" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
       </c>
       <c r="E122">
-        <v>864</v>
+        <v>498</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="G122">
-        <v>0.0104166666666667</v>
+        <v>0.3714859437751</v>
       </c>
       <c r="H122">
-        <v>3.2175</v>
+        <v>66.1375</v>
       </c>
       <c r="I122">
-        <v>855</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4005,7 +4005,7 @@
         <v>21</v>
       </c>
       <c r="C123" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -4014,16 +4014,16 @@
         <v>12</v>
       </c>
       <c r="F123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G123">
-        <v>0.75</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H123">
-        <v>8.91</v>
+        <v>9.9</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4034,25 +4034,25 @@
         <v>21</v>
       </c>
       <c r="C124" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D124" t="s">
         <v>25</v>
       </c>
       <c r="E124">
-        <v>1440</v>
+        <v>840</v>
       </c>
       <c r="F124">
-        <v>530</v>
+        <v>13</v>
       </c>
       <c r="G124">
-        <v>0.368055555555556</v>
+        <v>0.0154761904761905</v>
       </c>
       <c r="H124">
-        <v>43.46</v>
+        <v>1.066</v>
       </c>
       <c r="I124">
-        <v>910</v>
+        <v>827</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4063,25 +4063,25 @@
         <v>21</v>
       </c>
       <c r="C125" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
       </c>
       <c r="E125">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="F125">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="G125">
-        <v>0.282894736842105</v>
+        <v>0.323293172690763</v>
       </c>
       <c r="H125">
-        <v>46.1175</v>
+        <v>57.5575</v>
       </c>
       <c r="I125">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4092,7 +4092,7 @@
         <v>21</v>
       </c>
       <c r="C126" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
@@ -4101,16 +4101,16 @@
         <v>12</v>
       </c>
       <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H126">
+        <v>3.96</v>
+      </c>
+      <c r="I126">
         <v>8</v>
-      </c>
-      <c r="G126">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H126">
-        <v>7.92</v>
-      </c>
-      <c r="I126">
-        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4121,25 +4121,25 @@
         <v>21</v>
       </c>
       <c r="C127" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D127" t="s">
         <v>25</v>
       </c>
       <c r="E127">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="F127">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="G127">
-        <v>0.130208333333333</v>
+        <v>0.0549019607843137</v>
       </c>
       <c r="H127">
-        <v>10.25</v>
+        <v>4.592</v>
       </c>
       <c r="I127">
-        <v>835</v>
+        <v>964</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4150,25 +4150,25 @@
         <v>22</v>
       </c>
       <c r="C128" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
       </c>
       <c r="E128">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="F128">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="G128">
-        <v>0.123655913978495</v>
+        <v>0.282152230971129</v>
       </c>
       <c r="H128">
-        <v>33.37</v>
+        <v>77.46250000000001</v>
       </c>
       <c r="I128">
-        <v>652</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4179,25 +4179,25 @@
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D129" t="s">
         <v>24</v>
       </c>
       <c r="E129">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4208,7 +4208,7 @@
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D130" t="s">
         <v>25</v>
@@ -4217,16 +4217,16 @@
         <v>360</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.219444444444444</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>6.478</v>
       </c>
       <c r="I130">
-        <v>360</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4237,25 +4237,25 @@
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
       </c>
       <c r="E131">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="F131">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G131">
-        <v>0.217687074829932</v>
+        <v>0.25</v>
       </c>
       <c r="H131">
-        <v>46.36</v>
+        <v>51.72</v>
       </c>
       <c r="I131">
-        <v>460</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4266,7 +4266,7 @@
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D132" t="s">
         <v>24</v>
@@ -4275,16 +4275,16 @@
         <v>18</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I132">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4295,7 +4295,7 @@
         <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D133" t="s">
         <v>25</v>
@@ -4304,16 +4304,16 @@
         <v>360</v>
       </c>
       <c r="F133">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="G133">
-        <v>0.208333333333333</v>
+        <v>0.283333333333333</v>
       </c>
       <c r="H133">
-        <v>6.15</v>
+        <v>8.364000000000001</v>
       </c>
       <c r="I133">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4324,25 +4324,25 @@
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
       </c>
       <c r="E134">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="F134">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G134">
-        <v>0.161812297734628</v>
+        <v>0.112211221122112</v>
       </c>
       <c r="H134">
-        <v>35.75</v>
+        <v>24.31</v>
       </c>
       <c r="I134">
-        <v>518</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4353,7 +4353,7 @@
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
@@ -4362,16 +4362,16 @@
         <v>18</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I135">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4382,7 +4382,7 @@
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D136" t="s">
         <v>25</v>
@@ -4391,16 +4391,16 @@
         <v>360</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>0.408333333333333</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>12.054</v>
       </c>
       <c r="I136">
-        <v>360</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4411,25 +4411,25 @@
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
       </c>
       <c r="E137">
-        <v>648</v>
+        <v>702</v>
       </c>
       <c r="F137">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="G137">
-        <v>0.134259259259259</v>
+        <v>0.313390313390313</v>
       </c>
       <c r="H137">
-        <v>31.2225</v>
+        <v>79.67</v>
       </c>
       <c r="I137">
-        <v>561</v>
+        <v>482</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4440,7 +4440,7 @@
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D138" t="s">
         <v>24</v>
@@ -4449,16 +4449,16 @@
         <v>18</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I138">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4469,7 +4469,7 @@
         <v>22</v>
       </c>
       <c r="C139" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D139" t="s">
         <v>25</v>
@@ -4478,16 +4478,16 @@
         <v>360</v>
       </c>
       <c r="F139">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G139">
-        <v>0.07777777777777781</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="H139">
-        <v>2.296</v>
+        <v>2.87</v>
       </c>
       <c r="I139">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4498,25 +4498,25 @@
         <v>22</v>
       </c>
       <c r="C140" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
       </c>
       <c r="E140">
-        <v>828</v>
+        <v>756</v>
       </c>
       <c r="F140">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G140">
-        <v>0.281400966183575</v>
+        <v>0.288359788359788</v>
       </c>
       <c r="H140">
-        <v>84.0775</v>
+        <v>77.935</v>
       </c>
       <c r="I140">
-        <v>595</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4527,7 +4527,7 @@
         <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D141" t="s">
         <v>24</v>
@@ -4536,16 +4536,16 @@
         <v>18</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I141">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4556,7 +4556,7 @@
         <v>22</v>
       </c>
       <c r="C142" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D142" t="s">
         <v>25</v>
@@ -4565,16 +4565,16 @@
         <v>360</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I142">
-        <v>360</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4585,25 +4585,25 @@
         <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
       </c>
       <c r="E143">
-        <v>1614</v>
+        <v>798</v>
       </c>
       <c r="F143">
-        <v>550</v>
+        <v>298</v>
       </c>
       <c r="G143">
-        <v>0.340768277571252</v>
+        <v>0.3734335839599</v>
       </c>
       <c r="H143">
-        <v>196.805</v>
+        <v>107.855</v>
       </c>
       <c r="I143">
-        <v>1064</v>
+        <v>500</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4614,25 +4614,25 @@
         <v>22</v>
       </c>
       <c r="C144" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D144" t="s">
         <v>24</v>
       </c>
       <c r="E144">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F144">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4643,25 +4643,25 @@
         <v>22</v>
       </c>
       <c r="C145" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D145" t="s">
         <v>25</v>
       </c>
       <c r="E145">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="F145">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="G145">
-        <v>0.179166666666667</v>
+        <v>0.108333333333333</v>
       </c>
       <c r="H145">
-        <v>10.578</v>
+        <v>3.198</v>
       </c>
       <c r="I145">
-        <v>591</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4672,25 +4672,25 @@
         <v>22</v>
       </c>
       <c r="C146" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
       </c>
       <c r="E146">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="F146">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="G146">
-        <v>0.123015873015873</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H146">
-        <v>33.6075</v>
+        <v>46.4775</v>
       </c>
       <c r="I146">
-        <v>663</v>
+        <v>645</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4701,7 +4701,7 @@
         <v>22</v>
       </c>
       <c r="C147" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D147" t="s">
         <v>24</v>
@@ -4710,16 +4710,16 @@
         <v>18</v>
       </c>
       <c r="F147">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4730,25 +4730,25 @@
         <v>22</v>
       </c>
       <c r="C148" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D148" t="s">
         <v>25</v>
       </c>
       <c r="E148">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="F148">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="G148">
-        <v>0.105555555555556</v>
+        <v>0.344444444444444</v>
       </c>
       <c r="H148">
-        <v>3.116</v>
+        <v>15.252</v>
       </c>
       <c r="I148">
-        <v>322</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/cml_usage.xlsx
+++ b/data/processed/cml_usage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="26">
   <si>
     <t>store_name</t>
   </si>
@@ -453,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,25 +496,25 @@
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>630</v>
+        <v>684</v>
       </c>
       <c r="F2">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.249206349206349</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>56.6075</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>473</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -534,16 +534,16 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0.277777777777778</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H3">
-        <v>4.95</v>
+        <v>3.96</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -563,16 +563,16 @@
         <v>1320</v>
       </c>
       <c r="F4">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.132575757575758</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>14.35</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1145</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,7 +583,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -592,16 +592,16 @@
         <v>486</v>
       </c>
       <c r="F5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0596707818930041</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>10.4275</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>457</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -621,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -650,16 +650,16 @@
         <v>840</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00476190476190476</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.328</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,25 +670,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="F8">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>0.119918699186992</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H8">
-        <v>21.3325</v>
+        <v>9.295</v>
       </c>
       <c r="I8">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -737,16 +737,16 @@
         <v>840</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G10">
-        <v>0.119047619047619</v>
+        <v>0.123809523809524</v>
       </c>
       <c r="H10">
-        <v>8.199999999999999</v>
+        <v>8.528</v>
       </c>
       <c r="I10">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,25 +757,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>546</v>
+        <v>432</v>
       </c>
       <c r="F11">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.230769230769231</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>45.405</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -786,25 +786,25 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -815,25 +815,25 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>840</v>
+        <v>570</v>
       </c>
       <c r="F13">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.446428571428571</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>30.75</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>465</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,25 +844,25 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>576</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.246527777777778</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>51.545</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>434</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -873,25 +873,25 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -902,25 +902,25 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>840</v>
+        <v>642</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>0.00238095238095238</v>
+        <v>0.107476635514019</v>
       </c>
       <c r="H16">
-        <v>0.164</v>
+        <v>25.6275</v>
       </c>
       <c r="I16">
-        <v>838</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -931,25 +931,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>600</v>
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.118333333333333</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>25.9225</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>529</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -960,25 +960,25 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="G18">
-        <v>0.333333333333333</v>
+        <v>0.250833333333333</v>
       </c>
       <c r="H18">
-        <v>3.96</v>
+        <v>24.682</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -989,25 +989,25 @@
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1080</v>
+        <v>684</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G19">
-        <v>0.0925925925925926</v>
+        <v>0.162280701754386</v>
       </c>
       <c r="H19">
-        <v>8.199999999999999</v>
+        <v>40.6425</v>
       </c>
       <c r="I19">
-        <v>980</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>780</v>
+        <v>18</v>
       </c>
       <c r="F20">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>0.253846153846154</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H20">
-        <v>71.745</v>
+        <v>7.92</v>
       </c>
       <c r="I20">
-        <v>582</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1047,54 +1047,54 @@
         <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>1440</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>496</v>
       </c>
       <c r="G21">
-        <v>0.166666666666667</v>
+        <v>0.344444444444444</v>
       </c>
       <c r="H21">
-        <v>2.97</v>
+        <v>40.672</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>1440</v>
+        <v>594</v>
       </c>
       <c r="F22">
-        <v>455</v>
+        <v>43</v>
       </c>
       <c r="G22">
-        <v>0.315972222222222</v>
+        <v>0.07239057239057239</v>
       </c>
       <c r="H22">
-        <v>37.31</v>
+        <v>15.3725</v>
       </c>
       <c r="I22">
-        <v>985</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1105,25 +1105,25 @@
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>582</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.297250859106529</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>61.8475</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>409</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1134,25 +1134,25 @@
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>1440</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>0.5</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="H24">
-        <v>2.97</v>
+        <v>0.984</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>1080</v>
+        <v>474</v>
       </c>
       <c r="F25">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G25">
-        <v>0.101851851851852</v>
+        <v>0.248945147679325</v>
       </c>
       <c r="H25">
-        <v>9.02</v>
+        <v>42.185</v>
       </c>
       <c r="I25">
-        <v>970</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1192,25 +1192,25 @@
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>0.06666666666666669</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H26">
-        <v>10.725</v>
+        <v>3.96</v>
       </c>
       <c r="I26">
-        <v>420</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1221,25 +1221,25 @@
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>840</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1250,25 +1250,25 @@
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E28">
-        <v>840</v>
+        <v>432</v>
       </c>
       <c r="F28">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G28">
-        <v>0.06547619047619049</v>
+        <v>0.159722222222222</v>
       </c>
       <c r="H28">
-        <v>4.51</v>
+        <v>24.6675</v>
       </c>
       <c r="I28">
-        <v>785</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1279,25 +1279,25 @@
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>0.132882882882883</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H29">
-        <v>21.0925</v>
+        <v>1.98</v>
       </c>
       <c r="I29">
-        <v>385</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1308,25 +1308,25 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.094047619047619</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>6.478</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1337,25 +1337,25 @@
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E31">
-        <v>840</v>
+        <v>474</v>
       </c>
       <c r="F31">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G31">
-        <v>0.0404761904761905</v>
+        <v>0.149789029535865</v>
       </c>
       <c r="H31">
-        <v>2.788</v>
+        <v>25.4425</v>
       </c>
       <c r="I31">
-        <v>806</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1366,25 +1366,25 @@
         <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.06707317073170729</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>11.7975</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>459</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1395,25 +1395,25 @@
         <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>840</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.06547619047619049</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>785</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1424,25 +1424,25 @@
         <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E34">
-        <v>840</v>
+        <v>438</v>
       </c>
       <c r="F34">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="G34">
-        <v>0.06785714285714289</v>
+        <v>0.255707762557078</v>
       </c>
       <c r="H34">
-        <v>4.674</v>
+        <v>40.04</v>
       </c>
       <c r="I34">
-        <v>783</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1453,25 +1453,25 @@
         <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35">
-        <v>438</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.235159817351598</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>37.1225</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>335</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1482,25 +1482,25 @@
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>840</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>15.99</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1511,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E37">
-        <v>840</v>
+        <v>534</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.08052434456928841</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>15.3725</v>
       </c>
       <c r="I37">
-        <v>840</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1540,25 +1540,25 @@
         <v>17</v>
       </c>
       <c r="C38" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38">
-        <v>582</v>
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.132302405498282</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>27.5275</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>505</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1569,25 +1569,25 @@
         <v>17</v>
       </c>
       <c r="C39" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>1200</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1598,25 +1598,25 @@
         <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E40">
-        <v>1200</v>
+        <v>552</v>
       </c>
       <c r="F40">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="G40">
-        <v>0.133333333333333</v>
+        <v>0.0307971014492754</v>
       </c>
       <c r="H40">
-        <v>13.12</v>
+        <v>6.0775</v>
       </c>
       <c r="I40">
-        <v>1040</v>
+        <v>535</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1627,25 +1627,25 @@
         <v>17</v>
       </c>
       <c r="C41" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41">
-        <v>558</v>
+        <v>6</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.025089605734767</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>5.005</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>544</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1656,54 +1656,54 @@
         <v>17</v>
       </c>
       <c r="C42" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>1320</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G42">
-        <v>0.25</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="H42">
-        <v>2.97</v>
+        <v>1.804</v>
       </c>
       <c r="I42">
-        <v>9</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>1200</v>
+        <v>1008</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.08531746031746031</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>30.925</v>
       </c>
       <c r="I43">
-        <v>1200</v>
+        <v>922</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1714,25 +1714,25 @@
         <v>18</v>
       </c>
       <c r="C44" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>1032</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.124031007751938</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>45.76</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>904</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1743,25 +1743,25 @@
         <v>18</v>
       </c>
       <c r="C45" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>960</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>7</v>
+        <v>960</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1772,25 +1772,25 @@
         <v>18</v>
       </c>
       <c r="C46" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E46">
-        <v>960</v>
+        <v>510</v>
       </c>
       <c r="F46">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G46">
-        <v>0.0677083333333333</v>
+        <v>0.0549019607843137</v>
       </c>
       <c r="H46">
-        <v>5.33</v>
+        <v>10.01</v>
       </c>
       <c r="I46">
-        <v>895</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1801,25 +1801,25 @@
         <v>18</v>
       </c>
       <c r="C47" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E47">
-        <v>588</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.326530612244898</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>69.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>396</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1830,25 +1830,25 @@
         <v>18</v>
       </c>
       <c r="C48" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G48">
-        <v>0.5</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="H48">
-        <v>5.94</v>
+        <v>2.46</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>810</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1859,25 +1859,25 @@
         <v>18</v>
       </c>
       <c r="C49" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>840</v>
+        <v>534</v>
       </c>
       <c r="F49">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="G49">
-        <v>0.261904761904762</v>
+        <v>0.0374531835205993</v>
       </c>
       <c r="H49">
-        <v>18.04</v>
+        <v>7.15</v>
       </c>
       <c r="I49">
-        <v>620</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1888,25 +1888,25 @@
         <v>18</v>
       </c>
       <c r="C50" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E50">
-        <v>588</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0.108843537414966</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>23.12</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>524</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1917,25 +1917,25 @@
         <v>18</v>
       </c>
       <c r="C51" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1946,25 +1946,25 @@
         <v>18</v>
       </c>
       <c r="C52" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E52">
-        <v>840</v>
+        <v>570</v>
       </c>
       <c r="F52">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G52">
-        <v>0.428571428571429</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="H52">
-        <v>29.52</v>
+        <v>21.45</v>
       </c>
       <c r="I52">
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1975,25 +1975,25 @@
         <v>18</v>
       </c>
       <c r="C53" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E53">
-        <v>618</v>
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="G53">
-        <v>0.182847896440129</v>
+        <v>0.25</v>
       </c>
       <c r="H53">
-        <v>40.5175</v>
+        <v>2.97</v>
       </c>
       <c r="I53">
-        <v>505</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2004,25 +2004,25 @@
         <v>18</v>
       </c>
       <c r="C54" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>7</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2033,25 +2033,25 @@
         <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E55">
-        <v>840</v>
+        <v>606</v>
       </c>
       <c r="F55">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G55">
-        <v>0.214285714285714</v>
+        <v>0.0940594059405941</v>
       </c>
       <c r="H55">
-        <v>14.76</v>
+        <v>20.3775</v>
       </c>
       <c r="I55">
-        <v>660</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2062,25 +2062,25 @@
         <v>18</v>
       </c>
       <c r="C56" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E56">
-        <v>642</v>
+        <v>18</v>
       </c>
       <c r="F56">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <v>0.161993769470405</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H56">
-        <v>37.18</v>
+        <v>9.9</v>
       </c>
       <c r="I56">
-        <v>538</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2091,25 +2091,25 @@
         <v>18</v>
       </c>
       <c r="C57" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E57">
-        <v>18</v>
+        <v>840</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.277777777777778</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>13</v>
+        <v>840</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2120,25 +2120,25 @@
         <v>18</v>
       </c>
       <c r="C58" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E58">
-        <v>840</v>
+        <v>726</v>
       </c>
       <c r="F58">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G58">
-        <v>0.0833333333333333</v>
+        <v>0.119834710743802</v>
       </c>
       <c r="H58">
-        <v>5.74</v>
+        <v>31.7025</v>
       </c>
       <c r="I58">
-        <v>770</v>
+        <v>639</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2149,25 +2149,25 @@
         <v>18</v>
       </c>
       <c r="C59" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E59">
-        <v>786</v>
+        <v>18</v>
       </c>
       <c r="F59">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>0.185750636132316</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H59">
-        <v>52.495</v>
+        <v>1.98</v>
       </c>
       <c r="I59">
-        <v>640</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2178,25 +2178,25 @@
         <v>18</v>
       </c>
       <c r="C60" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>1200</v>
       </c>
       <c r="F60">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G60">
-        <v>0.611111111111111</v>
+        <v>0.0391666666666667</v>
       </c>
       <c r="H60">
-        <v>10.89</v>
+        <v>3.854</v>
       </c>
       <c r="I60">
-        <v>7</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2207,25 +2207,25 @@
         <v>18</v>
       </c>
       <c r="C61" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E61">
-        <v>960</v>
+        <v>786</v>
       </c>
       <c r="F61">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="G61">
-        <v>0.0260416666666667</v>
+        <v>0.132315521628499</v>
       </c>
       <c r="H61">
-        <v>2.05</v>
+        <v>37.18</v>
       </c>
       <c r="I61">
-        <v>935</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2236,25 +2236,25 @@
         <v>18</v>
       </c>
       <c r="C62" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E62">
-        <v>798</v>
+        <v>18</v>
       </c>
       <c r="F62">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0.0363408521303258</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>10.3675</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>769</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2265,13 +2265,13 @@
         <v>18</v>
       </c>
       <c r="C63" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E63">
-        <v>18</v>
+        <v>1200</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2283,36 +2283,36 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>18</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C64" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E64">
-        <v>1200</v>
+        <v>558</v>
       </c>
       <c r="F64">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G64">
-        <v>0.0275</v>
+        <v>0.021505376344086</v>
       </c>
       <c r="H64">
-        <v>2.706</v>
+        <v>4.29</v>
       </c>
       <c r="I64">
-        <v>1167</v>
+        <v>546</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2323,25 +2323,25 @@
         <v>19</v>
       </c>
       <c r="C65" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E65">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F65">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>0.152329749103943</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H65">
-        <v>30.6875</v>
+        <v>4.95</v>
       </c>
       <c r="I65">
-        <v>473</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2352,25 +2352,25 @@
         <v>19</v>
       </c>
       <c r="C66" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E66">
-        <v>18</v>
+        <v>960</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.444444444444444</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>960</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2381,25 +2381,25 @@
         <v>19</v>
       </c>
       <c r="C67" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E67">
-        <v>960</v>
+        <v>414</v>
       </c>
       <c r="F67">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="G67">
-        <v>0.202083333333333</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H67">
-        <v>15.908</v>
+        <v>32.89</v>
       </c>
       <c r="I67">
-        <v>766</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2410,25 +2410,25 @@
         <v>19</v>
       </c>
       <c r="C68" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E68">
-        <v>438</v>
+        <v>12</v>
       </c>
       <c r="F68">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>0.317351598173516</v>
+        <v>0.5</v>
       </c>
       <c r="H68">
-        <v>50.2325</v>
+        <v>5.94</v>
       </c>
       <c r="I68">
-        <v>299</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2439,25 +2439,25 @@
         <v>19</v>
       </c>
       <c r="C69" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>960</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>326</v>
       </c>
       <c r="G69">
-        <v>0.666666666666667</v>
+        <v>0.339583333333333</v>
       </c>
       <c r="H69">
-        <v>7.92</v>
+        <v>26.732</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2468,25 +2468,25 @@
         <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E70">
-        <v>960</v>
+        <v>432</v>
       </c>
       <c r="F70">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="G70">
-        <v>0.370833333333333</v>
+        <v>0.261574074074074</v>
       </c>
       <c r="H70">
-        <v>29.192</v>
+        <v>41.2375</v>
       </c>
       <c r="I70">
-        <v>604</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2497,25 +2497,25 @@
         <v>19</v>
       </c>
       <c r="C71" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E71">
-        <v>438</v>
+        <v>12</v>
       </c>
       <c r="F71">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="G71">
-        <v>0.123287671232877</v>
+        <v>0.25</v>
       </c>
       <c r="H71">
-        <v>19.905</v>
+        <v>2.97</v>
       </c>
       <c r="I71">
-        <v>384</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2526,25 +2526,25 @@
         <v>19</v>
       </c>
       <c r="C72" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>960</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="G72">
-        <v>0.166666666666667</v>
+        <v>0.241666666666667</v>
       </c>
       <c r="H72">
-        <v>1.98</v>
+        <v>19.024</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>728</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2555,25 +2555,25 @@
         <v>19</v>
       </c>
       <c r="C73" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E73">
-        <v>960</v>
+        <v>450</v>
       </c>
       <c r="F73">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G73">
-        <v>0.0552083333333333</v>
+        <v>0.0977777777777778</v>
       </c>
       <c r="H73">
-        <v>4.346</v>
+        <v>16.15</v>
       </c>
       <c r="I73">
-        <v>907</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2584,25 +2584,25 @@
         <v>19</v>
       </c>
       <c r="C74" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E74">
-        <v>468</v>
+        <v>18</v>
       </c>
       <c r="F74">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G74">
-        <v>0.117521367521368</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H74">
-        <v>20.1425</v>
+        <v>7.92</v>
       </c>
       <c r="I74">
-        <v>413</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2613,25 +2613,25 @@
         <v>19</v>
       </c>
       <c r="C75" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E75">
-        <v>18</v>
+        <v>840</v>
       </c>
       <c r="F75">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="G75">
-        <v>0.722222222222222</v>
+        <v>0.21547619047619</v>
       </c>
       <c r="H75">
-        <v>12.87</v>
+        <v>14.842</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>659</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2642,25 +2642,25 @@
         <v>19</v>
       </c>
       <c r="C76" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E76">
-        <v>840</v>
+        <v>450</v>
       </c>
       <c r="F76">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="G76">
-        <v>0.229761904761905</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H76">
-        <v>15.826</v>
+        <v>54.225</v>
       </c>
       <c r="I76">
-        <v>647</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2671,25 +2671,25 @@
         <v>19</v>
       </c>
       <c r="C77" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E77">
-        <v>492</v>
+        <v>18</v>
       </c>
       <c r="F77">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="G77">
-        <v>0.270325203252033</v>
+        <v>0.5</v>
       </c>
       <c r="H77">
-        <v>47.5475</v>
+        <v>8.91</v>
       </c>
       <c r="I77">
-        <v>359</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2700,25 +2700,25 @@
         <v>19</v>
       </c>
       <c r="C78" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E78">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="G78">
-        <v>0.0833333333333333</v>
+        <v>0.270238095238095</v>
       </c>
       <c r="H78">
-        <v>0.99</v>
+        <v>18.614</v>
       </c>
       <c r="I78">
-        <v>11</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2729,25 +2729,25 @@
         <v>19</v>
       </c>
       <c r="C79" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E79">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="F79">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="G79">
-        <v>0.0766666666666667</v>
+        <v>0.218553459119497</v>
       </c>
       <c r="H79">
-        <v>3.772</v>
+        <v>50.3525</v>
       </c>
       <c r="I79">
-        <v>554</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2758,25 +2758,25 @@
         <v>19</v>
       </c>
       <c r="C80" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E80">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I80">
-        <v>558</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2787,25 +2787,25 @@
         <v>19</v>
       </c>
       <c r="C81" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E81">
-        <v>18</v>
+        <v>840</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="G81">
-        <v>0.166666666666667</v>
+        <v>0.151190476190476</v>
       </c>
       <c r="H81">
-        <v>2.97</v>
+        <v>10.414</v>
       </c>
       <c r="I81">
-        <v>15</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2816,25 +2816,25 @@
         <v>19</v>
       </c>
       <c r="C82" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E82">
-        <v>960</v>
+        <v>558</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="G82">
-        <v>0.00416666666666667</v>
+        <v>0.288530465949821</v>
       </c>
       <c r="H82">
-        <v>0.328</v>
+        <v>58.5775</v>
       </c>
       <c r="I82">
-        <v>956</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2845,25 +2845,25 @@
         <v>19</v>
       </c>
       <c r="C83" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E83">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F83">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="G83">
-        <v>0.209677419354839</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H83">
-        <v>42.5475</v>
+        <v>6.93</v>
       </c>
       <c r="I83">
-        <v>441</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2874,54 +2874,54 @@
         <v>19</v>
       </c>
       <c r="C84" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>18</v>
+        <v>960</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G84">
-        <v>0.0555555555555556</v>
+        <v>0.04375</v>
       </c>
       <c r="H84">
-        <v>0.99</v>
+        <v>3.444</v>
       </c>
       <c r="I84">
-        <v>17</v>
+        <v>918</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C85" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E85">
-        <v>960</v>
+        <v>594</v>
       </c>
       <c r="F85">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G85">
-        <v>0.139583333333333</v>
+        <v>0.215488215488215</v>
       </c>
       <c r="H85">
-        <v>10.988</v>
+        <v>46</v>
       </c>
       <c r="I85">
-        <v>826</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2932,25 +2932,25 @@
         <v>20</v>
       </c>
       <c r="C86" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E86">
-        <v>624</v>
+        <v>12</v>
       </c>
       <c r="F86">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>0.149038461538462</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H86">
-        <v>33.2475</v>
+        <v>0.99</v>
       </c>
       <c r="I86">
-        <v>531</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2961,25 +2961,25 @@
         <v>20</v>
       </c>
       <c r="C87" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E87">
-        <v>12</v>
+        <v>960</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>0.270833333333333</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="I87">
-        <v>12</v>
+        <v>700</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2990,25 +2990,25 @@
         <v>20</v>
       </c>
       <c r="C88" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E88">
-        <v>840</v>
+        <v>396</v>
       </c>
       <c r="F88">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="G88">
-        <v>0.125</v>
+        <v>0.174242424242424</v>
       </c>
       <c r="H88">
-        <v>8.609999999999999</v>
+        <v>24.6675</v>
       </c>
       <c r="I88">
-        <v>735</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3019,25 +3019,25 @@
         <v>20</v>
       </c>
       <c r="C89" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E89">
-        <v>402</v>
+        <v>12</v>
       </c>
       <c r="F89">
-        <v>226</v>
+        <v>4</v>
       </c>
       <c r="G89">
-        <v>0.562189054726368</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H89">
-        <v>81.27500000000001</v>
+        <v>3.96</v>
       </c>
       <c r="I89">
-        <v>176</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3048,25 +3048,25 @@
         <v>20</v>
       </c>
       <c r="C90" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E90">
-        <v>12</v>
+        <v>720</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.0902777777777778</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>655</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3077,25 +3077,25 @@
         <v>20</v>
       </c>
       <c r="C91" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E91">
-        <v>720</v>
+        <v>426</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>0.115023474178404</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>17.5175</v>
       </c>
       <c r="I91">
-        <v>720</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3106,25 +3106,25 @@
         <v>20</v>
       </c>
       <c r="C92" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E92">
-        <v>444</v>
+        <v>12</v>
       </c>
       <c r="F92">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.195945945945946</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>31.1025</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>357</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3135,25 +3135,25 @@
         <v>20</v>
       </c>
       <c r="C93" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E93">
-        <v>12</v>
+        <v>540</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G93">
-        <v>0.0833333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H93">
-        <v>0.99</v>
+        <v>7.38</v>
       </c>
       <c r="I93">
-        <v>11</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3164,25 +3164,25 @@
         <v>20</v>
       </c>
       <c r="C94" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E94">
-        <v>720</v>
+        <v>438</v>
       </c>
       <c r="F94">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>0.413888888888889</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>24.436</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3193,25 +3193,25 @@
         <v>20</v>
       </c>
       <c r="C95" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E95">
-        <v>441</v>
+        <v>12</v>
       </c>
       <c r="F95">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.195011337868481</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>30.745</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>355</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3222,25 +3222,25 @@
         <v>20</v>
       </c>
       <c r="C96" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E96">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>6</v>
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3251,25 +3251,25 @@
         <v>20</v>
       </c>
       <c r="C97" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E97">
-        <v>840</v>
+        <v>492</v>
       </c>
       <c r="F97">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="G97">
-        <v>0.0892857142857143</v>
+        <v>0.42479674796748</v>
       </c>
       <c r="H97">
-        <v>6.15</v>
+        <v>74.7175</v>
       </c>
       <c r="I97">
-        <v>765</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3280,25 +3280,25 @@
         <v>20</v>
       </c>
       <c r="C98" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E98">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="F98">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="G98">
-        <v>0.254166666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H98">
-        <v>43.615</v>
+        <v>3.96</v>
       </c>
       <c r="I98">
-        <v>358</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3309,25 +3309,25 @@
         <v>20</v>
       </c>
       <c r="C99" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E99">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>310</v>
       </c>
       <c r="G99">
-        <v>0.5</v>
+        <v>0.344444444444444</v>
       </c>
       <c r="H99">
-        <v>5.94</v>
+        <v>25.42</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3338,25 +3338,25 @@
         <v>20</v>
       </c>
       <c r="C100" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E100">
-        <v>840</v>
+        <v>534</v>
       </c>
       <c r="F100">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="G100">
-        <v>0.148809523809524</v>
+        <v>0.295880149812734</v>
       </c>
       <c r="H100">
-        <v>10.25</v>
+        <v>56.485</v>
       </c>
       <c r="I100">
-        <v>715</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3367,25 +3367,25 @@
         <v>20</v>
       </c>
       <c r="C101" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E101">
-        <v>534</v>
+        <v>12</v>
       </c>
       <c r="F101">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="G101">
-        <v>0.279026217228464</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H101">
-        <v>53.7475</v>
+        <v>6.93</v>
       </c>
       <c r="I101">
-        <v>385</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3396,25 +3396,25 @@
         <v>20</v>
       </c>
       <c r="C102" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E102">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="G102">
-        <v>0.333333333333333</v>
+        <v>0.227777777777778</v>
       </c>
       <c r="H102">
-        <v>3.96</v>
+        <v>16.81</v>
       </c>
       <c r="I102">
-        <v>8</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3425,25 +3425,25 @@
         <v>20</v>
       </c>
       <c r="C103" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E103">
-        <v>840</v>
+        <v>522</v>
       </c>
       <c r="F103">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0.279761904761905</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>19.27</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>605</v>
+        <v>522</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3454,25 +3454,25 @@
         <v>20</v>
       </c>
       <c r="C104" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E104">
-        <v>582</v>
+        <v>12</v>
       </c>
       <c r="F104">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>0.247422680412371</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>52.32</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>438</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3483,54 +3483,54 @@
         <v>20</v>
       </c>
       <c r="C105" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E105">
-        <v>24</v>
+        <v>960</v>
       </c>
       <c r="F105">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>0.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>13.86</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>10</v>
+        <v>960</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C106" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E106">
-        <v>720</v>
+        <v>408</v>
       </c>
       <c r="F106">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="G106">
-        <v>0.152777777777778</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="H106">
-        <v>9.02</v>
+        <v>9.6525</v>
       </c>
       <c r="I106">
-        <v>610</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3541,25 +3541,25 @@
         <v>21</v>
       </c>
       <c r="C107" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E107">
-        <v>450</v>
+        <v>12</v>
       </c>
       <c r="F107">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>0.368888888888889</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>59.345</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>284</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3570,25 +3570,25 @@
         <v>21</v>
       </c>
       <c r="C108" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E108">
-        <v>12</v>
+        <v>720</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G108">
-        <v>0.25</v>
+        <v>0.0791666666666667</v>
       </c>
       <c r="H108">
-        <v>2.97</v>
+        <v>4.674</v>
       </c>
       <c r="I108">
-        <v>9</v>
+        <v>663</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3599,25 +3599,25 @@
         <v>21</v>
       </c>
       <c r="C109" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E109">
-        <v>840</v>
+        <v>336</v>
       </c>
       <c r="F109">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="G109">
-        <v>0.0845238095238095</v>
+        <v>0.529761904761905</v>
       </c>
       <c r="H109">
-        <v>5.822</v>
+        <v>63.635</v>
       </c>
       <c r="I109">
-        <v>769</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3628,25 +3628,25 @@
         <v>21</v>
       </c>
       <c r="C110" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E110">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="F110">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G110">
-        <v>0.28448275862069</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H110">
-        <v>35.3925</v>
+        <v>9.9</v>
       </c>
       <c r="I110">
-        <v>249</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3657,25 +3657,25 @@
         <v>21</v>
       </c>
       <c r="C111" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E111">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="G111">
-        <v>0.416666666666667</v>
+        <v>0.29</v>
       </c>
       <c r="H111">
-        <v>4.95</v>
+        <v>14.268</v>
       </c>
       <c r="I111">
-        <v>7</v>
+        <v>426</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3686,25 +3686,25 @@
         <v>21</v>
       </c>
       <c r="C112" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E112">
-        <v>600</v>
+        <v>354</v>
       </c>
       <c r="F112">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="G112">
-        <v>0.126666666666667</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H112">
-        <v>6.232</v>
+        <v>17.16</v>
       </c>
       <c r="I112">
-        <v>524</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3715,25 +3715,25 @@
         <v>21</v>
       </c>
       <c r="C113" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E113">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="F113">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="G113">
-        <v>0.322916666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H113">
-        <v>44.33</v>
+        <v>2.97</v>
       </c>
       <c r="I113">
-        <v>260</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3744,25 +3744,25 @@
         <v>21</v>
       </c>
       <c r="C114" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E114">
-        <v>12</v>
+        <v>660</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>324</v>
       </c>
       <c r="G114">
-        <v>0.583333333333333</v>
+        <v>0.490909090909091</v>
       </c>
       <c r="H114">
-        <v>6.93</v>
+        <v>26.568</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3773,25 +3773,25 @@
         <v>21</v>
       </c>
       <c r="C115" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D115" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E115">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="F115">
-        <v>489</v>
+        <v>197</v>
       </c>
       <c r="G115">
-        <v>0.582142857142857</v>
+        <v>0.469047619047619</v>
       </c>
       <c r="H115">
-        <v>40.098</v>
+        <v>70.42749999999999</v>
       </c>
       <c r="I115">
-        <v>351</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3802,25 +3802,25 @@
         <v>21</v>
       </c>
       <c r="C116" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E116">
-        <v>420</v>
+        <v>12</v>
       </c>
       <c r="F116">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>0.188095238095238</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H116">
-        <v>28.2425</v>
+        <v>1.98</v>
       </c>
       <c r="I116">
-        <v>341</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3831,25 +3831,25 @@
         <v>21</v>
       </c>
       <c r="C117" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E117">
-        <v>12</v>
+        <v>720</v>
       </c>
       <c r="F117">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="G117">
-        <v>0.666666666666667</v>
+        <v>0.172222222222222</v>
       </c>
       <c r="H117">
-        <v>7.92</v>
+        <v>10.168</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3860,25 +3860,25 @@
         <v>21</v>
       </c>
       <c r="C118" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E118">
-        <v>840</v>
+        <v>396</v>
       </c>
       <c r="F118">
-        <v>305</v>
+        <v>199</v>
       </c>
       <c r="G118">
-        <v>0.363095238095238</v>
+        <v>0.502525252525252</v>
       </c>
       <c r="H118">
-        <v>25.01</v>
+        <v>71.1425</v>
       </c>
       <c r="I118">
-        <v>535</v>
+        <v>197</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3889,25 +3889,25 @@
         <v>21</v>
       </c>
       <c r="C119" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E119">
-        <v>414</v>
+        <v>12</v>
       </c>
       <c r="F119">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="G119">
-        <v>0.227053140096618</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H119">
-        <v>33.605</v>
+        <v>7.92</v>
       </c>
       <c r="I119">
-        <v>320</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3918,25 +3918,25 @@
         <v>21</v>
       </c>
       <c r="C120" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D120" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E120">
-        <v>12</v>
+        <v>780</v>
       </c>
       <c r="F120">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="G120">
-        <v>0.416666666666667</v>
+        <v>0.194871794871795</v>
       </c>
       <c r="H120">
-        <v>4.95</v>
+        <v>12.464</v>
       </c>
       <c r="I120">
-        <v>7</v>
+        <v>628</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3947,25 +3947,25 @@
         <v>21</v>
       </c>
       <c r="C121" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E121">
-        <v>840</v>
+        <v>444</v>
       </c>
       <c r="F121">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="G121">
-        <v>0.167857142857143</v>
+        <v>0.207207207207207</v>
       </c>
       <c r="H121">
-        <v>11.562</v>
+        <v>32.89</v>
       </c>
       <c r="I121">
-        <v>699</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3976,25 +3976,25 @@
         <v>21</v>
       </c>
       <c r="C122" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E122">
-        <v>498</v>
+        <v>12</v>
       </c>
       <c r="F122">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="G122">
-        <v>0.3714859437751</v>
+        <v>0.75</v>
       </c>
       <c r="H122">
-        <v>66.1375</v>
+        <v>8.91</v>
       </c>
       <c r="I122">
-        <v>313</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4005,25 +4005,25 @@
         <v>21</v>
       </c>
       <c r="C123" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D123" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E123">
-        <v>12</v>
+        <v>780</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G123">
-        <v>0.833333333333333</v>
+        <v>0.193589743589744</v>
       </c>
       <c r="H123">
-        <v>9.9</v>
+        <v>12.382</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>629</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4034,25 +4034,25 @@
         <v>21</v>
       </c>
       <c r="C124" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E124">
-        <v>840</v>
+        <v>372</v>
       </c>
       <c r="F124">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G124">
-        <v>0.0154761904761905</v>
+        <v>0.239247311827957</v>
       </c>
       <c r="H124">
-        <v>1.066</v>
+        <v>31.8175</v>
       </c>
       <c r="I124">
-        <v>827</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4063,25 +4063,25 @@
         <v>21</v>
       </c>
       <c r="C125" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E125">
-        <v>498</v>
+        <v>12</v>
       </c>
       <c r="F125">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="G125">
-        <v>0.323293172690763</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H125">
-        <v>57.5575</v>
+        <v>7.92</v>
       </c>
       <c r="I125">
-        <v>337</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4092,54 +4092,54 @@
         <v>21</v>
       </c>
       <c r="C126" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E126">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="F126">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="G126">
-        <v>0.333333333333333</v>
+        <v>0.207777777777778</v>
       </c>
       <c r="H126">
-        <v>3.96</v>
+        <v>15.334</v>
       </c>
       <c r="I126">
-        <v>8</v>
+        <v>713</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C127" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E127">
-        <v>1020</v>
+        <v>708</v>
       </c>
       <c r="F127">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G127">
-        <v>0.0549019607843137</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H127">
-        <v>4.592</v>
+        <v>21.5125</v>
       </c>
       <c r="I127">
-        <v>964</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4150,25 +4150,25 @@
         <v>22</v>
       </c>
       <c r="C128" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E128">
-        <v>762</v>
+        <v>12</v>
       </c>
       <c r="F128">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="G128">
-        <v>0.282152230971129</v>
+        <v>0.25</v>
       </c>
       <c r="H128">
-        <v>77.46250000000001</v>
+        <v>2.97</v>
       </c>
       <c r="I128">
-        <v>547</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4179,13 +4179,13 @@
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E129">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>12</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4208,25 +4208,25 @@
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E130">
-        <v>360</v>
+        <v>546</v>
       </c>
       <c r="F130">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="G130">
-        <v>0.219444444444444</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="H130">
-        <v>6.478</v>
+        <v>51.3025</v>
       </c>
       <c r="I130">
-        <v>281</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4237,25 +4237,25 @@
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E131">
-        <v>576</v>
+        <v>18</v>
       </c>
       <c r="F131">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G131">
-        <v>0.25</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="H131">
-        <v>51.72</v>
+        <v>10.89</v>
       </c>
       <c r="I131">
-        <v>432</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4266,25 +4266,25 @@
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E132">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="F132">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="G132">
-        <v>0.333333333333333</v>
+        <v>0.454166666666667</v>
       </c>
       <c r="H132">
-        <v>5.94</v>
+        <v>17.876</v>
       </c>
       <c r="I132">
-        <v>12</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4295,25 +4295,25 @@
         <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E133">
-        <v>360</v>
+        <v>648</v>
       </c>
       <c r="F133">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G133">
-        <v>0.283333333333333</v>
+        <v>0.126543209876543</v>
       </c>
       <c r="H133">
-        <v>8.364000000000001</v>
+        <v>29.615</v>
       </c>
       <c r="I133">
-        <v>258</v>
+        <v>566</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4324,25 +4324,25 @@
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E134">
-        <v>606</v>
+        <v>18</v>
       </c>
       <c r="F134">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>0.112211221122112</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>538</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4353,25 +4353,25 @@
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E135">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4382,25 +4382,25 @@
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D136" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E136">
-        <v>360</v>
+        <v>618</v>
       </c>
       <c r="F136">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="G136">
-        <v>0.408333333333333</v>
+        <v>0.273462783171521</v>
       </c>
       <c r="H136">
-        <v>12.054</v>
+        <v>60.7175</v>
       </c>
       <c r="I136">
-        <v>213</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4411,25 +4411,25 @@
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E137">
-        <v>702</v>
+        <v>18</v>
       </c>
       <c r="F137">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="G137">
-        <v>0.313390313390313</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H137">
-        <v>79.67</v>
+        <v>3.96</v>
       </c>
       <c r="I137">
-        <v>482</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4440,25 +4440,25 @@
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E138">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="G138">
-        <v>0.0555555555555556</v>
+        <v>0.319047619047619</v>
       </c>
       <c r="H138">
-        <v>0.99</v>
+        <v>10.988</v>
       </c>
       <c r="I138">
-        <v>17</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4469,25 +4469,25 @@
         <v>22</v>
       </c>
       <c r="C139" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D139" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E139">
-        <v>360</v>
+        <v>744</v>
       </c>
       <c r="F139">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G139">
-        <v>0.0972222222222222</v>
+        <v>0.0510752688172043</v>
       </c>
       <c r="H139">
-        <v>2.87</v>
+        <v>13.585</v>
       </c>
       <c r="I139">
-        <v>325</v>
+        <v>706</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4498,25 +4498,25 @@
         <v>22</v>
       </c>
       <c r="C140" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E140">
-        <v>756</v>
+        <v>18</v>
       </c>
       <c r="F140">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>0.288359788359788</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>77.935</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>538</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4527,25 +4527,25 @@
         <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E141">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="F141">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="G141">
-        <v>0.222222222222222</v>
+        <v>0.278571428571429</v>
       </c>
       <c r="H141">
-        <v>3.96</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="I141">
-        <v>14</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4556,25 +4556,25 @@
         <v>22</v>
       </c>
       <c r="C142" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D142" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E142">
-        <v>360</v>
+        <v>762</v>
       </c>
       <c r="F142">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="G142">
-        <v>0.208333333333333</v>
+        <v>0.194225721784777</v>
       </c>
       <c r="H142">
-        <v>6.15</v>
+        <v>53.09</v>
       </c>
       <c r="I142">
-        <v>285</v>
+        <v>614</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4585,25 +4585,25 @@
         <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E143">
-        <v>798</v>
+        <v>18</v>
       </c>
       <c r="F143">
-        <v>298</v>
+        <v>2</v>
       </c>
       <c r="G143">
-        <v>0.3734335839599</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H143">
-        <v>107.855</v>
+        <v>1.98</v>
       </c>
       <c r="I143">
-        <v>500</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4614,25 +4614,25 @@
         <v>22</v>
       </c>
       <c r="C144" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E144">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2.952</v>
       </c>
       <c r="I144">
-        <v>18</v>
+        <v>384</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4643,25 +4643,25 @@
         <v>22</v>
       </c>
       <c r="C145" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D145" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E145">
-        <v>360</v>
+        <v>798</v>
       </c>
       <c r="F145">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="G145">
-        <v>0.108333333333333</v>
+        <v>0.18922305764411</v>
       </c>
       <c r="H145">
-        <v>3.198</v>
+        <v>54.8225</v>
       </c>
       <c r="I145">
-        <v>321</v>
+        <v>647</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4672,25 +4672,25 @@
         <v>22</v>
       </c>
       <c r="C146" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E146">
-        <v>774</v>
+        <v>18</v>
       </c>
       <c r="F146">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>46.4775</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>645</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4701,54 +4701,25 @@
         <v>22</v>
       </c>
       <c r="C147" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E147">
-        <v>18</v>
+        <v>540</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>6.642</v>
       </c>
       <c r="I147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="2">
-        <v>45822</v>
-      </c>
-      <c r="D148" t="s">
-        <v>25</v>
-      </c>
-      <c r="E148">
-        <v>540</v>
-      </c>
-      <c r="F148">
-        <v>186</v>
-      </c>
-      <c r="G148">
-        <v>0.344444444444444</v>
-      </c>
-      <c r="H148">
-        <v>15.252</v>
-      </c>
-      <c r="I148">
-        <v>354</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/cml_usage.xlsx
+++ b/data/processed/cml_usage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="26">
   <si>
     <t>store_name</t>
   </si>
@@ -453,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,25 +496,25 @@
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.18452380952381</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>44.63</v>
       </c>
       <c r="I2">
-        <v>684</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -534,16 +534,16 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>0.222222222222222</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H3">
-        <v>3.96</v>
+        <v>5.94</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -563,16 +563,16 @@
         <v>1320</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0575757575757576</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.232</v>
       </c>
       <c r="I4">
-        <v>1320</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,25 +583,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>33.075</v>
       </c>
       <c r="I5">
-        <v>486</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -621,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -650,16 +650,16 @@
         <v>840</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.104761904761905</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.216</v>
       </c>
       <c r="I7">
-        <v>840</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,25 +670,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="F8">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G8">
-        <v>0.0555555555555556</v>
+        <v>0.12962962962963</v>
       </c>
       <c r="H8">
-        <v>9.295</v>
+        <v>20.26</v>
       </c>
       <c r="I8">
-        <v>442</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -708,16 +708,16 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -737,16 +737,16 @@
         <v>840</v>
       </c>
       <c r="F10">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G10">
-        <v>0.123809523809524</v>
+        <v>0.102380952380952</v>
       </c>
       <c r="H10">
-        <v>8.528</v>
+        <v>7.052</v>
       </c>
       <c r="I10">
-        <v>736</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,25 +757,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.104417670682731</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>19.07</v>
       </c>
       <c r="I11">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -786,25 +786,25 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="I12">
-        <v>840</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -815,13 +815,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>570</v>
+        <v>840</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>570</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,25 +844,25 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0700757575757576</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>13.8275</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -873,25 +873,25 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>840</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I15">
-        <v>840</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -902,25 +902,25 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="F16">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.107476635514019</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>25.6275</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>573</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -931,25 +931,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>594</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.00336700336700337</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.835</v>
       </c>
       <c r="I17">
-        <v>18</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -960,25 +960,25 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1200</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.250833333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H18">
-        <v>24.682</v>
+        <v>0.99</v>
       </c>
       <c r="I18">
-        <v>899</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -989,25 +989,25 @@
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>684</v>
+        <v>1560</v>
       </c>
       <c r="F19">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.162280701754386</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>40.6425</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>573</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>660</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="G20">
-        <v>0.444444444444444</v>
+        <v>0.118181818181818</v>
       </c>
       <c r="H20">
-        <v>7.92</v>
+        <v>28.605</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1047,54 +1047,54 @@
         <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>1440</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.344444444444444</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>40.672</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>944</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>594</v>
+        <v>1800</v>
       </c>
       <c r="F22">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="G22">
-        <v>0.07239057239057239</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H22">
-        <v>15.3725</v>
+        <v>12.3</v>
       </c>
       <c r="I22">
-        <v>551</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1105,25 +1105,25 @@
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.096078431372549</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>17.5175</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1134,25 +1134,25 @@
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1440</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.984</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1428</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>474</v>
+        <v>1260</v>
       </c>
       <c r="F25">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="G25">
-        <v>0.248945147679325</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H25">
-        <v>42.185</v>
+        <v>17.22</v>
       </c>
       <c r="I25">
-        <v>356</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1192,25 +1192,25 @@
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="G26">
-        <v>0.666666666666667</v>
+        <v>0.177248677248677</v>
       </c>
       <c r="H26">
-        <v>3.96</v>
+        <v>23.9525</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1221,25 +1221,25 @@
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27">
-        <v>840</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="I27">
-        <v>840</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1250,25 +1250,25 @@
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>432</v>
+        <v>780</v>
       </c>
       <c r="F28">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="G28">
-        <v>0.159722222222222</v>
+        <v>0.262820512820513</v>
       </c>
       <c r="H28">
-        <v>24.6675</v>
+        <v>16.81</v>
       </c>
       <c r="I28">
-        <v>363</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1279,25 +1279,25 @@
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="G29">
-        <v>0.333333333333333</v>
+        <v>0.339662447257384</v>
       </c>
       <c r="H29">
-        <v>1.98</v>
+        <v>57.5575</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1308,25 +1308,25 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.094047619047619</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>6.478</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>761</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1337,25 +1337,25 @@
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>474</v>
+        <v>840</v>
       </c>
       <c r="F31">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>0.149789029535865</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="H31">
-        <v>25.4425</v>
+        <v>3.28</v>
       </c>
       <c r="I31">
-        <v>403</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1366,25 +1366,25 @@
         <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>468</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.273504273504274</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>45.76</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1395,25 +1395,25 @@
         <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <v>840</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>0.06547619047619049</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H33">
-        <v>4.51</v>
+        <v>5.94</v>
       </c>
       <c r="I33">
-        <v>785</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1424,25 +1424,25 @@
         <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <v>438</v>
+        <v>840</v>
       </c>
       <c r="F34">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="G34">
-        <v>0.255707762557078</v>
+        <v>0.321428571428571</v>
       </c>
       <c r="H34">
-        <v>40.04</v>
+        <v>22.14</v>
       </c>
       <c r="I34">
-        <v>326</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1453,25 +1453,25 @@
         <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>450</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.188888888888889</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>30.6875</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1482,25 +1482,25 @@
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36">
-        <v>840</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.232142857142857</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>15.99</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1511,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E37">
-        <v>534</v>
+        <v>840</v>
       </c>
       <c r="F37">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.08052434456928841</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>15.3725</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>491</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1540,25 +1540,25 @@
         <v>17</v>
       </c>
       <c r="C38" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>594</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.0757575757575758</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>16.0875</v>
       </c>
       <c r="I38">
-        <v>6</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1569,13 +1569,13 @@
         <v>17</v>
       </c>
       <c r="C39" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>1200</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1598,25 +1598,25 @@
         <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E40">
-        <v>552</v>
+        <v>1440</v>
       </c>
       <c r="F40">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.0307971014492754</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>6.0775</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>535</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1627,25 +1627,25 @@
         <v>17</v>
       </c>
       <c r="C41" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>606</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>36.1075</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1656,54 +1656,54 @@
         <v>17</v>
       </c>
       <c r="C42" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42">
-        <v>1320</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1.804</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1298</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E43">
-        <v>1008</v>
+        <v>1440</v>
       </c>
       <c r="F43">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="G43">
-        <v>0.08531746031746031</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H43">
-        <v>30.925</v>
+        <v>9.84</v>
       </c>
       <c r="I43">
-        <v>922</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1714,25 +1714,25 @@
         <v>18</v>
       </c>
       <c r="C44" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>666</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.159159159159159</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>38.075</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1743,25 +1743,25 @@
         <v>18</v>
       </c>
       <c r="C45" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I45">
-        <v>960</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1772,25 +1772,25 @@
         <v>18</v>
       </c>
       <c r="C46" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E46">
-        <v>510</v>
+        <v>1200</v>
       </c>
       <c r="F46">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G46">
-        <v>0.0549019607843137</v>
+        <v>0.226666666666667</v>
       </c>
       <c r="H46">
-        <v>10.01</v>
+        <v>22.304</v>
       </c>
       <c r="I46">
-        <v>482</v>
+        <v>928</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1801,25 +1801,25 @@
         <v>18</v>
       </c>
       <c r="C47" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.0871212121212121</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>16.445</v>
       </c>
       <c r="I47">
-        <v>12</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1830,25 +1830,25 @@
         <v>18</v>
       </c>
       <c r="C48" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.0357142857142857</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>810</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1859,25 +1859,25 @@
         <v>18</v>
       </c>
       <c r="C49" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E49">
-        <v>534</v>
+        <v>840</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.0374531835205993</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>7.15</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>514</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1888,25 +1888,25 @@
         <v>18</v>
       </c>
       <c r="C50" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>12</v>
+        <v>546</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.133699633699634</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>26.3375</v>
       </c>
       <c r="I50">
-        <v>12</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1917,25 +1917,25 @@
         <v>18</v>
       </c>
       <c r="C51" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I51">
-        <v>840</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1946,25 +1946,25 @@
         <v>18</v>
       </c>
       <c r="C52" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E52">
-        <v>570</v>
+        <v>840</v>
       </c>
       <c r="F52">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.105263157894737</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>21.45</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>510</v>
+        <v>840</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1975,25 +1975,25 @@
         <v>18</v>
       </c>
       <c r="C53" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>576</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G53">
-        <v>0.25</v>
+        <v>0.0225694444444444</v>
       </c>
       <c r="H53">
-        <v>2.97</v>
+        <v>4.7075</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2004,13 +2004,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>600</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2033,25 +2033,25 @@
         <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>606</v>
+        <v>840</v>
       </c>
       <c r="F55">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G55">
-        <v>0.0940594059405941</v>
+        <v>0.025</v>
       </c>
       <c r="H55">
-        <v>20.3775</v>
+        <v>1.722</v>
       </c>
       <c r="I55">
-        <v>549</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2062,25 +2062,25 @@
         <v>18</v>
       </c>
       <c r="C56" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>18</v>
+        <v>564</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G56">
-        <v>0.555555555555556</v>
+        <v>0.0478723404255319</v>
       </c>
       <c r="H56">
-        <v>9.9</v>
+        <v>9.6525</v>
       </c>
       <c r="I56">
-        <v>8</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2091,13 +2091,13 @@
         <v>18</v>
       </c>
       <c r="C57" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>840</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2120,25 +2120,25 @@
         <v>18</v>
       </c>
       <c r="C58" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E58">
-        <v>726</v>
+        <v>1200</v>
       </c>
       <c r="F58">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.119834710743802</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>31.7025</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>639</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2149,25 +2149,25 @@
         <v>18</v>
       </c>
       <c r="C59" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59">
-        <v>18</v>
+        <v>774</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="G59">
-        <v>0.111111111111111</v>
+        <v>0.116279069767442</v>
       </c>
       <c r="H59">
-        <v>1.98</v>
+        <v>32.515</v>
       </c>
       <c r="I59">
-        <v>16</v>
+        <v>684</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2178,25 +2178,25 @@
         <v>18</v>
       </c>
       <c r="C60" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60">
-        <v>1200</v>
+        <v>18</v>
       </c>
       <c r="F60">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.0391666666666667</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>3.854</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2207,25 +2207,25 @@
         <v>18</v>
       </c>
       <c r="C61" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E61">
-        <v>786</v>
+        <v>1320</v>
       </c>
       <c r="F61">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>0.132315521628499</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>37.18</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>682</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2236,25 +2236,25 @@
         <v>18</v>
       </c>
       <c r="C62" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>792</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>11.7975</v>
       </c>
       <c r="I62">
-        <v>18</v>
+        <v>759</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2265,13 +2265,13 @@
         <v>18</v>
       </c>
       <c r="C63" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E63">
-        <v>1200</v>
+        <v>18</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2283,36 +2283,36 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1200</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E64">
-        <v>558</v>
+        <v>1320</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.021505376344086</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>4.29</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>546</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2323,25 +2323,25 @@
         <v>19</v>
       </c>
       <c r="C65" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65">
-        <v>18</v>
+        <v>564</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="G65">
-        <v>0.277777777777778</v>
+        <v>0.271276595744681</v>
       </c>
       <c r="H65">
-        <v>4.95</v>
+        <v>55.7775</v>
       </c>
       <c r="I65">
-        <v>13</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2352,25 +2352,25 @@
         <v>19</v>
       </c>
       <c r="C66" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E66">
-        <v>960</v>
+        <v>18</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I66">
-        <v>960</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2381,25 +2381,25 @@
         <v>19</v>
       </c>
       <c r="C67" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E67">
-        <v>414</v>
+        <v>960</v>
       </c>
       <c r="F67">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="G67">
-        <v>0.222222222222222</v>
+        <v>0.26875</v>
       </c>
       <c r="H67">
-        <v>32.89</v>
+        <v>21.156</v>
       </c>
       <c r="I67">
-        <v>322</v>
+        <v>702</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2410,25 +2410,25 @@
         <v>19</v>
       </c>
       <c r="C68" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="G68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H68">
-        <v>5.94</v>
+        <v>36.825</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2439,25 +2439,25 @@
         <v>19</v>
       </c>
       <c r="C69" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F69">
-        <v>326</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>0.339583333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H69">
-        <v>26.732</v>
+        <v>1.98</v>
       </c>
       <c r="I69">
-        <v>634</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2468,25 +2468,25 @@
         <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E70">
-        <v>432</v>
+        <v>720</v>
       </c>
       <c r="F70">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="G70">
-        <v>0.261574074074074</v>
+        <v>0.244444444444444</v>
       </c>
       <c r="H70">
-        <v>41.2375</v>
+        <v>14.432</v>
       </c>
       <c r="I70">
-        <v>319</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2497,25 +2497,25 @@
         <v>19</v>
       </c>
       <c r="C71" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>402</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="G71">
-        <v>0.25</v>
+        <v>0.303482587064677</v>
       </c>
       <c r="H71">
-        <v>2.97</v>
+        <v>44.275</v>
       </c>
       <c r="I71">
-        <v>9</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2526,25 +2526,25 @@
         <v>19</v>
       </c>
       <c r="C72" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E72">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>232</v>
+        <v>4</v>
       </c>
       <c r="G72">
-        <v>0.241666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H72">
-        <v>19.024</v>
+        <v>3.96</v>
       </c>
       <c r="I72">
-        <v>728</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2555,25 +2555,25 @@
         <v>19</v>
       </c>
       <c r="C73" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E73">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="F73">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G73">
-        <v>0.0977777777777778</v>
+        <v>0.07777777777777781</v>
       </c>
       <c r="H73">
-        <v>16.15</v>
+        <v>4.592</v>
       </c>
       <c r="I73">
-        <v>406</v>
+        <v>664</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2584,25 +2584,25 @@
         <v>19</v>
       </c>
       <c r="C74" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E74">
-        <v>18</v>
+        <v>432</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="G74">
-        <v>0.444444444444444</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H74">
-        <v>7.92</v>
+        <v>43.56</v>
       </c>
       <c r="I74">
-        <v>10</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2613,25 +2613,25 @@
         <v>19</v>
       </c>
       <c r="C75" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E75">
-        <v>840</v>
+        <v>18</v>
       </c>
       <c r="F75">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="G75">
-        <v>0.21547619047619</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H75">
-        <v>14.842</v>
+        <v>11.88</v>
       </c>
       <c r="I75">
-        <v>659</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2642,25 +2642,25 @@
         <v>19</v>
       </c>
       <c r="C76" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>450</v>
+        <v>840</v>
       </c>
       <c r="F76">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="G76">
-        <v>0.333333333333333</v>
+        <v>0.289285714285714</v>
       </c>
       <c r="H76">
-        <v>54.225</v>
+        <v>19.926</v>
       </c>
       <c r="I76">
-        <v>300</v>
+        <v>597</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2671,25 +2671,25 @@
         <v>19</v>
       </c>
       <c r="C77" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77">
-        <v>18</v>
+        <v>426</v>
       </c>
       <c r="F77">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="G77">
-        <v>0.5</v>
+        <v>0.161971830985915</v>
       </c>
       <c r="H77">
-        <v>8.91</v>
+        <v>25.0275</v>
       </c>
       <c r="I77">
-        <v>9</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2700,25 +2700,25 @@
         <v>19</v>
       </c>
       <c r="C78" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>840</v>
+        <v>18</v>
       </c>
       <c r="F78">
-        <v>227</v>
+        <v>8</v>
       </c>
       <c r="G78">
-        <v>0.270238095238095</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H78">
-        <v>18.614</v>
+        <v>7.92</v>
       </c>
       <c r="I78">
-        <v>613</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2729,25 +2729,25 @@
         <v>19</v>
       </c>
       <c r="C79" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E79">
-        <v>636</v>
+        <v>840</v>
       </c>
       <c r="F79">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0.218553459119497</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>50.3525</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>497</v>
+        <v>840</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2758,25 +2758,25 @@
         <v>19</v>
       </c>
       <c r="C80" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G80">
-        <v>0.222222222222222</v>
+        <v>0.0268817204301075</v>
       </c>
       <c r="H80">
-        <v>3.96</v>
+        <v>5.3625</v>
       </c>
       <c r="I80">
-        <v>14</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2787,25 +2787,25 @@
         <v>19</v>
       </c>
       <c r="C81" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E81">
-        <v>840</v>
+        <v>24</v>
       </c>
       <c r="F81">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="G81">
-        <v>0.151190476190476</v>
+        <v>0.5</v>
       </c>
       <c r="H81">
-        <v>10.414</v>
+        <v>11.88</v>
       </c>
       <c r="I81">
-        <v>713</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2816,25 +2816,25 @@
         <v>19</v>
       </c>
       <c r="C82" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E82">
-        <v>558</v>
+        <v>960</v>
       </c>
       <c r="F82">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="G82">
-        <v>0.288530465949821</v>
+        <v>0.101041666666667</v>
       </c>
       <c r="H82">
-        <v>58.5775</v>
+        <v>7.954</v>
       </c>
       <c r="I82">
-        <v>397</v>
+        <v>863</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2845,25 +2845,25 @@
         <v>19</v>
       </c>
       <c r="C83" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83">
-        <v>18</v>
+        <v>546</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G83">
-        <v>0.388888888888889</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="H83">
-        <v>6.93</v>
+        <v>5.72</v>
       </c>
       <c r="I83">
-        <v>11</v>
+        <v>530</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2874,54 +2874,54 @@
         <v>19</v>
       </c>
       <c r="C84" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E84">
-        <v>960</v>
+        <v>24</v>
       </c>
       <c r="F84">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G84">
-        <v>0.04375</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="H84">
-        <v>3.444</v>
+        <v>6.93</v>
       </c>
       <c r="I84">
-        <v>918</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E85">
-        <v>594</v>
+        <v>960</v>
       </c>
       <c r="F85">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0.215488215488215</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="H85">
-        <v>46</v>
+        <v>0.082</v>
       </c>
       <c r="I85">
-        <v>466</v>
+        <v>959</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2932,25 +2932,25 @@
         <v>20</v>
       </c>
       <c r="C86" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86">
-        <v>12</v>
+        <v>516</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="G86">
-        <v>0.0833333333333333</v>
+        <v>0.182170542635659</v>
       </c>
       <c r="H86">
-        <v>0.99</v>
+        <v>34.325</v>
       </c>
       <c r="I86">
-        <v>11</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2961,25 +2961,25 @@
         <v>20</v>
       </c>
       <c r="C87" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E87">
-        <v>960</v>
+        <v>15</v>
       </c>
       <c r="F87">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="G87">
-        <v>0.270833333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H87">
-        <v>21.32</v>
+        <v>7.92</v>
       </c>
       <c r="I87">
-        <v>700</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2990,25 +2990,25 @@
         <v>20</v>
       </c>
       <c r="C88" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E88">
-        <v>396</v>
+        <v>840</v>
       </c>
       <c r="F88">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G88">
-        <v>0.174242424242424</v>
+        <v>0.09880952380952381</v>
       </c>
       <c r="H88">
-        <v>24.6675</v>
+        <v>6.806</v>
       </c>
       <c r="I88">
-        <v>327</v>
+        <v>757</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3019,25 +3019,25 @@
         <v>20</v>
       </c>
       <c r="C89" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E89">
-        <v>12</v>
+        <v>426</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="G89">
-        <v>0.333333333333333</v>
+        <v>0.204225352112676</v>
       </c>
       <c r="H89">
-        <v>3.96</v>
+        <v>31.1025</v>
       </c>
       <c r="I89">
-        <v>8</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3048,25 +3048,25 @@
         <v>20</v>
       </c>
       <c r="C90" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E90">
-        <v>720</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.0902777777777778</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>5.33</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>655</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3077,25 +3077,25 @@
         <v>20</v>
       </c>
       <c r="C91" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E91">
-        <v>426</v>
+        <v>720</v>
       </c>
       <c r="F91">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="G91">
-        <v>0.115023474178404</v>
+        <v>0.236111111111111</v>
       </c>
       <c r="H91">
-        <v>17.5175</v>
+        <v>13.94</v>
       </c>
       <c r="I91">
-        <v>377</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3106,25 +3106,25 @@
         <v>20</v>
       </c>
       <c r="C92" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E92">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.362222222222222</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>59.1125</v>
       </c>
       <c r="I92">
-        <v>12</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3135,25 +3135,25 @@
         <v>20</v>
       </c>
       <c r="C93" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E93">
-        <v>540</v>
+        <v>14</v>
       </c>
       <c r="F93">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="G93">
-        <v>0.166666666666667</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="H93">
-        <v>7.38</v>
+        <v>5.94</v>
       </c>
       <c r="I93">
-        <v>450</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3164,25 +3164,25 @@
         <v>20</v>
       </c>
       <c r="C94" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E94">
-        <v>438</v>
+        <v>840</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>14.35</v>
       </c>
       <c r="I94">
-        <v>438</v>
+        <v>665</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3193,25 +3193,25 @@
         <v>20</v>
       </c>
       <c r="C95" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E95">
-        <v>12</v>
+        <v>420</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.197619047619048</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>30.1525</v>
       </c>
       <c r="I95">
-        <v>12</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3222,25 +3222,25 @@
         <v>20</v>
       </c>
       <c r="C96" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E96">
-        <v>900</v>
+        <v>13</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I96">
-        <v>900</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3251,25 +3251,25 @@
         <v>20</v>
       </c>
       <c r="C97" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D97" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E97">
-        <v>492</v>
+        <v>720</v>
       </c>
       <c r="F97">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="G97">
-        <v>0.42479674796748</v>
+        <v>0.244444444444444</v>
       </c>
       <c r="H97">
-        <v>74.7175</v>
+        <v>14.432</v>
       </c>
       <c r="I97">
-        <v>283</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3280,25 +3280,25 @@
         <v>20</v>
       </c>
       <c r="C98" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E98">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="F98">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="G98">
-        <v>0.333333333333333</v>
+        <v>0.204954954954955</v>
       </c>
       <c r="H98">
-        <v>3.96</v>
+        <v>32.7125</v>
       </c>
       <c r="I98">
-        <v>8</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3309,25 +3309,25 @@
         <v>20</v>
       </c>
       <c r="C99" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E99">
-        <v>900</v>
+        <v>14</v>
       </c>
       <c r="F99">
-        <v>310</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>0.344444444444444</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="H99">
-        <v>25.42</v>
+        <v>2.97</v>
       </c>
       <c r="I99">
-        <v>590</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3338,25 +3338,25 @@
         <v>20</v>
       </c>
       <c r="C100" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D100" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E100">
-        <v>534</v>
+        <v>1200</v>
       </c>
       <c r="F100">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="G100">
-        <v>0.295880149812734</v>
+        <v>0.0583333333333333</v>
       </c>
       <c r="H100">
-        <v>56.485</v>
+        <v>5.74</v>
       </c>
       <c r="I100">
-        <v>376</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3367,25 +3367,25 @@
         <v>20</v>
       </c>
       <c r="C101" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E101">
-        <v>12</v>
+        <v>462</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="G101">
-        <v>0.583333333333333</v>
+        <v>0.177489177489178</v>
       </c>
       <c r="H101">
-        <v>6.93</v>
+        <v>29.315</v>
       </c>
       <c r="I101">
-        <v>5</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3396,25 +3396,25 @@
         <v>20</v>
       </c>
       <c r="C102" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E102">
-        <v>900</v>
+        <v>12</v>
       </c>
       <c r="F102">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>0.227777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H102">
-        <v>16.81</v>
+        <v>1.98</v>
       </c>
       <c r="I102">
-        <v>695</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3425,25 +3425,25 @@
         <v>20</v>
       </c>
       <c r="C103" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E103">
-        <v>522</v>
+        <v>1020</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>0.0225490196078431</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1.886</v>
       </c>
       <c r="I103">
-        <v>522</v>
+        <v>997</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3454,25 +3454,25 @@
         <v>20</v>
       </c>
       <c r="C104" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E104">
-        <v>12</v>
+        <v>546</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.399267399267399</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>78.465</v>
       </c>
       <c r="I104">
-        <v>12</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3483,54 +3483,54 @@
         <v>20</v>
       </c>
       <c r="C105" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E105">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I105">
-        <v>960</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D106" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E106">
-        <v>408</v>
+        <v>960</v>
       </c>
       <c r="F106">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>0.06617647058823529</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>9.6525</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>381</v>
+        <v>960</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3541,25 +3541,25 @@
         <v>21</v>
       </c>
       <c r="C107" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E107">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.438725490196078</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>64.1425</v>
       </c>
       <c r="I107">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3570,25 +3570,25 @@
         <v>21</v>
       </c>
       <c r="C108" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E108">
-        <v>720</v>
+        <v>12</v>
       </c>
       <c r="F108">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="G108">
-        <v>0.0791666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H108">
-        <v>4.674</v>
+        <v>4.95</v>
       </c>
       <c r="I108">
-        <v>663</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3599,25 +3599,25 @@
         <v>21</v>
       </c>
       <c r="C109" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D109" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E109">
-        <v>336</v>
+        <v>780</v>
       </c>
       <c r="F109">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="G109">
-        <v>0.529761904761905</v>
+        <v>0.0807692307692308</v>
       </c>
       <c r="H109">
-        <v>63.635</v>
+        <v>5.166</v>
       </c>
       <c r="I109">
-        <v>158</v>
+        <v>717</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3628,25 +3628,25 @@
         <v>21</v>
       </c>
       <c r="C110" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E110">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="G110">
-        <v>0.833333333333333</v>
+        <v>0.258064516129032</v>
       </c>
       <c r="H110">
-        <v>9.9</v>
+        <v>31.46</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3657,25 +3657,25 @@
         <v>21</v>
       </c>
       <c r="C111" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E111">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="F111">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>0.29</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H111">
-        <v>14.268</v>
+        <v>9.9</v>
       </c>
       <c r="I111">
-        <v>426</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3686,25 +3686,25 @@
         <v>21</v>
       </c>
       <c r="C112" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D112" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E112">
-        <v>354</v>
+        <v>600</v>
       </c>
       <c r="F112">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="G112">
-        <v>0.135593220338983</v>
+        <v>0.226666666666667</v>
       </c>
       <c r="H112">
-        <v>17.16</v>
+        <v>11.152</v>
       </c>
       <c r="I112">
-        <v>306</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3715,25 +3715,25 @@
         <v>21</v>
       </c>
       <c r="C113" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E113">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="G113">
-        <v>0.25</v>
+        <v>0.462365591397849</v>
       </c>
       <c r="H113">
-        <v>2.97</v>
+        <v>61.94</v>
       </c>
       <c r="I113">
-        <v>9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3744,25 +3744,25 @@
         <v>21</v>
       </c>
       <c r="C114" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E114">
-        <v>660</v>
+        <v>12</v>
       </c>
       <c r="F114">
-        <v>324</v>
+        <v>8</v>
       </c>
       <c r="G114">
-        <v>0.490909090909091</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H114">
-        <v>26.568</v>
+        <v>7.92</v>
       </c>
       <c r="I114">
-        <v>336</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3773,25 +3773,25 @@
         <v>21</v>
       </c>
       <c r="C115" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E115">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="F115">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="G115">
-        <v>0.469047619047619</v>
+        <v>0.118518518518519</v>
       </c>
       <c r="H115">
-        <v>70.42749999999999</v>
+        <v>5.248</v>
       </c>
       <c r="I115">
-        <v>223</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3802,25 +3802,25 @@
         <v>21</v>
       </c>
       <c r="C116" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E116">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G116">
-        <v>0.166666666666667</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="H116">
-        <v>1.98</v>
+        <v>25.025</v>
       </c>
       <c r="I116">
-        <v>10</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3831,25 +3831,25 @@
         <v>21</v>
       </c>
       <c r="C117" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E117">
-        <v>720</v>
+        <v>12</v>
       </c>
       <c r="F117">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="G117">
-        <v>0.172222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="H117">
-        <v>10.168</v>
+        <v>8.91</v>
       </c>
       <c r="I117">
-        <v>596</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3860,25 +3860,25 @@
         <v>21</v>
       </c>
       <c r="C118" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E118">
-        <v>396</v>
+        <v>720</v>
       </c>
       <c r="F118">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="G118">
-        <v>0.502525252525252</v>
+        <v>0.344444444444444</v>
       </c>
       <c r="H118">
-        <v>71.1425</v>
+        <v>20.336</v>
       </c>
       <c r="I118">
-        <v>197</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3889,25 +3889,25 @@
         <v>21</v>
       </c>
       <c r="C119" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E119">
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="F119">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="G119">
-        <v>0.666666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H119">
-        <v>7.92</v>
+        <v>57.2</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3918,25 +3918,25 @@
         <v>21</v>
       </c>
       <c r="C120" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E120">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="F120">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="G120">
-        <v>0.194871794871795</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H120">
-        <v>12.464</v>
+        <v>4.95</v>
       </c>
       <c r="I120">
-        <v>628</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3947,25 +3947,25 @@
         <v>21</v>
       </c>
       <c r="C121" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E121">
-        <v>444</v>
+        <v>1260</v>
       </c>
       <c r="F121">
-        <v>92</v>
+        <v>498</v>
       </c>
       <c r="G121">
-        <v>0.207207207207207</v>
+        <v>0.395238095238095</v>
       </c>
       <c r="H121">
-        <v>32.89</v>
+        <v>40.836</v>
       </c>
       <c r="I121">
-        <v>352</v>
+        <v>762</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3976,25 +3976,25 @@
         <v>21</v>
       </c>
       <c r="C122" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E122">
-        <v>12</v>
+        <v>402</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G122">
-        <v>0.75</v>
+        <v>0.218905472636816</v>
       </c>
       <c r="H122">
-        <v>8.91</v>
+        <v>31.46</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4005,25 +4005,25 @@
         <v>21</v>
       </c>
       <c r="C123" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E123">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="F123">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="G123">
-        <v>0.193589743589744</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H123">
-        <v>12.382</v>
+        <v>3.96</v>
       </c>
       <c r="I123">
-        <v>629</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4034,25 +4034,25 @@
         <v>21</v>
       </c>
       <c r="C124" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E124">
-        <v>372</v>
+        <v>1020</v>
       </c>
       <c r="F124">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G124">
-        <v>0.239247311827957</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="H124">
-        <v>31.8175</v>
+        <v>3.28</v>
       </c>
       <c r="I124">
-        <v>283</v>
+        <v>980</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4063,25 +4063,25 @@
         <v>21</v>
       </c>
       <c r="C125" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E125">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="F125">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G125">
-        <v>0.666666666666667</v>
+        <v>0.06944444444444441</v>
       </c>
       <c r="H125">
-        <v>7.92</v>
+        <v>10.725</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4092,54 +4092,54 @@
         <v>21</v>
       </c>
       <c r="C126" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E126">
-        <v>900</v>
+        <v>12</v>
       </c>
       <c r="F126">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="G126">
-        <v>0.207777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H126">
-        <v>15.334</v>
+        <v>1.98</v>
       </c>
       <c r="I126">
-        <v>713</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C127" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E127">
-        <v>708</v>
+        <v>1080</v>
       </c>
       <c r="F127">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G127">
-        <v>0.0833333333333333</v>
+        <v>0.0268518518518519</v>
       </c>
       <c r="H127">
-        <v>21.5125</v>
+        <v>2.378</v>
       </c>
       <c r="I127">
-        <v>649</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4150,25 +4150,25 @@
         <v>22</v>
       </c>
       <c r="C128" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E128">
-        <v>12</v>
+        <v>726</v>
       </c>
       <c r="F128">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="G128">
-        <v>0.25</v>
+        <v>0.316804407713499</v>
       </c>
       <c r="H128">
-        <v>2.97</v>
+        <v>83.66500000000001</v>
       </c>
       <c r="I128">
-        <v>9</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4179,25 +4179,25 @@
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E129">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I129">
-        <v>480</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4208,25 +4208,25 @@
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D130" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E130">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F130">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G130">
-        <v>0.261904761904762</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="H130">
-        <v>51.3025</v>
+        <v>12.71</v>
       </c>
       <c r="I130">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4237,25 +4237,25 @@
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E131">
-        <v>18</v>
+        <v>564</v>
       </c>
       <c r="F131">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="G131">
-        <v>0.611111111111111</v>
+        <v>0.23936170212766</v>
       </c>
       <c r="H131">
-        <v>10.89</v>
+        <v>48.7325</v>
       </c>
       <c r="I131">
-        <v>7</v>
+        <v>429</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4266,25 +4266,25 @@
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E132">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="F132">
-        <v>218</v>
+        <v>2</v>
       </c>
       <c r="G132">
-        <v>0.454166666666667</v>
+        <v>0.125</v>
       </c>
       <c r="H132">
-        <v>17.876</v>
+        <v>1.98</v>
       </c>
       <c r="I132">
-        <v>262</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4295,25 +4295,25 @@
         <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D133" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E133">
-        <v>648</v>
+        <v>420</v>
       </c>
       <c r="F133">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="G133">
-        <v>0.126543209876543</v>
+        <v>0.392857142857143</v>
       </c>
       <c r="H133">
-        <v>29.615</v>
+        <v>13.53</v>
       </c>
       <c r="I133">
-        <v>566</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4324,25 +4324,25 @@
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E134">
-        <v>18</v>
+        <v>660</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>0.292424242424242</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>69.5975</v>
       </c>
       <c r="I134">
-        <v>18</v>
+        <v>467</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4353,25 +4353,25 @@
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E135">
-        <v>420</v>
+        <v>17</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I135">
-        <v>420</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4382,25 +4382,25 @@
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D136" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E136">
-        <v>618</v>
+        <v>420</v>
       </c>
       <c r="F136">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="G136">
-        <v>0.273462783171521</v>
+        <v>0.430952380952381</v>
       </c>
       <c r="H136">
-        <v>60.7175</v>
+        <v>14.842</v>
       </c>
       <c r="I136">
-        <v>449</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4411,25 +4411,25 @@
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E137">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="F137">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="G137">
-        <v>0.222222222222222</v>
+        <v>0.21</v>
       </c>
       <c r="H137">
-        <v>3.96</v>
+        <v>45.825</v>
       </c>
       <c r="I137">
-        <v>14</v>
+        <v>474</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4440,25 +4440,25 @@
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E138">
-        <v>420</v>
+        <v>12</v>
       </c>
       <c r="F138">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="G138">
-        <v>0.319047619047619</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H138">
-        <v>10.988</v>
+        <v>6.93</v>
       </c>
       <c r="I138">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4469,25 +4469,25 @@
         <v>22</v>
       </c>
       <c r="C139" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D139" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E139">
-        <v>744</v>
+        <v>420</v>
       </c>
       <c r="F139">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G139">
-        <v>0.0510752688172043</v>
+        <v>0.138095238095238</v>
       </c>
       <c r="H139">
-        <v>13.585</v>
+        <v>4.756</v>
       </c>
       <c r="I139">
-        <v>706</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4498,25 +4498,25 @@
         <v>22</v>
       </c>
       <c r="C140" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E140">
-        <v>18</v>
+        <v>714</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.224089635854342</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="I140">
-        <v>18</v>
+        <v>554</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4527,25 +4527,25 @@
         <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E141">
-        <v>420</v>
+        <v>12</v>
       </c>
       <c r="F141">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <v>0.278571428571429</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H141">
-        <v>9.593999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="I141">
-        <v>303</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4556,25 +4556,25 @@
         <v>22</v>
       </c>
       <c r="C142" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D142" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E142">
-        <v>762</v>
+        <v>420</v>
       </c>
       <c r="F142">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="G142">
-        <v>0.194225721784777</v>
+        <v>0.0880952380952381</v>
       </c>
       <c r="H142">
-        <v>53.09</v>
+        <v>3.034</v>
       </c>
       <c r="I142">
-        <v>614</v>
+        <v>383</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4585,25 +4585,25 @@
         <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E143">
-        <v>18</v>
+        <v>696</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="G143">
-        <v>0.111111111111111</v>
+        <v>0.209770114942529</v>
       </c>
       <c r="H143">
-        <v>1.98</v>
+        <v>52.195</v>
       </c>
       <c r="I143">
-        <v>16</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4614,25 +4614,25 @@
         <v>22</v>
       </c>
       <c r="C144" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D144" t="s">
         <v>25</v>
       </c>
       <c r="E144">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="F144">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G144">
-        <v>0.0857142857142857</v>
+        <v>0.09074074074074071</v>
       </c>
       <c r="H144">
-        <v>2.952</v>
+        <v>4.018</v>
       </c>
       <c r="I144">
-        <v>384</v>
+        <v>491</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4643,25 +4643,25 @@
         <v>22</v>
       </c>
       <c r="C145" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
       </c>
       <c r="E145">
-        <v>798</v>
+        <v>732</v>
       </c>
       <c r="F145">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G145">
-        <v>0.18922305764411</v>
+        <v>0.198087431693989</v>
       </c>
       <c r="H145">
-        <v>54.8225</v>
+        <v>52.2375</v>
       </c>
       <c r="I145">
-        <v>647</v>
+        <v>587</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4672,54 +4672,25 @@
         <v>22</v>
       </c>
       <c r="C146" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E146">
-        <v>18</v>
+        <v>540</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>5.904</v>
       </c>
       <c r="I146">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" t="s">
-        <v>22</v>
-      </c>
-      <c r="C147" s="2">
-        <v>45829</v>
-      </c>
-      <c r="D147" t="s">
-        <v>25</v>
-      </c>
-      <c r="E147">
-        <v>540</v>
-      </c>
-      <c r="F147">
-        <v>81</v>
-      </c>
-      <c r="G147">
-        <v>0.15</v>
-      </c>
-      <c r="H147">
-        <v>6.642</v>
-      </c>
-      <c r="I147">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/cml_usage.xlsx
+++ b/data/processed/cml_usage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="26">
   <si>
     <t>store_name</t>
   </si>
@@ -453,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,25 +496,25 @@
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>672</v>
+        <v>618</v>
       </c>
       <c r="F2">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="G2">
-        <v>0.18452380952381</v>
+        <v>0.105177993527508</v>
       </c>
       <c r="H2">
-        <v>44.63</v>
+        <v>23.2375</v>
       </c>
       <c r="I2">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -534,16 +534,16 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,25 +554,25 @@
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="F4">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>0.0575757575757576</v>
+        <v>0.01</v>
       </c>
       <c r="H4">
-        <v>6.232</v>
+        <v>0.984</v>
       </c>
       <c r="I4">
-        <v>1244</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,25 +583,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F5">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="G5">
-        <v>0.189873417721519</v>
+        <v>0.245614035087719</v>
       </c>
       <c r="H5">
-        <v>33.075</v>
+        <v>40.76</v>
       </c>
       <c r="I5">
-        <v>384</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,25 +612,25 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>0.333333333333333</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="H6">
-        <v>3.96</v>
+        <v>10.89</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,25 +641,25 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>840</v>
+        <v>360</v>
       </c>
       <c r="F7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.104761904761905</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.216</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>752</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,25 +670,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F8">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.12962962962963</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>20.26</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>376</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -708,16 +708,16 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -737,16 +737,16 @@
         <v>840</v>
       </c>
       <c r="F10">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.102380952380952</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>7.052</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>754</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,25 +757,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>0.104417670682731</v>
+        <v>0.117886178861789</v>
       </c>
       <c r="H11">
-        <v>19.07</v>
+        <v>20.795</v>
       </c>
       <c r="I11">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -786,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -795,16 +795,16 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -815,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -844,25 +844,25 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="F14">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0700757575757576</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>13.8275</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -873,25 +873,25 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -902,13 +902,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>720</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -931,25 +931,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="G17">
-        <v>0.00336700336700337</v>
+        <v>0.0931899641577061</v>
       </c>
       <c r="H17">
-        <v>0.835</v>
+        <v>18.59</v>
       </c>
       <c r="I17">
-        <v>592</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -960,25 +960,25 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -989,13 +989,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1560</v>
+        <v>840</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1560</v>
+        <v>840</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="F20">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="G20">
-        <v>0.118181818181818</v>
+        <v>0.224919093851133</v>
       </c>
       <c r="H20">
-        <v>28.605</v>
+        <v>49.6925</v>
       </c>
       <c r="I20">
-        <v>582</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1047,25 +1047,25 @@
         <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="I21">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1076,239 +1076,239 @@
         <v>16</v>
       </c>
       <c r="C22" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22">
-        <v>1800</v>
+        <v>1320</v>
       </c>
       <c r="F22">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G22">
-        <v>0.0833333333333333</v>
+        <v>0.378787878787879</v>
       </c>
       <c r="H22">
-        <v>12.3</v>
+        <v>41</v>
       </c>
       <c r="I22">
-        <v>1650</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="F23">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="G23">
-        <v>0.096078431372549</v>
+        <v>0.188172043010753</v>
       </c>
       <c r="H23">
-        <v>17.5175</v>
+        <v>37.5375</v>
       </c>
       <c r="I23">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="H24">
+        <v>7.92</v>
+      </c>
+      <c r="I24">
         <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2">
-        <v>45830</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>12</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1260</v>
+        <v>1440</v>
       </c>
       <c r="F25">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="G25">
-        <v>0.166666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H25">
-        <v>17.22</v>
+        <v>49.2</v>
       </c>
       <c r="I25">
-        <v>1050</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
       </c>
       <c r="E26">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="F26">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="G26">
-        <v>0.177248677248677</v>
+        <v>0.346491228070175</v>
       </c>
       <c r="H26">
-        <v>23.9525</v>
+        <v>57.205</v>
       </c>
       <c r="I26">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.98</v>
+      </c>
+      <c r="I27">
         <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2">
-        <v>45831</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27">
-        <v>15</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <v>0.533333333333333</v>
-      </c>
-      <c r="H27">
-        <v>7.92</v>
-      </c>
-      <c r="I27">
-        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="F28">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.262820512820513</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>16.81</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>575</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="F29">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="G29">
-        <v>0.339662447257384</v>
+        <v>0.251173708920188</v>
       </c>
       <c r="H29">
-        <v>57.5575</v>
+        <v>39.5125</v>
       </c>
       <c r="I29">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -1317,27 +1317,27 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -1346,178 +1346,178 @@
         <v>840</v>
       </c>
       <c r="F31">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.0476190476190476</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>800</v>
+        <v>840</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
       </c>
       <c r="E32">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="F32">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="G32">
-        <v>0.273504273504274</v>
+        <v>0.0516431924882629</v>
       </c>
       <c r="H32">
-        <v>45.76</v>
+        <v>8.315</v>
       </c>
       <c r="I32">
-        <v>340</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
       <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0.25</v>
+      </c>
+      <c r="H33">
+        <v>2.97</v>
+      </c>
+      <c r="I33">
         <v>9</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H33">
-        <v>5.94</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c r="F34">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="G34">
-        <v>0.321428571428571</v>
+        <v>0.103846153846154</v>
       </c>
       <c r="H34">
-        <v>22.14</v>
+        <v>6.642</v>
       </c>
       <c r="I34">
-        <v>570</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
       </c>
       <c r="E35">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="F35">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G35">
-        <v>0.188888888888889</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="H35">
-        <v>30.6875</v>
+        <v>26.1</v>
       </c>
       <c r="I35">
-        <v>365</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1529,82 +1529,82 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>840</v>
+        <v>960</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="F38">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="G38">
-        <v>0.0757575757575758</v>
+        <v>0.268976897689769</v>
       </c>
       <c r="H38">
-        <v>16.0875</v>
+        <v>59.4425</v>
       </c>
       <c r="I38">
-        <v>549</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
       </c>
       <c r="E40">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1616,76 +1616,76 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1440</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
       </c>
       <c r="E41">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="F41">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>0.166666666666667</v>
+        <v>0.0102040816326531</v>
       </c>
       <c r="H41">
-        <v>36.1075</v>
+        <v>2.145</v>
       </c>
       <c r="I41">
-        <v>505</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>24</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H42">
+        <v>6.93</v>
+      </c>
+      <c r="I42">
         <v>17</v>
-      </c>
-      <c r="C42" s="2">
-        <v>45836</v>
-      </c>
-      <c r="D42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -1694,149 +1694,149 @@
         <v>1440</v>
       </c>
       <c r="F43">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>9.84</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1320</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44">
-        <v>666</v>
+        <v>552</v>
       </c>
       <c r="F44">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G44">
-        <v>0.159159159159159</v>
+        <v>0.219202898550725</v>
       </c>
       <c r="H44">
-        <v>38.075</v>
+        <v>43.2575</v>
       </c>
       <c r="I44">
-        <v>560</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H45">
-        <v>2.97</v>
+        <v>5.94</v>
       </c>
       <c r="I45">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46">
-        <v>1200</v>
+        <v>1440</v>
       </c>
       <c r="F46">
-        <v>272</v>
+        <v>159</v>
       </c>
       <c r="G46">
-        <v>0.226666666666667</v>
+        <v>0.110416666666667</v>
       </c>
       <c r="H46">
-        <v>22.304</v>
+        <v>13.038</v>
       </c>
       <c r="I46">
-        <v>928</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="E47">
-        <v>528</v>
+        <v>432</v>
       </c>
       <c r="F47">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G47">
-        <v>0.0871212121212121</v>
+        <v>0.293981481481481</v>
       </c>
       <c r="H47">
-        <v>16.445</v>
+        <v>45.7625</v>
       </c>
       <c r="I47">
-        <v>482</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1848,169 +1848,169 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
       </c>
       <c r="E49">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="I49">
-        <v>840</v>
+        <v>665</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50">
-        <v>546</v>
+        <v>444</v>
       </c>
       <c r="F50">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G50">
-        <v>0.133699633699634</v>
+        <v>0.11036036036036</v>
       </c>
       <c r="H50">
-        <v>26.3375</v>
+        <v>17.5175</v>
       </c>
       <c r="I50">
-        <v>473</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>0.25</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H51">
-        <v>2.97</v>
+        <v>4.95</v>
       </c>
       <c r="I51">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
       </c>
       <c r="E52">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.0558823529411765</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>4.674</v>
       </c>
       <c r="I52">
-        <v>840</v>
+        <v>963</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
       </c>
       <c r="E53">
-        <v>576</v>
+        <v>450</v>
       </c>
       <c r="F53">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G53">
-        <v>0.0225694444444444</v>
+        <v>0.108888888888889</v>
       </c>
       <c r="H53">
-        <v>4.7075</v>
+        <v>17.5175</v>
       </c>
       <c r="I53">
-        <v>563</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
       </c>
       <c r="E54">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2022,18 +2022,18 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C55" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D55" t="s">
         <v>25</v>
@@ -2042,62 +2042,62 @@
         <v>840</v>
       </c>
       <c r="F55">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1.722</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56">
+        <v>462</v>
+      </c>
+      <c r="F56">
         <v>18</v>
       </c>
-      <c r="C56" s="2">
-        <v>45834</v>
-      </c>
-      <c r="D56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56">
-        <v>564</v>
-      </c>
-      <c r="F56">
-        <v>27</v>
-      </c>
       <c r="G56">
-        <v>0.0478723404255319</v>
+        <v>0.038961038961039</v>
       </c>
       <c r="H56">
-        <v>9.6525</v>
+        <v>6.435</v>
       </c>
       <c r="I56">
-        <v>537</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
       </c>
       <c r="E57">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2109,82 +2109,82 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
       </c>
       <c r="E58">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.0757575757575758</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I58">
-        <v>1200</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
       </c>
       <c r="E59">
-        <v>774</v>
+        <v>486</v>
       </c>
       <c r="F59">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G59">
-        <v>0.116279069767442</v>
+        <v>0.065843621399177</v>
       </c>
       <c r="H59">
-        <v>32.515</v>
+        <v>11.44</v>
       </c>
       <c r="I59">
-        <v>684</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2196,82 +2196,82 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
       </c>
       <c r="E61">
-        <v>1320</v>
+        <v>1440</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>0.0347222222222222</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I61">
-        <v>1320</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C62" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
       </c>
       <c r="E62">
-        <v>792</v>
+        <v>558</v>
       </c>
       <c r="F62">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="G62">
-        <v>0.0416666666666667</v>
+        <v>0.120071684587814</v>
       </c>
       <c r="H62">
-        <v>11.7975</v>
+        <v>23.9525</v>
       </c>
       <c r="I62">
-        <v>759</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C63" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
       </c>
       <c r="E63">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2283,772 +2283,772 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
       </c>
       <c r="E64">
-        <v>1320</v>
+        <v>1380</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>22.14</v>
       </c>
       <c r="I64">
-        <v>1320</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C65" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
       </c>
       <c r="E65">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F65">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G65">
-        <v>0.271276595744681</v>
+        <v>0.175438596491228</v>
       </c>
       <c r="H65">
-        <v>55.7775</v>
+        <v>35.75</v>
       </c>
       <c r="I65">
-        <v>411</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C66" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
       </c>
       <c r="E66">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66">
-        <v>0.0555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="H66">
-        <v>0.99</v>
+        <v>2.97</v>
       </c>
       <c r="I66">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C67" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
       </c>
       <c r="E67">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="F67">
-        <v>258</v>
+        <v>610</v>
       </c>
       <c r="G67">
-        <v>0.26875</v>
+        <v>0.462121212121212</v>
       </c>
       <c r="H67">
-        <v>21.156</v>
+        <v>50.02</v>
       </c>
       <c r="I67">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C68" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
       </c>
       <c r="E68">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="F68">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G68">
-        <v>0.25</v>
+        <v>0.2018779342723</v>
       </c>
       <c r="H68">
-        <v>36.825</v>
+        <v>30.745</v>
       </c>
       <c r="I68">
-        <v>306</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C69" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C70" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
       </c>
       <c r="E70">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F70">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0.244444444444444</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>14.432</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>544</v>
+        <v>840</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C71" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
       <c r="E71">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F71">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G71">
-        <v>0.303482587064677</v>
+        <v>0.295454545454545</v>
       </c>
       <c r="H71">
-        <v>44.275</v>
+        <v>42.2775</v>
       </c>
       <c r="I71">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C72" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G72">
         <v>0.333333333333333</v>
       </c>
       <c r="H72">
-        <v>3.96</v>
+        <v>1.98</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C73" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D73" t="s">
         <v>25</v>
       </c>
       <c r="E73">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="F73">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G73">
-        <v>0.07777777777777781</v>
+        <v>0.0625</v>
       </c>
       <c r="H73">
-        <v>4.592</v>
+        <v>4.92</v>
       </c>
       <c r="I73">
-        <v>664</v>
+        <v>900</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C74" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
       </c>
       <c r="E74">
-        <v>432</v>
+        <v>348</v>
       </c>
       <c r="F74">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="G74">
-        <v>0.277777777777778</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H74">
-        <v>43.56</v>
+        <v>4.29</v>
       </c>
       <c r="I74">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
       </c>
       <c r="E75">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G75">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H75">
-        <v>11.88</v>
+        <v>2.97</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C76" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D76" t="s">
         <v>25</v>
       </c>
       <c r="E76">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="F76">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.289285714285714</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>19.926</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>597</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C77" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
       </c>
       <c r="E77">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F77">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G77">
-        <v>0.161971830985915</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="H77">
-        <v>25.0275</v>
+        <v>26.8125</v>
       </c>
       <c r="I77">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C78" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
       </c>
       <c r="E78">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0.444444444444444</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H78">
-        <v>7.92</v>
+        <v>0.99</v>
       </c>
       <c r="I78">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C79" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
       </c>
       <c r="E79">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>0.229166666666667</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>22.55</v>
       </c>
       <c r="I79">
-        <v>840</v>
+        <v>925</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C80" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
       </c>
       <c r="E80">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="F80">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G80">
-        <v>0.0268817204301075</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H80">
-        <v>5.3625</v>
+        <v>25.74</v>
       </c>
       <c r="I80">
-        <v>543</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C81" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
       </c>
       <c r="E81">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>11.88</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C82" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D82" t="s">
         <v>25</v>
       </c>
       <c r="E82">
-        <v>960</v>
+        <v>1560</v>
       </c>
       <c r="F82">
-        <v>97</v>
+        <v>470</v>
       </c>
       <c r="G82">
-        <v>0.101041666666667</v>
+        <v>0.301282051282051</v>
       </c>
       <c r="H82">
-        <v>7.954</v>
+        <v>38.54</v>
       </c>
       <c r="I82">
-        <v>863</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C83" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
       </c>
       <c r="E83">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="F83">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G83">
-        <v>0.0293040293040293</v>
+        <v>0.09108527131782949</v>
       </c>
       <c r="H83">
-        <v>5.72</v>
+        <v>16.8025</v>
       </c>
       <c r="I83">
-        <v>530</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C84" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
       </c>
       <c r="E84">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.291666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H84">
-        <v>6.93</v>
+        <v>0.99</v>
       </c>
       <c r="I84">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C85" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D85" t="s">
         <v>25</v>
       </c>
       <c r="E85">
-        <v>960</v>
+        <v>1440</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>0.00104166666666667</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0.082</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>959</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C86" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
       </c>
       <c r="E86">
-        <v>516</v>
+        <v>714</v>
       </c>
       <c r="F86">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="G86">
-        <v>0.182170542635659</v>
+        <v>0.222689075630252</v>
       </c>
       <c r="H86">
-        <v>34.325</v>
+        <v>57.0225</v>
       </c>
       <c r="I86">
-        <v>422</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C87" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0.533333333333333</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C88" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
       </c>
       <c r="E88">
-        <v>840</v>
+        <v>1320</v>
       </c>
       <c r="F88">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="G88">
-        <v>0.09880952380952381</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H88">
-        <v>6.806</v>
+        <v>2.46</v>
       </c>
       <c r="I88">
-        <v>757</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C89" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
       </c>
       <c r="E89">
-        <v>426</v>
+        <v>522</v>
       </c>
       <c r="F89">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G89">
-        <v>0.204225352112676</v>
+        <v>0.130268199233716</v>
       </c>
       <c r="H89">
-        <v>31.1025</v>
+        <v>24.55</v>
       </c>
       <c r="I89">
-        <v>339</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C90" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -3057,100 +3057,100 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C91" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D91" t="s">
         <v>25</v>
       </c>
       <c r="E91">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F91">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G91">
-        <v>0.236111111111111</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="H91">
-        <v>13.94</v>
+        <v>4.1</v>
       </c>
       <c r="I91">
-        <v>550</v>
+        <v>790</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C92" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
       </c>
       <c r="E92">
-        <v>450</v>
+        <v>558</v>
       </c>
       <c r="F92">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="G92">
-        <v>0.362222222222222</v>
+        <v>0.0878136200716846</v>
       </c>
       <c r="H92">
-        <v>59.1125</v>
+        <v>17.5775</v>
       </c>
       <c r="I92">
-        <v>287</v>
+        <v>509</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C93" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
       </c>
       <c r="E93">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G93">
-        <v>0.428571428571429</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H93">
-        <v>5.94</v>
+        <v>3.96</v>
       </c>
       <c r="I93">
         <v>8</v>
@@ -3158,13 +3158,13 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C94" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
@@ -3173,172 +3173,172 @@
         <v>840</v>
       </c>
       <c r="F94">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>0.208333333333333</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>14.35</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>665</v>
+        <v>840</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C95" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
       </c>
       <c r="E95">
-        <v>420</v>
+        <v>630</v>
       </c>
       <c r="F95">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="G95">
-        <v>0.197619047619048</v>
+        <v>0.0793650793650794</v>
       </c>
       <c r="H95">
-        <v>30.1525</v>
+        <v>18.295</v>
       </c>
       <c r="I95">
-        <v>337</v>
+        <v>580</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C96" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G96">
-        <v>0.230769230769231</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H96">
-        <v>2.97</v>
+        <v>6.93</v>
       </c>
       <c r="I96">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C97" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D97" t="s">
         <v>25</v>
       </c>
       <c r="E97">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="F97">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0.244444444444444</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>14.432</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>544</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C98" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
       </c>
       <c r="E98">
-        <v>444</v>
+        <v>666</v>
       </c>
       <c r="F98">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="G98">
-        <v>0.204954954954955</v>
+        <v>0.0285285285285285</v>
       </c>
       <c r="H98">
-        <v>32.7125</v>
+        <v>6.7925</v>
       </c>
       <c r="I98">
-        <v>353</v>
+        <v>647</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C99" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
       </c>
       <c r="E99">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>0.214285714285714</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C100" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D100" t="s">
         <v>25</v>
@@ -3347,56 +3347,56 @@
         <v>1200</v>
       </c>
       <c r="F100">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0.0583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>5.74</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1130</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C101" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
       </c>
       <c r="E101">
-        <v>462</v>
+        <v>702</v>
       </c>
       <c r="F101">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="G101">
-        <v>0.177489177489178</v>
+        <v>0.225071225071225</v>
       </c>
       <c r="H101">
-        <v>29.315</v>
+        <v>57.035</v>
       </c>
       <c r="I101">
-        <v>380</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C102" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -3405,120 +3405,120 @@
         <v>12</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G102">
-        <v>0.166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="H102">
-        <v>1.98</v>
+        <v>8.91</v>
       </c>
       <c r="I102">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C103" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D103" t="s">
         <v>25</v>
       </c>
       <c r="E103">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="F103">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0.0225490196078431</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>1.886</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>997</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C104" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
       </c>
       <c r="E104">
-        <v>546</v>
+        <v>750</v>
       </c>
       <c r="F104">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="G104">
-        <v>0.399267399267399</v>
+        <v>0.237333333333333</v>
       </c>
       <c r="H104">
-        <v>78.465</v>
+        <v>64.765</v>
       </c>
       <c r="I104">
-        <v>328</v>
+        <v>572</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C105" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G105">
-        <v>0.583333333333333</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H105">
-        <v>6.93</v>
+        <v>3.96</v>
       </c>
       <c r="I105">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C106" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D106" t="s">
         <v>25</v>
       </c>
       <c r="E106">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3530,47 +3530,47 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>960</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C107" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
       </c>
       <c r="E107">
-        <v>408</v>
+        <v>954</v>
       </c>
       <c r="F107">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="G107">
-        <v>0.438725490196078</v>
+        <v>0.10482180293501</v>
       </c>
       <c r="H107">
-        <v>64.1425</v>
+        <v>35.8</v>
       </c>
       <c r="I107">
-        <v>229</v>
+        <v>854</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C108" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -3579,85 +3579,85 @@
         <v>12</v>
       </c>
       <c r="F108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0.416666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H108">
-        <v>4.95</v>
+        <v>0.99</v>
       </c>
       <c r="I108">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C109" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D109" t="s">
         <v>25</v>
       </c>
       <c r="E109">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="F109">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>0.0807692307692308</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>5.166</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>717</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C110" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
       </c>
       <c r="E110">
-        <v>341</v>
+        <v>492</v>
       </c>
       <c r="F110">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G110">
-        <v>0.258064516129032</v>
+        <v>0.128048780487805</v>
       </c>
       <c r="H110">
-        <v>31.46</v>
+        <v>22.5225</v>
       </c>
       <c r="I110">
-        <v>253</v>
+        <v>429</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C111" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -3666,85 +3666,85 @@
         <v>12</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G111">
-        <v>0.833333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H111">
-        <v>9.9</v>
+        <v>4.95</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C112" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D112" t="s">
         <v>25</v>
       </c>
       <c r="E112">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F112">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G112">
-        <v>0.226666666666667</v>
+        <v>0.0583333333333333</v>
       </c>
       <c r="H112">
-        <v>11.152</v>
+        <v>4.018</v>
       </c>
       <c r="I112">
-        <v>464</v>
+        <v>791</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C113" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
       </c>
       <c r="E113">
-        <v>372</v>
+        <v>516</v>
       </c>
       <c r="F113">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="G113">
-        <v>0.462365591397849</v>
+        <v>0.228682170542636</v>
       </c>
       <c r="H113">
-        <v>61.94</v>
+        <v>42.335</v>
       </c>
       <c r="I113">
-        <v>200</v>
+        <v>398</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C114" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -3753,85 +3753,85 @@
         <v>12</v>
       </c>
       <c r="F114">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C115" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D115" t="s">
         <v>25</v>
       </c>
       <c r="E115">
-        <v>540</v>
+        <v>840</v>
       </c>
       <c r="F115">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G115">
-        <v>0.118518518518519</v>
+        <v>0.06547619047619049</v>
       </c>
       <c r="H115">
-        <v>5.248</v>
+        <v>4.51</v>
       </c>
       <c r="I115">
-        <v>476</v>
+        <v>785</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C116" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
       </c>
       <c r="E116">
-        <v>360</v>
+        <v>564</v>
       </c>
       <c r="F116">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G116">
-        <v>0.194444444444444</v>
+        <v>0.074468085106383</v>
       </c>
       <c r="H116">
-        <v>25.025</v>
+        <v>15.655</v>
       </c>
       <c r="I116">
-        <v>290</v>
+        <v>522</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C117" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -3840,85 +3840,85 @@
         <v>12</v>
       </c>
       <c r="F117">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>0.75</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H117">
-        <v>8.91</v>
+        <v>1.98</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C118" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D118" t="s">
         <v>25</v>
       </c>
       <c r="E118">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F118">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>0.344444444444444</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>20.336</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>472</v>
+        <v>840</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C119" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
       </c>
       <c r="E119">
-        <v>384</v>
+        <v>576</v>
       </c>
       <c r="F119">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="G119">
-        <v>0.416666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H119">
-        <v>57.2</v>
+        <v>17.71</v>
       </c>
       <c r="I119">
-        <v>224</v>
+        <v>528</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C120" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -3941,608 +3941,608 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C121" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D121" t="s">
         <v>25</v>
       </c>
       <c r="E121">
-        <v>1260</v>
+        <v>840</v>
       </c>
       <c r="F121">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>0.395238095238095</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>40.836</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>762</v>
+        <v>840</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C122" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
       </c>
       <c r="E122">
-        <v>402</v>
+        <v>720</v>
       </c>
       <c r="F122">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G122">
-        <v>0.218905472636816</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="H122">
-        <v>31.46</v>
+        <v>27.5125</v>
       </c>
       <c r="I122">
-        <v>314</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C123" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
       </c>
       <c r="E123">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F123">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G123">
-        <v>0.333333333333333</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H123">
-        <v>3.96</v>
+        <v>6.93</v>
       </c>
       <c r="I123">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C124" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D124" t="s">
         <v>25</v>
       </c>
       <c r="E124">
-        <v>1020</v>
+        <v>1320</v>
       </c>
       <c r="F124">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="G124">
-        <v>0.0392156862745098</v>
+        <v>0.140909090909091</v>
       </c>
       <c r="H124">
-        <v>3.28</v>
+        <v>15.252</v>
       </c>
       <c r="I124">
-        <v>980</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C125" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
       </c>
       <c r="E125">
-        <v>432</v>
+        <v>780</v>
       </c>
       <c r="F125">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G125">
-        <v>0.06944444444444441</v>
+        <v>0.09102564102564099</v>
       </c>
       <c r="H125">
-        <v>10.725</v>
+        <v>26.4525</v>
       </c>
       <c r="I125">
-        <v>402</v>
+        <v>709</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C126" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
       </c>
       <c r="E126">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G126">
-        <v>0.166666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H126">
-        <v>1.98</v>
+        <v>5.94</v>
       </c>
       <c r="I126">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C127" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D127" t="s">
         <v>25</v>
       </c>
       <c r="E127">
-        <v>1080</v>
+        <v>1320</v>
       </c>
       <c r="F127">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.0268518518518519</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>2.378</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>1051</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C128" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
       </c>
       <c r="E128">
-        <v>726</v>
+        <v>528</v>
       </c>
       <c r="F128">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="G128">
-        <v>0.316804407713499</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="H128">
-        <v>83.66500000000001</v>
+        <v>58.34</v>
       </c>
       <c r="I128">
-        <v>496</v>
+        <v>368</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C129" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D129" t="s">
         <v>24</v>
       </c>
       <c r="E129">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G129">
-        <v>0.142857142857143</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H129">
-        <v>1.98</v>
+        <v>9.9</v>
       </c>
       <c r="I129">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C130" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D130" t="s">
         <v>25</v>
       </c>
       <c r="E130">
-        <v>540</v>
+        <v>960</v>
       </c>
       <c r="F130">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G130">
-        <v>0.287037037037037</v>
+        <v>0.159375</v>
       </c>
       <c r="H130">
-        <v>12.71</v>
+        <v>12.546</v>
       </c>
       <c r="I130">
-        <v>385</v>
+        <v>807</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C131" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
       </c>
       <c r="E131">
-        <v>564</v>
+        <v>438</v>
       </c>
       <c r="F131">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="G131">
-        <v>0.23936170212766</v>
+        <v>0.155251141552511</v>
       </c>
       <c r="H131">
-        <v>48.7325</v>
+        <v>24.85</v>
       </c>
       <c r="I131">
-        <v>429</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C132" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D132" t="s">
         <v>24</v>
       </c>
       <c r="E132">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F132">
         <v>2</v>
       </c>
       <c r="G132">
-        <v>0.125</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H132">
         <v>1.98</v>
       </c>
       <c r="I132">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C133" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D133" t="s">
         <v>25</v>
       </c>
       <c r="E133">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="F133">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>0.392857142857143</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>13.53</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>255</v>
+        <v>840</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C134" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
       </c>
       <c r="E134">
-        <v>660</v>
+        <v>402</v>
       </c>
       <c r="F134">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="G134">
-        <v>0.292424242424242</v>
+        <v>0.171641791044776</v>
       </c>
       <c r="H134">
-        <v>69.5975</v>
+        <v>24.9675</v>
       </c>
       <c r="I134">
-        <v>467</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C135" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
       </c>
       <c r="E135">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F135">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G135">
-        <v>0.352941176470588</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H135">
-        <v>5.94</v>
+        <v>3.96</v>
       </c>
       <c r="I135">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C136" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D136" t="s">
         <v>25</v>
       </c>
       <c r="E136">
-        <v>420</v>
+        <v>720</v>
       </c>
       <c r="F136">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="G136">
-        <v>0.430952380952381</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="H136">
-        <v>14.842</v>
+        <v>0.328</v>
       </c>
       <c r="I136">
-        <v>239</v>
+        <v>716</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C137" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
       </c>
       <c r="E137">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="F137">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="G137">
-        <v>0.21</v>
+        <v>0.164285714285714</v>
       </c>
       <c r="H137">
-        <v>45.825</v>
+        <v>24.9675</v>
       </c>
       <c r="I137">
-        <v>474</v>
+        <v>351</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C138" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D138" t="s">
         <v>24</v>
       </c>
       <c r="E138">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F138">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G138">
-        <v>0.583333333333333</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="H138">
-        <v>6.93</v>
+        <v>3.96</v>
       </c>
       <c r="I138">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C139" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D139" t="s">
         <v>25</v>
       </c>
       <c r="E139">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="F139">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="G139">
-        <v>0.138095238095238</v>
+        <v>0.00476190476190476</v>
       </c>
       <c r="H139">
-        <v>4.756</v>
+        <v>0.328</v>
       </c>
       <c r="I139">
-        <v>362</v>
+        <v>836</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C140" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
       </c>
       <c r="E140">
-        <v>714</v>
+        <v>408</v>
       </c>
       <c r="F140">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="G140">
-        <v>0.224089635854342</v>
+        <v>0.0808823529411765</v>
       </c>
       <c r="H140">
-        <v>57.2</v>
+        <v>11.7975</v>
       </c>
       <c r="I140">
-        <v>554</v>
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141">
         <v>15</v>
       </c>
-      <c r="B141" t="s">
-        <v>22</v>
-      </c>
-      <c r="C141" s="2">
-        <v>45834</v>
-      </c>
-      <c r="D141" t="s">
-        <v>24</v>
-      </c>
-      <c r="E141">
-        <v>12</v>
-      </c>
       <c r="F141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G141">
-        <v>0.0833333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="H141">
-        <v>0.99</v>
+        <v>3.96</v>
       </c>
       <c r="I141">
         <v>11</v>
@@ -4550,147 +4550,4468 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C142" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D142" t="s">
         <v>25</v>
       </c>
       <c r="E142">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="F142">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="G142">
-        <v>0.0880952380952381</v>
+        <v>0.34047619047619</v>
       </c>
       <c r="H142">
-        <v>3.034</v>
+        <v>23.452</v>
       </c>
       <c r="I142">
-        <v>383</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C143" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
       </c>
       <c r="E143">
-        <v>696</v>
+        <v>546</v>
       </c>
       <c r="F143">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="G143">
-        <v>0.209770114942529</v>
+        <v>0.08058608058608061</v>
       </c>
       <c r="H143">
-        <v>52.195</v>
+        <v>15.73</v>
       </c>
       <c r="I143">
-        <v>550</v>
+        <v>502</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C144" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E144">
-        <v>540</v>
+        <v>18</v>
       </c>
       <c r="F144">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G144">
-        <v>0.09074074074074071</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H144">
-        <v>4.018</v>
+        <v>6.93</v>
       </c>
       <c r="I144">
-        <v>491</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C145" s="2">
-        <v>45836</v>
+        <v>45842</v>
       </c>
       <c r="D145" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E145">
-        <v>732</v>
+        <v>840</v>
       </c>
       <c r="F145">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>0.198087431693989</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>52.2375</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>587</v>
+        <v>840</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D146" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146">
+        <v>564</v>
+      </c>
+      <c r="F146">
+        <v>121</v>
+      </c>
+      <c r="G146">
+        <v>0.214539007092199</v>
+      </c>
+      <c r="H146">
+        <v>44.1575</v>
+      </c>
+      <c r="I146">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D147" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147">
+        <v>18</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148">
+        <v>960</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D149" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149">
+        <v>558</v>
+      </c>
+      <c r="F149">
+        <v>119</v>
+      </c>
+      <c r="G149">
+        <v>0.21326164874552</v>
+      </c>
+      <c r="H149">
+        <v>43.5025</v>
+      </c>
+      <c r="I149">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D150" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150">
+        <v>18</v>
+      </c>
+      <c r="F150">
+        <v>5</v>
+      </c>
+      <c r="G150">
+        <v>0.277777777777778</v>
+      </c>
+      <c r="H150">
+        <v>4.95</v>
+      </c>
+      <c r="I150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D151" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151">
+        <v>960</v>
+      </c>
+      <c r="F151">
+        <v>192</v>
+      </c>
+      <c r="G151">
+        <v>0.2</v>
+      </c>
+      <c r="H151">
+        <v>15.744</v>
+      </c>
+      <c r="I151">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D152" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152">
+        <v>408</v>
+      </c>
+      <c r="F152">
+        <v>137</v>
+      </c>
+      <c r="G152">
+        <v>0.33578431372549</v>
+      </c>
+      <c r="H152">
+        <v>49.5175</v>
+      </c>
+      <c r="I152">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D153" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153">
+        <v>12</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H153">
+        <v>3.96</v>
+      </c>
+      <c r="I153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154">
+        <v>840</v>
+      </c>
+      <c r="F154">
+        <v>124</v>
+      </c>
+      <c r="G154">
+        <v>0.147619047619048</v>
+      </c>
+      <c r="H154">
+        <v>10.168</v>
+      </c>
+      <c r="I154">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D155" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155">
+        <v>390</v>
+      </c>
+      <c r="F155">
+        <v>120</v>
+      </c>
+      <c r="G155">
+        <v>0.307692307692308</v>
+      </c>
+      <c r="H155">
+        <v>44.07</v>
+      </c>
+      <c r="I155">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D156" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156">
+        <v>12</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="G156">
+        <v>0.25</v>
+      </c>
+      <c r="H156">
+        <v>2.97</v>
+      </c>
+      <c r="I156">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D157" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157">
+        <v>720</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="H157">
+        <v>1.312</v>
+      </c>
+      <c r="I157">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D158" t="s">
+        <v>23</v>
+      </c>
+      <c r="E158">
+        <v>516</v>
+      </c>
+      <c r="F158">
+        <v>128</v>
+      </c>
+      <c r="G158">
+        <v>0.248062015503876</v>
+      </c>
+      <c r="H158">
+        <v>48.01</v>
+      </c>
+      <c r="I158">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159">
+        <v>18</v>
+      </c>
+      <c r="F159">
+        <v>7</v>
+      </c>
+      <c r="G159">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="H159">
+        <v>6.93</v>
+      </c>
+      <c r="I159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D160" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160">
+        <v>840</v>
+      </c>
+      <c r="F160">
+        <v>277</v>
+      </c>
+      <c r="G160">
+        <v>0.329761904761905</v>
+      </c>
+      <c r="H160">
+        <v>22.714</v>
+      </c>
+      <c r="I160">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D161" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161">
+        <v>408</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>0.00490196078431373</v>
+      </c>
+      <c r="H161">
+        <v>0.715</v>
+      </c>
+      <c r="I161">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D162" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H162">
+        <v>1.98</v>
+      </c>
+      <c r="I162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D163" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163">
+        <v>780</v>
+      </c>
+      <c r="F163">
+        <v>8</v>
+      </c>
+      <c r="G163">
+        <v>0.0102564102564103</v>
+      </c>
+      <c r="H163">
+        <v>0.656</v>
+      </c>
+      <c r="I163">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164">
+        <v>558</v>
+      </c>
+      <c r="F164">
+        <v>19</v>
+      </c>
+      <c r="G164">
+        <v>0.0340501792114695</v>
+      </c>
+      <c r="H164">
+        <v>6.7925</v>
+      </c>
+      <c r="I164">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D165" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165">
+        <v>18</v>
+      </c>
+      <c r="F165">
+        <v>7</v>
+      </c>
+      <c r="G165">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="H165">
+        <v>6.93</v>
+      </c>
+      <c r="I165">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D166" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166">
+        <v>960</v>
+      </c>
+      <c r="F166">
+        <v>154</v>
+      </c>
+      <c r="G166">
+        <v>0.160416666666667</v>
+      </c>
+      <c r="H166">
+        <v>12.628</v>
+      </c>
+      <c r="I166">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D167" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167">
+        <v>558</v>
+      </c>
+      <c r="F167">
+        <v>91</v>
+      </c>
+      <c r="G167">
+        <v>0.163082437275986</v>
+      </c>
+      <c r="H167">
+        <v>34.0625</v>
+      </c>
+      <c r="I167">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D168" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168">
+        <v>18</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D169" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169">
+        <v>960</v>
+      </c>
+      <c r="F169">
+        <v>42</v>
+      </c>
+      <c r="G169">
+        <v>0.04375</v>
+      </c>
+      <c r="H169">
+        <v>3.444</v>
+      </c>
+      <c r="I169">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D170" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170">
+        <v>534</v>
+      </c>
+      <c r="F170">
+        <v>171</v>
+      </c>
+      <c r="G170">
+        <v>0.320224719101124</v>
+      </c>
+      <c r="H170">
+        <v>61.6725</v>
+      </c>
+      <c r="I170">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D171" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171">
+        <v>12</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H171">
+        <v>1.98</v>
+      </c>
+      <c r="I171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D172" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172">
+        <v>960</v>
+      </c>
+      <c r="F172">
+        <v>103</v>
+      </c>
+      <c r="G172">
+        <v>0.107291666666667</v>
+      </c>
+      <c r="H172">
+        <v>8.446</v>
+      </c>
+      <c r="I172">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D173" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173">
+        <v>444</v>
+      </c>
+      <c r="F173">
+        <v>120</v>
+      </c>
+      <c r="G173">
+        <v>0.27027027027027</v>
+      </c>
+      <c r="H173">
+        <v>43.6</v>
+      </c>
+      <c r="I173">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D174" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174">
+        <v>12</v>
+      </c>
+      <c r="F174">
+        <v>6</v>
+      </c>
+      <c r="G174">
+        <v>0.5</v>
+      </c>
+      <c r="H174">
+        <v>5.94</v>
+      </c>
+      <c r="I174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D175" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175">
+        <v>840</v>
+      </c>
+      <c r="F175">
+        <v>200</v>
+      </c>
+      <c r="G175">
+        <v>0.238095238095238</v>
+      </c>
+      <c r="H175">
+        <v>16.4</v>
+      </c>
+      <c r="I175">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D176" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176">
+        <v>468</v>
+      </c>
+      <c r="F176">
+        <v>106</v>
+      </c>
+      <c r="G176">
+        <v>0.226495726495726</v>
+      </c>
+      <c r="H176">
+        <v>38.435</v>
+      </c>
+      <c r="I176">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" t="s">
+        <v>20</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D177" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177">
         <v>15</v>
       </c>
-      <c r="B146" t="s">
+      <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="G177">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="H177">
+        <v>1.98</v>
+      </c>
+      <c r="I177">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>20</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D178" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178">
+        <v>600</v>
+      </c>
+      <c r="F178">
+        <v>100</v>
+      </c>
+      <c r="G178">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H178">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I178">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D179" t="s">
+        <v>23</v>
+      </c>
+      <c r="E179">
+        <v>432</v>
+      </c>
+      <c r="F179">
+        <v>51</v>
+      </c>
+      <c r="G179">
+        <v>0.118055555555556</v>
+      </c>
+      <c r="H179">
+        <v>18.2325</v>
+      </c>
+      <c r="I179">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D180" t="s">
+        <v>24</v>
+      </c>
+      <c r="E180">
+        <v>14</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="G180">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="H180">
+        <v>3.96</v>
+      </c>
+      <c r="I180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D181" t="s">
+        <v>25</v>
+      </c>
+      <c r="E181">
+        <v>900</v>
+      </c>
+      <c r="F181">
+        <v>100</v>
+      </c>
+      <c r="G181">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="H181">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I181">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" t="s">
+        <v>20</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D182" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182">
+        <v>444</v>
+      </c>
+      <c r="F182">
+        <v>126</v>
+      </c>
+      <c r="G182">
+        <v>0.283783783783784</v>
+      </c>
+      <c r="H182">
+        <v>46.535</v>
+      </c>
+      <c r="I182">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D183" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183">
+        <v>12</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="G183">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H183">
+        <v>1.98</v>
+      </c>
+      <c r="I183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D184" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184">
+        <v>840</v>
+      </c>
+      <c r="F184">
+        <v>65</v>
+      </c>
+      <c r="G184">
+        <v>0.0773809523809524</v>
+      </c>
+      <c r="H184">
+        <v>5.33</v>
+      </c>
+      <c r="I184">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" t="s">
+        <v>20</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D185" t="s">
+        <v>23</v>
+      </c>
+      <c r="E185">
+        <v>438</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D186" t="s">
+        <v>24</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D187" t="s">
+        <v>25</v>
+      </c>
+      <c r="E187">
+        <v>840</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188">
+        <v>432</v>
+      </c>
+      <c r="F188">
+        <v>143</v>
+      </c>
+      <c r="G188">
+        <v>0.331018518518519</v>
+      </c>
+      <c r="H188">
+        <v>52.2925</v>
+      </c>
+      <c r="I188">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D189" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189">
+        <v>12</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D190" t="s">
+        <v>25</v>
+      </c>
+      <c r="E190">
+        <v>960</v>
+      </c>
+      <c r="F190">
+        <v>30</v>
+      </c>
+      <c r="G190">
+        <v>0.03125</v>
+      </c>
+      <c r="H190">
+        <v>2.46</v>
+      </c>
+      <c r="I190">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D191" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191">
+        <v>451</v>
+      </c>
+      <c r="F191">
+        <v>215</v>
+      </c>
+      <c r="G191">
+        <v>0.476718403547672</v>
+      </c>
+      <c r="H191">
+        <v>77.9425</v>
+      </c>
+      <c r="I191">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" t="s">
+        <v>20</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D192" t="s">
+        <v>24</v>
+      </c>
+      <c r="E192">
+        <v>12</v>
+      </c>
+      <c r="F192">
+        <v>8</v>
+      </c>
+      <c r="G192">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H192">
+        <v>7.92</v>
+      </c>
+      <c r="I192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D193" t="s">
+        <v>25</v>
+      </c>
+      <c r="E193">
+        <v>840</v>
+      </c>
+      <c r="F193">
+        <v>255</v>
+      </c>
+      <c r="G193">
+        <v>0.303571428571429</v>
+      </c>
+      <c r="H193">
+        <v>20.91</v>
+      </c>
+      <c r="I193">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D194" t="s">
+        <v>23</v>
+      </c>
+      <c r="E194">
+        <v>390</v>
+      </c>
+      <c r="F194">
+        <v>35</v>
+      </c>
+      <c r="G194">
+        <v>0.0897435897435897</v>
+      </c>
+      <c r="H194">
+        <v>12.5125</v>
+      </c>
+      <c r="I194">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" t="s">
+        <v>20</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D195" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195">
+        <v>12</v>
+      </c>
+      <c r="F195">
+        <v>9</v>
+      </c>
+      <c r="G195">
+        <v>0.75</v>
+      </c>
+      <c r="H195">
+        <v>8.91</v>
+      </c>
+      <c r="I195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D196" t="s">
+        <v>25</v>
+      </c>
+      <c r="E196">
+        <v>720</v>
+      </c>
+      <c r="F196">
+        <v>20</v>
+      </c>
+      <c r="G196">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="H196">
+        <v>1.64</v>
+      </c>
+      <c r="I196">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D197" t="s">
+        <v>23</v>
+      </c>
+      <c r="E197">
+        <v>408</v>
+      </c>
+      <c r="F197">
+        <v>49</v>
+      </c>
+      <c r="G197">
+        <v>0.120098039215686</v>
+      </c>
+      <c r="H197">
+        <v>17.5175</v>
+      </c>
+      <c r="I197">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D198" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198">
+        <v>12</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D199" t="s">
+        <v>25</v>
+      </c>
+      <c r="E199">
+        <v>600</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D200" t="s">
+        <v>23</v>
+      </c>
+      <c r="E200">
+        <v>408</v>
+      </c>
+      <c r="F200">
+        <v>126</v>
+      </c>
+      <c r="G200">
+        <v>0.308823529411765</v>
+      </c>
+      <c r="H200">
+        <v>46.125</v>
+      </c>
+      <c r="I200">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" t="s">
+        <v>20</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D201" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201">
+        <v>12</v>
+      </c>
+      <c r="F201">
+        <v>10</v>
+      </c>
+      <c r="G201">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H201">
+        <v>9.9</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D202" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202">
+        <v>780</v>
+      </c>
+      <c r="F202">
+        <v>300</v>
+      </c>
+      <c r="G202">
+        <v>0.384615384615385</v>
+      </c>
+      <c r="H202">
+        <v>24.6</v>
+      </c>
+      <c r="I202">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D203" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203">
+        <v>408</v>
+      </c>
+      <c r="F203">
+        <v>95</v>
+      </c>
+      <c r="G203">
+        <v>0.232843137254902</v>
+      </c>
+      <c r="H203">
+        <v>34.5025</v>
+      </c>
+      <c r="I203">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D204" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204">
+        <v>12</v>
+      </c>
+      <c r="F204">
+        <v>8</v>
+      </c>
+      <c r="G204">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H204">
+        <v>7.92</v>
+      </c>
+      <c r="I204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D205" t="s">
+        <v>25</v>
+      </c>
+      <c r="E205">
+        <v>900</v>
+      </c>
+      <c r="F205">
+        <v>210</v>
+      </c>
+      <c r="G205">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="H205">
+        <v>17.22</v>
+      </c>
+      <c r="I205">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D206" t="s">
+        <v>23</v>
+      </c>
+      <c r="E206">
+        <v>450</v>
+      </c>
+      <c r="F206">
+        <v>104</v>
+      </c>
+      <c r="G206">
+        <v>0.231111111111111</v>
+      </c>
+      <c r="H206">
+        <v>37.18</v>
+      </c>
+      <c r="I206">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D207" t="s">
+        <v>24</v>
+      </c>
+      <c r="E207">
+        <v>12</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H207">
+        <v>0.99</v>
+      </c>
+      <c r="I207">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D208" t="s">
+        <v>25</v>
+      </c>
+      <c r="E208">
+        <v>900</v>
+      </c>
+      <c r="F208">
+        <v>181</v>
+      </c>
+      <c r="G208">
+        <v>0.201111111111111</v>
+      </c>
+      <c r="H208">
+        <v>14.842</v>
+      </c>
+      <c r="I208">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D209" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209">
+        <v>462</v>
+      </c>
+      <c r="F209">
+        <v>151</v>
+      </c>
+      <c r="G209">
+        <v>0.326839826839827</v>
+      </c>
+      <c r="H209">
+        <v>54.6125</v>
+      </c>
+      <c r="I209">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D210" t="s">
+        <v>24</v>
+      </c>
+      <c r="E210">
+        <v>15</v>
+      </c>
+      <c r="F210">
+        <v>12</v>
+      </c>
+      <c r="G210">
+        <v>0.8</v>
+      </c>
+      <c r="H210">
+        <v>11.88</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D211" t="s">
+        <v>25</v>
+      </c>
+      <c r="E211">
+        <v>1020</v>
+      </c>
+      <c r="F211">
+        <v>115</v>
+      </c>
+      <c r="G211">
+        <v>0.112745098039216</v>
+      </c>
+      <c r="H211">
+        <v>9.43</v>
+      </c>
+      <c r="I211">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" t="s">
+        <v>21</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D212" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212">
+        <v>396</v>
+      </c>
+      <c r="F212">
+        <v>68</v>
+      </c>
+      <c r="G212">
+        <v>0.171717171717172</v>
+      </c>
+      <c r="H212">
+        <v>24.31</v>
+      </c>
+      <c r="I212">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D213" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213">
+        <v>12</v>
+      </c>
+      <c r="F213">
+        <v>4</v>
+      </c>
+      <c r="G213">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H213">
+        <v>3.96</v>
+      </c>
+      <c r="I213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D214" t="s">
+        <v>25</v>
+      </c>
+      <c r="E214">
+        <v>960</v>
+      </c>
+      <c r="F214">
+        <v>27</v>
+      </c>
+      <c r="G214">
+        <v>0.028125</v>
+      </c>
+      <c r="H214">
+        <v>2.214</v>
+      </c>
+      <c r="I214">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D215" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215">
+        <v>336</v>
+      </c>
+      <c r="F215">
+        <v>133</v>
+      </c>
+      <c r="G215">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="H215">
+        <v>47.8475</v>
+      </c>
+      <c r="I215">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" t="s">
+        <v>21</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D216" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216">
+        <v>12</v>
+      </c>
+      <c r="F216">
+        <v>9</v>
+      </c>
+      <c r="G216">
+        <v>0.75</v>
+      </c>
+      <c r="H216">
+        <v>8.91</v>
+      </c>
+      <c r="I216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D217" t="s">
+        <v>25</v>
+      </c>
+      <c r="E217">
+        <v>540</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D218" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218">
+        <v>336</v>
+      </c>
+      <c r="F218">
+        <v>37</v>
+      </c>
+      <c r="G218">
+        <v>0.110119047619048</v>
+      </c>
+      <c r="H218">
+        <v>13.2275</v>
+      </c>
+      <c r="I218">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D219" t="s">
+        <v>24</v>
+      </c>
+      <c r="E219">
+        <v>13</v>
+      </c>
+      <c r="F219">
+        <v>6</v>
+      </c>
+      <c r="G219">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="H219">
+        <v>5.94</v>
+      </c>
+      <c r="I219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D220" t="s">
+        <v>25</v>
+      </c>
+      <c r="E220">
+        <v>480</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s">
+        <v>21</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D221" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221">
+        <v>372</v>
+      </c>
+      <c r="F221">
+        <v>29</v>
+      </c>
+      <c r="G221">
+        <v>0.0779569892473118</v>
+      </c>
+      <c r="H221">
+        <v>10.6175</v>
+      </c>
+      <c r="I221">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
+        <v>21</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D222" t="s">
+        <v>24</v>
+      </c>
+      <c r="E222">
+        <v>12</v>
+      </c>
+      <c r="F222">
+        <v>5</v>
+      </c>
+      <c r="G222">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H222">
+        <v>4.95</v>
+      </c>
+      <c r="I222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>21</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D223" t="s">
+        <v>25</v>
+      </c>
+      <c r="E223">
+        <v>720</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D224" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224">
+        <v>372</v>
+      </c>
+      <c r="F224">
+        <v>11</v>
+      </c>
+      <c r="G224">
+        <v>0.0295698924731183</v>
+      </c>
+      <c r="H224">
+        <v>3.9325</v>
+      </c>
+      <c r="I224">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" t="s">
+        <v>21</v>
+      </c>
+      <c r="C225" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225">
+        <v>12</v>
+      </c>
+      <c r="F225">
+        <v>7</v>
+      </c>
+      <c r="G225">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H225">
+        <v>6.93</v>
+      </c>
+      <c r="I225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" t="s">
+        <v>21</v>
+      </c>
+      <c r="C226" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D226" t="s">
+        <v>25</v>
+      </c>
+      <c r="E226">
+        <v>780</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" t="s">
+        <v>21</v>
+      </c>
+      <c r="C227" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D227" t="s">
+        <v>23</v>
+      </c>
+      <c r="E227">
+        <v>408</v>
+      </c>
+      <c r="F227">
+        <v>115</v>
+      </c>
+      <c r="G227">
+        <v>0.281862745098039</v>
+      </c>
+      <c r="H227">
+        <v>41.1125</v>
+      </c>
+      <c r="I227">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" t="s">
+        <v>21</v>
+      </c>
+      <c r="C228" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D228" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228">
+        <v>12</v>
+      </c>
+      <c r="F228">
+        <v>7</v>
+      </c>
+      <c r="G228">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H228">
+        <v>6.93</v>
+      </c>
+      <c r="I228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s">
+        <v>21</v>
+      </c>
+      <c r="C229" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D229" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229">
+        <v>780</v>
+      </c>
+      <c r="F229">
+        <v>82</v>
+      </c>
+      <c r="G229">
+        <v>0.105128205128205</v>
+      </c>
+      <c r="H229">
+        <v>6.724</v>
+      </c>
+      <c r="I229">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>21</v>
+      </c>
+      <c r="C230" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D230" t="s">
+        <v>23</v>
+      </c>
+      <c r="E230">
+        <v>450</v>
+      </c>
+      <c r="F230">
+        <v>158</v>
+      </c>
+      <c r="G230">
+        <v>0.351111111111111</v>
+      </c>
+      <c r="H230">
+        <v>57.285</v>
+      </c>
+      <c r="I230">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s">
+        <v>21</v>
+      </c>
+      <c r="C231" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D231" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231">
+        <v>12</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H231">
+        <v>0.99</v>
+      </c>
+      <c r="I231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>21</v>
+      </c>
+      <c r="C232" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D232" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232">
+        <v>1080</v>
+      </c>
+      <c r="F232">
+        <v>295</v>
+      </c>
+      <c r="G232">
+        <v>0.273148148148148</v>
+      </c>
+      <c r="H232">
+        <v>24.19</v>
+      </c>
+      <c r="I232">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>21</v>
+      </c>
+      <c r="C233" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D233" t="s">
+        <v>23</v>
+      </c>
+      <c r="E233">
+        <v>390</v>
+      </c>
+      <c r="F233">
+        <v>138</v>
+      </c>
+      <c r="G233">
+        <v>0.353846153846154</v>
+      </c>
+      <c r="H233">
+        <v>49.335</v>
+      </c>
+      <c r="I233">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234" t="s">
+        <v>21</v>
+      </c>
+      <c r="C234" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D234" t="s">
+        <v>24</v>
+      </c>
+      <c r="E234">
+        <v>12</v>
+      </c>
+      <c r="F234">
+        <v>8</v>
+      </c>
+      <c r="G234">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H234">
+        <v>7.92</v>
+      </c>
+      <c r="I234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235" t="s">
+        <v>21</v>
+      </c>
+      <c r="C235" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D235" t="s">
+        <v>25</v>
+      </c>
+      <c r="E235">
+        <v>840</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236" t="s">
+        <v>21</v>
+      </c>
+      <c r="C236" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D236" t="s">
+        <v>23</v>
+      </c>
+      <c r="E236">
+        <v>334</v>
+      </c>
+      <c r="F236">
+        <v>109</v>
+      </c>
+      <c r="G236">
+        <v>0.326347305389222</v>
+      </c>
+      <c r="H236">
+        <v>38.9675</v>
+      </c>
+      <c r="I236">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D237" t="s">
+        <v>24</v>
+      </c>
+      <c r="E237">
+        <v>12</v>
+      </c>
+      <c r="F237">
+        <v>11</v>
+      </c>
+      <c r="G237">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="H237">
+        <v>10.89</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D238" t="s">
+        <v>25</v>
+      </c>
+      <c r="E238">
+        <v>780</v>
+      </c>
+      <c r="F238">
+        <v>243</v>
+      </c>
+      <c r="G238">
+        <v>0.311538461538462</v>
+      </c>
+      <c r="H238">
+        <v>19.926</v>
+      </c>
+      <c r="I238">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" t="s">
+        <v>21</v>
+      </c>
+      <c r="C239" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D239" t="s">
+        <v>23</v>
+      </c>
+      <c r="E239">
+        <v>342</v>
+      </c>
+      <c r="F239">
+        <v>150</v>
+      </c>
+      <c r="G239">
+        <v>0.43859649122807</v>
+      </c>
+      <c r="H239">
+        <v>53.625</v>
+      </c>
+      <c r="I239">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240" t="s">
+        <v>21</v>
+      </c>
+      <c r="C240" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D240" t="s">
+        <v>24</v>
+      </c>
+      <c r="E240">
+        <v>12</v>
+      </c>
+      <c r="F240">
+        <v>8</v>
+      </c>
+      <c r="G240">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H240">
+        <v>7.92</v>
+      </c>
+      <c r="I240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>14</v>
+      </c>
+      <c r="B241" t="s">
+        <v>21</v>
+      </c>
+      <c r="C241" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D241" t="s">
+        <v>25</v>
+      </c>
+      <c r="E241">
+        <v>720</v>
+      </c>
+      <c r="F241">
+        <v>35</v>
+      </c>
+      <c r="G241">
+        <v>0.0486111111111111</v>
+      </c>
+      <c r="H241">
+        <v>2.87</v>
+      </c>
+      <c r="I241">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242" t="s">
+        <v>21</v>
+      </c>
+      <c r="C242" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D242" t="s">
+        <v>23</v>
+      </c>
+      <c r="E242">
+        <v>372</v>
+      </c>
+      <c r="F242">
+        <v>127</v>
+      </c>
+      <c r="G242">
+        <v>0.341397849462366</v>
+      </c>
+      <c r="H242">
+        <v>45.4025</v>
+      </c>
+      <c r="I242">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>14</v>
+      </c>
+      <c r="B243" t="s">
+        <v>21</v>
+      </c>
+      <c r="C243" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D243" t="s">
+        <v>24</v>
+      </c>
+      <c r="E243">
+        <v>12</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="G243">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H243">
+        <v>1.98</v>
+      </c>
+      <c r="I243">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
+        <v>14</v>
+      </c>
+      <c r="B244" t="s">
+        <v>21</v>
+      </c>
+      <c r="C244" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D244" t="s">
+        <v>25</v>
+      </c>
+      <c r="E244">
+        <v>540</v>
+      </c>
+      <c r="F244">
+        <v>19</v>
+      </c>
+      <c r="G244">
+        <v>0.0351851851851852</v>
+      </c>
+      <c r="H244">
+        <v>1.558</v>
+      </c>
+      <c r="I244">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245" t="s">
+        <v>21</v>
+      </c>
+      <c r="C245" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D245" t="s">
+        <v>23</v>
+      </c>
+      <c r="E245">
+        <v>336</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
+      </c>
+      <c r="G245">
+        <v>0.0119047619047619</v>
+      </c>
+      <c r="H245">
+        <v>1.43</v>
+      </c>
+      <c r="I245">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246" t="s">
+        <v>21</v>
+      </c>
+      <c r="C246" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D246" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246">
+        <v>12</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H246">
+        <v>0.99</v>
+      </c>
+      <c r="I246">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247" t="s">
+        <v>21</v>
+      </c>
+      <c r="C247" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D247" t="s">
+        <v>25</v>
+      </c>
+      <c r="E247">
+        <v>540</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>14</v>
+      </c>
+      <c r="B248" t="s">
+        <v>21</v>
+      </c>
+      <c r="C248" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D248" t="s">
+        <v>23</v>
+      </c>
+      <c r="E248">
+        <v>360</v>
+      </c>
+      <c r="F248">
+        <v>42</v>
+      </c>
+      <c r="G248">
+        <v>0.116666666666667</v>
+      </c>
+      <c r="H248">
+        <v>15.015</v>
+      </c>
+      <c r="I248">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249" t="s">
+        <v>21</v>
+      </c>
+      <c r="C249" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D249" t="s">
+        <v>24</v>
+      </c>
+      <c r="E249">
+        <v>6</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250" t="s">
+        <v>21</v>
+      </c>
+      <c r="C250" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D250" t="s">
+        <v>25</v>
+      </c>
+      <c r="E250">
+        <v>540</v>
+      </c>
+      <c r="F250">
+        <v>39</v>
+      </c>
+      <c r="G250">
+        <v>0.0722222222222222</v>
+      </c>
+      <c r="H250">
+        <v>3.198</v>
+      </c>
+      <c r="I250">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251" t="s">
+        <v>21</v>
+      </c>
+      <c r="C251" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D251" t="s">
+        <v>23</v>
+      </c>
+      <c r="E251">
+        <v>396</v>
+      </c>
+      <c r="F251">
+        <v>102</v>
+      </c>
+      <c r="G251">
+        <v>0.257575757575758</v>
+      </c>
+      <c r="H251">
+        <v>36.465</v>
+      </c>
+      <c r="I251">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252" t="s">
+        <v>21</v>
+      </c>
+      <c r="C252" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D252" t="s">
+        <v>24</v>
+      </c>
+      <c r="E252">
+        <v>12</v>
+      </c>
+      <c r="F252">
+        <v>4</v>
+      </c>
+      <c r="G252">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H252">
+        <v>3.96</v>
+      </c>
+      <c r="I252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>14</v>
+      </c>
+      <c r="B253" t="s">
+        <v>21</v>
+      </c>
+      <c r="C253" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D253" t="s">
+        <v>25</v>
+      </c>
+      <c r="E253">
+        <v>840</v>
+      </c>
+      <c r="F253">
+        <v>11</v>
+      </c>
+      <c r="G253">
+        <v>0.0130952380952381</v>
+      </c>
+      <c r="H253">
+        <v>0.902</v>
+      </c>
+      <c r="I253">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" t="s">
         <v>22</v>
       </c>
-      <c r="C146" s="2">
-        <v>45836</v>
-      </c>
-      <c r="D146" t="s">
-        <v>25</v>
-      </c>
-      <c r="E146">
+      <c r="C254" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D254" t="s">
+        <v>23</v>
+      </c>
+      <c r="E254">
+        <v>702</v>
+      </c>
+      <c r="F254">
+        <v>182</v>
+      </c>
+      <c r="G254">
+        <v>0.259259259259259</v>
+      </c>
+      <c r="H254">
+        <v>66.05500000000001</v>
+      </c>
+      <c r="I254">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D255" t="s">
+        <v>24</v>
+      </c>
+      <c r="E255">
+        <v>12</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D256" t="s">
+        <v>25</v>
+      </c>
+      <c r="E256">
+        <v>600</v>
+      </c>
+      <c r="F256">
+        <v>77</v>
+      </c>
+      <c r="G256">
+        <v>0.128333333333333</v>
+      </c>
+      <c r="H256">
+        <v>6.314</v>
+      </c>
+      <c r="I256">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D257" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257">
+        <v>498</v>
+      </c>
+      <c r="F257">
+        <v>103</v>
+      </c>
+      <c r="G257">
+        <v>0.206827309236948</v>
+      </c>
+      <c r="H257">
+        <v>37.9025</v>
+      </c>
+      <c r="I257">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D258" t="s">
+        <v>24</v>
+      </c>
+      <c r="E258">
+        <v>16</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" t="s">
+        <v>22</v>
+      </c>
+      <c r="C259" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D259" t="s">
+        <v>25</v>
+      </c>
+      <c r="E259">
+        <v>420</v>
+      </c>
+      <c r="F259">
+        <v>150</v>
+      </c>
+      <c r="G259">
+        <v>0.357142857142857</v>
+      </c>
+      <c r="H259">
+        <v>12.3</v>
+      </c>
+      <c r="I259">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D260" t="s">
+        <v>23</v>
+      </c>
+      <c r="E260">
+        <v>576</v>
+      </c>
+      <c r="F260">
+        <v>211</v>
+      </c>
+      <c r="G260">
+        <v>0.366319444444444</v>
+      </c>
+      <c r="H260">
+        <v>76.9225</v>
+      </c>
+      <c r="I260">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D261" t="s">
+        <v>24</v>
+      </c>
+      <c r="E261">
+        <v>16</v>
+      </c>
+      <c r="F261">
+        <v>8</v>
+      </c>
+      <c r="G261">
+        <v>0.5</v>
+      </c>
+      <c r="H261">
+        <v>7.92</v>
+      </c>
+      <c r="I261">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" t="s">
+        <v>22</v>
+      </c>
+      <c r="C262" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D262" t="s">
+        <v>25</v>
+      </c>
+      <c r="E262">
+        <v>480</v>
+      </c>
+      <c r="F262">
+        <v>40</v>
+      </c>
+      <c r="G262">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H262">
+        <v>3.28</v>
+      </c>
+      <c r="I262">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D263" t="s">
+        <v>23</v>
+      </c>
+      <c r="E263">
+        <v>564</v>
+      </c>
+      <c r="F263">
+        <v>168</v>
+      </c>
+      <c r="G263">
+        <v>0.297872340425532</v>
+      </c>
+      <c r="H263">
+        <v>60.24</v>
+      </c>
+      <c r="I263">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" t="s">
+        <v>22</v>
+      </c>
+      <c r="C264" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D264" t="s">
+        <v>24</v>
+      </c>
+      <c r="E264">
+        <v>16</v>
+      </c>
+      <c r="F264">
+        <v>3</v>
+      </c>
+      <c r="G264">
+        <v>0.1875</v>
+      </c>
+      <c r="H264">
+        <v>2.97</v>
+      </c>
+      <c r="I264">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D265" t="s">
+        <v>25</v>
+      </c>
+      <c r="E265">
+        <v>420</v>
+      </c>
+      <c r="F265">
+        <v>84</v>
+      </c>
+      <c r="G265">
+        <v>0.2</v>
+      </c>
+      <c r="H265">
+        <v>6.888</v>
+      </c>
+      <c r="I265">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" t="s">
+        <v>22</v>
+      </c>
+      <c r="C266" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D266" t="s">
+        <v>23</v>
+      </c>
+      <c r="E266">
+        <v>636</v>
+      </c>
+      <c r="F266">
+        <v>198</v>
+      </c>
+      <c r="G266">
+        <v>0.311320754716981</v>
+      </c>
+      <c r="H266">
+        <v>72.405</v>
+      </c>
+      <c r="I266">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D267" t="s">
+        <v>24</v>
+      </c>
+      <c r="E267">
+        <v>21</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" t="s">
+        <v>22</v>
+      </c>
+      <c r="C268" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D268" t="s">
+        <v>25</v>
+      </c>
+      <c r="E268">
+        <v>480</v>
+      </c>
+      <c r="F268">
+        <v>90</v>
+      </c>
+      <c r="G268">
+        <v>0.1875</v>
+      </c>
+      <c r="H268">
+        <v>7.38</v>
+      </c>
+      <c r="I268">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D269" t="s">
+        <v>23</v>
+      </c>
+      <c r="E269">
+        <v>648</v>
+      </c>
+      <c r="F269">
+        <v>195</v>
+      </c>
+      <c r="G269">
+        <v>0.300925925925926</v>
+      </c>
+      <c r="H269">
+        <v>71.21250000000001</v>
+      </c>
+      <c r="I269">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" t="s">
+        <v>22</v>
+      </c>
+      <c r="C270" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D270" t="s">
+        <v>24</v>
+      </c>
+      <c r="E270">
+        <v>15</v>
+      </c>
+      <c r="F270">
+        <v>6</v>
+      </c>
+      <c r="G270">
+        <v>0.4</v>
+      </c>
+      <c r="H270">
+        <v>5.94</v>
+      </c>
+      <c r="I270">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D271" t="s">
+        <v>25</v>
+      </c>
+      <c r="E271">
         <v>540</v>
       </c>
-      <c r="F146">
-        <v>72</v>
-      </c>
-      <c r="G146">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="H146">
-        <v>5.904</v>
-      </c>
-      <c r="I146">
-        <v>468</v>
+      <c r="F271">
+        <v>38</v>
+      </c>
+      <c r="G271">
+        <v>0.0703703703703704</v>
+      </c>
+      <c r="H271">
+        <v>3.116</v>
+      </c>
+      <c r="I271">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D272" t="s">
+        <v>23</v>
+      </c>
+      <c r="E272">
+        <v>702</v>
+      </c>
+      <c r="F272">
+        <v>169</v>
+      </c>
+      <c r="G272">
+        <v>0.240740740740741</v>
+      </c>
+      <c r="H272">
+        <v>61.9175</v>
+      </c>
+      <c r="I272">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" t="s">
+        <v>22</v>
+      </c>
+      <c r="C273" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D273" t="s">
+        <v>24</v>
+      </c>
+      <c r="E273">
+        <v>21</v>
+      </c>
+      <c r="F273">
+        <v>6</v>
+      </c>
+      <c r="G273">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="H273">
+        <v>5.94</v>
+      </c>
+      <c r="I273">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" t="s">
+        <v>22</v>
+      </c>
+      <c r="C274" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D274" t="s">
+        <v>25</v>
+      </c>
+      <c r="E274">
+        <v>540</v>
+      </c>
+      <c r="F274">
+        <v>38</v>
+      </c>
+      <c r="G274">
+        <v>0.0703703703703704</v>
+      </c>
+      <c r="H274">
+        <v>3.116</v>
+      </c>
+      <c r="I274">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D275" t="s">
+        <v>23</v>
+      </c>
+      <c r="E275">
+        <v>594</v>
+      </c>
+      <c r="F275">
+        <v>159</v>
+      </c>
+      <c r="G275">
+        <v>0.267676767676768</v>
+      </c>
+      <c r="H275">
+        <v>58.3325</v>
+      </c>
+      <c r="I275">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" t="s">
+        <v>22</v>
+      </c>
+      <c r="C276" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D276" t="s">
+        <v>24</v>
+      </c>
+      <c r="E276">
+        <v>15</v>
+      </c>
+      <c r="F276">
+        <v>7</v>
+      </c>
+      <c r="G276">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="H276">
+        <v>6.93</v>
+      </c>
+      <c r="I276">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" t="s">
+        <v>22</v>
+      </c>
+      <c r="C277" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D277" t="s">
+        <v>25</v>
+      </c>
+      <c r="E277">
+        <v>600</v>
+      </c>
+      <c r="F277">
+        <v>48</v>
+      </c>
+      <c r="G277">
+        <v>0.08</v>
+      </c>
+      <c r="H277">
+        <v>3.936</v>
+      </c>
+      <c r="I277">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" t="s">
+        <v>22</v>
+      </c>
+      <c r="C278" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D278" t="s">
+        <v>23</v>
+      </c>
+      <c r="E278">
+        <v>504</v>
+      </c>
+      <c r="F278">
+        <v>256</v>
+      </c>
+      <c r="G278">
+        <v>0.507936507936508</v>
+      </c>
+      <c r="H278">
+        <v>94.12</v>
+      </c>
+      <c r="I278">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" t="s">
+        <v>22</v>
+      </c>
+      <c r="C279" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D279" t="s">
+        <v>24</v>
+      </c>
+      <c r="E279">
+        <v>15</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" t="s">
+        <v>22</v>
+      </c>
+      <c r="C280" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D280" t="s">
+        <v>25</v>
+      </c>
+      <c r="E280">
+        <v>360</v>
+      </c>
+      <c r="F280">
+        <v>133</v>
+      </c>
+      <c r="G280">
+        <v>0.369444444444444</v>
+      </c>
+      <c r="H280">
+        <v>10.906</v>
+      </c>
+      <c r="I280">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D281" t="s">
+        <v>23</v>
+      </c>
+      <c r="E281">
+        <v>432</v>
+      </c>
+      <c r="F281">
+        <v>96</v>
+      </c>
+      <c r="G281">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="H281">
+        <v>34.6</v>
+      </c>
+      <c r="I281">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D282" t="s">
+        <v>24</v>
+      </c>
+      <c r="E282">
+        <v>12</v>
+      </c>
+      <c r="F282">
+        <v>3</v>
+      </c>
+      <c r="G282">
+        <v>0.25</v>
+      </c>
+      <c r="H282">
+        <v>2.97</v>
+      </c>
+      <c r="I282">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D283" t="s">
+        <v>25</v>
+      </c>
+      <c r="E283">
+        <v>480</v>
+      </c>
+      <c r="F283">
+        <v>212</v>
+      </c>
+      <c r="G283">
+        <v>0.441666666666667</v>
+      </c>
+      <c r="H283">
+        <v>17.384</v>
+      </c>
+      <c r="I283">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D284" t="s">
+        <v>23</v>
+      </c>
+      <c r="E284">
+        <v>534</v>
+      </c>
+      <c r="F284">
+        <v>128</v>
+      </c>
+      <c r="G284">
+        <v>0.239700374531835</v>
+      </c>
+      <c r="H284">
+        <v>45.76</v>
+      </c>
+      <c r="I284">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" t="s">
+        <v>22</v>
+      </c>
+      <c r="C285" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D285" t="s">
+        <v>24</v>
+      </c>
+      <c r="E285">
+        <v>18</v>
+      </c>
+      <c r="F285">
+        <v>3</v>
+      </c>
+      <c r="G285">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H285">
+        <v>2.97</v>
+      </c>
+      <c r="I285">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" t="s">
+        <v>22</v>
+      </c>
+      <c r="C286" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D286" t="s">
+        <v>25</v>
+      </c>
+      <c r="E286">
+        <v>420</v>
+      </c>
+      <c r="F286">
+        <v>141</v>
+      </c>
+      <c r="G286">
+        <v>0.335714285714286</v>
+      </c>
+      <c r="H286">
+        <v>11.562</v>
+      </c>
+      <c r="I286">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" t="s">
+        <v>22</v>
+      </c>
+      <c r="C287" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D287" t="s">
+        <v>23</v>
+      </c>
+      <c r="E287">
+        <v>516</v>
+      </c>
+      <c r="F287">
+        <v>102</v>
+      </c>
+      <c r="G287">
+        <v>0.197674418604651</v>
+      </c>
+      <c r="H287">
+        <v>37.275</v>
+      </c>
+      <c r="I287">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" t="s">
+        <v>22</v>
+      </c>
+      <c r="C288" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D288" t="s">
+        <v>24</v>
+      </c>
+      <c r="E288">
+        <v>21</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" t="s">
+        <v>22</v>
+      </c>
+      <c r="C289" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D289" t="s">
+        <v>25</v>
+      </c>
+      <c r="E289">
+        <v>480</v>
+      </c>
+      <c r="F289">
+        <v>206</v>
+      </c>
+      <c r="G289">
+        <v>0.429166666666667</v>
+      </c>
+      <c r="H289">
+        <v>16.892</v>
+      </c>
+      <c r="I289">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" t="s">
+        <v>22</v>
+      </c>
+      <c r="C290" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D290" t="s">
+        <v>23</v>
+      </c>
+      <c r="E290">
+        <v>582</v>
+      </c>
+      <c r="F290">
+        <v>58</v>
+      </c>
+      <c r="G290">
+        <v>0.0996563573883162</v>
+      </c>
+      <c r="H290">
+        <v>20.915</v>
+      </c>
+      <c r="I290">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>22</v>
+      </c>
+      <c r="C291" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D291" t="s">
+        <v>24</v>
+      </c>
+      <c r="E291">
+        <v>15</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" t="s">
+        <v>22</v>
+      </c>
+      <c r="C292" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D292" t="s">
+        <v>25</v>
+      </c>
+      <c r="E292">
+        <v>540</v>
+      </c>
+      <c r="F292">
+        <v>155</v>
+      </c>
+      <c r="G292">
+        <v>0.287037037037037</v>
+      </c>
+      <c r="H292">
+        <v>12.71</v>
+      </c>
+      <c r="I292">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" t="s">
+        <v>22</v>
+      </c>
+      <c r="C293" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D293" t="s">
+        <v>23</v>
+      </c>
+      <c r="E293">
+        <v>690</v>
+      </c>
+      <c r="F293">
+        <v>134</v>
+      </c>
+      <c r="G293">
+        <v>0.194202898550725</v>
+      </c>
+      <c r="H293">
+        <v>48.005</v>
+      </c>
+      <c r="I293">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" t="s">
+        <v>15</v>
+      </c>
+      <c r="B294" t="s">
+        <v>22</v>
+      </c>
+      <c r="C294" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D294" t="s">
+        <v>24</v>
+      </c>
+      <c r="E294">
+        <v>21</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="G294">
+        <v>0.09523809523809521</v>
+      </c>
+      <c r="H294">
+        <v>1.98</v>
+      </c>
+      <c r="I294">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" t="s">
+        <v>22</v>
+      </c>
+      <c r="C295" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D295" t="s">
+        <v>25</v>
+      </c>
+      <c r="E295">
+        <v>540</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/cml_usage.xlsx
+++ b/data/processed/cml_usage.xlsx
@@ -496,25 +496,25 @@
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>546</v>
+        <v>504</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>0.0201465201465201</v>
+        <v>0.0773809523809524</v>
       </c>
       <c r="H2">
-        <v>3.9325</v>
+        <v>13.9425</v>
       </c>
       <c r="I2">
-        <v>535</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -525,25 +525,25 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>0.133333333333333</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H3">
-        <v>1.98</v>
+        <v>6.93</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,25 +554,25 @@
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.140625</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.07</v>
       </c>
       <c r="I4">
-        <v>1020</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,25 +583,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>486</v>
+        <v>342</v>
       </c>
       <c r="F5">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0.160493827160494</v>
+        <v>0.0350877192982456</v>
       </c>
       <c r="H5">
-        <v>27.885</v>
+        <v>4.38</v>
       </c>
       <c r="I5">
-        <v>408</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -621,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>0.25</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H6">
-        <v>2.97</v>
+        <v>6.93</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,25 +641,25 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>0.0595238095238095</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H7">
-        <v>4.1</v>
+        <v>2.46</v>
       </c>
       <c r="I7">
-        <v>790</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,25 +670,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="F8">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G8">
-        <v>0.0619047619047619</v>
+        <v>0.108465608465608</v>
       </c>
       <c r="H8">
-        <v>9.295</v>
+        <v>15.5575</v>
       </c>
       <c r="I8">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -699,25 +699,25 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>0.25</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="H9">
-        <v>2.97</v>
+        <v>12.87</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -728,25 +728,25 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c r="F10">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>11.48</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>700</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,25 +757,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="F11">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>0.0821596244131455</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="H11">
-        <v>12.6025</v>
+        <v>1.0725</v>
       </c>
       <c r="I11">
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -786,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -795,16 +795,16 @@
         <v>18</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.444444444444444</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -815,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -824,16 +824,16 @@
         <v>840</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0214285714285714</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.476</v>
       </c>
       <c r="I13">
-        <v>840</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,25 +844,25 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0637860082304527</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.4425</v>
       </c>
       <c r="I14">
-        <v>492</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -873,25 +873,25 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I15">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -902,7 +902,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -931,25 +931,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0587121212121212</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.3525</v>
       </c>
       <c r="I17">
-        <v>546</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -960,7 +960,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -969,16 +969,16 @@
         <v>21</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>14.85</v>
       </c>
       <c r="I18">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -989,25 +989,25 @@
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0489583333333333</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.854</v>
       </c>
       <c r="I19">
-        <v>900</v>
+        <v>913</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="G20">
-        <v>0.0186915887850467</v>
+        <v>0.158333333333333</v>
       </c>
       <c r="H20">
-        <v>4.74</v>
+        <v>33.9625</v>
       </c>
       <c r="I20">
-        <v>630</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1047,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -1056,16 +1056,16 @@
         <v>21</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>0.19047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="H21">
-        <v>3.96</v>
+        <v>15.84</v>
       </c>
       <c r="I21">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1076,25 +1076,25 @@
         <v>16</v>
       </c>
       <c r="C22" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22">
-        <v>1560</v>
+        <v>1380</v>
       </c>
       <c r="F22">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.288461538461538</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>36.9</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1110</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1105,25 +1105,25 @@
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>480</v>
+        <v>594</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.00336700336700337</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.715</v>
       </c>
       <c r="I23">
-        <v>480</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1134,13 +1134,13 @@
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1163,7 +1163,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -1172,16 +1172,16 @@
         <v>1380</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0579710144927536</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.56</v>
       </c>
       <c r="I25">
-        <v>1380</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1192,25 +1192,25 @@
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
       </c>
       <c r="E26">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="F26">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="G26">
-        <v>0.3046875</v>
+        <v>0.0955555555555556</v>
       </c>
       <c r="H26">
-        <v>41.8275</v>
+        <v>15.3725</v>
       </c>
       <c r="I26">
-        <v>267</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1221,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1250,25 +1250,25 @@
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28">
-        <v>1140</v>
+        <v>1020</v>
       </c>
       <c r="F28">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G28">
-        <v>0.0324561403508772</v>
+        <v>0.0637254901960784</v>
       </c>
       <c r="H28">
-        <v>3.034</v>
+        <v>5.33</v>
       </c>
       <c r="I28">
-        <v>1103</v>
+        <v>955</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1279,25 +1279,25 @@
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="F29">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G29">
-        <v>0.219907407407407</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="H29">
-        <v>33.9625</v>
+        <v>34.32</v>
       </c>
       <c r="I29">
-        <v>337</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1308,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -1317,16 +1317,16 @@
         <v>6</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1337,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1080</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.0925925925925926</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>980</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1366,25 +1366,25 @@
         <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
       </c>
       <c r="E32">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="F32">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="G32">
-        <v>0.183333333333333</v>
+        <v>0.346994535519126</v>
       </c>
       <c r="H32">
-        <v>27.5275</v>
+        <v>45.4025</v>
       </c>
       <c r="I32">
-        <v>343</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1395,25 +1395,25 @@
         <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.333333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H33">
-        <v>3.96</v>
+        <v>0.99</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1424,25 +1424,25 @@
         <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34">
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="F34">
-        <v>230</v>
+        <v>494</v>
       </c>
       <c r="G34">
-        <v>0.212962962962963</v>
+        <v>0.433333333333333</v>
       </c>
       <c r="H34">
-        <v>18.86</v>
+        <v>40.508</v>
       </c>
       <c r="I34">
-        <v>850</v>
+        <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1453,25 +1453,25 @@
         <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
       </c>
       <c r="E35">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="F35">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="G35">
-        <v>0.252450980392157</v>
+        <v>0.177595628415301</v>
       </c>
       <c r="H35">
-        <v>36.8225</v>
+        <v>23.2375</v>
       </c>
       <c r="I35">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1482,22 +1482,22 @@
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>6</v>
@@ -1511,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="F37">
-        <v>230</v>
+        <v>410</v>
       </c>
       <c r="G37">
-        <v>0.191666666666667</v>
+        <v>0.325396825396825</v>
       </c>
       <c r="H37">
-        <v>18.86</v>
+        <v>33.62</v>
       </c>
       <c r="I37">
-        <v>970</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1540,25 +1540,25 @@
         <v>17</v>
       </c>
       <c r="C38" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="F38">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G38">
-        <v>0.137777777777778</v>
+        <v>0.0411255411255411</v>
       </c>
       <c r="H38">
-        <v>22.315</v>
+        <v>6.7925</v>
       </c>
       <c r="I38">
-        <v>388</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1569,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -1578,16 +1578,16 @@
         <v>9</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1598,25 +1598,25 @@
         <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
       </c>
       <c r="E40">
-        <v>1200</v>
+        <v>1440</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="I40">
-        <v>1200</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1627,25 +1627,25 @@
         <v>17</v>
       </c>
       <c r="C41" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
       </c>
       <c r="E41">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F41">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>0.0670289855072464</v>
+        <v>0.0106382978723404</v>
       </c>
       <c r="H41">
-        <v>13.2275</v>
+        <v>2.145</v>
       </c>
       <c r="I41">
-        <v>515</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1656,7 +1656,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -1685,13 +1685,13 @@
         <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
       </c>
       <c r="E43">
-        <v>1380</v>
+        <v>1440</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1380</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1714,25 +1714,25 @@
         <v>18</v>
       </c>
       <c r="C44" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G44">
-        <v>0.028169014084507</v>
+        <v>0.06666666666666669</v>
       </c>
       <c r="H44">
-        <v>8.58</v>
+        <v>20.02</v>
       </c>
       <c r="I44">
-        <v>828</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1743,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -1752,16 +1752,16 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I45">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1772,13 +1772,13 @@
         <v>18</v>
       </c>
       <c r="C46" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>960</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1801,7 +1801,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -1810,16 +1810,16 @@
         <v>498</v>
       </c>
       <c r="F47">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G47">
-        <v>0.132530120481928</v>
+        <v>0.1285140562249</v>
       </c>
       <c r="H47">
-        <v>24.135</v>
+        <v>23.24</v>
       </c>
       <c r="I47">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1830,7 +1830,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -1859,7 +1859,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -1888,25 +1888,25 @@
         <v>18</v>
       </c>
       <c r="C50" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50">
-        <v>546</v>
+        <v>504</v>
       </c>
       <c r="F50">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="G50">
-        <v>0.148351648351648</v>
+        <v>0.0218253968253968</v>
       </c>
       <c r="H50">
-        <v>29.2575</v>
+        <v>3.9325</v>
       </c>
       <c r="I50">
-        <v>465</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1917,7 +1917,7 @@
         <v>18</v>
       </c>
       <c r="C51" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -1926,16 +1926,16 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1946,7 +1946,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -1975,25 +1975,25 @@
         <v>18</v>
       </c>
       <c r="C53" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
       </c>
       <c r="E53">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="F53">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G53">
-        <v>0.155797101449275</v>
+        <v>0.162962962962963</v>
       </c>
       <c r="H53">
-        <v>31.305</v>
+        <v>32.54</v>
       </c>
       <c r="I53">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2004,7 +2004,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -2013,16 +2013,16 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>0.0833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H54">
-        <v>0.99</v>
+        <v>7.92</v>
       </c>
       <c r="I54">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2033,7 +2033,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D55" t="s">
         <v>25</v>
@@ -2042,16 +2042,16 @@
         <v>840</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.06428571428571429</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>4.428</v>
       </c>
       <c r="I55">
-        <v>840</v>
+        <v>786</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2062,25 +2062,25 @@
         <v>18</v>
       </c>
       <c r="C56" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
       </c>
       <c r="E56">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="F56">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G56">
-        <v>0.078125</v>
+        <v>0.0344202898550725</v>
       </c>
       <c r="H56">
-        <v>16.0875</v>
+        <v>6.7925</v>
       </c>
       <c r="I56">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2091,7 +2091,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -2120,7 +2120,7 @@
         <v>18</v>
       </c>
       <c r="C58" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
@@ -2149,25 +2149,25 @@
         <v>18</v>
       </c>
       <c r="C59" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
       </c>
       <c r="E59">
-        <v>696</v>
+        <v>666</v>
       </c>
       <c r="F59">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="G59">
-        <v>0.100574712643678</v>
+        <v>0.207207207207207</v>
       </c>
       <c r="H59">
-        <v>25.725</v>
+        <v>50.685</v>
       </c>
       <c r="I59">
-        <v>626</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2178,7 +2178,7 @@
         <v>18</v>
       </c>
       <c r="C60" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -2187,16 +2187,16 @@
         <v>18</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H60">
-        <v>8.91</v>
+        <v>5.94</v>
       </c>
       <c r="I60">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2207,13 +2207,13 @@
         <v>18</v>
       </c>
       <c r="C61" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
       </c>
       <c r="E61">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>1200</v>
+        <v>960</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2236,25 +2236,25 @@
         <v>18</v>
       </c>
       <c r="C62" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
       </c>
       <c r="E62">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="F62">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="G62">
-        <v>0.0396174863387978</v>
+        <v>0.163793103448276</v>
       </c>
       <c r="H62">
-        <v>10.7275</v>
+        <v>42.195</v>
       </c>
       <c r="I62">
-        <v>703</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2265,7 +2265,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -2274,16 +2274,16 @@
         <v>18</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I63">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="C64" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
@@ -2323,25 +2323,25 @@
         <v>19</v>
       </c>
       <c r="C65" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
       </c>
       <c r="E65">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="F65">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G65">
-        <v>0.166666666666667</v>
+        <v>0.195075757575758</v>
       </c>
       <c r="H65">
-        <v>33.9375</v>
+        <v>37.5425</v>
       </c>
       <c r="I65">
-        <v>465</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2352,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="C66" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -2361,16 +2361,16 @@
         <v>18</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G66">
-        <v>0.333333333333333</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H66">
-        <v>5.94</v>
+        <v>9.9</v>
       </c>
       <c r="I66">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2381,7 +2381,7 @@
         <v>19</v>
       </c>
       <c r="C67" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
@@ -2390,16 +2390,16 @@
         <v>960</v>
       </c>
       <c r="F67">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="G67">
-        <v>0.06875000000000001</v>
+        <v>0.233333333333333</v>
       </c>
       <c r="H67">
-        <v>5.412</v>
+        <v>18.368</v>
       </c>
       <c r="I67">
-        <v>894</v>
+        <v>736</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2410,25 +2410,25 @@
         <v>19</v>
       </c>
       <c r="C68" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
       </c>
       <c r="E68">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="F68">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="G68">
-        <v>0.355721393034826</v>
+        <v>0.157004830917874</v>
       </c>
       <c r="H68">
-        <v>51.3625</v>
+        <v>24.0475</v>
       </c>
       <c r="I68">
-        <v>259</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="C69" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -2448,16 +2448,16 @@
         <v>12</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>0.5</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H69">
-        <v>5.94</v>
+        <v>1.98</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2468,25 +2468,25 @@
         <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
       </c>
       <c r="E70">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F70">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0.06785714285714289</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>4.674</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>783</v>
+        <v>720</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2497,7 +2497,7 @@
         <v>19</v>
       </c>
       <c r="C71" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -2506,16 +2506,16 @@
         <v>414</v>
       </c>
       <c r="F71">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.188405797101449</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>27.885</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>336</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2526,7 +2526,7 @@
         <v>19</v>
       </c>
       <c r="C72" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -2535,16 +2535,16 @@
         <v>12</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2555,25 +2555,25 @@
         <v>19</v>
       </c>
       <c r="C73" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D73" t="s">
         <v>25</v>
       </c>
       <c r="E73">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F73">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0.186904761904762</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>12.874</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>683</v>
+        <v>720</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2584,25 +2584,25 @@
         <v>19</v>
       </c>
       <c r="C74" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
       </c>
       <c r="E74">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F74">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="G74">
-        <v>0.0799086757990868</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="H74">
-        <v>12.6525</v>
+        <v>48.09</v>
       </c>
       <c r="I74">
-        <v>403</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2613,7 +2613,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -2622,16 +2622,16 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G75">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H75">
-        <v>3.96</v>
+        <v>5.94</v>
       </c>
       <c r="I75">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2642,7 +2642,7 @@
         <v>19</v>
       </c>
       <c r="C76" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D76" t="s">
         <v>25</v>
@@ -2651,16 +2651,16 @@
         <v>840</v>
       </c>
       <c r="F76">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="G76">
-        <v>0.132142857142857</v>
+        <v>0.464285714285714</v>
       </c>
       <c r="H76">
-        <v>9.102</v>
+        <v>31.98</v>
       </c>
       <c r="I76">
-        <v>729</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2671,25 +2671,25 @@
         <v>19</v>
       </c>
       <c r="C77" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
       </c>
       <c r="E77">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F77">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.15990990990991</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>26.1925</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>373</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2700,7 +2700,7 @@
         <v>19</v>
       </c>
       <c r="C78" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -2709,16 +2709,16 @@
         <v>18</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2729,13 +2729,13 @@
         <v>19</v>
       </c>
       <c r="C79" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
       </c>
       <c r="E79">
-        <v>840</v>
+        <v>900</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>840</v>
+        <v>900</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2758,25 +2758,25 @@
         <v>19</v>
       </c>
       <c r="C80" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
       </c>
       <c r="E80">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F80">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="G80">
-        <v>0.106884057971014</v>
+        <v>0.187943262411348</v>
       </c>
       <c r="H80">
-        <v>21.6325</v>
+        <v>37.895</v>
       </c>
       <c r="I80">
-        <v>493</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2787,7 +2787,7 @@
         <v>19</v>
       </c>
       <c r="C81" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
@@ -2796,16 +2796,16 @@
         <v>18</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G81">
-        <v>0.0555555555555556</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H81">
-        <v>0.99</v>
+        <v>5.94</v>
       </c>
       <c r="I81">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2816,25 +2816,25 @@
         <v>19</v>
       </c>
       <c r="C82" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D82" t="s">
         <v>25</v>
       </c>
       <c r="E82">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="F82">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="G82">
-        <v>0.145833333333333</v>
+        <v>0.0480392156862745</v>
       </c>
       <c r="H82">
-        <v>11.48</v>
+        <v>4.018</v>
       </c>
       <c r="I82">
-        <v>820</v>
+        <v>971</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2845,25 +2845,25 @@
         <v>19</v>
       </c>
       <c r="C83" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
       </c>
       <c r="E83">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="F83">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G83">
-        <v>0.0897435897435897</v>
+        <v>0.0509803921568627</v>
       </c>
       <c r="H83">
-        <v>18.0575</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="I83">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2874,13 +2874,13 @@
         <v>19</v>
       </c>
       <c r="C84" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2903,7 +2903,7 @@
         <v>19</v>
       </c>
       <c r="C85" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D85" t="s">
         <v>25</v>
@@ -2912,16 +2912,16 @@
         <v>960</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1.968</v>
       </c>
       <c r="I85">
-        <v>960</v>
+        <v>936</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2932,22 +2932,22 @@
         <v>20</v>
       </c>
       <c r="C86" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
       </c>
       <c r="E86">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="F86">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G86">
-        <v>0.1285140562249</v>
+        <v>0.0958333333333333</v>
       </c>
       <c r="H86">
-        <v>22.88</v>
+        <v>17.165</v>
       </c>
       <c r="I86">
         <v>434</v>
@@ -2961,7 +2961,7 @@
         <v>20</v>
       </c>
       <c r="C87" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
@@ -2970,16 +2970,16 @@
         <v>12</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G87">
-        <v>0.333333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H87">
-        <v>3.96</v>
+        <v>6.93</v>
       </c>
       <c r="I87">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2990,7 +2990,7 @@
         <v>20</v>
       </c>
       <c r="C88" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
@@ -2999,16 +2999,16 @@
         <v>900</v>
       </c>
       <c r="F88">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G88">
-        <v>0.0222222222222222</v>
+        <v>0.0511111111111111</v>
       </c>
       <c r="H88">
-        <v>1.64</v>
+        <v>3.772</v>
       </c>
       <c r="I88">
-        <v>880</v>
+        <v>854</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3019,25 +3019,25 @@
         <v>20</v>
       </c>
       <c r="C89" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
       </c>
       <c r="E89">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F89">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="G89">
-        <v>0.22636815920398</v>
+        <v>0.376923076923077</v>
       </c>
       <c r="H89">
-        <v>32.6825</v>
+        <v>54.4525</v>
       </c>
       <c r="I89">
-        <v>311</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3048,7 +3048,7 @@
         <v>20</v>
       </c>
       <c r="C90" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -3057,16 +3057,16 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G90">
-        <v>0.833333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H90">
-        <v>9.9</v>
+        <v>4.95</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3077,25 +3077,25 @@
         <v>20</v>
       </c>
       <c r="C91" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D91" t="s">
         <v>25</v>
       </c>
       <c r="E91">
-        <v>780</v>
+        <v>720</v>
       </c>
       <c r="F91">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="G91">
-        <v>0.166666666666667</v>
+        <v>0.295833333333333</v>
       </c>
       <c r="H91">
-        <v>10.66</v>
+        <v>17.466</v>
       </c>
       <c r="I91">
-        <v>650</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3106,25 +3106,25 @@
         <v>20</v>
       </c>
       <c r="C92" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
       </c>
       <c r="E92">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="F92">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="G92">
-        <v>0.207142857142857</v>
+        <v>0.124378109452736</v>
       </c>
       <c r="H92">
-        <v>31.1025</v>
+        <v>17.875</v>
       </c>
       <c r="I92">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3135,7 +3135,7 @@
         <v>20</v>
       </c>
       <c r="C93" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -3144,16 +3144,16 @@
         <v>12</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G93">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H93">
-        <v>5.94</v>
+        <v>3.96</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3164,25 +3164,25 @@
         <v>20</v>
       </c>
       <c r="C94" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
       </c>
       <c r="E94">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c r="F94">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="G94">
-        <v>0.285714285714286</v>
+        <v>0.0897435897435897</v>
       </c>
       <c r="H94">
-        <v>19.68</v>
+        <v>5.74</v>
       </c>
       <c r="I94">
-        <v>600</v>
+        <v>710</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3193,25 +3193,25 @@
         <v>20</v>
       </c>
       <c r="C95" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
       </c>
       <c r="E95">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F95">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="G95">
-        <v>0.446859903381642</v>
+        <v>0.223809523809524</v>
       </c>
       <c r="H95">
-        <v>66.78749999999999</v>
+        <v>34.505</v>
       </c>
       <c r="I95">
-        <v>229</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3222,25 +3222,25 @@
         <v>20</v>
       </c>
       <c r="C96" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
       </c>
       <c r="E96">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F96">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G96">
-        <v>0.75</v>
+        <v>1.46666666666667</v>
       </c>
       <c r="H96">
-        <v>8.91</v>
+        <v>21.78</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3251,25 +3251,25 @@
         <v>20</v>
       </c>
       <c r="C97" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D97" t="s">
         <v>25</v>
       </c>
       <c r="E97">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="F97">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>570</v>
+        <v>660</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3280,25 +3280,25 @@
         <v>20</v>
       </c>
       <c r="C98" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
       </c>
       <c r="E98">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="F98">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="G98">
-        <v>0.131720430107527</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H98">
-        <v>18.2375</v>
+        <v>32.18</v>
       </c>
       <c r="I98">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3309,7 +3309,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -3318,16 +3318,16 @@
         <v>12</v>
       </c>
       <c r="F99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G99">
-        <v>0.666666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H99">
-        <v>7.92</v>
+        <v>6.93</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3338,7 +3338,7 @@
         <v>20</v>
       </c>
       <c r="C100" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D100" t="s">
         <v>25</v>
@@ -3347,16 +3347,16 @@
         <v>840</v>
       </c>
       <c r="F100">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0.0535714285714286</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>795</v>
+        <v>840</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3367,25 +3367,25 @@
         <v>20</v>
       </c>
       <c r="C101" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
       </c>
       <c r="E101">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="F101">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="G101">
-        <v>0.146118721461187</v>
+        <v>0.208860759493671</v>
       </c>
       <c r="H101">
-        <v>23.51</v>
+        <v>35.4825</v>
       </c>
       <c r="I101">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3396,25 +3396,25 @@
         <v>20</v>
       </c>
       <c r="C102" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
       </c>
       <c r="E102">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G102">
-        <v>0.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H102">
-        <v>4.95</v>
+        <v>8.91</v>
       </c>
       <c r="I102">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3425,25 +3425,25 @@
         <v>20</v>
       </c>
       <c r="C103" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D103" t="s">
         <v>25</v>
       </c>
       <c r="E103">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G103">
-        <v>0.0119047619047619</v>
+        <v>0.0989583333333333</v>
       </c>
       <c r="H103">
-        <v>0.82</v>
+        <v>7.79</v>
       </c>
       <c r="I103">
-        <v>830</v>
+        <v>865</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3454,25 +3454,25 @@
         <v>20</v>
       </c>
       <c r="C104" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
       </c>
       <c r="E104">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>12.87</v>
       </c>
       <c r="I104">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3483,25 +3483,25 @@
         <v>20</v>
       </c>
       <c r="C105" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F105">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G105">
-        <v>0.416666666666667</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H105">
-        <v>4.95</v>
+        <v>9.9</v>
       </c>
       <c r="I105">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3512,25 +3512,25 @@
         <v>20</v>
       </c>
       <c r="C106" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D106" t="s">
         <v>25</v>
       </c>
       <c r="E106">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>0.21078431372549</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>17.63</v>
       </c>
       <c r="I106">
-        <v>960</v>
+        <v>805</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3541,25 +3541,25 @@
         <v>21</v>
       </c>
       <c r="C107" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
       </c>
       <c r="E107">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="F107">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="G107">
-        <v>0.286764705882353</v>
+        <v>0.42896174863388</v>
       </c>
       <c r="H107">
-        <v>41.8275</v>
+        <v>56.4275</v>
       </c>
       <c r="I107">
-        <v>291</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3570,7 +3570,7 @@
         <v>21</v>
       </c>
       <c r="C108" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -3579,16 +3579,16 @@
         <v>12</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I108">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3599,25 +3599,25 @@
         <v>21</v>
       </c>
       <c r="C109" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D109" t="s">
         <v>25</v>
       </c>
       <c r="E109">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="F109">
-        <v>12</v>
+        <v>404</v>
       </c>
       <c r="G109">
-        <v>0.0133333333333333</v>
+        <v>0.374074074074074</v>
       </c>
       <c r="H109">
-        <v>0.984</v>
+        <v>33.128</v>
       </c>
       <c r="I109">
-        <v>888</v>
+        <v>676</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3628,25 +3628,25 @@
         <v>21</v>
       </c>
       <c r="C110" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
       </c>
       <c r="E110">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="F110">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="G110">
-        <v>0.472677595628415</v>
+        <v>0.364779874213836</v>
       </c>
       <c r="H110">
-        <v>62.0475</v>
+        <v>41.77</v>
       </c>
       <c r="I110">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3657,7 +3657,7 @@
         <v>21</v>
       </c>
       <c r="C111" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -3666,16 +3666,16 @@
         <v>12</v>
       </c>
       <c r="F111">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G111">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H111">
-        <v>5.94</v>
+        <v>2.97</v>
       </c>
       <c r="I111">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3686,25 +3686,25 @@
         <v>21</v>
       </c>
       <c r="C112" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D112" t="s">
         <v>25</v>
       </c>
       <c r="E112">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="F112">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="G112">
-        <v>0.213888888888889</v>
+        <v>0.130769230769231</v>
       </c>
       <c r="H112">
-        <v>12.628</v>
+        <v>8.364000000000001</v>
       </c>
       <c r="I112">
-        <v>566</v>
+        <v>678</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3715,25 +3715,25 @@
         <v>21</v>
       </c>
       <c r="C113" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
       </c>
       <c r="E113">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="F113">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="G113">
-        <v>0.302777777777778</v>
+        <v>0.19</v>
       </c>
       <c r="H113">
-        <v>38.9675</v>
+        <v>20.3775</v>
       </c>
       <c r="I113">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3744,7 +3744,7 @@
         <v>21</v>
       </c>
       <c r="C114" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -3753,16 +3753,16 @@
         <v>12</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G114">
-        <v>0.583333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H114">
-        <v>6.93</v>
+        <v>7.92</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3773,7 +3773,7 @@
         <v>21</v>
       </c>
       <c r="C115" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D115" t="s">
         <v>25</v>
@@ -3782,16 +3782,16 @@
         <v>720</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>0.351388888888889</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>20.746</v>
       </c>
       <c r="I115">
-        <v>720</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3802,7 +3802,7 @@
         <v>21</v>
       </c>
       <c r="C116" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
@@ -3811,16 +3811,16 @@
         <v>312</v>
       </c>
       <c r="F116">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="G116">
-        <v>0.387820512820513</v>
+        <v>0.0512820512820513</v>
       </c>
       <c r="H116">
-        <v>43.3075</v>
+        <v>5.72</v>
       </c>
       <c r="I116">
-        <v>191</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3831,7 +3831,7 @@
         <v>21</v>
       </c>
       <c r="C117" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -3840,16 +3840,16 @@
         <v>12</v>
       </c>
       <c r="F117">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G117">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H117">
-        <v>5.94</v>
+        <v>2.97</v>
       </c>
       <c r="I117">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3860,7 +3860,7 @@
         <v>21</v>
       </c>
       <c r="C118" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D118" t="s">
         <v>25</v>
@@ -3869,16 +3869,16 @@
         <v>720</v>
       </c>
       <c r="F118">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="G118">
-        <v>0.334722222222222</v>
+        <v>0.0597222222222222</v>
       </c>
       <c r="H118">
-        <v>19.762</v>
+        <v>3.526</v>
       </c>
       <c r="I118">
-        <v>479</v>
+        <v>677</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3889,25 +3889,25 @@
         <v>21</v>
       </c>
       <c r="C119" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
       </c>
       <c r="E119">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="F119">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="G119">
-        <v>0.150641025641026</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="H119">
-        <v>16.8025</v>
+        <v>45.76</v>
       </c>
       <c r="I119">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3918,7 +3918,7 @@
         <v>21</v>
       </c>
       <c r="C120" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -3947,25 +3947,25 @@
         <v>21</v>
       </c>
       <c r="C121" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D121" t="s">
         <v>25</v>
       </c>
       <c r="E121">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.0602564102564103</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3.854</v>
       </c>
       <c r="I121">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3976,25 +3976,25 @@
         <v>21</v>
       </c>
       <c r="C122" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
       </c>
       <c r="E122">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="F122">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G122">
-        <v>0.280193236714976</v>
+        <v>0.370689655172414</v>
       </c>
       <c r="H122">
-        <v>41.47</v>
+        <v>46.1175</v>
       </c>
       <c r="I122">
-        <v>298</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4005,7 +4005,7 @@
         <v>21</v>
       </c>
       <c r="C123" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -4034,7 +4034,7 @@
         <v>21</v>
       </c>
       <c r="C124" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D124" t="s">
         <v>25</v>
@@ -4043,16 +4043,16 @@
         <v>780</v>
       </c>
       <c r="F124">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G124">
-        <v>0.124358974358974</v>
+        <v>0.0871794871794872</v>
       </c>
       <c r="H124">
-        <v>7.954</v>
+        <v>5.576</v>
       </c>
       <c r="I124">
-        <v>683</v>
+        <v>712</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4063,25 +4063,25 @@
         <v>21</v>
       </c>
       <c r="C125" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
       </c>
       <c r="E125">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F125">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="G125">
-        <v>0.244791666666667</v>
+        <v>0.379032258064516</v>
       </c>
       <c r="H125">
-        <v>33.605</v>
+        <v>50.4075</v>
       </c>
       <c r="I125">
-        <v>290</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4092,25 +4092,25 @@
         <v>21</v>
       </c>
       <c r="C126" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
       </c>
       <c r="E126">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F126">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G126">
-        <v>0.5</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H126">
-        <v>5.94</v>
+        <v>2.97</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4121,7 +4121,7 @@
         <v>21</v>
       </c>
       <c r="C127" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D127" t="s">
         <v>25</v>
@@ -4130,16 +4130,16 @@
         <v>900</v>
       </c>
       <c r="F127">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="G127">
-        <v>0.0211111111111111</v>
+        <v>0.175555555555556</v>
       </c>
       <c r="H127">
-        <v>1.558</v>
+        <v>12.956</v>
       </c>
       <c r="I127">
-        <v>881</v>
+        <v>742</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4150,25 +4150,25 @@
         <v>22</v>
       </c>
       <c r="C128" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
       </c>
       <c r="E128">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="F128">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="G128">
-        <v>0.142361111111111</v>
+        <v>0.210622710622711</v>
       </c>
       <c r="H128">
-        <v>29.315</v>
+        <v>43.0725</v>
       </c>
       <c r="I128">
-        <v>494</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4179,7 +4179,7 @@
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D129" t="s">
         <v>24</v>
@@ -4188,16 +4188,16 @@
         <v>15</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>0.06666666666666669</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I129">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4208,7 +4208,7 @@
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="D130" t="s">
         <v>25</v>
@@ -4217,16 +4217,16 @@
         <v>600</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.301666666666667</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>14.842</v>
       </c>
       <c r="I130">
-        <v>600</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4237,25 +4237,25 @@
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
       </c>
       <c r="E131">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="F131">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="G131">
-        <v>0.342105263157895</v>
+        <v>0.185446009389671</v>
       </c>
       <c r="H131">
-        <v>56.76</v>
+        <v>28.6025</v>
       </c>
       <c r="I131">
-        <v>300</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4266,25 +4266,25 @@
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D132" t="s">
         <v>24</v>
       </c>
       <c r="E132">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>0.176470588235294</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4295,7 +4295,7 @@
         <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="D133" t="s">
         <v>25</v>
@@ -4304,16 +4304,16 @@
         <v>420</v>
       </c>
       <c r="F133">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="G133">
-        <v>0.214285714285714</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="H133">
-        <v>7.38</v>
+        <v>19.68</v>
       </c>
       <c r="I133">
-        <v>330</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4324,25 +4324,25 @@
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
       </c>
       <c r="E134">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="F134">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G134">
-        <v>0.138888888888889</v>
+        <v>0.117777777777778</v>
       </c>
       <c r="H134">
-        <v>21.73</v>
+        <v>18.9475</v>
       </c>
       <c r="I134">
-        <v>372</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4353,7 +4353,7 @@
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
@@ -4362,16 +4362,16 @@
         <v>18</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G135">
-        <v>0.111111111111111</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H135">
-        <v>1.98</v>
+        <v>5.94</v>
       </c>
       <c r="I135">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4382,7 +4382,7 @@
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="D136" t="s">
         <v>25</v>
@@ -4391,16 +4391,16 @@
         <v>480</v>
       </c>
       <c r="F136">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="G136">
-        <v>0.410416666666667</v>
+        <v>0.170833333333333</v>
       </c>
       <c r="H136">
-        <v>16.154</v>
+        <v>6.724</v>
       </c>
       <c r="I136">
-        <v>283</v>
+        <v>398</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4411,25 +4411,25 @@
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
       </c>
       <c r="E137">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F137">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="G137">
-        <v>0.293248945147679</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="H137">
-        <v>51.4925</v>
+        <v>1.0725</v>
       </c>
       <c r="I137">
-        <v>335</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4440,7 +4440,7 @@
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D138" t="s">
         <v>24</v>
@@ -4449,16 +4449,16 @@
         <v>18</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4469,7 +4469,7 @@
         <v>22</v>
       </c>
       <c r="C139" s="2">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="D139" t="s">
         <v>25</v>
@@ -4478,16 +4478,16 @@
         <v>420</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="I139">
-        <v>420</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4498,25 +4498,25 @@
         <v>22</v>
       </c>
       <c r="C140" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
       </c>
       <c r="E140">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="F140">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G140">
-        <v>0.0982905982905983</v>
+        <v>0.101351351351351</v>
       </c>
       <c r="H140">
-        <v>18.395</v>
+        <v>16.0875</v>
       </c>
       <c r="I140">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4527,13 +4527,13 @@
         <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D141" t="s">
         <v>24</v>
       </c>
       <c r="E141">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="I141">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4556,25 +4556,25 @@
         <v>22</v>
       </c>
       <c r="C142" s="2">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D142" t="s">
         <v>25</v>
       </c>
       <c r="E142">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="F142">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="G142">
-        <v>0.178571428571429</v>
+        <v>0.188888888888889</v>
       </c>
       <c r="H142">
-        <v>6.15</v>
+        <v>8.364000000000001</v>
       </c>
       <c r="I142">
-        <v>345</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4585,25 +4585,25 @@
         <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
       </c>
       <c r="E143">
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>0.24113475177305</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>48.62</v>
       </c>
       <c r="I143">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4614,7 +4614,7 @@
         <v>22</v>
       </c>
       <c r="C144" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D144" t="s">
         <v>24</v>
@@ -4623,16 +4623,16 @@
         <v>15</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>0.06666666666666669</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I144">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4643,25 +4643,25 @@
         <v>22</v>
       </c>
       <c r="C145" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="D145" t="s">
         <v>25</v>
       </c>
       <c r="E145">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.203703703703704</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>9.02</v>
       </c>
       <c r="I145">
-        <v>360</v>
+        <v>430</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4672,25 +4672,25 @@
         <v>22</v>
       </c>
       <c r="C146" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
       </c>
       <c r="E146">
-        <v>684</v>
+        <v>564</v>
       </c>
       <c r="F146">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G146">
-        <v>0.169590643274854</v>
+        <v>0.163120567375887</v>
       </c>
       <c r="H146">
-        <v>41.72</v>
+        <v>34.06</v>
       </c>
       <c r="I146">
-        <v>568</v>
+        <v>472</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4701,7 +4701,7 @@
         <v>22</v>
       </c>
       <c r="C147" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D147" t="s">
         <v>24</v>
@@ -4710,16 +4710,16 @@
         <v>24</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="I147">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4730,25 +4730,25 @@
         <v>22</v>
       </c>
       <c r="C148" s="2">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="D148" t="s">
         <v>25</v>
       </c>
       <c r="E148">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="F148">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G148">
-        <v>0.0222222222222222</v>
+        <v>0.203333333333333</v>
       </c>
       <c r="H148">
-        <v>0.984</v>
+        <v>10.004</v>
       </c>
       <c r="I148">
-        <v>528</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/cml_usage.xlsx
+++ b/data/processed/cml_usage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="26">
   <si>
     <t>store_name</t>
   </si>
@@ -453,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,25 +496,25 @@
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="F2">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.22280701754386</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>47.4733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>443</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -525,25 +525,25 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -563,16 +563,16 @@
         <v>1080</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.037037037037037</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.364</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1040</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,25 +583,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F5">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.136111111111111</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>18.7756</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>311</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,25 +612,25 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6">
-        <v>0.444444444444444</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H6">
         <v>7.92</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,25 +641,25 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="F7">
-        <v>375</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>0.520833333333333</v>
+        <v>0.032051282051282</v>
       </c>
       <c r="H7">
-        <v>31.5375</v>
+        <v>2.1025</v>
       </c>
       <c r="I7">
-        <v>345</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,25 +670,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>384</v>
+        <v>522</v>
       </c>
       <c r="F8">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="G8">
-        <v>0.0755208333333333</v>
+        <v>0.507662835249042</v>
       </c>
       <c r="H8">
-        <v>10.8518</v>
+        <v>99.9118</v>
       </c>
       <c r="I8">
-        <v>355</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -699,25 +699,25 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>0.266666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H9">
-        <v>3.96</v>
+        <v>6.93</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -728,25 +728,25 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.212037037037037</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>19.2589</v>
       </c>
       <c r="I10">
-        <v>840</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,25 +757,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="F11">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="G11">
-        <v>0.302845528455285</v>
+        <v>0.191666666666667</v>
       </c>
       <c r="H11">
-        <v>56.1223</v>
+        <v>35.4526</v>
       </c>
       <c r="I11">
-        <v>343</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -786,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -795,16 +795,16 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>0.0833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>0.99</v>
+        <v>5.94</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -815,25 +815,25 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="G13">
-        <v>0.087719298245614</v>
+        <v>0.300925925925926</v>
       </c>
       <c r="H13">
-        <v>8.41</v>
+        <v>27.3325</v>
       </c>
       <c r="I13">
-        <v>1040</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,13 +844,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>504</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -873,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -902,13 +902,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1080</v>
+        <v>780</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1080</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -931,25 +931,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F17">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="G17">
-        <v>0.0961538461538462</v>
+        <v>0.292880258899676</v>
       </c>
       <c r="H17">
-        <v>22.4019</v>
+        <v>68.3027</v>
       </c>
       <c r="I17">
-        <v>564</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -960,7 +960,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -969,16 +969,16 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H18">
-        <v>5.94</v>
+        <v>3.96</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -989,25 +989,25 @@
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="G19">
-        <v>0.0231481481481481</v>
+        <v>0.165789473684211</v>
       </c>
       <c r="H19">
-        <v>2.1025</v>
+        <v>15.8949</v>
       </c>
       <c r="I19">
-        <v>1055</v>
+        <v>951</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0103092783505155</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.2452</v>
       </c>
       <c r="I20">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1047,25 +1047,25 @@
         <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.444444444444444</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1076,25 +1076,25 @@
         <v>16</v>
       </c>
       <c r="C22" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22">
-        <v>1320</v>
+        <v>1080</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.06944444444444441</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.3075</v>
       </c>
       <c r="I22">
-        <v>1320</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1105,25 +1105,25 @@
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="F23">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.14367816091954</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>27.8479</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>447</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1134,25 +1134,25 @@
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1320</v>
+        <v>18</v>
       </c>
       <c r="F24">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.151515151515152</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>16.82</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>45894</v>
+        <v>45900</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>432</v>
+        <v>1380</v>
       </c>
       <c r="F25">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.18287037037037</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>29.4449</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>353</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1192,25 +1192,25 @@
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>468</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G26">
-        <v>0.833333333333333</v>
+        <v>0.0961538461538462</v>
       </c>
       <c r="H26">
-        <v>4.95</v>
+        <v>17.3521</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1221,25 +1221,25 @@
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27">
-        <v>1140</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>0.09649122807017541</v>
+        <v>0.25</v>
       </c>
       <c r="H27">
-        <v>9.250999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="I27">
-        <v>1030</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1250,25 +1250,25 @@
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>45895</v>
+        <v>45901</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>426</v>
+        <v>1140</v>
       </c>
       <c r="F28">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.211267605633803</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>33.6112</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>336</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1279,25 +1279,25 @@
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>348</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.298850574712644</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>38.7665</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1308,25 +1308,25 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>960</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>0.0625</v>
+        <v>0.5</v>
       </c>
       <c r="H30">
-        <v>5.046</v>
+        <v>2.97</v>
       </c>
       <c r="I30">
-        <v>900</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1337,25 +1337,25 @@
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>45896</v>
+        <v>45902</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>390</v>
+        <v>1020</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>21.4455</v>
       </c>
       <c r="I31">
-        <v>390</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1366,25 +1366,25 @@
         <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>516</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.430232558139535</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>82.5881</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1395,25 +1395,25 @@
         <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <v>1140</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I33">
-        <v>1140</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1424,25 +1424,25 @@
         <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <v>444</v>
+        <v>1260</v>
       </c>
       <c r="F34">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="G34">
-        <v>0.193693693693694</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="H34">
-        <v>32.0476</v>
+        <v>12.615</v>
       </c>
       <c r="I34">
-        <v>358</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1453,25 +1453,25 @@
         <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>444</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1482,25 +1482,25 @@
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36">
-        <v>1260</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.0793650793650794</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>8.41</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1160</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1511,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <v>45898</v>
+        <v>45904</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E37">
-        <v>504</v>
+        <v>1320</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.0238095238095238</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>4.3902</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>492</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1540,25 +1540,25 @@
         <v>17</v>
       </c>
       <c r="C38" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>546</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.164835164835165</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>33.2772</v>
       </c>
       <c r="I38">
-        <v>6</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1569,13 +1569,13 @@
         <v>17</v>
       </c>
       <c r="C39" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>1560</v>
+        <v>6</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1560</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1598,25 +1598,25 @@
         <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>45899</v>
+        <v>45905</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E40">
-        <v>600</v>
+        <v>1440</v>
       </c>
       <c r="F40">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G40">
-        <v>0.0333333333333333</v>
+        <v>0.0902777777777778</v>
       </c>
       <c r="H40">
-        <v>7.484</v>
+        <v>10.933</v>
       </c>
       <c r="I40">
-        <v>580</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1627,25 +1627,25 @@
         <v>17</v>
       </c>
       <c r="C41" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41">
-        <v>18</v>
+        <v>642</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.0778816199376947</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>18.6098</v>
       </c>
       <c r="I41">
-        <v>18</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1656,54 +1656,54 @@
         <v>17</v>
       </c>
       <c r="C42" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42">
-        <v>1680</v>
+        <v>24</v>
       </c>
       <c r="F42">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>0.148809523809524</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H42">
-        <v>21.025</v>
+        <v>1.98</v>
       </c>
       <c r="I42">
-        <v>1430</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>45893</v>
+        <v>45906</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E43">
-        <v>672</v>
+        <v>1620</v>
       </c>
       <c r="F43">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="G43">
-        <v>0.166666666666667</v>
+        <v>0.171604938271605</v>
       </c>
       <c r="H43">
-        <v>41.7768</v>
+        <v>23.3798</v>
       </c>
       <c r="I43">
-        <v>560</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1714,25 +1714,25 @@
         <v>18</v>
       </c>
       <c r="C44" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44">
-        <v>12</v>
+        <v>630</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G44">
-        <v>0.0833333333333333</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="H44">
-        <v>0.99</v>
+        <v>28.2116</v>
       </c>
       <c r="I44">
-        <v>11</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1743,25 +1743,25 @@
         <v>18</v>
       </c>
       <c r="C45" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>1200</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I45">
-        <v>1200</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1772,25 +1772,25 @@
         <v>18</v>
       </c>
       <c r="C46" s="2">
-        <v>45894</v>
+        <v>45900</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E46">
-        <v>474</v>
+        <v>1200</v>
       </c>
       <c r="F46">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0.0886075949367089</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>16.8159</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>432</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1801,25 +1801,25 @@
         <v>18</v>
       </c>
       <c r="C47" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47">
-        <v>12</v>
+        <v>468</v>
       </c>
       <c r="F47">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G47">
-        <v>0.916666666666667</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="H47">
-        <v>10.89</v>
+        <v>24.8336</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1830,25 +1830,25 @@
         <v>18</v>
       </c>
       <c r="C48" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>1080</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="G48">
-        <v>0.140740740740741</v>
+        <v>0.75</v>
       </c>
       <c r="H48">
-        <v>12.7832</v>
+        <v>8.91</v>
       </c>
       <c r="I48">
-        <v>928</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1859,25 +1859,25 @@
         <v>18</v>
       </c>
       <c r="C49" s="2">
-        <v>45895</v>
+        <v>45901</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E49">
-        <v>510</v>
+        <v>1080</v>
       </c>
       <c r="F49">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G49">
-        <v>0.0549019607843137</v>
+        <v>0.0324074074074074</v>
       </c>
       <c r="H49">
-        <v>10.7708</v>
+        <v>2.9435</v>
       </c>
       <c r="I49">
-        <v>482</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1888,25 +1888,25 @@
         <v>18</v>
       </c>
       <c r="C50" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="G50">
-        <v>0.333333333333333</v>
+        <v>0.102409638554217</v>
       </c>
       <c r="H50">
-        <v>3.96</v>
+        <v>19.3505</v>
       </c>
       <c r="I50">
-        <v>8</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1917,13 +1917,13 @@
         <v>18</v>
       </c>
       <c r="C51" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51">
-        <v>1080</v>
+        <v>12</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>1080</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1946,25 +1946,25 @@
         <v>18</v>
       </c>
       <c r="C52" s="2">
-        <v>45896</v>
+        <v>45902</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E52">
-        <v>552</v>
+        <v>1080</v>
       </c>
       <c r="F52">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="G52">
-        <v>0.115942028985507</v>
+        <v>0.152777777777778</v>
       </c>
       <c r="H52">
-        <v>24.5352</v>
+        <v>13.8765</v>
       </c>
       <c r="I52">
-        <v>488</v>
+        <v>915</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1975,25 +1975,25 @@
         <v>18</v>
       </c>
       <c r="C53" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>522</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G53">
-        <v>0.5</v>
+        <v>0.09003831417624519</v>
       </c>
       <c r="H53">
-        <v>5.94</v>
+        <v>17.4872</v>
       </c>
       <c r="I53">
-        <v>6</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2004,25 +2004,25 @@
         <v>18</v>
       </c>
       <c r="C54" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54">
-        <v>1080</v>
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.0537037037037037</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>4.8778</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>1022</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2033,25 +2033,25 @@
         <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>588</v>
+        <v>1080</v>
       </c>
       <c r="F55">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="G55">
-        <v>0.0459183673469388</v>
+        <v>0.207407407407407</v>
       </c>
       <c r="H55">
-        <v>10.1034</v>
+        <v>18.8384</v>
       </c>
       <c r="I55">
-        <v>561</v>
+        <v>856</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2062,25 +2062,25 @@
         <v>18</v>
       </c>
       <c r="C56" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>12</v>
+        <v>558</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G56">
-        <v>0.25</v>
+        <v>0.08064516129032261</v>
       </c>
       <c r="H56">
-        <v>2.97</v>
+        <v>16.839</v>
       </c>
       <c r="I56">
-        <v>9</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2091,25 +2091,25 @@
         <v>18</v>
       </c>
       <c r="C57" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>1080</v>
+        <v>18</v>
       </c>
       <c r="F57">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G57">
-        <v>0.0509259259259259</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H57">
-        <v>4.6255</v>
+        <v>6.93</v>
       </c>
       <c r="I57">
-        <v>1025</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2120,25 +2120,25 @@
         <v>18</v>
       </c>
       <c r="C58" s="2">
-        <v>45898</v>
+        <v>45904</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E58">
-        <v>696</v>
+        <v>1080</v>
       </c>
       <c r="F58">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="G58">
-        <v>0.109195402298851</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="H58">
-        <v>28.4392</v>
+        <v>13.456</v>
       </c>
       <c r="I58">
-        <v>620</v>
+        <v>920</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2149,25 +2149,25 @@
         <v>18</v>
       </c>
       <c r="C59" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59">
-        <v>18</v>
+        <v>720</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="G59">
-        <v>0.5</v>
+        <v>0.131944444444444</v>
       </c>
       <c r="H59">
-        <v>8.91</v>
+        <v>35.4488</v>
       </c>
       <c r="I59">
-        <v>9</v>
+        <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2178,25 +2178,25 @@
         <v>18</v>
       </c>
       <c r="C60" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60">
-        <v>1200</v>
+        <v>18</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>8.91</v>
       </c>
       <c r="I60">
-        <v>1200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2207,25 +2207,25 @@
         <v>18</v>
       </c>
       <c r="C61" s="2">
-        <v>45899</v>
+        <v>45905</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E61">
-        <v>756</v>
+        <v>1200</v>
       </c>
       <c r="F61">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="G61">
-        <v>0.169312169312169</v>
+        <v>0.185</v>
       </c>
       <c r="H61">
-        <v>47.7473</v>
+        <v>18.6702</v>
       </c>
       <c r="I61">
-        <v>628</v>
+        <v>978</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2236,25 +2236,25 @@
         <v>18</v>
       </c>
       <c r="C62" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>726</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.0289256198347107</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>7.8582</v>
       </c>
       <c r="I62">
-        <v>18</v>
+        <v>705</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2265,54 +2265,54 @@
         <v>18</v>
       </c>
       <c r="C63" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E63">
-        <v>1620</v>
+        <v>18</v>
       </c>
       <c r="F63">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>0.0703703703703704</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H63">
-        <v>9.587400000000001</v>
+        <v>4.95</v>
       </c>
       <c r="I63">
-        <v>1506</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2">
-        <v>45893</v>
+        <v>45906</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E64">
-        <v>516</v>
+        <v>1560</v>
       </c>
       <c r="F64">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G64">
-        <v>0.151162790697674</v>
+        <v>0.0141025641025641</v>
       </c>
       <c r="H64">
-        <v>29.1876</v>
+        <v>1.8502</v>
       </c>
       <c r="I64">
-        <v>438</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2323,25 +2323,25 @@
         <v>19</v>
       </c>
       <c r="C65" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>570</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="G65">
-        <v>0.166666666666667</v>
+        <v>0.189473684210526</v>
       </c>
       <c r="H65">
-        <v>1.98</v>
+        <v>41</v>
       </c>
       <c r="I65">
-        <v>10</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2352,25 +2352,25 @@
         <v>19</v>
       </c>
       <c r="C66" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E66">
-        <v>1200</v>
+        <v>12</v>
       </c>
       <c r="F66">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="G66">
-        <v>0.0583333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H66">
-        <v>5.887</v>
+        <v>3.96</v>
       </c>
       <c r="I66">
-        <v>1130</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2381,25 +2381,25 @@
         <v>19</v>
       </c>
       <c r="C67" s="2">
-        <v>45894</v>
+        <v>45900</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E67">
-        <v>414</v>
+        <v>1200</v>
       </c>
       <c r="F67">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G67">
-        <v>0.173913043478261</v>
+        <v>0.075</v>
       </c>
       <c r="H67">
-        <v>27.3822</v>
+        <v>7.569</v>
       </c>
       <c r="I67">
-        <v>342</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2410,25 +2410,25 @@
         <v>19</v>
       </c>
       <c r="C68" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68">
-        <v>12</v>
+        <v>456</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="G68">
-        <v>0.0833333333333333</v>
+        <v>0.173245614035088</v>
       </c>
       <c r="H68">
-        <v>0.99</v>
+        <v>29.6249</v>
       </c>
       <c r="I68">
-        <v>11</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2439,25 +2439,25 @@
         <v>19</v>
       </c>
       <c r="C69" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F69">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.136458333333333</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>11.0171</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>829</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2468,25 +2468,25 @@
         <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>45895</v>
+        <v>45901</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E70">
-        <v>414</v>
+        <v>960</v>
       </c>
       <c r="F70">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="G70">
-        <v>0.367149758454106</v>
+        <v>0.103125</v>
       </c>
       <c r="H70">
-        <v>57.5381</v>
+        <v>8.325900000000001</v>
       </c>
       <c r="I70">
-        <v>262</v>
+        <v>861</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2497,25 +2497,25 @@
         <v>19</v>
       </c>
       <c r="C71" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>0.326388888888889</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>53.5416</v>
       </c>
       <c r="I71">
-        <v>12</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2526,25 +2526,25 @@
         <v>19</v>
       </c>
       <c r="C72" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E72">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0.239583333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H72">
-        <v>19.343</v>
+        <v>0.99</v>
       </c>
       <c r="I72">
-        <v>730</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2555,25 +2555,25 @@
         <v>19</v>
       </c>
       <c r="C73" s="2">
-        <v>45896</v>
+        <v>45902</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E73">
-        <v>444</v>
+        <v>960</v>
       </c>
       <c r="F73">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="G73">
-        <v>0.353603603603604</v>
+        <v>0.23125</v>
       </c>
       <c r="H73">
-        <v>58.6492</v>
+        <v>18.6702</v>
       </c>
       <c r="I73">
-        <v>287</v>
+        <v>738</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2584,25 +2584,25 @@
         <v>19</v>
       </c>
       <c r="C74" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E74">
-        <v>12</v>
+        <v>414</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="G74">
-        <v>0.333333333333333</v>
+        <v>0.439613526570048</v>
       </c>
       <c r="H74">
-        <v>3.96</v>
+        <v>68.9636</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2613,25 +2613,25 @@
         <v>19</v>
       </c>
       <c r="C75" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E75">
-        <v>1080</v>
+        <v>12</v>
       </c>
       <c r="F75">
-        <v>485</v>
+        <v>6</v>
       </c>
       <c r="G75">
-        <v>0.449074074074074</v>
+        <v>0.5</v>
       </c>
       <c r="H75">
-        <v>40.7885</v>
+        <v>5.94</v>
       </c>
       <c r="I75">
-        <v>595</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2642,25 +2642,25 @@
         <v>19</v>
       </c>
       <c r="C76" s="2">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>450</v>
+        <v>1080</v>
       </c>
       <c r="F76">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="G76">
-        <v>0.0644444444444444</v>
+        <v>0.251851851851852</v>
       </c>
       <c r="H76">
-        <v>10.8518</v>
+        <v>22.8752</v>
       </c>
       <c r="I76">
-        <v>421</v>
+        <v>808</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2671,25 +2671,25 @@
         <v>19</v>
       </c>
       <c r="C77" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="G77">
-        <v>0.0833333333333333</v>
+        <v>0.321759259259259</v>
       </c>
       <c r="H77">
-        <v>0.99</v>
+        <v>52.5269</v>
       </c>
       <c r="I77">
-        <v>11</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2700,25 +2700,25 @@
         <v>19</v>
       </c>
       <c r="C78" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>1080</v>
+        <v>12</v>
       </c>
       <c r="F78">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="G78">
-        <v>0.162037037037037</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="H78">
-        <v>14.7175</v>
+        <v>10.89</v>
       </c>
       <c r="I78">
-        <v>905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2729,25 +2729,25 @@
         <v>19</v>
       </c>
       <c r="C79" s="2">
-        <v>45898</v>
+        <v>45904</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E79">
-        <v>558</v>
+        <v>960</v>
       </c>
       <c r="F79">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="G79">
-        <v>0.08602150537634411</v>
+        <v>0.160416666666667</v>
       </c>
       <c r="H79">
-        <v>17.9616</v>
+        <v>12.9514</v>
       </c>
       <c r="I79">
-        <v>510</v>
+        <v>806</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2758,25 +2758,25 @@
         <v>19</v>
       </c>
       <c r="C80" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G80">
-        <v>0.25</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H80">
-        <v>2.97</v>
+        <v>8.6799</v>
       </c>
       <c r="I80">
-        <v>9</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2787,25 +2787,25 @@
         <v>19</v>
       </c>
       <c r="C81" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E81">
-        <v>1200</v>
+        <v>12</v>
       </c>
       <c r="F81">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.0516666666666667</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>5.2142</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2816,25 +2816,25 @@
         <v>19</v>
       </c>
       <c r="C82" s="2">
-        <v>45899</v>
+        <v>45905</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E82">
-        <v>558</v>
+        <v>1140</v>
       </c>
       <c r="F82">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="G82">
-        <v>0.145161290322581</v>
+        <v>0.0280701754385965</v>
       </c>
       <c r="H82">
-        <v>30.3102</v>
+        <v>2.6912</v>
       </c>
       <c r="I82">
-        <v>477</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2845,25 +2845,25 @@
         <v>19</v>
       </c>
       <c r="C83" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G83">
-        <v>0.416666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="H83">
-        <v>4.95</v>
+        <v>26.113</v>
       </c>
       <c r="I83">
-        <v>7</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2874,54 +2874,54 @@
         <v>19</v>
       </c>
       <c r="C84" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E84">
-        <v>1200</v>
+        <v>12</v>
       </c>
       <c r="F84">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>0.0375</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H84">
-        <v>3.7845</v>
+        <v>1.98</v>
       </c>
       <c r="I84">
-        <v>1155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" s="2">
-        <v>45893</v>
+        <v>45906</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E85">
-        <v>474</v>
+        <v>1200</v>
       </c>
       <c r="F85">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="G85">
-        <v>0.147679324894515</v>
+        <v>0.120833333333333</v>
       </c>
       <c r="H85">
-        <v>26.4501</v>
+        <v>12.1945</v>
       </c>
       <c r="I85">
-        <v>404</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2932,13 +2932,13 @@
         <v>20</v>
       </c>
       <c r="C86" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86">
-        <v>12</v>
+        <v>438</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>12</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2961,25 +2961,25 @@
         <v>20</v>
       </c>
       <c r="C87" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E87">
-        <v>1020</v>
+        <v>21</v>
       </c>
       <c r="F87">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0.11078431372549</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>9.503299999999999</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>907</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2990,13 +2990,13 @@
         <v>20</v>
       </c>
       <c r="C88" s="2">
-        <v>45894</v>
+        <v>45900</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E88">
-        <v>432</v>
+        <v>1020</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>432</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3019,13 +3019,13 @@
         <v>20</v>
       </c>
       <c r="C89" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E89">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>12</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3048,25 +3048,25 @@
         <v>20</v>
       </c>
       <c r="C90" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E90">
-        <v>840</v>
+        <v>18</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I90">
-        <v>840</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3077,25 +3077,25 @@
         <v>20</v>
       </c>
       <c r="C91" s="2">
-        <v>45895</v>
+        <v>45901</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E91">
-        <v>390</v>
+        <v>840</v>
       </c>
       <c r="F91">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G91">
-        <v>0.356410256410256</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H91">
-        <v>52.307</v>
+        <v>10.092</v>
       </c>
       <c r="I91">
-        <v>251</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3106,25 +3106,25 @@
         <v>20</v>
       </c>
       <c r="C92" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E92">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="F92">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="G92">
-        <v>0.666666666666667</v>
+        <v>0.225</v>
       </c>
       <c r="H92">
-        <v>7.92</v>
+        <v>30.5598</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3135,25 +3135,25 @@
         <v>20</v>
       </c>
       <c r="C93" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E93">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="F93">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>0.360714285714286</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H93">
-        <v>25.4823</v>
+        <v>1.98</v>
       </c>
       <c r="I93">
-        <v>537</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3164,25 +3164,25 @@
         <v>20</v>
       </c>
       <c r="C94" s="2">
-        <v>45896</v>
+        <v>45902</v>
       </c>
       <c r="D94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E94">
-        <v>384</v>
+        <v>900</v>
       </c>
       <c r="F94">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="G94">
-        <v>0.447916666666667</v>
+        <v>0.0644444444444444</v>
       </c>
       <c r="H94">
-        <v>64.8588</v>
+        <v>4.8778</v>
       </c>
       <c r="I94">
-        <v>212</v>
+        <v>842</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3193,25 +3193,25 @@
         <v>20</v>
       </c>
       <c r="C95" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E95">
-        <v>18</v>
+        <v>378</v>
       </c>
       <c r="F95">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="G95">
-        <v>0.611111111111111</v>
+        <v>0.293650793650794</v>
       </c>
       <c r="H95">
-        <v>10.89</v>
+        <v>41.976</v>
       </c>
       <c r="I95">
-        <v>7</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3222,25 +3222,25 @@
         <v>20</v>
       </c>
       <c r="C96" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E96">
-        <v>900</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="G96">
-        <v>0.14</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H96">
-        <v>10.5966</v>
+        <v>4.95</v>
       </c>
       <c r="I96">
-        <v>774</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3251,25 +3251,25 @@
         <v>20</v>
       </c>
       <c r="C97" s="2">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="D97" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E97">
-        <v>330</v>
+        <v>840</v>
       </c>
       <c r="F97">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G97">
-        <v>0.136363636363636</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="H97">
-        <v>17.4653</v>
+        <v>4.0368</v>
       </c>
       <c r="I97">
-        <v>285</v>
+        <v>792</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3280,25 +3280,25 @@
         <v>20</v>
       </c>
       <c r="C98" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E98">
-        <v>15</v>
+        <v>390</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="G98">
-        <v>0.2</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="H98">
-        <v>2.97</v>
+        <v>38.6663</v>
       </c>
       <c r="I98">
-        <v>12</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3309,25 +3309,25 @@
         <v>20</v>
       </c>
       <c r="C99" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E99">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F99">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="H99">
-        <v>15.138</v>
+        <v>2.97</v>
       </c>
       <c r="I99">
-        <v>780</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3338,25 +3338,25 @@
         <v>20</v>
       </c>
       <c r="C100" s="2">
-        <v>45898</v>
+        <v>45904</v>
       </c>
       <c r="D100" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E100">
-        <v>462</v>
+        <v>1020</v>
       </c>
       <c r="F100">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="G100">
-        <v>0.153679653679654</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="H100">
-        <v>27.1778</v>
+        <v>18.502</v>
       </c>
       <c r="I100">
-        <v>391</v>
+        <v>800</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3367,25 +3367,25 @@
         <v>20</v>
       </c>
       <c r="C101" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E101">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G101">
-        <v>0.555555555555556</v>
+        <v>0.264285714285714</v>
       </c>
       <c r="H101">
-        <v>9.9</v>
+        <v>41.6726</v>
       </c>
       <c r="I101">
-        <v>8</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3396,25 +3396,25 @@
         <v>20</v>
       </c>
       <c r="C102" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E102">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I102">
-        <v>960</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3425,25 +3425,25 @@
         <v>20</v>
       </c>
       <c r="C103" s="2">
-        <v>45899</v>
+        <v>45905</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E103">
-        <v>432</v>
+        <v>900</v>
       </c>
       <c r="F103">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="G103">
-        <v>0.0416666666666667</v>
+        <v>0.0788888888888889</v>
       </c>
       <c r="H103">
-        <v>6.5686</v>
+        <v>5.9711</v>
       </c>
       <c r="I103">
-        <v>414</v>
+        <v>829</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3454,25 +3454,25 @@
         <v>20</v>
       </c>
       <c r="C104" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E104">
-        <v>18</v>
+        <v>432</v>
       </c>
       <c r="F104">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G104">
-        <v>0.611111111111111</v>
+        <v>0.0300925925925926</v>
       </c>
       <c r="H104">
-        <v>10.89</v>
+        <v>4.8646</v>
       </c>
       <c r="I104">
-        <v>7</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3483,54 +3483,54 @@
         <v>20</v>
       </c>
       <c r="C105" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E105">
-        <v>1020</v>
+        <v>18</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I105">
-        <v>1020</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" s="2">
-        <v>45893</v>
+        <v>45906</v>
       </c>
       <c r="D106" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E106">
-        <v>384</v>
+        <v>1080</v>
       </c>
       <c r="F106">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="G106">
-        <v>0.0859375</v>
+        <v>0.115740740740741</v>
       </c>
       <c r="H106">
-        <v>12.3486</v>
+        <v>10.5125</v>
       </c>
       <c r="I106">
-        <v>351</v>
+        <v>955</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3541,25 +3541,25 @@
         <v>21</v>
       </c>
       <c r="C107" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E107">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="G107">
-        <v>0.166666666666667</v>
+        <v>0.149509803921569</v>
       </c>
       <c r="H107">
-        <v>1.98</v>
+        <v>22.8262</v>
       </c>
       <c r="I107">
-        <v>10</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3570,25 +3570,25 @@
         <v>21</v>
       </c>
       <c r="C108" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E108">
-        <v>1140</v>
+        <v>12</v>
       </c>
       <c r="F108">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G108">
-        <v>0.0526315789473684</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H108">
-        <v>5.046</v>
+        <v>7.92</v>
       </c>
       <c r="I108">
-        <v>1080</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3599,25 +3599,25 @@
         <v>21</v>
       </c>
       <c r="C109" s="2">
-        <v>45894</v>
+        <v>45900</v>
       </c>
       <c r="D109" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E109">
-        <v>318</v>
+        <v>1020</v>
       </c>
       <c r="F109">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G109">
-        <v>0.242138364779874</v>
+        <v>0.09803921568627449</v>
       </c>
       <c r="H109">
-        <v>28.6631</v>
+        <v>8.41</v>
       </c>
       <c r="I109">
-        <v>241</v>
+        <v>920</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3628,25 +3628,25 @@
         <v>21</v>
       </c>
       <c r="C110" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E110">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="F110">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="G110">
-        <v>0.666666666666667</v>
+        <v>0.236363636363636</v>
       </c>
       <c r="H110">
-        <v>7.92</v>
+        <v>29.1876</v>
       </c>
       <c r="I110">
-        <v>4</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3657,25 +3657,25 @@
         <v>21</v>
       </c>
       <c r="C111" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E111">
-        <v>900</v>
+        <v>12</v>
       </c>
       <c r="F111">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="G111">
-        <v>0.117777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="H111">
-        <v>8.9146</v>
+        <v>2.97</v>
       </c>
       <c r="I111">
-        <v>794</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3686,25 +3686,25 @@
         <v>21</v>
       </c>
       <c r="C112" s="2">
-        <v>45895</v>
+        <v>45901</v>
       </c>
       <c r="D112" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E112">
-        <v>348</v>
+        <v>900</v>
       </c>
       <c r="F112">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="G112">
-        <v>0.28448275862069</v>
+        <v>0.2</v>
       </c>
       <c r="H112">
-        <v>36.9957</v>
+        <v>15.138</v>
       </c>
       <c r="I112">
-        <v>249</v>
+        <v>720</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3715,25 +3715,25 @@
         <v>21</v>
       </c>
       <c r="C113" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E113">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="F113">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G113">
-        <v>0.75</v>
+        <v>0.152777777777778</v>
       </c>
       <c r="H113">
-        <v>8.91</v>
+        <v>16.3312</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3744,25 +3744,25 @@
         <v>21</v>
       </c>
       <c r="C114" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E114">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F114">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="G114">
-        <v>0.248958333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H114">
-        <v>20.0999</v>
+        <v>6.93</v>
       </c>
       <c r="I114">
-        <v>721</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3773,25 +3773,25 @@
         <v>21</v>
       </c>
       <c r="C115" s="2">
-        <v>45896</v>
+        <v>45902</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E115">
-        <v>342</v>
+        <v>720</v>
       </c>
       <c r="F115">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="G115">
-        <v>0.169590643274854</v>
+        <v>0.248611111111111</v>
       </c>
       <c r="H115">
-        <v>21.7036</v>
+        <v>15.0539</v>
       </c>
       <c r="I115">
-        <v>284</v>
+        <v>541</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3802,25 +3802,25 @@
         <v>21</v>
       </c>
       <c r="C116" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E116">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="F116">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="G116">
-        <v>0.583333333333333</v>
+        <v>0.233918128654971</v>
       </c>
       <c r="H116">
-        <v>6.93</v>
+        <v>29.7857</v>
       </c>
       <c r="I116">
-        <v>5</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3831,25 +3831,25 @@
         <v>21</v>
       </c>
       <c r="C117" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E117">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F117">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="G117">
-        <v>0.416666666666667</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="H117">
-        <v>33.64</v>
+        <v>10.89</v>
       </c>
       <c r="I117">
-        <v>560</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3860,25 +3860,25 @@
         <v>21</v>
       </c>
       <c r="C118" s="2">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E118">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="F118">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G118">
-        <v>0.327777777777778</v>
+        <v>0.176666666666667</v>
       </c>
       <c r="H118">
-        <v>44.1556</v>
+        <v>8.9146</v>
       </c>
       <c r="I118">
-        <v>242</v>
+        <v>494</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3889,25 +3889,25 @@
         <v>21</v>
       </c>
       <c r="C119" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E119">
-        <v>12</v>
+        <v>378</v>
       </c>
       <c r="F119">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="G119">
-        <v>0.666666666666667</v>
+        <v>0.425925925925926</v>
       </c>
       <c r="H119">
-        <v>7.92</v>
+        <v>59.979</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3918,25 +3918,25 @@
         <v>21</v>
       </c>
       <c r="C120" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E120">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F120">
-        <v>213</v>
+        <v>5</v>
       </c>
       <c r="G120">
-        <v>0.221875</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H120">
-        <v>17.9133</v>
+        <v>4.95</v>
       </c>
       <c r="I120">
-        <v>747</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3947,25 +3947,25 @@
         <v>21</v>
       </c>
       <c r="C121" s="2">
-        <v>45898</v>
+        <v>45904</v>
       </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E121">
-        <v>384</v>
+        <v>960</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.128125</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>10.3443</v>
       </c>
       <c r="I121">
-        <v>384</v>
+        <v>837</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3976,25 +3976,25 @@
         <v>21</v>
       </c>
       <c r="C122" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E122">
-        <v>12</v>
+        <v>396</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>0.186868686868687</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>27.6908</v>
       </c>
       <c r="I122">
-        <v>12</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4005,25 +4005,25 @@
         <v>21</v>
       </c>
       <c r="C123" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E123">
-        <v>900</v>
+        <v>12</v>
       </c>
       <c r="F123">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G123">
-        <v>0.08888888888888891</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H123">
-        <v>6.728</v>
+        <v>6.93</v>
       </c>
       <c r="I123">
-        <v>820</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4034,25 +4034,25 @@
         <v>21</v>
       </c>
       <c r="C124" s="2">
-        <v>45899</v>
+        <v>45905</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E124">
-        <v>384</v>
+        <v>1020</v>
       </c>
       <c r="F124">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="G124">
-        <v>0.0729166666666667</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="H124">
-        <v>10.4442</v>
+        <v>12.615</v>
       </c>
       <c r="I124">
-        <v>356</v>
+        <v>870</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4063,25 +4063,25 @@
         <v>21</v>
       </c>
       <c r="C125" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E125">
-        <v>12</v>
+        <v>420</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>0.15952380952381</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>25.0046</v>
       </c>
       <c r="I125">
-        <v>12</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4092,54 +4092,54 @@
         <v>21</v>
       </c>
       <c r="C126" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E126">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G126">
-        <v>0.0104166666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H126">
-        <v>0.841</v>
+        <v>5.94</v>
       </c>
       <c r="I126">
-        <v>950</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C127" s="2">
-        <v>45893</v>
+        <v>45906</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E127">
-        <v>594</v>
+        <v>1080</v>
       </c>
       <c r="F127">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G127">
-        <v>0.235690235690236</v>
+        <v>0.00925925925925926</v>
       </c>
       <c r="H127">
-        <v>52.4845</v>
+        <v>0.841</v>
       </c>
       <c r="I127">
-        <v>454</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4150,25 +4150,25 @@
         <v>22</v>
       </c>
       <c r="C128" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E128">
-        <v>15</v>
+        <v>558</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>0.136200716845878</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>28.4392</v>
       </c>
       <c r="I128">
-        <v>15</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4179,25 +4179,25 @@
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E129">
-        <v>780</v>
+        <v>18</v>
       </c>
       <c r="F129">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G129">
-        <v>0.0397435897435897</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H129">
-        <v>2.6071</v>
+        <v>4.95</v>
       </c>
       <c r="I129">
-        <v>749</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4208,25 +4208,25 @@
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>45894</v>
+        <v>45900</v>
       </c>
       <c r="D130" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E130">
-        <v>336</v>
+        <v>840</v>
       </c>
       <c r="F130">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="G130">
-        <v>0.0505952380952381</v>
+        <v>0.21547619047619</v>
       </c>
       <c r="H130">
-        <v>6.418</v>
+        <v>15.2221</v>
       </c>
       <c r="I130">
-        <v>319</v>
+        <v>659</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4237,25 +4237,25 @@
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E131">
-        <v>18</v>
+        <v>486</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>0.125514403292181</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>22.9459</v>
       </c>
       <c r="I131">
-        <v>18</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4266,25 +4266,25 @@
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="D132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E132">
-        <v>480</v>
+        <v>21</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="I132">
-        <v>480</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4295,25 +4295,25 @@
         <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>45895</v>
+        <v>45901</v>
       </c>
       <c r="D133" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E133">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="F133">
-        <v>203</v>
+        <v>375</v>
       </c>
       <c r="G133">
-        <v>0.402777777777778</v>
+        <v>0.625</v>
       </c>
       <c r="H133">
-        <v>76.2187</v>
+        <v>31.5375</v>
       </c>
       <c r="I133">
-        <v>301</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4324,25 +4324,25 @@
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E134">
-        <v>18</v>
+        <v>492</v>
       </c>
       <c r="F134">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="G134">
-        <v>0.666666666666667</v>
+        <v>0.205284552845528</v>
       </c>
       <c r="H134">
-        <v>11.88</v>
+        <v>37.9872</v>
       </c>
       <c r="I134">
-        <v>6</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4353,25 +4353,25 @@
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E135">
-        <v>540</v>
+        <v>15</v>
       </c>
       <c r="F135">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="G135">
-        <v>0.12037037037037</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H135">
-        <v>5.4665</v>
+        <v>1.98</v>
       </c>
       <c r="I135">
-        <v>475</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4382,25 +4382,25 @@
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>45896</v>
+        <v>45902</v>
       </c>
       <c r="D136" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E136">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="F136">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="G136">
-        <v>0.221649484536082</v>
+        <v>0.261666666666667</v>
       </c>
       <c r="H136">
-        <v>48.6179</v>
+        <v>13.2037</v>
       </c>
       <c r="I136">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4411,25 +4411,25 @@
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E137">
-        <v>18</v>
+        <v>528</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="G137">
-        <v>0.0555555555555556</v>
+        <v>0.179924242424242</v>
       </c>
       <c r="H137">
-        <v>0.99</v>
+        <v>35.8422</v>
       </c>
       <c r="I137">
-        <v>17</v>
+        <v>433</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4440,25 +4440,25 @@
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="D138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E138">
-        <v>660</v>
+        <v>18</v>
       </c>
       <c r="F138">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="G138">
-        <v>0.287878787878788</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H138">
-        <v>15.979</v>
+        <v>1.98</v>
       </c>
       <c r="I138">
-        <v>470</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4469,25 +4469,25 @@
         <v>22</v>
       </c>
       <c r="C139" s="2">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="D139" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E139">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="F139">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="G139">
-        <v>0.214814814814815</v>
+        <v>0.428333333333333</v>
       </c>
       <c r="H139">
-        <v>43.7635</v>
+        <v>21.6137</v>
       </c>
       <c r="I139">
-        <v>424</v>
+        <v>343</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4498,25 +4498,25 @@
         <v>22</v>
       </c>
       <c r="C140" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E140">
-        <v>18</v>
+        <v>516</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.10077519379845</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>19.4584</v>
       </c>
       <c r="I140">
-        <v>18</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4527,25 +4527,25 @@
         <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E141">
-        <v>600</v>
+        <v>18</v>
       </c>
       <c r="F141">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="G141">
-        <v>0.281666666666667</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H141">
-        <v>14.2129</v>
+        <v>1.98</v>
       </c>
       <c r="I141">
-        <v>431</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4556,25 +4556,25 @@
         <v>22</v>
       </c>
       <c r="C142" s="2">
-        <v>45898</v>
+        <v>45904</v>
       </c>
       <c r="D142" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E142">
-        <v>606</v>
+        <v>660</v>
       </c>
       <c r="F142">
-        <v>61</v>
+        <v>345</v>
       </c>
       <c r="G142">
-        <v>0.100660066006601</v>
+        <v>0.522727272727273</v>
       </c>
       <c r="H142">
-        <v>23.639</v>
+        <v>29.0145</v>
       </c>
       <c r="I142">
-        <v>545</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4585,25 +4585,25 @@
         <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E143">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>0.173539518900344</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>37.694</v>
       </c>
       <c r="I143">
-        <v>18</v>
+        <v>481</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4614,25 +4614,25 @@
         <v>22</v>
       </c>
       <c r="C144" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E144">
-        <v>720</v>
+        <v>18</v>
       </c>
       <c r="F144">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="G144">
-        <v>0.0791666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H144">
-        <v>4.7937</v>
+        <v>8.91</v>
       </c>
       <c r="I144">
-        <v>663</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4643,25 +4643,25 @@
         <v>22</v>
       </c>
       <c r="C145" s="2">
-        <v>45899</v>
+        <v>45905</v>
       </c>
       <c r="D145" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E145">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="F145">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="G145">
-        <v>0.0416666666666667</v>
+        <v>0.436666666666667</v>
       </c>
       <c r="H145">
-        <v>8.9808</v>
+        <v>22.0342</v>
       </c>
       <c r="I145">
-        <v>552</v>
+        <v>338</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4672,25 +4672,25 @@
         <v>22</v>
       </c>
       <c r="C146" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E146">
-        <v>21</v>
+        <v>642</v>
       </c>
       <c r="F146">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="G146">
-        <v>0.238095238095238</v>
+        <v>0.130841121495327</v>
       </c>
       <c r="H146">
-        <v>4.95</v>
+        <v>32.3319</v>
       </c>
       <c r="I146">
-        <v>16</v>
+        <v>558</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4701,25 +4701,54 @@
         <v>22</v>
       </c>
       <c r="C147" s="2">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="D147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E147">
-        <v>660</v>
+        <v>21</v>
       </c>
       <c r="F147">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>0.578787878787879</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>32.1262</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>278</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45906</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148">
+        <v>780</v>
+      </c>
+      <c r="F148">
+        <v>205</v>
+      </c>
+      <c r="G148">
+        <v>0.262820512820513</v>
+      </c>
+      <c r="H148">
+        <v>17.2405</v>
+      </c>
+      <c r="I148">
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/cml_usage.xlsx
+++ b/data/processed/cml_usage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="26">
   <si>
     <t>store_name</t>
   </si>
@@ -453,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,25 +496,25 @@
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>540</v>
+        <v>426</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00234741784037559</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3742</v>
       </c>
       <c r="I2">
-        <v>540</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -534,16 +534,16 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,25 +554,25 @@
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1080</v>
+        <v>900</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.7845</v>
       </c>
       <c r="I4">
-        <v>1080</v>
+        <v>855</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,7 +583,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -621,16 +621,16 @@
         <v>15</v>
       </c>
       <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="H6">
+        <v>6.93</v>
+      </c>
+      <c r="I6">
         <v>8</v>
-      </c>
-      <c r="G6">
-        <v>0.533333333333333</v>
-      </c>
-      <c r="H6">
-        <v>7.92</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,25 +641,25 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>780</v>
+        <v>720</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>0.032051282051282</v>
+        <v>0.0625</v>
       </c>
       <c r="H7">
-        <v>2.1025</v>
+        <v>3.7845</v>
       </c>
       <c r="I7">
-        <v>755</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,25 +670,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>522</v>
+        <v>372</v>
       </c>
       <c r="F8">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>0.507662835249042</v>
+        <v>0.0295698924731183</v>
       </c>
       <c r="H8">
-        <v>99.9118</v>
+        <v>4.1162</v>
       </c>
       <c r="I8">
-        <v>257</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -708,16 +708,16 @@
         <v>12</v>
       </c>
       <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.95</v>
+      </c>
+      <c r="I9">
         <v>7</v>
-      </c>
-      <c r="G9">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H9">
-        <v>6.93</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -728,25 +728,25 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="F10">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.212037037037037</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>19.2589</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>851</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,25 +757,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="F11">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G11">
-        <v>0.191666666666667</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="H11">
-        <v>35.4526</v>
+        <v>31.0355</v>
       </c>
       <c r="I11">
-        <v>388</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -786,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -795,16 +795,16 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -815,25 +815,25 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="F13">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="G13">
-        <v>0.300925925925926</v>
+        <v>0.354166666666667</v>
       </c>
       <c r="H13">
-        <v>27.3325</v>
+        <v>35.7425</v>
       </c>
       <c r="I13">
-        <v>755</v>
+        <v>775</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,13 +844,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>480</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -873,13 +873,13 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -902,13 +902,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>780</v>
+        <v>900</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>780</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -931,25 +931,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>618</v>
+        <v>510</v>
       </c>
       <c r="F17">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>0.292880258899676</v>
+        <v>0.0352941176470588</v>
       </c>
       <c r="H17">
-        <v>68.3027</v>
+        <v>6.7356</v>
       </c>
       <c r="I17">
-        <v>437</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -960,7 +960,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -969,16 +969,16 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -989,25 +989,25 @@
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1140</v>
+        <v>900</v>
       </c>
       <c r="F19">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.165789473684211</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>15.8949</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>951</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="G20">
-        <v>0.0103092783505155</v>
+        <v>0.141156462585034</v>
       </c>
       <c r="H20">
-        <v>2.2452</v>
+        <v>30.8535</v>
       </c>
       <c r="I20">
-        <v>576</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1047,25 +1047,25 @@
         <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.91</v>
       </c>
       <c r="I21">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1076,65 +1076,65 @@
         <v>16</v>
       </c>
       <c r="C22" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22">
-        <v>1080</v>
+        <v>1260</v>
       </c>
       <c r="F22">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="G22">
-        <v>0.06944444444444441</v>
+        <v>0.218253968253968</v>
       </c>
       <c r="H22">
-        <v>6.3075</v>
+        <v>23.1275</v>
       </c>
       <c r="I22">
-        <v>1005</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
-        <v>45900</v>
+        <v>45914</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>600</v>
+        <v>456</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>18.548</v>
       </c>
       <c r="I23">
-        <v>600</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2">
-        <v>45900</v>
+        <v>45914</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1143,85 +1143,85 @@
         <v>18</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="I24">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2">
-        <v>45900</v>
+        <v>45914</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1380</v>
+        <v>1020</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0735294117647059</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.3075</v>
       </c>
       <c r="I25">
-        <v>1380</v>
+        <v>945</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
       </c>
       <c r="E26">
-        <v>468</v>
+        <v>372</v>
       </c>
       <c r="F26">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="G26">
-        <v>0.0961538461538462</v>
+        <v>0.293010752688172</v>
       </c>
       <c r="H26">
-        <v>17.3521</v>
+        <v>41.0079</v>
       </c>
       <c r="I26">
-        <v>423</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1230,361 +1230,361 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>0.25</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H27">
-        <v>2.97</v>
+        <v>6.93</v>
       </c>
       <c r="I27">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28">
-        <v>1140</v>
+        <v>660</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.233333333333333</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>12.9514</v>
       </c>
       <c r="I28">
-        <v>1140</v>
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2">
-        <v>45902</v>
+        <v>45916</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="F29">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.298850574712644</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>38.7665</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>244</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
-        <v>45902</v>
+        <v>45916</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2">
-        <v>45902</v>
+        <v>45916</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1020</v>
+        <v>720</v>
       </c>
       <c r="F31">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>21.4455</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>765</v>
+        <v>720</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
       </c>
       <c r="E32">
-        <v>516</v>
+        <v>372</v>
       </c>
       <c r="F32">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="G32">
-        <v>0.430232558139535</v>
+        <v>0.212365591397849</v>
       </c>
       <c r="H32">
-        <v>82.5881</v>
+        <v>29.5032</v>
       </c>
       <c r="I32">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="H33">
-        <v>2.97</v>
+        <v>3.96</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34">
-        <v>1260</v>
+        <v>720</v>
       </c>
       <c r="F34">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G34">
-        <v>0.119047619047619</v>
+        <v>0.0347222222222222</v>
       </c>
       <c r="H34">
-        <v>12.615</v>
+        <v>2.1025</v>
       </c>
       <c r="I34">
-        <v>1110</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
       </c>
       <c r="E35">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>12.0477</v>
       </c>
       <c r="I35">
-        <v>444</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1320</v>
+        <v>900</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.0955555555555556</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>7.2326</v>
       </c>
       <c r="I37">
-        <v>1320</v>
+        <v>814</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="F38">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <v>0.164835164835165</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H38">
-        <v>33.2772</v>
+        <v>11.2993</v>
       </c>
       <c r="I38">
-        <v>456</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="2">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39">
         <v>6</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I39">
         <v>6</v>
@@ -1592,361 +1592,361 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
       </c>
       <c r="E40">
-        <v>1440</v>
+        <v>1140</v>
       </c>
       <c r="F40">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="G40">
-        <v>0.0902777777777778</v>
+        <v>0.219298245614035</v>
       </c>
       <c r="H40">
-        <v>10.933</v>
+        <v>21.025</v>
       </c>
       <c r="I40">
-        <v>1310</v>
+        <v>890</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2">
-        <v>45906</v>
+        <v>45920</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
       </c>
       <c r="E41">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.0778816199376947</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>18.6098</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>592</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2">
-        <v>45906</v>
+        <v>45920</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
       </c>
       <c r="E42">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2">
-        <v>45906</v>
+        <v>45920</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
       </c>
       <c r="E43">
-        <v>1620</v>
+        <v>1080</v>
       </c>
       <c r="F43">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.171604938271605</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>23.3798</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1342</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44">
-        <v>630</v>
+        <v>582</v>
       </c>
       <c r="F44">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G44">
-        <v>0.119047619047619</v>
+        <v>0.0859106529209622</v>
       </c>
       <c r="H44">
-        <v>28.2116</v>
+        <v>18.6265</v>
       </c>
       <c r="I44">
-        <v>555</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>0.0833333333333333</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H45">
-        <v>0.99</v>
+        <v>1.98</v>
       </c>
       <c r="I45">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.118181818181818</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>13.1196</v>
       </c>
       <c r="I46">
-        <v>1200</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="E47">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F47">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="G47">
-        <v>0.141025641025641</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H47">
-        <v>24.8336</v>
+        <v>57.3429</v>
       </c>
       <c r="I47">
-        <v>402</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
       </c>
       <c r="E49">
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="F49">
-        <v>35</v>
+        <v>370</v>
       </c>
       <c r="G49">
-        <v>0.0324074074074074</v>
+        <v>0.324561403508772</v>
       </c>
       <c r="H49">
-        <v>2.9435</v>
+        <v>31.117</v>
       </c>
       <c r="I49">
-        <v>1045</v>
+        <v>770</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50">
-        <v>498</v>
+        <v>408</v>
       </c>
       <c r="F50">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G50">
-        <v>0.102409638554217</v>
+        <v>0.0514705882352941</v>
       </c>
       <c r="H50">
-        <v>19.3505</v>
+        <v>7.8248</v>
       </c>
       <c r="I50">
-        <v>447</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -1955,56 +1955,56 @@
         <v>1080</v>
       </c>
       <c r="F52">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="G52">
-        <v>0.152777777777778</v>
+        <v>0.189814814814815</v>
       </c>
       <c r="H52">
-        <v>13.8765</v>
+        <v>17.2405</v>
       </c>
       <c r="I52">
-        <v>915</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
       </c>
       <c r="E53">
-        <v>522</v>
+        <v>468</v>
       </c>
       <c r="F53">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="G53">
-        <v>0.09003831417624519</v>
+        <v>0.237179487179487</v>
       </c>
       <c r="H53">
-        <v>17.4872</v>
+        <v>41.2857</v>
       </c>
       <c r="I53">
-        <v>475</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -2013,288 +2013,288 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I54">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C55" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D55" t="s">
         <v>25</v>
       </c>
       <c r="E55">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="F55">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G55">
-        <v>0.207407407407407</v>
+        <v>0.175</v>
       </c>
       <c r="H55">
-        <v>18.8384</v>
+        <v>17.661</v>
       </c>
       <c r="I55">
-        <v>856</v>
+        <v>990</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
       </c>
       <c r="E56">
-        <v>558</v>
+        <v>492</v>
       </c>
       <c r="F56">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="G56">
-        <v>0.08064516129032261</v>
+        <v>0.180894308943089</v>
       </c>
       <c r="H56">
-        <v>16.839</v>
+        <v>33.3038</v>
       </c>
       <c r="I56">
-        <v>513</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
       </c>
       <c r="E57">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H57">
+        <v>4.95</v>
+      </c>
+      <c r="I57">
         <v>7</v>
-      </c>
-      <c r="G57">
-        <v>0.388888888888889</v>
-      </c>
-      <c r="H57">
-        <v>6.93</v>
-      </c>
-      <c r="I57">
-        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
       </c>
       <c r="E58">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="F58">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G58">
-        <v>0.148148148148148</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H58">
-        <v>13.456</v>
+        <v>21.025</v>
       </c>
       <c r="I58">
-        <v>920</v>
+        <v>950</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
       </c>
       <c r="E59">
-        <v>720</v>
+        <v>546</v>
       </c>
       <c r="F59">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G59">
-        <v>0.131944444444444</v>
+        <v>0.0824175824175824</v>
       </c>
       <c r="H59">
-        <v>35.4488</v>
+        <v>16.839</v>
       </c>
       <c r="I59">
-        <v>625</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
       </c>
       <c r="E61">
-        <v>1200</v>
+        <v>1380</v>
       </c>
       <c r="F61">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="G61">
-        <v>0.185</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="H61">
-        <v>18.6702</v>
+        <v>12.615</v>
       </c>
       <c r="I61">
-        <v>978</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C62" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
       </c>
       <c r="E62">
-        <v>726</v>
+        <v>582</v>
       </c>
       <c r="F62">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="G62">
-        <v>0.0289256198347107</v>
+        <v>0.168384879725086</v>
       </c>
       <c r="H62">
-        <v>7.8582</v>
+        <v>36.6215</v>
       </c>
       <c r="I62">
-        <v>705</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C63" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
       </c>
       <c r="E63">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="H63">
+        <v>3.96</v>
+      </c>
+      <c r="I63">
         <v>5</v>
-      </c>
-      <c r="G63">
-        <v>0.277777777777778</v>
-      </c>
-      <c r="H63">
-        <v>4.95</v>
-      </c>
-      <c r="I63">
-        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
@@ -2303,114 +2303,114 @@
         <v>1560</v>
       </c>
       <c r="F64">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G64">
-        <v>0.0141025641025641</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H64">
-        <v>1.8502</v>
+        <v>5.4665</v>
       </c>
       <c r="I64">
-        <v>1538</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C65" s="2">
-        <v>45900</v>
+        <v>45914</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
       </c>
       <c r="E65">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="F65">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0.189473684210526</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>462</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C66" s="2">
-        <v>45900</v>
+        <v>45914</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
       </c>
       <c r="E66">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C67" s="2">
-        <v>45900</v>
+        <v>45914</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
       </c>
       <c r="E67">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="F67">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>7.569</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1110</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C68" s="2">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -2419,33 +2419,33 @@
         <v>456</v>
       </c>
       <c r="F68">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="G68">
-        <v>0.173245614035088</v>
+        <v>0.274122807017544</v>
       </c>
       <c r="H68">
-        <v>29.6249</v>
+        <v>46.4527</v>
       </c>
       <c r="I68">
-        <v>377</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C69" s="2">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2457,178 +2457,178 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C70" s="2">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
       </c>
       <c r="E70">
-        <v>960</v>
+        <v>1140</v>
       </c>
       <c r="F70">
-        <v>99</v>
+        <v>400</v>
       </c>
       <c r="G70">
-        <v>0.103125</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="H70">
-        <v>8.325900000000001</v>
+        <v>33.64</v>
       </c>
       <c r="I70">
-        <v>861</v>
+        <v>740</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C71" s="2">
-        <v>45902</v>
+        <v>45916</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
       <c r="E71">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="F71">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="G71">
-        <v>0.326388888888889</v>
+        <v>0.135714285714286</v>
       </c>
       <c r="H71">
-        <v>53.5416</v>
+        <v>21.1243</v>
       </c>
       <c r="I71">
-        <v>291</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C72" s="2">
-        <v>45902</v>
+        <v>45916</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C73" s="2">
-        <v>45902</v>
+        <v>45916</v>
       </c>
       <c r="D73" t="s">
         <v>25</v>
       </c>
       <c r="E73">
-        <v>960</v>
+        <v>1080</v>
       </c>
       <c r="F73">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0.23125</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>18.6702</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>738</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C74" s="2">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
       </c>
       <c r="E74">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="F74">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="G74">
-        <v>0.439613526570048</v>
+        <v>0.203196347031963</v>
       </c>
       <c r="H74">
-        <v>68.9636</v>
+        <v>32.7764</v>
       </c>
       <c r="I74">
-        <v>232</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" s="2">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>6</v>
@@ -2636,309 +2636,309 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C76" s="2">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="D76" t="s">
         <v>25</v>
       </c>
       <c r="E76">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="F76">
-        <v>272</v>
+        <v>470</v>
       </c>
       <c r="G76">
-        <v>0.251851851851852</v>
+        <v>0.391666666666667</v>
       </c>
       <c r="H76">
-        <v>22.8752</v>
+        <v>39.527</v>
       </c>
       <c r="I76">
-        <v>808</v>
+        <v>730</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C77" s="2">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
       </c>
       <c r="E77">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="F77">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="G77">
-        <v>0.321759259259259</v>
+        <v>0.196581196581197</v>
       </c>
       <c r="H77">
-        <v>52.5269</v>
+        <v>33.9869</v>
       </c>
       <c r="I77">
-        <v>293</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C78" s="2">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
       </c>
       <c r="E78">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F78">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.916666666666667</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>10.89</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C79" s="2">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
       </c>
       <c r="E79">
-        <v>960</v>
+        <v>1140</v>
       </c>
       <c r="F79">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="G79">
-        <v>0.160416666666667</v>
+        <v>0.09649122807017541</v>
       </c>
       <c r="H79">
-        <v>12.9514</v>
+        <v>9.250999999999999</v>
       </c>
       <c r="I79">
-        <v>806</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C80" s="2">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
       </c>
       <c r="E80">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="F80">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G80">
-        <v>0.0416666666666667</v>
+        <v>0.123456790123457</v>
       </c>
       <c r="H80">
-        <v>8.6799</v>
+        <v>22.452</v>
       </c>
       <c r="I80">
-        <v>529</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C81" s="2">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
       </c>
       <c r="E81">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I81">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C82" s="2">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="D82" t="s">
         <v>25</v>
       </c>
       <c r="E82">
-        <v>1140</v>
+        <v>1320</v>
       </c>
       <c r="F82">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G82">
-        <v>0.0280701754385965</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="H82">
-        <v>2.6912</v>
+        <v>3.364</v>
       </c>
       <c r="I82">
-        <v>1108</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C83" s="2">
-        <v>45906</v>
+        <v>45920</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
       </c>
       <c r="E83">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="F83">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>0.125</v>
+        <v>0.00333333333333333</v>
       </c>
       <c r="H83">
-        <v>26.113</v>
+        <v>0.7191</v>
       </c>
       <c r="I83">
-        <v>483</v>
+        <v>598</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C84" s="2">
-        <v>45906</v>
+        <v>45920</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
       </c>
       <c r="E84">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C85" s="2">
-        <v>45906</v>
+        <v>45920</v>
       </c>
       <c r="D85" t="s">
         <v>25</v>
       </c>
       <c r="E85">
-        <v>1200</v>
+        <v>1560</v>
       </c>
       <c r="F85">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="G85">
-        <v>0.120833333333333</v>
+        <v>0.016025641025641</v>
       </c>
       <c r="H85">
-        <v>12.1945</v>
+        <v>2.1025</v>
       </c>
       <c r="I85">
-        <v>1055</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C86" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
       </c>
       <c r="E86">
-        <v>438</v>
+        <v>732</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2950,53 +2950,53 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>438</v>
+        <v>732</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C87" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
       <c r="E87">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I87">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C88" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
       </c>
       <c r="E88">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3008,91 +3008,91 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1020</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C89" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
       </c>
       <c r="E89">
-        <v>360</v>
+        <v>474</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.141350210970464</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>25.6578</v>
       </c>
       <c r="I89">
-        <v>360</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C90" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
       </c>
       <c r="E90">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G90">
-        <v>0.166666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H90">
-        <v>2.97</v>
+        <v>4.95</v>
       </c>
       <c r="I90">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C91" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D91" t="s">
         <v>25</v>
       </c>
       <c r="E91">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F91">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>10.092</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>720</v>
@@ -3100,42 +3100,42 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C92" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
       </c>
       <c r="E92">
-        <v>360</v>
+        <v>516</v>
       </c>
       <c r="F92">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G92">
-        <v>0.225</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="H92">
-        <v>30.5598</v>
+        <v>23.8319</v>
       </c>
       <c r="I92">
-        <v>279</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C93" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -3144,85 +3144,85 @@
         <v>12</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G93">
-        <v>0.166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="H93">
-        <v>1.98</v>
+        <v>8.91</v>
       </c>
       <c r="I93">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C94" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
       </c>
       <c r="E94">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="F94">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="G94">
-        <v>0.0644444444444444</v>
+        <v>0.226851851851852</v>
       </c>
       <c r="H94">
-        <v>4.8778</v>
+        <v>20.6045</v>
       </c>
       <c r="I94">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C95" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
       </c>
       <c r="E95">
-        <v>378</v>
+        <v>552</v>
       </c>
       <c r="F95">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="G95">
-        <v>0.293650793650794</v>
+        <v>0.0815217391304348</v>
       </c>
       <c r="H95">
-        <v>41.976</v>
+        <v>16.942</v>
       </c>
       <c r="I95">
-        <v>267</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C96" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -3231,85 +3231,85 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G96">
-        <v>0.416666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H96">
-        <v>4.95</v>
+        <v>2.97</v>
       </c>
       <c r="I96">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C97" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D97" t="s">
         <v>25</v>
       </c>
       <c r="E97">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="F97">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="G97">
-        <v>0.0571428571428571</v>
+        <v>0.213888888888889</v>
       </c>
       <c r="H97">
-        <v>4.0368</v>
+        <v>19.4271</v>
       </c>
       <c r="I97">
-        <v>792</v>
+        <v>849</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C98" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
       </c>
       <c r="E98">
-        <v>390</v>
+        <v>564</v>
       </c>
       <c r="F98">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="G98">
-        <v>0.266666666666667</v>
+        <v>0.234042553191489</v>
       </c>
       <c r="H98">
-        <v>38.6663</v>
+        <v>49.6143</v>
       </c>
       <c r="I98">
-        <v>286</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C99" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -3318,172 +3318,172 @@
         <v>12</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G99">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H99">
-        <v>2.97</v>
+        <v>5.94</v>
       </c>
       <c r="I99">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C100" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D100" t="s">
         <v>25</v>
       </c>
       <c r="E100">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="F100">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="G100">
-        <v>0.215686274509804</v>
+        <v>0.0731481481481481</v>
       </c>
       <c r="H100">
-        <v>18.502</v>
+        <v>6.6439</v>
       </c>
       <c r="I100">
-        <v>800</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C101" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
       </c>
       <c r="E101">
-        <v>420</v>
+        <v>606</v>
       </c>
       <c r="F101">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="G101">
-        <v>0.264285714285714</v>
+        <v>0.117161716171617</v>
       </c>
       <c r="H101">
-        <v>41.6726</v>
+        <v>27.0813</v>
       </c>
       <c r="I101">
-        <v>309</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C102" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
       </c>
       <c r="E102">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G102">
-        <v>0.333333333333333</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H102">
-        <v>3.96</v>
+        <v>6.93</v>
       </c>
       <c r="I102">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C103" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D103" t="s">
         <v>25</v>
       </c>
       <c r="E103">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F103">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="G103">
-        <v>0.0788888888888889</v>
+        <v>0.141666666666667</v>
       </c>
       <c r="H103">
-        <v>5.9711</v>
+        <v>14.297</v>
       </c>
       <c r="I103">
-        <v>829</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C104" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
       </c>
       <c r="E104">
-        <v>432</v>
+        <v>714</v>
       </c>
       <c r="F104">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G104">
-        <v>0.0300925925925926</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="H104">
-        <v>4.8646</v>
+        <v>12.7228</v>
       </c>
       <c r="I104">
-        <v>419</v>
+        <v>680</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C105" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
@@ -3492,85 +3492,85 @@
         <v>18</v>
       </c>
       <c r="F105">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G105">
-        <v>0.277777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="H105">
-        <v>4.95</v>
+        <v>8.91</v>
       </c>
       <c r="I105">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C106" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="D106" t="s">
         <v>25</v>
       </c>
       <c r="E106">
-        <v>1080</v>
+        <v>1680</v>
       </c>
       <c r="F106">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>0.115740740740741</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>10.5125</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>955</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C107" s="2">
-        <v>45900</v>
+        <v>45914</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
       </c>
       <c r="E107">
-        <v>408</v>
+        <v>726</v>
       </c>
       <c r="F107">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G107">
-        <v>0.149509803921569</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="H107">
-        <v>22.8262</v>
+        <v>8.2324</v>
       </c>
       <c r="I107">
-        <v>347</v>
+        <v>704</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C108" s="2">
-        <v>45900</v>
+        <v>45914</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -3579,85 +3579,85 @@
         <v>12</v>
       </c>
       <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H108">
+        <v>3.96</v>
+      </c>
+      <c r="I108">
         <v>8</v>
-      </c>
-      <c r="G108">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H108">
-        <v>7.92</v>
-      </c>
-      <c r="I108">
-        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C109" s="2">
-        <v>45900</v>
+        <v>45914</v>
       </c>
       <c r="D109" t="s">
         <v>25</v>
       </c>
       <c r="E109">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="F109">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>0.09803921568627449</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>8.41</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>920</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C110" s="2">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
       </c>
       <c r="E110">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="F110">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G110">
-        <v>0.236363636363636</v>
+        <v>0.0955555555555556</v>
       </c>
       <c r="H110">
-        <v>29.1876</v>
+        <v>16.1346</v>
       </c>
       <c r="I110">
-        <v>252</v>
+        <v>407</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C111" s="2">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -3666,42 +3666,42 @@
         <v>12</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>0.25</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H111">
-        <v>2.97</v>
+        <v>9.9</v>
       </c>
       <c r="I111">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C112" s="2">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="D112" t="s">
         <v>25</v>
       </c>
       <c r="E112">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="F112">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>15.138</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>720</v>
@@ -3709,42 +3709,42 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C113" s="2">
-        <v>45902</v>
+        <v>45916</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
       </c>
       <c r="E113">
-        <v>288</v>
+        <v>486</v>
       </c>
       <c r="F113">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G113">
-        <v>0.152777777777778</v>
+        <v>0.117283950617284</v>
       </c>
       <c r="H113">
-        <v>16.3312</v>
+        <v>21.3295</v>
       </c>
       <c r="I113">
-        <v>244</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C114" s="2">
-        <v>45902</v>
+        <v>45916</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -3753,85 +3753,85 @@
         <v>12</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G114">
-        <v>0.583333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H114">
-        <v>6.93</v>
+        <v>7.92</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C115" s="2">
-        <v>45902</v>
+        <v>45916</v>
       </c>
       <c r="D115" t="s">
         <v>25</v>
       </c>
       <c r="E115">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="F115">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="G115">
-        <v>0.248611111111111</v>
+        <v>0.0601851851851852</v>
       </c>
       <c r="H115">
-        <v>15.0539</v>
+        <v>5.4665</v>
       </c>
       <c r="I115">
-        <v>541</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C116" s="2">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
       </c>
       <c r="E116">
-        <v>342</v>
+        <v>522</v>
       </c>
       <c r="F116">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G116">
-        <v>0.233918128654971</v>
+        <v>0.0134099616858238</v>
       </c>
       <c r="H116">
-        <v>29.7857</v>
+        <v>2.5901</v>
       </c>
       <c r="I116">
-        <v>262</v>
+        <v>515</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C117" s="2">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -3840,114 +3840,114 @@
         <v>12</v>
       </c>
       <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H117">
+        <v>0.99</v>
+      </c>
+      <c r="I117">
         <v>11</v>
-      </c>
-      <c r="G117">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="H117">
-        <v>10.89</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C118" s="2">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="D118" t="s">
         <v>25</v>
       </c>
       <c r="E118">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="F118">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G118">
-        <v>0.176666666666667</v>
+        <v>0.102777777777778</v>
       </c>
       <c r="H118">
-        <v>8.9146</v>
+        <v>9.335100000000001</v>
       </c>
       <c r="I118">
-        <v>494</v>
+        <v>969</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C119" s="2">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
       </c>
       <c r="E119">
-        <v>378</v>
+        <v>528</v>
       </c>
       <c r="F119">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="G119">
-        <v>0.425925925925926</v>
+        <v>0.0795454545454545</v>
       </c>
       <c r="H119">
-        <v>59.979</v>
+        <v>15.6725</v>
       </c>
       <c r="I119">
-        <v>217</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C120" s="2">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
       </c>
       <c r="E120">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F120">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G120">
-        <v>0.416666666666667</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H120">
-        <v>4.95</v>
+        <v>7.92</v>
       </c>
       <c r="I120">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C121" s="2">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="D121" t="s">
         <v>25</v>
@@ -3956,56 +3956,56 @@
         <v>960</v>
       </c>
       <c r="F121">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G121">
-        <v>0.128125</v>
+        <v>0.111458333333333</v>
       </c>
       <c r="H121">
-        <v>10.3443</v>
+        <v>8.998699999999999</v>
       </c>
       <c r="I121">
-        <v>837</v>
+        <v>853</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C122" s="2">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
       </c>
       <c r="E122">
-        <v>396</v>
+        <v>636</v>
       </c>
       <c r="F122">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G122">
-        <v>0.186868686868687</v>
+        <v>0.10377358490566</v>
       </c>
       <c r="H122">
-        <v>27.6908</v>
+        <v>24.6679</v>
       </c>
       <c r="I122">
-        <v>322</v>
+        <v>570</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C123" s="2">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -4014,85 +4014,85 @@
         <v>12</v>
       </c>
       <c r="F123">
+        <v>5</v>
+      </c>
+      <c r="G123">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H123">
+        <v>4.95</v>
+      </c>
+      <c r="I123">
         <v>7</v>
-      </c>
-      <c r="G123">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H123">
-        <v>6.93</v>
-      </c>
-      <c r="I123">
-        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C124" s="2">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="D124" t="s">
         <v>25</v>
       </c>
       <c r="E124">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="F124">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="G124">
-        <v>0.147058823529412</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="H124">
-        <v>12.615</v>
+        <v>8.830500000000001</v>
       </c>
       <c r="I124">
-        <v>870</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C125" s="2">
-        <v>45906</v>
+        <v>45920</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
       </c>
       <c r="E125">
-        <v>420</v>
+        <v>726</v>
       </c>
       <c r="F125">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G125">
-        <v>0.15952380952381</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="H125">
-        <v>25.0046</v>
+        <v>29.6197</v>
       </c>
       <c r="I125">
-        <v>353</v>
+        <v>649</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C126" s="2">
-        <v>45906</v>
+        <v>45920</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
@@ -4101,654 +4101,4917 @@
         <v>12</v>
       </c>
       <c r="F126">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G126">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H126">
-        <v>5.94</v>
+        <v>3.96</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C127" s="2">
-        <v>45906</v>
+        <v>45920</v>
       </c>
       <c r="D127" t="s">
         <v>25</v>
       </c>
       <c r="E127">
-        <v>1080</v>
+        <v>1560</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.00925925925925926</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>0.841</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>1070</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C128" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
       </c>
       <c r="E128">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="F128">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G128">
-        <v>0.136200716845878</v>
+        <v>0.164772727272727</v>
       </c>
       <c r="H128">
-        <v>28.4392</v>
+        <v>33.3617</v>
       </c>
       <c r="I128">
-        <v>482</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C129" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D129" t="s">
         <v>24</v>
       </c>
       <c r="E129">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0.277777777777778</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H129">
-        <v>4.95</v>
+        <v>0.99</v>
       </c>
       <c r="I129">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C130" s="2">
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="D130" t="s">
         <v>25</v>
       </c>
       <c r="E130">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="F130">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="G130">
-        <v>0.21547619047619</v>
+        <v>0.110833333333333</v>
       </c>
       <c r="H130">
-        <v>15.2221</v>
+        <v>11.1853</v>
       </c>
       <c r="I130">
-        <v>659</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C131" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
       </c>
       <c r="E131">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="F131">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="G131">
-        <v>0.125514403292181</v>
+        <v>0.269736842105263</v>
       </c>
       <c r="H131">
-        <v>22.9459</v>
+        <v>46.3198</v>
       </c>
       <c r="I131">
-        <v>425</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C132" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D132" t="s">
         <v>24</v>
       </c>
       <c r="E132">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G132">
-        <v>0.476190476190476</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H132">
-        <v>9.9</v>
+        <v>4.95</v>
       </c>
       <c r="I132">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C133" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="D133" t="s">
         <v>25</v>
       </c>
       <c r="E133">
-        <v>600</v>
+        <v>1320</v>
       </c>
       <c r="F133">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="G133">
-        <v>0.625</v>
+        <v>0.253787878787879</v>
       </c>
       <c r="H133">
-        <v>31.5375</v>
+        <v>28.1735</v>
       </c>
       <c r="I133">
-        <v>225</v>
+        <v>985</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C134" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
       </c>
       <c r="E134">
-        <v>492</v>
+        <v>384</v>
       </c>
       <c r="F134">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G134">
-        <v>0.205284552845528</v>
+        <v>0.0677083333333333</v>
       </c>
       <c r="H134">
-        <v>37.9872</v>
+        <v>9.729200000000001</v>
       </c>
       <c r="I134">
-        <v>391</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C135" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
       </c>
       <c r="E135">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0.133333333333333</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C136" s="2">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="D136" t="s">
         <v>25</v>
       </c>
       <c r="E136">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="F136">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="G136">
-        <v>0.261666666666667</v>
+        <v>0.320512820512821</v>
       </c>
       <c r="H136">
-        <v>13.2037</v>
+        <v>21.025</v>
       </c>
       <c r="I136">
-        <v>443</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C137" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
       </c>
       <c r="E137">
-        <v>528</v>
+        <v>384</v>
       </c>
       <c r="F137">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G137">
-        <v>0.179924242424242</v>
+        <v>0.239583333333333</v>
       </c>
       <c r="H137">
-        <v>35.8422</v>
+        <v>34.7196</v>
       </c>
       <c r="I137">
-        <v>433</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C138" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D138" t="s">
         <v>24</v>
       </c>
       <c r="E138">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G138">
-        <v>0.111111111111111</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H138">
-        <v>1.98</v>
+        <v>6.93</v>
       </c>
       <c r="I138">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C139" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="D139" t="s">
         <v>25</v>
       </c>
       <c r="E139">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="F139">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="G139">
-        <v>0.428333333333333</v>
+        <v>0.182352941176471</v>
       </c>
       <c r="H139">
-        <v>21.6137</v>
+        <v>15.6426</v>
       </c>
       <c r="I139">
-        <v>343</v>
+        <v>834</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C140" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
       </c>
       <c r="E140">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="F140">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G140">
-        <v>0.10077519379845</v>
+        <v>0.104444444444444</v>
       </c>
       <c r="H140">
-        <v>19.4584</v>
+        <v>17.734</v>
       </c>
       <c r="I140">
-        <v>464</v>
+        <v>403</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C141" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D141" t="s">
         <v>24</v>
       </c>
       <c r="E141">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G141">
-        <v>0.111111111111111</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H141">
-        <v>1.98</v>
+        <v>6.93</v>
       </c>
       <c r="I141">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C142" s="2">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="D142" t="s">
         <v>25</v>
       </c>
       <c r="E142">
-        <v>660</v>
+        <v>1080</v>
       </c>
       <c r="F142">
-        <v>345</v>
+        <v>131</v>
       </c>
       <c r="G142">
-        <v>0.522727272727273</v>
+        <v>0.121296296296296</v>
       </c>
       <c r="H142">
-        <v>29.0145</v>
+        <v>11.0171</v>
       </c>
       <c r="I142">
-        <v>315</v>
+        <v>949</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C143" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
       </c>
       <c r="E143">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="F143">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="G143">
-        <v>0.173539518900344</v>
+        <v>0.00549450549450549</v>
       </c>
       <c r="H143">
-        <v>37.694</v>
+        <v>1.3425</v>
       </c>
       <c r="I143">
-        <v>481</v>
+        <v>543</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C144" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D144" t="s">
         <v>24</v>
       </c>
       <c r="E144">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F144">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>0.5</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H144">
-        <v>8.91</v>
+        <v>0.99</v>
       </c>
       <c r="I144">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C145" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="D145" t="s">
         <v>25</v>
       </c>
       <c r="E145">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F145">
-        <v>262</v>
+        <v>106</v>
       </c>
       <c r="G145">
-        <v>0.436666666666667</v>
+        <v>0.08833333333333331</v>
       </c>
       <c r="H145">
-        <v>22.0342</v>
+        <v>8.9146</v>
       </c>
       <c r="I145">
-        <v>338</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C146" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
       </c>
       <c r="E146">
-        <v>642</v>
+        <v>552</v>
       </c>
       <c r="F146">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G146">
-        <v>0.130841121495327</v>
+        <v>0.16304347826087</v>
       </c>
       <c r="H146">
-        <v>32.3319</v>
+        <v>33.678</v>
       </c>
       <c r="I146">
-        <v>558</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C147" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="D147" t="s">
         <v>24</v>
       </c>
       <c r="E147">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I147">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45913</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148">
+        <v>1200</v>
+      </c>
+      <c r="F148">
+        <v>200</v>
+      </c>
+      <c r="G148">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H148">
+        <v>16.82</v>
+      </c>
+      <c r="I148">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D149" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149">
+        <v>534</v>
+      </c>
+      <c r="F149">
+        <v>73</v>
+      </c>
+      <c r="G149">
+        <v>0.136704119850187</v>
+      </c>
+      <c r="H149">
+        <v>28.0496</v>
+      </c>
+      <c r="I149">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D150" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150">
+        <v>12</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D151" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151">
+        <v>1200</v>
+      </c>
+      <c r="F151">
+        <v>235</v>
+      </c>
+      <c r="G151">
+        <v>0.195833333333333</v>
+      </c>
+      <c r="H151">
+        <v>19.7635</v>
+      </c>
+      <c r="I151">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D152" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152">
+        <v>408</v>
+      </c>
+      <c r="F152">
+        <v>96</v>
+      </c>
+      <c r="G152">
+        <v>0.235294117647059</v>
+      </c>
+      <c r="H152">
+        <v>35.7474</v>
+      </c>
+      <c r="I152">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D153" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153">
+        <v>12</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H153">
+        <v>3.96</v>
+      </c>
+      <c r="I153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154">
+        <v>960</v>
+      </c>
+      <c r="F154">
+        <v>520</v>
+      </c>
+      <c r="G154">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H154">
+        <v>43.732</v>
+      </c>
+      <c r="I154">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D155" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155">
+        <v>372</v>
+      </c>
+      <c r="F155">
+        <v>43</v>
+      </c>
+      <c r="G155">
+        <v>0.115591397849462</v>
+      </c>
+      <c r="H155">
+        <v>16.1786</v>
+      </c>
+      <c r="I155">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D156" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156">
+        <v>12</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+      <c r="G156">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H156">
+        <v>4.95</v>
+      </c>
+      <c r="I156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D157" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157">
+        <v>840</v>
+      </c>
+      <c r="F157">
+        <v>50</v>
+      </c>
+      <c r="G157">
+        <v>0.0595238095238095</v>
+      </c>
+      <c r="H157">
+        <v>4.205</v>
+      </c>
+      <c r="I157">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D158" t="s">
+        <v>23</v>
+      </c>
+      <c r="E158">
+        <v>408</v>
+      </c>
+      <c r="F158">
+        <v>8</v>
+      </c>
+      <c r="G158">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="H158">
+        <v>2.9936</v>
+      </c>
+      <c r="I158">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159">
+        <v>12</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+      <c r="G159">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H159">
+        <v>3.96</v>
+      </c>
+      <c r="I159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D160" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160">
+        <v>960</v>
+      </c>
+      <c r="F160">
+        <v>259</v>
+      </c>
+      <c r="G160">
+        <v>0.269791666666667</v>
+      </c>
+      <c r="H160">
+        <v>21.7819</v>
+      </c>
+      <c r="I160">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D161" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161">
+        <v>522</v>
+      </c>
+      <c r="F161">
+        <v>141</v>
+      </c>
+      <c r="G161">
+        <v>0.270114942528736</v>
+      </c>
+      <c r="H161">
+        <v>54.1989</v>
+      </c>
+      <c r="I161">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D162" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D163" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163">
+        <v>1080</v>
+      </c>
+      <c r="F163">
+        <v>422</v>
+      </c>
+      <c r="G163">
+        <v>0.390740740740741</v>
+      </c>
+      <c r="H163">
+        <v>35.4902</v>
+      </c>
+      <c r="I163">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164">
+        <v>552</v>
+      </c>
+      <c r="F164">
+        <v>86</v>
+      </c>
+      <c r="G164">
+        <v>0.155797101449275</v>
+      </c>
+      <c r="H164">
+        <v>32.7676</v>
+      </c>
+      <c r="I164">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D165" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165">
+        <v>12</v>
+      </c>
+      <c r="F165">
+        <v>8</v>
+      </c>
+      <c r="G165">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H165">
+        <v>7.92</v>
+      </c>
+      <c r="I165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D166" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166">
+        <v>1200</v>
+      </c>
+      <c r="F166">
+        <v>600</v>
+      </c>
+      <c r="G166">
+        <v>0.5</v>
+      </c>
+      <c r="H166">
+        <v>50.46</v>
+      </c>
+      <c r="I166">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D167" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167">
+        <v>540</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D168" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168">
+        <v>12</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D169" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169">
+        <v>1200</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45907</v>
+      </c>
+      <c r="D170" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170">
+        <v>492</v>
+      </c>
+      <c r="F170">
+        <v>94</v>
+      </c>
+      <c r="G170">
+        <v>0.191056910569106</v>
+      </c>
+      <c r="H170">
+        <v>35.5209</v>
+      </c>
+      <c r="I170">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45907</v>
+      </c>
+      <c r="D171" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171">
+        <v>12</v>
+      </c>
+      <c r="F171">
+        <v>5</v>
+      </c>
+      <c r="G171">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H171">
+        <v>4.95</v>
+      </c>
+      <c r="I171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45907</v>
+      </c>
+      <c r="D172" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172">
+        <v>1020</v>
+      </c>
+      <c r="F172">
+        <v>155</v>
+      </c>
+      <c r="G172">
+        <v>0.151960784313725</v>
+      </c>
+      <c r="H172">
+        <v>13.0355</v>
+      </c>
+      <c r="I172">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45908</v>
+      </c>
+      <c r="D173" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173">
+        <v>360</v>
+      </c>
+      <c r="F173">
+        <v>34</v>
+      </c>
+      <c r="G173">
+        <v>0.0944444444444444</v>
+      </c>
+      <c r="H173">
+        <v>12.7228</v>
+      </c>
+      <c r="I173">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45908</v>
+      </c>
+      <c r="D174" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174">
+        <v>12</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45908</v>
+      </c>
+      <c r="D175" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175">
+        <v>840</v>
+      </c>
+      <c r="F175">
+        <v>220</v>
+      </c>
+      <c r="G175">
+        <v>0.261904761904762</v>
+      </c>
+      <c r="H175">
+        <v>18.502</v>
+      </c>
+      <c r="I175">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D176" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176">
+        <v>348</v>
+      </c>
+      <c r="F176">
+        <v>7</v>
+      </c>
+      <c r="G176">
+        <v>0.0201149425287356</v>
+      </c>
+      <c r="H176">
+        <v>2.5526</v>
+      </c>
+      <c r="I176">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" t="s">
+        <v>20</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D177" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177">
+        <v>12</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>20</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D178" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178">
+        <v>660</v>
+      </c>
+      <c r="F178">
+        <v>125</v>
+      </c>
+      <c r="G178">
+        <v>0.189393939393939</v>
+      </c>
+      <c r="H178">
+        <v>10.5125</v>
+      </c>
+      <c r="I178">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45910</v>
+      </c>
+      <c r="D179" t="s">
+        <v>23</v>
+      </c>
+      <c r="E179">
+        <v>318</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45910</v>
+      </c>
+      <c r="D180" t="s">
+        <v>24</v>
+      </c>
+      <c r="E180">
+        <v>12</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45910</v>
+      </c>
+      <c r="D181" t="s">
+        <v>25</v>
+      </c>
+      <c r="E181">
+        <v>740</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" t="s">
+        <v>20</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45911</v>
+      </c>
+      <c r="D182" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182">
+        <v>336</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45911</v>
+      </c>
+      <c r="D183" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183">
+        <v>12</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45911</v>
+      </c>
+      <c r="D184" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184">
+        <v>900</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" t="s">
+        <v>20</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D185" t="s">
+        <v>23</v>
+      </c>
+      <c r="E185">
+        <v>420</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185">
+        <v>0.0452380952380952</v>
+      </c>
+      <c r="H185">
+        <v>7.1098</v>
+      </c>
+      <c r="I185">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D186" t="s">
+        <v>24</v>
+      </c>
+      <c r="E186">
+        <v>12</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D187" t="s">
+        <v>25</v>
+      </c>
+      <c r="E187">
+        <v>960</v>
+      </c>
+      <c r="F187">
+        <v>120</v>
+      </c>
+      <c r="G187">
+        <v>0.125</v>
+      </c>
+      <c r="H187">
+        <v>10.092</v>
+      </c>
+      <c r="I187">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45913</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188">
+        <v>462</v>
+      </c>
+      <c r="F188">
+        <v>27</v>
+      </c>
+      <c r="G188">
+        <v>0.0584415584415584</v>
+      </c>
+      <c r="H188">
+        <v>10.8364</v>
+      </c>
+      <c r="I188">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45913</v>
+      </c>
+      <c r="D189" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189">
+        <v>12</v>
+      </c>
+      <c r="F189">
+        <v>9</v>
+      </c>
+      <c r="G189">
+        <v>0.75</v>
+      </c>
+      <c r="H189">
+        <v>8.91</v>
+      </c>
+      <c r="I189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45913</v>
+      </c>
+      <c r="D190" t="s">
+        <v>25</v>
+      </c>
+      <c r="E190">
+        <v>1020</v>
+      </c>
+      <c r="F190">
+        <v>110</v>
+      </c>
+      <c r="G190">
+        <v>0.107843137254902</v>
+      </c>
+      <c r="H190">
+        <v>9.250999999999999</v>
+      </c>
+      <c r="I190">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D191" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191">
+        <v>480</v>
+      </c>
+      <c r="F191">
+        <v>103</v>
+      </c>
+      <c r="G191">
+        <v>0.214583333333333</v>
+      </c>
+      <c r="H191">
+        <v>38.9824</v>
+      </c>
+      <c r="I191">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" t="s">
+        <v>20</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D192" t="s">
+        <v>24</v>
+      </c>
+      <c r="E192">
         <v>15</v>
       </c>
-      <c r="B148" t="s">
+      <c r="F192">
+        <v>8</v>
+      </c>
+      <c r="G192">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="H192">
+        <v>7.92</v>
+      </c>
+      <c r="I192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D193" t="s">
+        <v>25</v>
+      </c>
+      <c r="E193">
+        <v>960</v>
+      </c>
+      <c r="F193">
+        <v>190</v>
+      </c>
+      <c r="G193">
+        <v>0.197916666666667</v>
+      </c>
+      <c r="H193">
+        <v>15.979</v>
+      </c>
+      <c r="I193">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D194" t="s">
+        <v>23</v>
+      </c>
+      <c r="E194">
+        <v>396</v>
+      </c>
+      <c r="F194">
+        <v>138</v>
+      </c>
+      <c r="G194">
+        <v>0.348484848484849</v>
+      </c>
+      <c r="H194">
+        <v>52.226</v>
+      </c>
+      <c r="I194">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" t="s">
+        <v>20</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D195" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195">
+        <v>12</v>
+      </c>
+      <c r="F195">
+        <v>3</v>
+      </c>
+      <c r="G195">
+        <v>0.25</v>
+      </c>
+      <c r="H195">
+        <v>2.97</v>
+      </c>
+      <c r="I195">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D196" t="s">
+        <v>25</v>
+      </c>
+      <c r="E196">
+        <v>960</v>
+      </c>
+      <c r="F196">
+        <v>350</v>
+      </c>
+      <c r="G196">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="H196">
+        <v>29.435</v>
+      </c>
+      <c r="I196">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D197" t="s">
+        <v>23</v>
+      </c>
+      <c r="E197">
+        <v>432</v>
+      </c>
+      <c r="F197">
+        <v>32</v>
+      </c>
+      <c r="G197">
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="H197">
+        <v>11.8865</v>
+      </c>
+      <c r="I197">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D198" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198">
+        <v>12</v>
+      </c>
+      <c r="F198">
+        <v>6</v>
+      </c>
+      <c r="G198">
+        <v>0.5</v>
+      </c>
+      <c r="H198">
+        <v>5.94</v>
+      </c>
+      <c r="I198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D199" t="s">
+        <v>25</v>
+      </c>
+      <c r="E199">
+        <v>760</v>
+      </c>
+      <c r="F199">
+        <v>160</v>
+      </c>
+      <c r="G199">
+        <v>0.210526315789474</v>
+      </c>
+      <c r="H199">
+        <v>13.456</v>
+      </c>
+      <c r="I199">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D200" t="s">
+        <v>23</v>
+      </c>
+      <c r="E200">
+        <v>360</v>
+      </c>
+      <c r="F200">
+        <v>36</v>
+      </c>
+      <c r="G200">
+        <v>0.1</v>
+      </c>
+      <c r="H200">
+        <v>13.398</v>
+      </c>
+      <c r="I200">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" t="s">
+        <v>20</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D201" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201">
+        <v>12</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D202" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202">
+        <v>900</v>
+      </c>
+      <c r="F202">
+        <v>114</v>
+      </c>
+      <c r="G202">
+        <v>0.126666666666667</v>
+      </c>
+      <c r="H202">
+        <v>9.587400000000001</v>
+      </c>
+      <c r="I202">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D203" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203">
+        <v>372</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D204" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204">
+        <v>12</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D205" t="s">
+        <v>25</v>
+      </c>
+      <c r="E205">
+        <v>840</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D206" t="s">
+        <v>23</v>
+      </c>
+      <c r="E206">
+        <v>450</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D207" t="s">
+        <v>24</v>
+      </c>
+      <c r="E207">
+        <v>12</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H207">
+        <v>0.99</v>
+      </c>
+      <c r="I207">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D208" t="s">
+        <v>25</v>
+      </c>
+      <c r="E208">
+        <v>840</v>
+      </c>
+      <c r="F208">
+        <v>10</v>
+      </c>
+      <c r="G208">
+        <v>0.0119047619047619</v>
+      </c>
+      <c r="H208">
+        <v>0.841</v>
+      </c>
+      <c r="I208">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D209" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209">
+        <v>606</v>
+      </c>
+      <c r="F209">
+        <v>76</v>
+      </c>
+      <c r="G209">
+        <v>0.125412541254125</v>
+      </c>
+      <c r="H209">
+        <v>29.2455</v>
+      </c>
+      <c r="I209">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D210" t="s">
+        <v>24</v>
+      </c>
+      <c r="E210">
+        <v>12</v>
+      </c>
+      <c r="F210">
+        <v>2</v>
+      </c>
+      <c r="G210">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H210">
+        <v>1.98</v>
+      </c>
+      <c r="I210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D211" t="s">
+        <v>25</v>
+      </c>
+      <c r="E211">
+        <v>960</v>
+      </c>
+      <c r="F211">
+        <v>7</v>
+      </c>
+      <c r="G211">
+        <v>0.00729166666666667</v>
+      </c>
+      <c r="H211">
+        <v>0.5887</v>
+      </c>
+      <c r="I211">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" t="s">
+        <v>21</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45907</v>
+      </c>
+      <c r="D212" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212">
+        <v>408</v>
+      </c>
+      <c r="F212">
+        <v>107</v>
+      </c>
+      <c r="G212">
+        <v>0.262254901960784</v>
+      </c>
+      <c r="H212">
+        <v>39.7889</v>
+      </c>
+      <c r="I212">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45907</v>
+      </c>
+      <c r="D213" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213">
+        <v>12</v>
+      </c>
+      <c r="F213">
+        <v>4</v>
+      </c>
+      <c r="G213">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H213">
+        <v>3.96</v>
+      </c>
+      <c r="I213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45907</v>
+      </c>
+      <c r="D214" t="s">
+        <v>25</v>
+      </c>
+      <c r="E214">
+        <v>1020</v>
+      </c>
+      <c r="F214">
+        <v>120</v>
+      </c>
+      <c r="G214">
+        <v>0.117647058823529</v>
+      </c>
+      <c r="H214">
+        <v>10.092</v>
+      </c>
+      <c r="I214">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45908</v>
+      </c>
+      <c r="D215" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215">
+        <v>342</v>
+      </c>
+      <c r="F215">
+        <v>70</v>
+      </c>
+      <c r="G215">
+        <v>0.204678362573099</v>
+      </c>
+      <c r="H215">
+        <v>26.194</v>
+      </c>
+      <c r="I215">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" t="s">
+        <v>21</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45908</v>
+      </c>
+      <c r="D216" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216">
+        <v>12</v>
+      </c>
+      <c r="F216">
+        <v>5</v>
+      </c>
+      <c r="G216">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H216">
+        <v>4.95</v>
+      </c>
+      <c r="I216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45908</v>
+      </c>
+      <c r="D217" t="s">
+        <v>25</v>
+      </c>
+      <c r="E217">
+        <v>840</v>
+      </c>
+      <c r="F217">
+        <v>146</v>
+      </c>
+      <c r="G217">
+        <v>0.173809523809524</v>
+      </c>
+      <c r="H217">
+        <v>12.2786</v>
+      </c>
+      <c r="I217">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D218" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218">
+        <v>312</v>
+      </c>
+      <c r="F218">
+        <v>111</v>
+      </c>
+      <c r="G218">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="H218">
+        <v>41.2857</v>
+      </c>
+      <c r="I218">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D219" t="s">
+        <v>24</v>
+      </c>
+      <c r="E219">
+        <v>12</v>
+      </c>
+      <c r="F219">
+        <v>11</v>
+      </c>
+      <c r="G219">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="H219">
+        <v>10.89</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D220" t="s">
+        <v>25</v>
+      </c>
+      <c r="E220">
+        <v>720</v>
+      </c>
+      <c r="F220">
+        <v>415</v>
+      </c>
+      <c r="G220">
+        <v>0.576388888888889</v>
+      </c>
+      <c r="H220">
+        <v>34.9015</v>
+      </c>
+      <c r="I220">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s">
+        <v>21</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45910</v>
+      </c>
+      <c r="D221" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221">
+        <v>336</v>
+      </c>
+      <c r="F221">
+        <v>93</v>
+      </c>
+      <c r="G221">
+        <v>0.276785714285714</v>
+      </c>
+      <c r="H221">
+        <v>34.5501</v>
+      </c>
+      <c r="I221">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
+        <v>21</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45910</v>
+      </c>
+      <c r="D222" t="s">
+        <v>24</v>
+      </c>
+      <c r="E222">
+        <v>12</v>
+      </c>
+      <c r="F222">
+        <v>12</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>11.88</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>21</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45910</v>
+      </c>
+      <c r="D223" t="s">
+        <v>25</v>
+      </c>
+      <c r="E223">
+        <v>720</v>
+      </c>
+      <c r="F223">
+        <v>260</v>
+      </c>
+      <c r="G223">
+        <v>0.361111111111111</v>
+      </c>
+      <c r="H223">
+        <v>21.866</v>
+      </c>
+      <c r="I223">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" s="2">
+        <v>45911</v>
+      </c>
+      <c r="D224" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224">
+        <v>336</v>
+      </c>
+      <c r="F224">
+        <v>74</v>
+      </c>
+      <c r="G224">
+        <v>0.220238095238095</v>
+      </c>
+      <c r="H224">
+        <v>27.6741</v>
+      </c>
+      <c r="I224">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" t="s">
+        <v>21</v>
+      </c>
+      <c r="C225" s="2">
+        <v>45911</v>
+      </c>
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225">
+        <v>12</v>
+      </c>
+      <c r="F225">
+        <v>7</v>
+      </c>
+      <c r="G225">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H225">
+        <v>6.93</v>
+      </c>
+      <c r="I225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" t="s">
+        <v>21</v>
+      </c>
+      <c r="C226" s="2">
+        <v>45911</v>
+      </c>
+      <c r="D226" t="s">
+        <v>25</v>
+      </c>
+      <c r="E226">
+        <v>780</v>
+      </c>
+      <c r="F226">
+        <v>137</v>
+      </c>
+      <c r="G226">
+        <v>0.175641025641026</v>
+      </c>
+      <c r="H226">
+        <v>11.5217</v>
+      </c>
+      <c r="I226">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" t="s">
+        <v>21</v>
+      </c>
+      <c r="C227" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D227" t="s">
+        <v>23</v>
+      </c>
+      <c r="E227">
+        <v>420</v>
+      </c>
+      <c r="F227">
+        <v>39</v>
+      </c>
+      <c r="G227">
+        <v>0.0928571428571429</v>
+      </c>
+      <c r="H227">
+        <v>14.5938</v>
+      </c>
+      <c r="I227">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" t="s">
+        <v>21</v>
+      </c>
+      <c r="C228" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D228" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228">
+        <v>12</v>
+      </c>
+      <c r="F228">
+        <v>9</v>
+      </c>
+      <c r="G228">
+        <v>0.75</v>
+      </c>
+      <c r="H228">
+        <v>8.91</v>
+      </c>
+      <c r="I228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s">
+        <v>21</v>
+      </c>
+      <c r="C229" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D229" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229">
+        <v>900</v>
+      </c>
+      <c r="F229">
+        <v>288</v>
+      </c>
+      <c r="G229">
+        <v>0.32</v>
+      </c>
+      <c r="H229">
+        <v>24.2208</v>
+      </c>
+      <c r="I229">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>21</v>
+      </c>
+      <c r="C230" s="2">
+        <v>45913</v>
+      </c>
+      <c r="D230" t="s">
+        <v>23</v>
+      </c>
+      <c r="E230">
+        <v>402</v>
+      </c>
+      <c r="F230">
+        <v>115</v>
+      </c>
+      <c r="G230">
+        <v>0.286069651741294</v>
+      </c>
+      <c r="H230">
+        <v>43.033</v>
+      </c>
+      <c r="I230">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s">
+        <v>21</v>
+      </c>
+      <c r="C231" s="2">
+        <v>45913</v>
+      </c>
+      <c r="D231" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231">
+        <v>12</v>
+      </c>
+      <c r="F231">
+        <v>8</v>
+      </c>
+      <c r="G231">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H231">
+        <v>7.92</v>
+      </c>
+      <c r="I231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>21</v>
+      </c>
+      <c r="C232" s="2">
+        <v>45913</v>
+      </c>
+      <c r="D232" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232">
+        <v>960</v>
+      </c>
+      <c r="F232">
+        <v>104</v>
+      </c>
+      <c r="G232">
+        <v>0.108333333333333</v>
+      </c>
+      <c r="H232">
+        <v>8.7464</v>
+      </c>
+      <c r="I232">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>21</v>
+      </c>
+      <c r="C233" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D233" t="s">
+        <v>23</v>
+      </c>
+      <c r="E233">
+        <v>390</v>
+      </c>
+      <c r="F233">
+        <v>16</v>
+      </c>
+      <c r="G233">
+        <v>0.041025641025641</v>
+      </c>
+      <c r="H233">
+        <v>5.87</v>
+      </c>
+      <c r="I233">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234" t="s">
+        <v>21</v>
+      </c>
+      <c r="C234" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D234" t="s">
+        <v>24</v>
+      </c>
+      <c r="E234">
+        <v>12</v>
+      </c>
+      <c r="F234">
+        <v>3</v>
+      </c>
+      <c r="G234">
+        <v>0.25</v>
+      </c>
+      <c r="H234">
+        <v>2.97</v>
+      </c>
+      <c r="I234">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235" t="s">
+        <v>21</v>
+      </c>
+      <c r="C235" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D235" t="s">
+        <v>25</v>
+      </c>
+      <c r="E235">
+        <v>1020</v>
+      </c>
+      <c r="F235">
+        <v>80</v>
+      </c>
+      <c r="G235">
+        <v>0.07843137254901961</v>
+      </c>
+      <c r="H235">
+        <v>6.728</v>
+      </c>
+      <c r="I235">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236" t="s">
+        <v>21</v>
+      </c>
+      <c r="C236" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D236" t="s">
+        <v>23</v>
+      </c>
+      <c r="E236">
+        <v>312</v>
+      </c>
+      <c r="F236">
+        <v>3</v>
+      </c>
+      <c r="G236">
+        <v>0.009615384615384619</v>
+      </c>
+      <c r="H236">
+        <v>1.1226</v>
+      </c>
+      <c r="I236">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D237" t="s">
+        <v>24</v>
+      </c>
+      <c r="E237">
+        <v>12</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
+      </c>
+      <c r="G237">
+        <v>0.25</v>
+      </c>
+      <c r="H237">
+        <v>2.97</v>
+      </c>
+      <c r="I237">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D238" t="s">
+        <v>25</v>
+      </c>
+      <c r="E238">
+        <v>720</v>
+      </c>
+      <c r="F238">
         <v>22</v>
       </c>
-      <c r="C148" s="2">
-        <v>45906</v>
-      </c>
-      <c r="D148" t="s">
-        <v>25</v>
-      </c>
-      <c r="E148">
+      <c r="G238">
+        <v>0.0305555555555556</v>
+      </c>
+      <c r="H238">
+        <v>1.8502</v>
+      </c>
+      <c r="I238">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" t="s">
+        <v>21</v>
+      </c>
+      <c r="C239" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D239" t="s">
+        <v>23</v>
+      </c>
+      <c r="E239">
+        <v>306</v>
+      </c>
+      <c r="F239">
+        <v>9</v>
+      </c>
+      <c r="G239">
+        <v>0.0294117647058824</v>
+      </c>
+      <c r="H239">
+        <v>3.3678</v>
+      </c>
+      <c r="I239">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240" t="s">
+        <v>21</v>
+      </c>
+      <c r="C240" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D240" t="s">
+        <v>24</v>
+      </c>
+      <c r="E240">
+        <v>12</v>
+      </c>
+      <c r="F240">
+        <v>9</v>
+      </c>
+      <c r="G240">
+        <v>0.75</v>
+      </c>
+      <c r="H240">
+        <v>8.91</v>
+      </c>
+      <c r="I240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>14</v>
+      </c>
+      <c r="B241" t="s">
+        <v>21</v>
+      </c>
+      <c r="C241" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D241" t="s">
+        <v>25</v>
+      </c>
+      <c r="E241">
+        <v>720</v>
+      </c>
+      <c r="F241">
+        <v>220</v>
+      </c>
+      <c r="G241">
+        <v>0.305555555555556</v>
+      </c>
+      <c r="H241">
+        <v>18.502</v>
+      </c>
+      <c r="I241">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242" t="s">
+        <v>21</v>
+      </c>
+      <c r="C242" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D242" t="s">
+        <v>23</v>
+      </c>
+      <c r="E242">
+        <v>324</v>
+      </c>
+      <c r="F242">
+        <v>155</v>
+      </c>
+      <c r="G242">
+        <v>0.478395061728395</v>
+      </c>
+      <c r="H242">
+        <v>57.5322</v>
+      </c>
+      <c r="I242">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>14</v>
+      </c>
+      <c r="B243" t="s">
+        <v>21</v>
+      </c>
+      <c r="C243" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D243" t="s">
+        <v>24</v>
+      </c>
+      <c r="E243">
+        <v>12</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H243">
+        <v>0.99</v>
+      </c>
+      <c r="I243">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
+        <v>14</v>
+      </c>
+      <c r="B244" t="s">
+        <v>21</v>
+      </c>
+      <c r="C244" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D244" t="s">
+        <v>25</v>
+      </c>
+      <c r="E244">
         <v>780</v>
       </c>
-      <c r="F148">
+      <c r="F244">
+        <v>240</v>
+      </c>
+      <c r="G244">
+        <v>0.307692307692308</v>
+      </c>
+      <c r="H244">
+        <v>20.184</v>
+      </c>
+      <c r="I244">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245" t="s">
+        <v>21</v>
+      </c>
+      <c r="C245" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D245" t="s">
+        <v>23</v>
+      </c>
+      <c r="E245">
+        <v>336</v>
+      </c>
+      <c r="F245">
+        <v>95</v>
+      </c>
+      <c r="G245">
+        <v>0.282738095238095</v>
+      </c>
+      <c r="H245">
+        <v>35.5197</v>
+      </c>
+      <c r="I245">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246" t="s">
+        <v>21</v>
+      </c>
+      <c r="C246" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D246" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246">
+        <v>12</v>
+      </c>
+      <c r="F246">
+        <v>6</v>
+      </c>
+      <c r="G246">
+        <v>0.5</v>
+      </c>
+      <c r="H246">
+        <v>5.94</v>
+      </c>
+      <c r="I246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247" t="s">
+        <v>21</v>
+      </c>
+      <c r="C247" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D247" t="s">
+        <v>25</v>
+      </c>
+      <c r="E247">
+        <v>780</v>
+      </c>
+      <c r="F247">
+        <v>178</v>
+      </c>
+      <c r="G247">
+        <v>0.228205128205128</v>
+      </c>
+      <c r="H247">
+        <v>14.9698</v>
+      </c>
+      <c r="I247">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>14</v>
+      </c>
+      <c r="B248" t="s">
+        <v>21</v>
+      </c>
+      <c r="C248" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D248" t="s">
+        <v>23</v>
+      </c>
+      <c r="E248">
+        <v>372</v>
+      </c>
+      <c r="F248">
+        <v>56</v>
+      </c>
+      <c r="G248">
+        <v>0.150537634408602</v>
+      </c>
+      <c r="H248">
+        <v>20.8673</v>
+      </c>
+      <c r="I248">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249" t="s">
+        <v>21</v>
+      </c>
+      <c r="C249" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D249" t="s">
+        <v>24</v>
+      </c>
+      <c r="E249">
+        <v>12</v>
+      </c>
+      <c r="F249">
+        <v>6</v>
+      </c>
+      <c r="G249">
+        <v>0.5</v>
+      </c>
+      <c r="H249">
+        <v>5.94</v>
+      </c>
+      <c r="I249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250" t="s">
+        <v>21</v>
+      </c>
+      <c r="C250" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D250" t="s">
+        <v>25</v>
+      </c>
+      <c r="E250">
+        <v>1020</v>
+      </c>
+      <c r="F250">
+        <v>158</v>
+      </c>
+      <c r="G250">
+        <v>0.154901960784314</v>
+      </c>
+      <c r="H250">
+        <v>13.2878</v>
+      </c>
+      <c r="I250">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251" t="s">
+        <v>21</v>
+      </c>
+      <c r="C251" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D251" t="s">
+        <v>23</v>
+      </c>
+      <c r="E251">
+        <v>372</v>
+      </c>
+      <c r="F251">
+        <v>6</v>
+      </c>
+      <c r="G251">
+        <v>0.0161290322580645</v>
+      </c>
+      <c r="H251">
+        <v>2.1573</v>
+      </c>
+      <c r="I251">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252" t="s">
+        <v>21</v>
+      </c>
+      <c r="C252" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D252" t="s">
+        <v>24</v>
+      </c>
+      <c r="E252">
+        <v>12</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>14</v>
+      </c>
+      <c r="B253" t="s">
+        <v>21</v>
+      </c>
+      <c r="C253" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D253" t="s">
+        <v>25</v>
+      </c>
+      <c r="E253">
+        <v>1020</v>
+      </c>
+      <c r="F253">
+        <v>276</v>
+      </c>
+      <c r="G253">
+        <v>0.270588235294118</v>
+      </c>
+      <c r="H253">
+        <v>23.2116</v>
+      </c>
+      <c r="I253">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" t="s">
+        <v>22</v>
+      </c>
+      <c r="C254" s="2">
+        <v>45907</v>
+      </c>
+      <c r="D254" t="s">
+        <v>23</v>
+      </c>
+      <c r="E254">
+        <v>582</v>
+      </c>
+      <c r="F254">
+        <v>98</v>
+      </c>
+      <c r="G254">
+        <v>0.168384879725086</v>
+      </c>
+      <c r="H254">
+        <v>36.6716</v>
+      </c>
+      <c r="I254">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" s="2">
+        <v>45907</v>
+      </c>
+      <c r="D255" t="s">
+        <v>24</v>
+      </c>
+      <c r="E255">
+        <v>15</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>0.06666666666666669</v>
+      </c>
+      <c r="H255">
+        <v>0.99</v>
+      </c>
+      <c r="I255">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" s="2">
+        <v>45907</v>
+      </c>
+      <c r="D256" t="s">
+        <v>25</v>
+      </c>
+      <c r="E256">
+        <v>840</v>
+      </c>
+      <c r="F256">
+        <v>252</v>
+      </c>
+      <c r="G256">
+        <v>0.3</v>
+      </c>
+      <c r="H256">
+        <v>21.1932</v>
+      </c>
+      <c r="I256">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" s="2">
+        <v>45908</v>
+      </c>
+      <c r="D257" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257">
+        <v>432</v>
+      </c>
+      <c r="F257">
+        <v>108</v>
+      </c>
+      <c r="G257">
+        <v>0.25</v>
+      </c>
+      <c r="H257">
+        <v>41.0696</v>
+      </c>
+      <c r="I257">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" s="2">
+        <v>45908</v>
+      </c>
+      <c r="D258" t="s">
+        <v>24</v>
+      </c>
+      <c r="E258">
+        <v>18</v>
+      </c>
+      <c r="F258">
+        <v>3</v>
+      </c>
+      <c r="G258">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H258">
+        <v>2.97</v>
+      </c>
+      <c r="I258">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" t="s">
+        <v>22</v>
+      </c>
+      <c r="C259" s="2">
+        <v>45908</v>
+      </c>
+      <c r="D259" t="s">
+        <v>25</v>
+      </c>
+      <c r="E259">
+        <v>480</v>
+      </c>
+      <c r="F259">
+        <v>117</v>
+      </c>
+      <c r="G259">
+        <v>0.24375</v>
+      </c>
+      <c r="H259">
+        <v>9.839700000000001</v>
+      </c>
+      <c r="I259">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D260" t="s">
+        <v>23</v>
+      </c>
+      <c r="E260">
+        <v>576</v>
+      </c>
+      <c r="F260">
+        <v>203</v>
+      </c>
+      <c r="G260">
+        <v>0.352430555555556</v>
+      </c>
+      <c r="H260">
+        <v>76.1825</v>
+      </c>
+      <c r="I260">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D261" t="s">
+        <v>24</v>
+      </c>
+      <c r="E261">
+        <v>12</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" t="s">
+        <v>22</v>
+      </c>
+      <c r="C262" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D262" t="s">
+        <v>25</v>
+      </c>
+      <c r="E262">
+        <v>600</v>
+      </c>
+      <c r="F262">
+        <v>63</v>
+      </c>
+      <c r="G262">
+        <v>0.105</v>
+      </c>
+      <c r="H262">
+        <v>5.2983</v>
+      </c>
+      <c r="I262">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" s="2">
+        <v>45910</v>
+      </c>
+      <c r="D263" t="s">
+        <v>23</v>
+      </c>
+      <c r="E263">
+        <v>558</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>0.0017921146953405</v>
+      </c>
+      <c r="H263">
+        <v>0.3575</v>
+      </c>
+      <c r="I263">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" t="s">
+        <v>22</v>
+      </c>
+      <c r="C264" s="2">
+        <v>45910</v>
+      </c>
+      <c r="D264" t="s">
+        <v>24</v>
+      </c>
+      <c r="E264">
+        <v>18</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
+      </c>
+      <c r="G264">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="H264">
+        <v>1.98</v>
+      </c>
+      <c r="I264">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" s="2">
+        <v>45910</v>
+      </c>
+      <c r="D265" t="s">
+        <v>25</v>
+      </c>
+      <c r="E265">
+        <v>540</v>
+      </c>
+      <c r="F265">
+        <v>122</v>
+      </c>
+      <c r="G265">
+        <v>0.225925925925926</v>
+      </c>
+      <c r="H265">
+        <v>10.2602</v>
+      </c>
+      <c r="I265">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" t="s">
+        <v>22</v>
+      </c>
+      <c r="C266" s="2">
+        <v>45911</v>
+      </c>
+      <c r="D266" t="s">
+        <v>23</v>
+      </c>
+      <c r="E266">
+        <v>528</v>
+      </c>
+      <c r="F266">
+        <v>64</v>
+      </c>
+      <c r="G266">
+        <v>0.121212121212121</v>
+      </c>
+      <c r="H266">
+        <v>24.3153</v>
+      </c>
+      <c r="I266">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267" s="2">
+        <v>45911</v>
+      </c>
+      <c r="D267" t="s">
+        <v>24</v>
+      </c>
+      <c r="E267">
+        <v>18</v>
+      </c>
+      <c r="F267">
+        <v>3</v>
+      </c>
+      <c r="G267">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H267">
+        <v>2.97</v>
+      </c>
+      <c r="I267">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" t="s">
+        <v>22</v>
+      </c>
+      <c r="C268" s="2">
+        <v>45911</v>
+      </c>
+      <c r="D268" t="s">
+        <v>25</v>
+      </c>
+      <c r="E268">
+        <v>540</v>
+      </c>
+      <c r="F268">
+        <v>215</v>
+      </c>
+      <c r="G268">
+        <v>0.398148148148148</v>
+      </c>
+      <c r="H268">
+        <v>18.0815</v>
+      </c>
+      <c r="I268">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D269" t="s">
+        <v>23</v>
+      </c>
+      <c r="E269">
+        <v>582</v>
+      </c>
+      <c r="F269">
+        <v>80</v>
+      </c>
+      <c r="G269">
+        <v>0.13745704467354</v>
+      </c>
+      <c r="H269">
+        <v>29.936</v>
+      </c>
+      <c r="I269">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" t="s">
+        <v>22</v>
+      </c>
+      <c r="C270" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D270" t="s">
+        <v>24</v>
+      </c>
+      <c r="E270">
+        <v>18</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D271" t="s">
+        <v>25</v>
+      </c>
+      <c r="E271">
+        <v>600</v>
+      </c>
+      <c r="F271">
+        <v>116</v>
+      </c>
+      <c r="G271">
+        <v>0.193333333333333</v>
+      </c>
+      <c r="H271">
+        <v>9.755599999999999</v>
+      </c>
+      <c r="I271">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272" s="2">
+        <v>45913</v>
+      </c>
+      <c r="D272" t="s">
+        <v>23</v>
+      </c>
+      <c r="E272">
+        <v>858</v>
+      </c>
+      <c r="F272">
+        <v>80</v>
+      </c>
+      <c r="G272">
+        <v>0.09324009324009321</v>
+      </c>
+      <c r="H272">
+        <v>29.936</v>
+      </c>
+      <c r="I272">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" t="s">
+        <v>22</v>
+      </c>
+      <c r="C273" s="2">
+        <v>45913</v>
+      </c>
+      <c r="D273" t="s">
+        <v>24</v>
+      </c>
+      <c r="E273">
+        <v>18</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" t="s">
+        <v>22</v>
+      </c>
+      <c r="C274" s="2">
+        <v>45913</v>
+      </c>
+      <c r="D274" t="s">
+        <v>25</v>
+      </c>
+      <c r="E274">
+        <v>600</v>
+      </c>
+      <c r="F274">
+        <v>116</v>
+      </c>
+      <c r="G274">
+        <v>0.193333333333333</v>
+      </c>
+      <c r="H274">
+        <v>9.755599999999999</v>
+      </c>
+      <c r="I274">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D275" t="s">
+        <v>23</v>
+      </c>
+      <c r="E275">
+        <v>564</v>
+      </c>
+      <c r="F275">
+        <v>59</v>
+      </c>
+      <c r="G275">
+        <v>0.104609929078014</v>
+      </c>
+      <c r="H275">
+        <v>21.6676</v>
+      </c>
+      <c r="I275">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" t="s">
+        <v>22</v>
+      </c>
+      <c r="C276" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D276" t="s">
+        <v>24</v>
+      </c>
+      <c r="E276">
+        <v>15</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" t="s">
+        <v>22</v>
+      </c>
+      <c r="C277" s="2">
+        <v>45914</v>
+      </c>
+      <c r="D277" t="s">
+        <v>25</v>
+      </c>
+      <c r="E277">
+        <v>720</v>
+      </c>
+      <c r="F277">
         <v>205</v>
       </c>
-      <c r="G148">
-        <v>0.262820512820513</v>
-      </c>
-      <c r="H148">
+      <c r="G277">
+        <v>0.284722222222222</v>
+      </c>
+      <c r="H277">
         <v>17.2405</v>
       </c>
-      <c r="I148">
-        <v>575</v>
+      <c r="I277">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" t="s">
+        <v>22</v>
+      </c>
+      <c r="C278" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D278" t="s">
+        <v>23</v>
+      </c>
+      <c r="E278">
+        <v>432</v>
+      </c>
+      <c r="F278">
+        <v>83</v>
+      </c>
+      <c r="G278">
+        <v>0.19212962962963</v>
+      </c>
+      <c r="H278">
+        <v>31.0586</v>
+      </c>
+      <c r="I278">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" t="s">
+        <v>22</v>
+      </c>
+      <c r="C279" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D279" t="s">
+        <v>24</v>
+      </c>
+      <c r="E279">
+        <v>18</v>
+      </c>
+      <c r="F279">
+        <v>4</v>
+      </c>
+      <c r="G279">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="H279">
+        <v>3.96</v>
+      </c>
+      <c r="I279">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" t="s">
+        <v>22</v>
+      </c>
+      <c r="C280" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D280" t="s">
+        <v>25</v>
+      </c>
+      <c r="E280">
+        <v>480</v>
+      </c>
+      <c r="F280">
+        <v>194</v>
+      </c>
+      <c r="G280">
+        <v>0.404166666666667</v>
+      </c>
+      <c r="H280">
+        <v>16.3154</v>
+      </c>
+      <c r="I280">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D281" t="s">
+        <v>23</v>
+      </c>
+      <c r="E281">
+        <v>456</v>
+      </c>
+      <c r="F281">
+        <v>28</v>
+      </c>
+      <c r="G281">
+        <v>0.0614035087719298</v>
+      </c>
+      <c r="H281">
+        <v>10.4776</v>
+      </c>
+      <c r="I281">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D282" t="s">
+        <v>24</v>
+      </c>
+      <c r="E282">
+        <v>15</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D283" t="s">
+        <v>25</v>
+      </c>
+      <c r="E283">
+        <v>540</v>
+      </c>
+      <c r="F283">
+        <v>73</v>
+      </c>
+      <c r="G283">
+        <v>0.135185185185185</v>
+      </c>
+      <c r="H283">
+        <v>6.1393</v>
+      </c>
+      <c r="I283">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D284" t="s">
+        <v>23</v>
+      </c>
+      <c r="E284">
+        <v>594</v>
+      </c>
+      <c r="F284">
+        <v>29</v>
+      </c>
+      <c r="G284">
+        <v>0.0488215488215488</v>
+      </c>
+      <c r="H284">
+        <v>10.8518</v>
+      </c>
+      <c r="I284">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" t="s">
+        <v>22</v>
+      </c>
+      <c r="C285" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D285" t="s">
+        <v>24</v>
+      </c>
+      <c r="E285">
+        <v>18</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" t="s">
+        <v>22</v>
+      </c>
+      <c r="C286" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D286" t="s">
+        <v>25</v>
+      </c>
+      <c r="E286">
+        <v>600</v>
+      </c>
+      <c r="F286">
+        <v>73</v>
+      </c>
+      <c r="G286">
+        <v>0.121666666666667</v>
+      </c>
+      <c r="H286">
+        <v>6.1393</v>
+      </c>
+      <c r="I286">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" t="s">
+        <v>22</v>
+      </c>
+      <c r="C287" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D287" t="s">
+        <v>23</v>
+      </c>
+      <c r="E287">
+        <v>570</v>
+      </c>
+      <c r="F287">
+        <v>112</v>
+      </c>
+      <c r="G287">
+        <v>0.196491228070175</v>
+      </c>
+      <c r="H287">
+        <v>41.6321</v>
+      </c>
+      <c r="I287">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" t="s">
+        <v>22</v>
+      </c>
+      <c r="C288" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D288" t="s">
+        <v>24</v>
+      </c>
+      <c r="E288">
+        <v>18</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="H288">
+        <v>0.99</v>
+      </c>
+      <c r="I288">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" t="s">
+        <v>22</v>
+      </c>
+      <c r="C289" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D289" t="s">
+        <v>25</v>
+      </c>
+      <c r="E289">
+        <v>480</v>
+      </c>
+      <c r="F289">
+        <v>123</v>
+      </c>
+      <c r="G289">
+        <v>0.25625</v>
+      </c>
+      <c r="H289">
+        <v>10.3443</v>
+      </c>
+      <c r="I289">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" t="s">
+        <v>22</v>
+      </c>
+      <c r="C290" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D290" t="s">
+        <v>23</v>
+      </c>
+      <c r="E290">
+        <v>582</v>
+      </c>
+      <c r="F290">
+        <v>25</v>
+      </c>
+      <c r="G290">
+        <v>0.0429553264604811</v>
+      </c>
+      <c r="H290">
+        <v>9.325699999999999</v>
+      </c>
+      <c r="I290">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>22</v>
+      </c>
+      <c r="C291" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D291" t="s">
+        <v>24</v>
+      </c>
+      <c r="E291">
+        <v>18</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" t="s">
+        <v>22</v>
+      </c>
+      <c r="C292" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D292" t="s">
+        <v>25</v>
+      </c>
+      <c r="E292">
+        <v>600</v>
+      </c>
+      <c r="F292">
+        <v>220</v>
+      </c>
+      <c r="G292">
+        <v>0.366666666666667</v>
+      </c>
+      <c r="H292">
+        <v>18.502</v>
+      </c>
+      <c r="I292">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" t="s">
+        <v>22</v>
+      </c>
+      <c r="C293" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D293" t="s">
+        <v>23</v>
+      </c>
+      <c r="E293">
+        <v>726</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" t="s">
+        <v>15</v>
+      </c>
+      <c r="B294" t="s">
+        <v>22</v>
+      </c>
+      <c r="C294" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D294" t="s">
+        <v>24</v>
+      </c>
+      <c r="E294">
+        <v>18</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" t="s">
+        <v>22</v>
+      </c>
+      <c r="C295" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D295" t="s">
+        <v>25</v>
+      </c>
+      <c r="E295">
+        <v>600</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
